--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Weapon Stats - Sleepy's Weapons</t>
   </si>
@@ -84,23 +84,110 @@
     <t>MP5A3</t>
   </si>
   <si>
-    <t>MP5SD</t>
-  </si>
-  <si>
     <t>Avg Accuracy doesn’t factor range</t>
   </si>
   <si>
     <t>Charge Rifle (Stock)</t>
   </si>
   <si>
-    <t>Higher is better</t>
+    <t>MP5SD*</t>
+  </si>
+  <si>
+    <t>* Cant be made</t>
+  </si>
+  <si>
+    <t>MP5A3 Auscam*</t>
+  </si>
+  <si>
+    <t>MP5A3 Tiger Red*</t>
+  </si>
+  <si>
+    <t>All stats based off normal quality</t>
+  </si>
+  <si>
+    <t>Higher is overall better</t>
+  </si>
+  <si>
+    <t>MP5K</t>
+  </si>
+  <si>
+    <t>MP5K STK*</t>
+  </si>
+  <si>
+    <t>Glock 17 Crimson*</t>
+  </si>
+  <si>
+    <t>Glock 17 Ocean*</t>
+  </si>
+  <si>
+    <t>Glock 17 Daylight*</t>
+  </si>
+  <si>
+    <t>Glock 17 Liquid*</t>
+  </si>
+  <si>
+    <t>Glock 17 (Tan &amp; Grey)</t>
+  </si>
+  <si>
+    <t>M249</t>
+  </si>
+  <si>
+    <t>HK416 M</t>
+  </si>
+  <si>
+    <t>Sniper Rifle (Stock)</t>
+  </si>
+  <si>
+    <t>Bolt Action Rifle (Stock)</t>
+  </si>
+  <si>
+    <t>LMG (Stock)</t>
+  </si>
+  <si>
+    <t>Machine Pistol (Stock)</t>
+  </si>
+  <si>
+    <t>Auto Pistol (Stock)</t>
+  </si>
+  <si>
+    <t>Revolver (Stock)</t>
+  </si>
+  <si>
+    <t>HK416 M ACOG*</t>
+  </si>
+  <si>
+    <t>HK416 S*</t>
+  </si>
+  <si>
+    <t>HK416 L*</t>
+  </si>
+  <si>
+    <t>HK416 L ACOG*</t>
+  </si>
+  <si>
+    <t>HK416 DMR</t>
+  </si>
+  <si>
+    <t>0.4 Lowest</t>
+  </si>
+  <si>
+    <t>HK416 DMR ACOG*</t>
+  </si>
+  <si>
+    <t>HK416 DMR SCOPE*</t>
+  </si>
+  <si>
+    <t>0.98 Highest</t>
+  </si>
+  <si>
+    <t>Aim for:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +205,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,26 +244,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -174,14 +273,20 @@
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:R24" totalsRowShown="0">
-  <autoFilter ref="A3:R24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:R43" totalsRowShown="0">
+  <autoFilter ref="A3:R43">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -193,16 +298,16 @@
   <tableColumns count="18">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="22" name="Balance" dataDxfId="0">
-      <calculatedColumnFormula>SUM(((Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Range]])+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="1">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="4">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="2">
+    <tableColumn id="15" name="DPS" dataDxfId="3">
       <calculatedColumnFormula>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="4">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="2">
       <calculatedColumnFormula>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -212,7 +317,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="3">
+    <tableColumn id="7" name="Burst Time" dataDxfId="1">
       <calculatedColumnFormula>60/M4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -509,16 +614,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
@@ -540,13 +645,28 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -606,11 +726,11 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f>SUM(((Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Range]])+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>2.5935401400781637</v>
       </c>
       <c r="C4" s="2">
@@ -650,7 +770,7 @@
         <v>327.27</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" ref="N4:N24" si="0">60/M4</f>
+        <f t="shared" ref="N4:N30" si="0">60/M4</f>
         <v>0.1833348611238427</v>
       </c>
       <c r="O4">
@@ -667,11 +787,11 @@
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="4">
-        <f>SUM(((Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Range]])+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>3.1957417582417578</v>
       </c>
       <c r="C5" s="4">
@@ -728,11 +848,11 @@
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>24</v>
+      <c r="A6" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B6" s="4">
-        <f>SUM(((Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Range]])+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>4.4202573529411771</v>
       </c>
       <c r="C6" s="4">
@@ -789,497 +909,1843 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="4">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>2.6295258620689657</v>
+      </c>
+      <c r="C7" s="4">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>3.1681034482758621</v>
+      </c>
+      <c r="D7" s="3">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>4.3103448275862073</v>
+      </c>
+      <c r="E7">
+        <v>45</v>
+      </c>
+      <c r="F7" s="3">
+        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>1.5</v>
+      </c>
+      <c r="I7">
+        <v>38</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L7">
+        <v>3.5</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O7">
+        <v>0.5</v>
+      </c>
+      <c r="P7">
+        <v>0.7</v>
+      </c>
+      <c r="Q7">
+        <v>0.86</v>
+      </c>
+      <c r="R7">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>2.8350000000000004</v>
+      </c>
+      <c r="C8" s="4">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>4.4296875000000009</v>
+      </c>
+      <c r="D8" s="3">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>5.625</v>
+      </c>
+      <c r="E8">
+        <v>37</v>
+      </c>
+      <c r="F8" s="3">
+        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.78750000000000009</v>
+      </c>
+      <c r="G8">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>1.5</v>
+      </c>
+      <c r="I8">
+        <v>27</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1.5</v>
+      </c>
+      <c r="L8">
+        <v>1.7</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O8">
+        <v>0.65</v>
+      </c>
+      <c r="P8">
+        <v>0.8</v>
+      </c>
+      <c r="Q8">
+        <v>0.9</v>
+      </c>
+      <c r="R8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>2.4682976889010355</v>
+      </c>
+      <c r="C9" s="4">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>5.8768992592881801</v>
+      </c>
+      <c r="D9" s="3">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>15.776910763189745</v>
+      </c>
+      <c r="E9">
+        <v>26</v>
+      </c>
+      <c r="F9" s="3">
+        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.3725</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>16</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>1.8</v>
+      </c>
+      <c r="L9">
+        <v>1.8</v>
+      </c>
+      <c r="M9">
+        <v>514.29</v>
+      </c>
+      <c r="N9" s="3">
+        <f>60/M9</f>
+        <v>0.11666569445254624</v>
+      </c>
+      <c r="O9">
+        <v>0.4</v>
+      </c>
+      <c r="P9">
+        <v>0.48</v>
+      </c>
+      <c r="Q9">
+        <v>0.35</v>
+      </c>
+      <c r="R9">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="4">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>1.637910113142049</v>
+      </c>
+      <c r="C10" s="4">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>5.6479659073863759</v>
+      </c>
+      <c r="D10" s="3">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>11.020421282705124</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3">
+        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>0.5</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>0.9</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>514.29</v>
+      </c>
+      <c r="N10" s="3">
+        <f>60/M10</f>
+        <v>0.11666569445254624</v>
+      </c>
+      <c r="O10">
+        <v>0.9</v>
+      </c>
+      <c r="P10">
+        <v>0.65</v>
+      </c>
+      <c r="Q10">
+        <v>0.35</v>
+      </c>
+      <c r="R10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="4">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>1.7346153846153842</v>
+      </c>
+      <c r="C11" s="4">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>4.2307692307692299</v>
+      </c>
+      <c r="D11" s="3">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>7.6923076923076916</v>
+      </c>
+      <c r="E11">
+        <v>26</v>
+      </c>
+      <c r="F11" s="3">
+        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>0.5</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0.8</v>
+      </c>
+      <c r="P11">
+        <v>0.7</v>
+      </c>
+      <c r="Q11">
+        <v>0.4</v>
+      </c>
+      <c r="R11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="4">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>1.6326315789473682</v>
+      </c>
+      <c r="C12" s="4">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>3.7105263157894735</v>
+      </c>
+      <c r="D12" s="3">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>6.3157894736842097</v>
+      </c>
+      <c r="E12">
+        <v>26</v>
+      </c>
+      <c r="F12" s="3">
+        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>18</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1.6</v>
+      </c>
+      <c r="L12">
+        <v>0.3</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="O12">
+        <v>0.8</v>
+      </c>
+      <c r="P12">
+        <v>0.75</v>
+      </c>
+      <c r="Q12">
+        <v>0.45</v>
+      </c>
+      <c r="R12">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3">
-        <f>SUM(((Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Range]])+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+      <c r="B13" s="3">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>2.5018993421052631</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C13" s="4">
         <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
         <v>6.9690789473684207</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D13" s="3">
         <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
         <v>13.026315789473683</v>
       </c>
-      <c r="E7">
+      <c r="E13">
         <v>20.9</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F13" s="3">
         <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0.53500000000000003</v>
       </c>
-      <c r="G7">
+      <c r="G13">
         <v>11</v>
       </c>
-      <c r="H7">
+      <c r="H13">
         <v>0.5</v>
       </c>
-      <c r="I7">
+      <c r="I13">
         <v>15</v>
       </c>
-      <c r="J7">
+      <c r="J13">
         <v>3</v>
       </c>
-      <c r="K7">
+      <c r="K13">
         <v>1.5</v>
       </c>
-      <c r="L7">
+      <c r="L13">
         <v>0.7</v>
       </c>
-      <c r="M7">
+      <c r="M13">
         <v>360</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N13" s="3">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="O7">
+      <c r="O13">
         <v>0.9</v>
       </c>
-      <c r="P7">
+      <c r="P13">
         <v>0.72</v>
       </c>
-      <c r="Q7">
+      <c r="Q13">
         <v>0.34</v>
       </c>
-      <c r="R7">
+      <c r="R13">
         <v>0.18</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3">
-        <f>SUM(((Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Range]])+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>2.1878881578947369</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C14" s="4">
         <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
         <v>6.4539473684210522</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D14" s="3">
         <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
         <v>11.842105263157894</v>
       </c>
-      <c r="E8">
+      <c r="E14">
         <v>20.9</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F14" s="3">
         <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0.54500000000000004</v>
       </c>
-      <c r="G8">
+      <c r="G14">
         <v>10</v>
       </c>
-      <c r="H8">
+      <c r="H14">
         <v>0.5</v>
       </c>
-      <c r="I8">
+      <c r="I14">
         <v>13</v>
       </c>
-      <c r="J8">
+      <c r="J14">
         <v>3</v>
       </c>
-      <c r="K8">
+      <c r="K14">
         <v>1.5</v>
       </c>
-      <c r="L8">
+      <c r="L14">
         <v>0.7</v>
       </c>
-      <c r="M8">
+      <c r="M14">
         <v>360</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N14" s="3">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="O8">
+      <c r="O14">
         <v>0.95</v>
       </c>
-      <c r="P8">
+      <c r="P14">
         <v>0.74</v>
       </c>
-      <c r="Q8">
+      <c r="Q14">
         <v>0.33</v>
       </c>
-      <c r="R8">
+      <c r="R14">
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="B9" s="3" t="e">
-        <f>SUM(((Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Range]])+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="3" t="e">
-        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="3">
-        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>2.5018993421052631</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>6.9690789473684207</v>
+      </c>
+      <c r="D15" s="3">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>13.026315789473683</v>
+      </c>
+      <c r="E15">
+        <v>20.9</v>
+      </c>
+      <c r="F15" s="3">
+        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <v>0.5</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>1.5</v>
+      </c>
+      <c r="L15">
+        <v>0.7</v>
+      </c>
+      <c r="M15">
+        <v>360</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" ref="N15:N16" si="1">60/M15</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O15">
+        <v>0.9</v>
+      </c>
+      <c r="P15">
+        <v>0.72</v>
+      </c>
+      <c r="Q15">
+        <v>0.34</v>
+      </c>
+      <c r="R15">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>2.5018993421052631</v>
+      </c>
+      <c r="C16" s="4">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>6.9690789473684207</v>
+      </c>
+      <c r="D16" s="3">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>13.026315789473683</v>
+      </c>
+      <c r="E16">
+        <v>20.9</v>
+      </c>
+      <c r="F16" s="3">
+        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>0.5</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>1.5</v>
+      </c>
+      <c r="L16">
+        <v>0.7</v>
+      </c>
+      <c r="M16">
+        <v>360</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O16">
+        <v>0.9</v>
+      </c>
+      <c r="P16">
+        <v>0.72</v>
+      </c>
+      <c r="Q16">
+        <v>0.34</v>
+      </c>
+      <c r="R16">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>1.7577</v>
+      </c>
+      <c r="C17" s="4">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="D17" s="3">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>12.600000000000001</v>
+      </c>
+      <c r="E17">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F17" s="3">
+        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>0.5</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>0.9</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>450</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="O17">
+        <v>0.93</v>
+      </c>
+      <c r="P17">
+        <v>0.67</v>
+      </c>
+      <c r="Q17">
+        <v>0.3</v>
+      </c>
+      <c r="R17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="5" customFormat="1">
+      <c r="A18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>1.7627605566218807</v>
+      </c>
+      <c r="C18" s="2">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>6.318138195777351</v>
+      </c>
+      <c r="D18" s="2">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>12.092130518234166</v>
+      </c>
+      <c r="E18" s="5">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F18" s="2">
+        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.52249999999999996</v>
+      </c>
+      <c r="G18" s="5">
+        <v>7</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="5">
+        <v>9</v>
+      </c>
+      <c r="J18" s="5">
+        <v>3</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M18" s="5">
+        <v>450</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" ref="N18" si="2">60/M18</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>1.5420681818181818</v>
+      </c>
+      <c r="C19" s="4">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>4.2954545454545459</v>
+      </c>
+      <c r="D19" s="3">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>8.1818181818181817</v>
+      </c>
+      <c r="E19">
+        <v>25.9</v>
+      </c>
+      <c r="F19" s="3">
+        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <v>0.5</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0.8</v>
+      </c>
+      <c r="L19">
+        <v>0.3</v>
+      </c>
+      <c r="M19">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="e">
+      <c r="N19" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="O19">
+        <v>0.85</v>
+      </c>
+      <c r="P19">
+        <v>0.75</v>
+      </c>
+      <c r="Q19">
+        <v>0.3</v>
+      </c>
+      <c r="R19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="3">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>1.5420681818181818</v>
+      </c>
+      <c r="C20" s="4">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>4.2954545454545459</v>
+      </c>
+      <c r="D20" s="3">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>8.1818181818181817</v>
+      </c>
+      <c r="E20">
+        <v>25.9</v>
+      </c>
+      <c r="F20" s="3">
+        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G20">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>0.5</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0.8</v>
+      </c>
+      <c r="L20">
+        <v>0.3</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="O20">
+        <v>0.85</v>
+      </c>
+      <c r="P20">
+        <v>0.75</v>
+      </c>
+      <c r="Q20">
+        <v>0.3</v>
+      </c>
+      <c r="R20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="3">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>1.5420681818181818</v>
+      </c>
+      <c r="C21" s="4">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>4.2954545454545459</v>
+      </c>
+      <c r="D21" s="3">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>8.1818181818181817</v>
+      </c>
+      <c r="E21">
+        <v>25.9</v>
+      </c>
+      <c r="F21" s="3">
+        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <v>0.5</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0.8</v>
+      </c>
+      <c r="L21">
+        <v>0.3</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="O21">
+        <v>0.85</v>
+      </c>
+      <c r="P21">
+        <v>0.75</v>
+      </c>
+      <c r="Q21">
+        <v>0.3</v>
+      </c>
+      <c r="R21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>1.5420681818181818</v>
+      </c>
+      <c r="C22" s="4">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>4.2954545454545459</v>
+      </c>
+      <c r="D22" s="3">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>8.1818181818181817</v>
+      </c>
+      <c r="E22">
+        <v>25.9</v>
+      </c>
+      <c r="F22" s="3">
+        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G22">
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <v>0.5</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0.8</v>
+      </c>
+      <c r="L22">
+        <v>0.3</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="O22">
+        <v>0.85</v>
+      </c>
+      <c r="P22">
+        <v>0.75</v>
+      </c>
+      <c r="Q22">
+        <v>0.3</v>
+      </c>
+      <c r="R22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>1.5420681818181818</v>
+      </c>
+      <c r="C23" s="4">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>4.2954545454545459</v>
+      </c>
+      <c r="D23" s="3">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>8.1818181818181817</v>
+      </c>
+      <c r="E23">
+        <v>25.9</v>
+      </c>
+      <c r="F23" s="3">
+        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>0.5</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0.8</v>
+      </c>
+      <c r="L23">
+        <v>0.3</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="O23">
+        <v>0.85</v>
+      </c>
+      <c r="P23">
+        <v>0.75</v>
+      </c>
+      <c r="Q23">
+        <v>0.3</v>
+      </c>
+      <c r="R23">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="3">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>1.9387651567944248</v>
+      </c>
+      <c r="C24" s="4">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>4.9839721254355398</v>
+      </c>
+      <c r="D24" s="3">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>13.379790940766551</v>
+      </c>
+      <c r="E24">
+        <v>25.9</v>
+      </c>
+      <c r="F24" s="3">
+        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.3725</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>13</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M24">
+        <v>720</v>
+      </c>
+      <c r="N24" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="B10" s="3" t="e">
-        <f>SUM(((Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Range]])+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C10" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="3" t="e">
-        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O24">
+        <v>0.4</v>
+      </c>
+      <c r="P24">
+        <v>0.48</v>
+      </c>
+      <c r="Q24">
+        <v>0.35</v>
+      </c>
+      <c r="R24">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="3">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>3.0607688571428571</v>
+      </c>
+      <c r="C25" s="4">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>6.8168571428571427</v>
+      </c>
+      <c r="D25" s="3">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>11.314285714285715</v>
+      </c>
+      <c r="E25">
+        <v>30.9</v>
+      </c>
+      <c r="F25" s="3">
+        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.60249999999999992</v>
+      </c>
+      <c r="G25">
+        <v>11</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+      <c r="I25">
+        <v>14</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>1.65</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>450</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="O25">
+        <v>0.6</v>
+      </c>
+      <c r="P25">
+        <v>0.7</v>
+      </c>
+      <c r="Q25">
+        <v>0.61</v>
+      </c>
+      <c r="R25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="3">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>3.3286879049676021</v>
+      </c>
+      <c r="C26" s="4">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>6.9492440604751602</v>
+      </c>
+      <c r="D26" s="3">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>10.691144708423325</v>
+      </c>
+      <c r="E26">
+        <v>33.9</v>
+      </c>
+      <c r="F26" s="3">
+        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="G26">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>0.5</v>
+      </c>
+      <c r="I26">
+        <v>14</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>1.72</v>
+      </c>
+      <c r="L26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M26">
+        <v>450</v>
+      </c>
+      <c r="N26" s="3">
+        <f t="shared" ref="N26:N28" si="3">60/M26</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="O26">
+        <v>0.6</v>
+      </c>
+      <c r="P26">
+        <v>0.75</v>
+      </c>
+      <c r="Q26">
+        <v>0.7</v>
+      </c>
+      <c r="R26">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="3">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>2.937166103518777</v>
+      </c>
+      <c r="C27" s="4">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>7.0099429678252436</v>
+      </c>
+      <c r="D27" s="3">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>12.298145557588148</v>
+      </c>
+      <c r="E27">
+        <v>27.9</v>
+      </c>
+      <c r="F27" s="3">
+        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>0.5</v>
+      </c>
+      <c r="I27">
+        <v>14</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>1.55</v>
+      </c>
+      <c r="L27">
+        <v>0.9</v>
+      </c>
+      <c r="M27">
+        <v>514.29</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="3"/>
+        <v>0.11666569445254624</v>
+      </c>
+      <c r="O27">
+        <v>0.8</v>
+      </c>
+      <c r="P27">
+        <v>0.78</v>
+      </c>
+      <c r="Q27">
+        <v>0.4</v>
+      </c>
+      <c r="R27">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="3">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>3.0167445812807876</v>
+      </c>
+      <c r="C28" s="4">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>6.169211822660098</v>
+      </c>
+      <c r="D28" s="3">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>9.7536945812807883</v>
+      </c>
+      <c r="E28">
+        <v>34.9</v>
+      </c>
+      <c r="F28" s="3">
+        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.63249999999999995</v>
+      </c>
+      <c r="G28">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>0.5</v>
+      </c>
+      <c r="I28">
+        <v>14</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>1.85</v>
+      </c>
+      <c r="L28">
+        <v>1.2</v>
+      </c>
+      <c r="M28">
+        <v>360</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O28">
+        <v>0.4</v>
+      </c>
+      <c r="P28">
+        <v>0.75</v>
+      </c>
+      <c r="Q28">
+        <v>0.8</v>
+      </c>
+      <c r="R28">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="3">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>3.3016871482176362</v>
+      </c>
+      <c r="C29" s="4">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>6.3616322701688564</v>
+      </c>
+      <c r="D29" s="3">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>9.2870544090056288</v>
+      </c>
+      <c r="E29">
+        <v>37.9</v>
+      </c>
+      <c r="F29" s="3">
+        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="G29">
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <v>0.5</v>
+      </c>
+      <c r="I29">
+        <v>14</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>1.92</v>
+      </c>
+      <c r="L29">
+        <v>1.3</v>
+      </c>
+      <c r="M29">
+        <v>360</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" ref="N29:N30" si="4">60/M29</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O29">
+        <v>0.4</v>
+      </c>
+      <c r="P29">
+        <v>0.8</v>
+      </c>
+      <c r="Q29">
+        <v>0.89</v>
+      </c>
+      <c r="R29">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="3">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>3.0814271428571431</v>
+      </c>
+      <c r="C30" s="4">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>5.1442857142857141</v>
+      </c>
+      <c r="D30" s="3">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>7.4285714285714288</v>
+      </c>
+      <c r="E30">
+        <v>40.9</v>
+      </c>
+      <c r="F30" s="3">
+        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.6925</v>
+      </c>
+      <c r="G30">
+        <v>13</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>19</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>1.9</v>
+      </c>
+      <c r="L30">
+        <v>1.4</v>
+      </c>
+      <c r="M30">
+        <v>300</v>
+      </c>
+      <c r="N30" s="3">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="O30">
+        <v>0.4</v>
+      </c>
+      <c r="P30">
+        <v>0.7</v>
+      </c>
+      <c r="Q30">
+        <v>0.92</v>
+      </c>
+      <c r="R30">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="3">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>3.1306136986301367</v>
+      </c>
+      <c r="C31" s="4">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>5.0575342465753419</v>
+      </c>
+      <c r="D31" s="3">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>7.1232876712328759</v>
+      </c>
+      <c r="E31">
+        <v>42.9</v>
+      </c>
+      <c r="F31" s="3">
+        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.71</v>
+      </c>
+      <c r="G31">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>19</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>1.95</v>
+      </c>
+      <c r="L31">
+        <v>1.5</v>
+      </c>
+      <c r="M31">
+        <v>300</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" ref="N31:N32" si="5">60/M31</f>
+        <v>0.2</v>
+      </c>
+      <c r="O31">
+        <v>0.4</v>
+      </c>
+      <c r="P31">
+        <v>0.73</v>
+      </c>
+      <c r="Q31">
+        <v>0.93</v>
+      </c>
+      <c r="R31">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="3">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>3.2195119047619043</v>
+      </c>
+      <c r="C32" s="4">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>5.0383597883597879</v>
+      </c>
+      <c r="D32" s="3">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>6.8783068783068781</v>
+      </c>
+      <c r="E32">
+        <v>44.9</v>
+      </c>
+      <c r="F32" s="3">
+        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.73249999999999993</v>
+      </c>
+      <c r="G32">
+        <v>13</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>19</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>1.98</v>
+      </c>
+      <c r="L32">
+        <v>1.6</v>
+      </c>
+      <c r="M32">
+        <v>300</v>
+      </c>
+      <c r="N32" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="O32">
+        <v>0.4</v>
+      </c>
+      <c r="P32">
+        <v>0.67</v>
+      </c>
+      <c r="Q32">
+        <v>0.98</v>
+      </c>
+      <c r="R32">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="B33" s="3" t="e">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C33" s="4" t="e">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" s="3" t="e">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F33" s="3">
         <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="B11" s="3" t="e">
-        <f>SUM(((Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Range]])+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C11" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="3" t="e">
-        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="N33" s="3" t="e">
+        <f>60/M33</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="B34" s="3" t="e">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C34" s="4" t="e">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D34" s="3" t="e">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F34" s="3">
         <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="B12" s="3" t="e">
-        <f>SUM(((Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Range]])+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C12" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="3" t="e">
-        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="N34" s="3" t="e">
+        <f>60/M34</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="B35" s="3" t="e">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C35" s="4" t="e">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D35" s="3" t="e">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F35" s="3">
         <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="B13" s="3" t="e">
-        <f>SUM(((Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Range]])+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C13" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="3" t="e">
-        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="N35" s="3" t="e">
+        <f>60/M35</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="B36" s="3" t="e">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C36" s="4" t="e">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D36" s="3" t="e">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F36" s="3">
         <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="B14" s="3" t="e">
-        <f>SUM(((Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Range]])+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C14" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D14" s="3" t="e">
-        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="N36" s="3" t="e">
+        <f>60/M36</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="B37" s="3" t="e">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C37" s="4" t="e">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D37" s="3" t="e">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="3">
         <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="B15" s="3" t="e">
-        <f>SUM(((Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Range]])+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C15" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="3" t="e">
-        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="N37" s="3" t="e">
+        <f>60/M37</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="B38" s="3" t="e">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C38" s="4" t="e">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="3" t="e">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="3">
         <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="B16" s="3" t="e">
-        <f>SUM(((Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Range]])+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C16" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="3" t="e">
-        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="N38" s="3" t="e">
+        <f>60/M38</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="B39" s="3" t="e">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C39" s="4" t="e">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D39" s="3" t="e">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F39" s="3">
         <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="3" t="e">
-        <f>SUM(((Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Range]])+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C17" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="3" t="e">
-        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="N39" s="3" t="e">
+        <f>60/M39</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="B40" s="3" t="e">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C40" s="4" t="e">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D40" s="3" t="e">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F40" s="3">
         <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="3" t="e">
-        <f>SUM(((Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Range]])+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C18" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" s="3" t="e">
-        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="N40" s="3" t="e">
+        <f>60/M40</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="B41" s="3" t="e">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C41" s="4" t="e">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D41" s="3" t="e">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F41" s="3">
         <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
-      <c r="N18" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="3" t="e">
-        <f>SUM(((Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Range]])+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C19" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="3" t="e">
-        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="N41" s="3" t="e">
+        <f>60/M41</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="B42" s="3" t="e">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C42" s="4" t="e">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D42" s="3" t="e">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F42" s="3">
         <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
-      <c r="N19" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="3" t="e">
-        <f>SUM(((Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Range]])+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C20" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="3" t="e">
-        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="N42" s="3" t="e">
+        <f>60/M42</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9" t="e">
+        <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C43" s="10" t="e">
+        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D43" s="9" t="e">
+        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9">
         <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="3" t="e">
-        <f>SUM(((Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Range]])+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C21" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D21" s="3" t="e">
-        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="3">
-        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="3" t="e">
-        <f>SUM(((Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Range]])+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C22" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="3" t="e">
-        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="3">
-        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="3" t="e">
-        <f>SUM(((Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Range]])+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C23" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D23" s="3" t="e">
-        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="3">
-        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14">
-      <c r="B24" s="3" t="e">
-        <f>SUM(((Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Range]])+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C24" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D24" s="3" t="e">
-        <f>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="3">
-        <f>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14">
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="2:14">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="2:14">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="2:14">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="2:14">
-      <c r="B30" s="3"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="9" t="e">
+        <f>60/M43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="N7:N8" calculatedColumn="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -132,9 +132,6 @@
     <t>M249</t>
   </si>
   <si>
-    <t>HK416 M</t>
-  </si>
-  <si>
     <t>Sniper Rifle (Stock)</t>
   </si>
   <si>
@@ -153,12 +150,6 @@
     <t>Revolver (Stock)</t>
   </si>
   <si>
-    <t>HK416 M ACOG*</t>
-  </si>
-  <si>
-    <t>HK416 S*</t>
-  </si>
-  <si>
     <t>HK416 L*</t>
   </si>
   <si>
@@ -181,6 +172,15 @@
   </si>
   <si>
     <t>Aim for:</t>
+  </si>
+  <si>
+    <t>HK416 CQB*</t>
+  </si>
+  <si>
+    <t>HK416</t>
+  </si>
+  <si>
+    <t>HK416 ACOG*</t>
   </si>
 </sst>
 </file>
@@ -271,12 +271,12 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
   </dxfs>
@@ -297,17 +297,17 @@
   </autoFilter>
   <tableColumns count="18">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="22" name="Balance" dataDxfId="0">
+    <tableColumn id="22" name="Balance" dataDxfId="4">
       <calculatedColumnFormula>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="4">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="3">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[DPS]]*Table1[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="3">
+    <tableColumn id="15" name="DPS" dataDxfId="2">
       <calculatedColumnFormula>SUM((Table1[[#This Row],[Damage]]*Table1[[#This Row],[Burst]])/(Table1[[#This Row],[Ranged Cooldown]]+Table1[[#This Row],[Warm-up]]+(Table1[[#This Row],[Burst Time]]*(Table1[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="2">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="1">
       <calculatedColumnFormula>SUM((Table1[[#This Row],[Accuracy (Close)]]+Table1[[#This Row],[Accuracy (Short)]]+Table1[[#This Row],[Accuracy (Medium)]]+Table1[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -317,7 +317,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="1">
+    <tableColumn id="7" name="Burst Time" dataDxfId="0">
       <calculatedColumnFormula>60/M4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -660,13 +660,13 @@
         <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
         <v>50</v>
-      </c>
-      <c r="P2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -770,7 +770,7 @@
         <v>327.27</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" ref="N4:N30" si="0">60/M4</f>
+        <f t="shared" ref="N4:N25" si="0">60/M4</f>
         <v>0.1833348611238427</v>
       </c>
       <c r="O4">
@@ -910,7 +910,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4">
         <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -970,7 +970,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4">
         <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="4">
         <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="4">
         <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4">
         <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="6" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B25" s="3">
         <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B26" s="3">
         <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B27" s="3">
         <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B28" s="3">
         <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B29" s="3">
         <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B30" s="3">
         <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B31" s="3">
         <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B32" s="3">
         <f>SUM(((Table1[[#This Row],[Avg DPS]]*(Table1[[#This Row],[Range]]))+(Table1[[#This Row],[Avg DPS]]*Table1[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="3" t="e">
-        <f>60/M33</f>
+        <f t="shared" ref="N33:N43" si="6">60/M33</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="3" t="e">
-        <f>60/M34</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="3" t="e">
-        <f>60/M35</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="3" t="e">
-        <f>60/M36</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="3" t="e">
-        <f>60/M37</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="3" t="e">
-        <f>60/M38</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="N39" s="3" t="e">
-        <f>60/M39</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="N40" s="3" t="e">
-        <f>60/M40</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="3" t="e">
-        <f>60/M41</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="3" t="e">
-        <f>60/M42</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2732,7 +2732,7 @@
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="9" t="e">
-        <f>60/M43</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O43" s="8"/>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -15,14 +15,15 @@
     <sheet name="Spacer Rifle" sheetId="14" r:id="rId6"/>
     <sheet name="LMG" sheetId="11" r:id="rId7"/>
     <sheet name="Shotgun" sheetId="12" r:id="rId8"/>
-    <sheet name="Volumes" sheetId="15" r:id="rId9"/>
+    <sheet name="Melee" sheetId="17" r:id="rId9"/>
+    <sheet name="Volumes" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="74">
   <si>
     <t>Weapon Stats - Sleepy's Weapons</t>
   </si>
@@ -238,13 +239,19 @@
   </si>
   <si>
     <t>Vol 10</t>
+  </si>
+  <si>
+    <t>MP7</t>
+  </si>
+  <si>
+    <t>Melee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +287,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -301,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -322,25 +336,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="50">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -491,6 +492,13 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -547,6 +555,13 @@
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -572,17 +587,17 @@
   <tableColumns count="19">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="49">
+    <tableColumn id="22" name="Balance" dataDxfId="48">
       <calculatedColumnFormula>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="48">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="47">
       <calculatedColumnFormula>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="47">
+    <tableColumn id="15" name="DPS" dataDxfId="46">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="46">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="45">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -592,7 +607,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="45">
+    <tableColumn id="7" name="Burst Time" dataDxfId="44">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -618,18 +633,18 @@
   </autoFilter>
   <tableColumns count="19">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="43"/>
-    <tableColumn id="22" name="Balance" dataDxfId="42">
+    <tableColumn id="12" name="Vol." dataDxfId="42"/>
+    <tableColumn id="22" name="Balance" dataDxfId="41">
       <calculatedColumnFormula>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="41">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="40">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="40">
+    <tableColumn id="15" name="DPS" dataDxfId="39">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="39">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="38">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -639,7 +654,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="38">
+    <tableColumn id="7" name="Burst Time" dataDxfId="37">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -665,18 +680,18 @@
   </autoFilter>
   <tableColumns count="19">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="37"/>
-    <tableColumn id="22" name="Balance" dataDxfId="36">
+    <tableColumn id="12" name="Vol." dataDxfId="35"/>
+    <tableColumn id="22" name="Balance" dataDxfId="34">
       <calculatedColumnFormula>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="35">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="33">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="34">
+    <tableColumn id="15" name="DPS" dataDxfId="32">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Damage]]*Table16[[#This Row],[Burst]])/(Table16[[#This Row],[Ranged Cooldown]]+Table16[[#This Row],[Warm-up]]+(Table16[[#This Row],[Burst Time]]*(Table16[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="33">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="31">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -686,7 +701,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="32">
+    <tableColumn id="7" name="Burst Time" dataDxfId="30">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -713,17 +728,17 @@
   <tableColumns count="19">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="30">
+    <tableColumn id="22" name="Balance" dataDxfId="28">
       <calculatedColumnFormula>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="29">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="27">
       <calculatedColumnFormula>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="28">
+    <tableColumn id="15" name="DPS" dataDxfId="26">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="27">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="25">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -733,7 +748,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="26">
+    <tableColumn id="7" name="Burst Time" dataDxfId="24">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -760,17 +775,17 @@
   <tableColumns count="19">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="24">
+    <tableColumn id="22" name="Balance" dataDxfId="22">
       <calculatedColumnFormula>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="23">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="22">
+    <tableColumn id="15" name="DPS" dataDxfId="20">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="21">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="19">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -780,7 +795,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="20">
+    <tableColumn id="7" name="Burst Time" dataDxfId="18">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -807,17 +822,17 @@
   <tableColumns count="19">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="18">
+    <tableColumn id="22" name="Balance" dataDxfId="16">
       <calculatedColumnFormula>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="17">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="15">
       <calculatedColumnFormula>SUM(Table1681015[[#This Row],[DPS]]*Table1681015[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="16">
+    <tableColumn id="15" name="DPS" dataDxfId="14">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Damage]]*Table1681015[[#This Row],[Burst]])/(Table1681015[[#This Row],[Ranged Cooldown]]+Table1681015[[#This Row],[Warm-up]]+(Table1681015[[#This Row],[Burst Time]]*(Table1681015[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="15">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="13">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Accuracy (Close)]]+Table1681015[[#This Row],[Accuracy (Short)]]+Table1681015[[#This Row],[Accuracy (Medium)]]+Table1681015[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -827,7 +842,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="14">
+    <tableColumn id="7" name="Burst Time" dataDxfId="12">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -854,17 +869,17 @@
   <tableColumns count="19">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="12">
+    <tableColumn id="22" name="Balance" dataDxfId="10">
       <calculatedColumnFormula>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="11">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="9">
       <calculatedColumnFormula>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="10">
+    <tableColumn id="15" name="DPS" dataDxfId="8">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="9">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="7">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -874,7 +889,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="8">
+    <tableColumn id="7" name="Burst Time" dataDxfId="6">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -901,17 +916,17 @@
   <tableColumns count="19">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="6">
+    <tableColumn id="22" name="Balance" dataDxfId="4">
       <calculatedColumnFormula>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="5">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="3">
       <calculatedColumnFormula>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="4">
+    <tableColumn id="15" name="DPS" dataDxfId="2">
       <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="3">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="1">
       <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -921,7 +936,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="2">
+    <tableColumn id="7" name="Burst Time" dataDxfId="0">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -1221,7 +1236,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1397,11 +1412,11 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -1763,7 +1778,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:C17">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="greaterThan">
       <formula>1.73</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1772,6 +1787,294 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <f>COUNTIF(Table1689[Vol.], 1)</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>COUNTIF(Table1689[Vol.], 2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(Table1689[Vol.], 3)</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(Table1689[Vol.], 4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIF(Table168[Vol.], 1)</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>COUNTIF(Table168[Vol.], 2)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>COUNTIF(Table168[Vol.], 3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>COUNTIF(Table168[Vol.], 4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIF(Table16[Vol.], 1)</f>
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIF(Table16[Vol.], 2)</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIF(Table16[Vol.], 3)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>COUNTIF(Table16[Vol.], 4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <f>COUNTIF(Table16810[Vol.], 1)</f>
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <f>COUNTIF(Table16810[Vol.], 2)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>COUNTIF(Table16810[Vol.], 3)</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>COUNTIF(Table16810[Vol.], 4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <f>COUNTIF(Table1681011[Vol.], 1)</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>COUNTIF(Table1681011[Vol.], 2)</f>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f>COUNTIF(Table1681011[Vol.], 3)</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>COUNTIF(Table1681011[Vol.], 4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <f>COUNTIF(Table1681015[Vol.], 1)</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>COUNTIF(Table1681015[Vol.], 2)</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>COUNTIF(Table1681015[Vol.], 3)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>COUNTIF(Table1681015[Vol.], 4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <f>COUNTIF(Table168101112[Vol.], 1)</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f>COUNTIF(Table168101112[Vol.], 2)</f>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f>COUNTIF(Table168101112[Vol.], 3)</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>COUNTIF(Table168101112[Vol.], 4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <f>COUNTIF(Table16810111213[Vol.], 1)</f>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f>COUNTIF(Table16810111213[Vol.], 2)</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>COUNTIF(Table16810111213[Vol.], 3)</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>COUNTIF(Table16810111213[Vol.], 4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B2:B11)</f>
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:K13" si="0">SUM(C2:C11)</f>
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2357,7 +2660,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
       <formula>1.63</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2374,7 +2677,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2615,7 +2918,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="12">
@@ -2743,7 +3046,7 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="12">
@@ -2871,40 +3174,68 @@
       </c>
     </row>
     <row r="10" spans="1:19" s="4" customFormat="1">
-      <c r="A10"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="2" t="e">
+      <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="3" t="e">
+        <v>1.8351737704918032</v>
+      </c>
+      <c r="D10" s="3">
         <f>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="2" t="e">
+        <v>6.1377049180327869</v>
+      </c>
+      <c r="E10" s="2">
         <f>SUM((Table16[[#This Row],[Damage]]*Table16[[#This Row],[Burst]])/(Table16[[#This Row],[Ranged Cooldown]]+Table16[[#This Row],[Warm-up]]+(Table16[[#This Row],[Burst Time]]*(Table16[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10"/>
+        <v>11.803278688524589</v>
+      </c>
+      <c r="F10">
+        <v>19.899999999999999</v>
+      </c>
       <c r="G10" s="2">
         <f>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10" s="2" t="e">
+        <v>0.52</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.6</v>
+      </c>
+      <c r="N10">
+        <v>360</v>
+      </c>
+      <c r="O10" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P10">
+        <v>0.94</v>
+      </c>
+      <c r="Q10">
+        <v>0.7</v>
+      </c>
+      <c r="R10">
+        <v>0.32</v>
+      </c>
+      <c r="S10">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="11" spans="1:19">
       <c r="B11" s="12"/>
@@ -3108,7 +3439,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="greaterThan">
       <formula>2.599</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3125,7 +3456,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3365,7 +3696,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="4">
@@ -3429,7 +3760,7 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="4">
@@ -4060,7 +4391,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6:C13">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
       <formula>3.2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4077,7 +4408,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4253,7 +4584,7 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="4">
@@ -4663,7 +4994,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
       <formula>2.639</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5516,7 +5847,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C32">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>4.429</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5533,7 +5864,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5710,7 +6041,7 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="4">
@@ -5718,15 +6049,15 @@
       </c>
       <c r="C5" s="2">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>1.9387651567944248</v>
+        <v>2.1437630136986296</v>
       </c>
       <c r="D5" s="3">
         <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>4.9839721254355398</v>
+        <v>5.5109589041095886</v>
       </c>
       <c r="E5" s="2">
         <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>13.379790940766551</v>
+        <v>14.794520547945204</v>
       </c>
       <c r="F5">
         <v>25.9</v>
@@ -5745,7 +6076,7 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L5">
         <v>2</v>
@@ -6121,7 +6452,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>2.479</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6724,7 +7055,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>2.789</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6738,220 +7069,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2">
-        <f>COUNTIF(Table1689[Vol.], 1)</f>
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f>COUNTIF(Table1689[Vol.], 2)</f>
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>COUNTIF(Table1689[Vol.], 3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3">
-        <f>COUNTIF(Table168[Vol.], 1)</f>
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f>COUNTIF(Table168[Vol.], 2)</f>
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <f>COUNTIF(Table168[Vol.], 3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4">
-        <f>COUNTIF(Table16[Vol.], 1)</f>
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <f>COUNTIF(Table16[Vol.], 2)</f>
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f>COUNTIF(Table16[Vol.], 3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5">
-        <f>COUNTIF(Table16810[Vol.], 1)</f>
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <f>COUNTIF(Table16810[Vol.], 2)</f>
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f>COUNTIF(Table16810[Vol.], 3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6">
-        <f>COUNTIF(Table1681011[Vol.], 1)</f>
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <f>COUNTIF(Table1681011[Vol.], 2)</f>
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <f>COUNTIF(Table1681011[Vol.], 3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7">
-        <f>COUNTIF(Table1681015[Vol.], 1)</f>
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <f>COUNTIF(Table1681015[Vol.], 2)</f>
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f>COUNTIF(Table1681015[Vol.], 3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <f>COUNTIF(Table168101112[Vol.], 1)</f>
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <f>COUNTIF(Table168101112[Vol.], 2)</f>
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <f>COUNTIF(Table168101112[Vol.], 3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9">
-        <f>COUNTIF(Table16810111213[Vol.], 1)</f>
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <f>COUNTIF(Table16810111213[Vol.], 2)</f>
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <f>COUNTIF(Table16810111213[Vol.], 3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13">
-        <f>SUM(B2:B11)</f>
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ref="C13:D13" si="0">SUM(C2:C11)</f>
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Handgun" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="79">
   <si>
     <t>Weapon Stats - Sleepy's Weapons</t>
   </si>
@@ -245,6 +245,21 @@
   </si>
   <si>
     <t>Melee</t>
+  </si>
+  <si>
+    <t>MP5A3 TAC</t>
+  </si>
+  <si>
+    <t>Minigun</t>
+  </si>
+  <si>
+    <t>MG3</t>
+  </si>
+  <si>
+    <t>WA2000</t>
+  </si>
+  <si>
+    <t>M400 Thread Predator*</t>
   </si>
 </sst>
 </file>
@@ -341,7 +356,41 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="53">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -384,13 +433,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -587,17 +629,17 @@
   <tableColumns count="19">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="48">
+    <tableColumn id="22" name="Balance" dataDxfId="51">
       <calculatedColumnFormula>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="47">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="50">
       <calculatedColumnFormula>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="46">
+    <tableColumn id="15" name="DPS" dataDxfId="49">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="45">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="48">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -607,7 +649,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="44">
+    <tableColumn id="7" name="Burst Time" dataDxfId="47">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -633,18 +675,18 @@
   </autoFilter>
   <tableColumns count="19">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="42"/>
-    <tableColumn id="22" name="Balance" dataDxfId="41">
+    <tableColumn id="12" name="Vol." dataDxfId="45"/>
+    <tableColumn id="22" name="Balance" dataDxfId="44">
       <calculatedColumnFormula>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="40">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="43">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="39">
+    <tableColumn id="15" name="DPS" dataDxfId="42">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="38">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="41">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -654,7 +696,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="37">
+    <tableColumn id="7" name="Burst Time" dataDxfId="40">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -680,18 +722,18 @@
   </autoFilter>
   <tableColumns count="19">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="35"/>
-    <tableColumn id="22" name="Balance" dataDxfId="34">
+    <tableColumn id="12" name="Vol." dataDxfId="38"/>
+    <tableColumn id="22" name="Balance" dataDxfId="37">
       <calculatedColumnFormula>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="33">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="36">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="32">
+    <tableColumn id="15" name="DPS" dataDxfId="35">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Damage]]*Table16[[#This Row],[Burst]])/(Table16[[#This Row],[Ranged Cooldown]]+Table16[[#This Row],[Warm-up]]+(Table16[[#This Row],[Burst Time]]*(Table16[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="31">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="34">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -701,7 +743,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="30">
+    <tableColumn id="7" name="Burst Time" dataDxfId="33">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -728,17 +770,17 @@
   <tableColumns count="19">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="28">
+    <tableColumn id="22" name="Balance" dataDxfId="31">
       <calculatedColumnFormula>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="27">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="30">
       <calculatedColumnFormula>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="26">
+    <tableColumn id="15" name="DPS" dataDxfId="29">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="25">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="28">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -748,7 +790,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="24">
+    <tableColumn id="7" name="Burst Time" dataDxfId="27">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -775,17 +817,17 @@
   <tableColumns count="19">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="22">
+    <tableColumn id="22" name="Balance" dataDxfId="25">
       <calculatedColumnFormula>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="21">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="24">
       <calculatedColumnFormula>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="20">
+    <tableColumn id="15" name="DPS" dataDxfId="23">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="19">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="22">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -795,7 +837,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="18">
+    <tableColumn id="7" name="Burst Time" dataDxfId="21">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -822,17 +864,17 @@
   <tableColumns count="19">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="16">
+    <tableColumn id="22" name="Balance" dataDxfId="19">
       <calculatedColumnFormula>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="15">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="18">
       <calculatedColumnFormula>SUM(Table1681015[[#This Row],[DPS]]*Table1681015[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="14">
+    <tableColumn id="15" name="DPS" dataDxfId="17">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Damage]]*Table1681015[[#This Row],[Burst]])/(Table1681015[[#This Row],[Ranged Cooldown]]+Table1681015[[#This Row],[Warm-up]]+(Table1681015[[#This Row],[Burst Time]]*(Table1681015[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="13">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="16">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Accuracy (Close)]]+Table1681015[[#This Row],[Accuracy (Short)]]+Table1681015[[#This Row],[Accuracy (Medium)]]+Table1681015[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -842,7 +884,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="12">
+    <tableColumn id="7" name="Burst Time" dataDxfId="15">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -855,8 +897,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table168101112" displayName="Table168101112" ref="A3:S19" totalsRowShown="0">
-  <autoFilter ref="A3:S19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table168101112" displayName="Table168101112" ref="A3:S20" totalsRowShown="0">
+  <autoFilter ref="A3:S20">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -869,17 +911,17 @@
   <tableColumns count="19">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="10">
+    <tableColumn id="22" name="Balance" dataDxfId="14">
       <calculatedColumnFormula>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="9">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="13">
       <calculatedColumnFormula>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="8">
+    <tableColumn id="15" name="DPS" dataDxfId="12">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="7">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="11">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -889,7 +931,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="6">
+    <tableColumn id="7" name="Burst Time" dataDxfId="10">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -916,17 +958,17 @@
   <tableColumns count="19">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="4">
+    <tableColumn id="22" name="Balance" dataDxfId="8">
       <calculatedColumnFormula>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="3">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="7">
       <calculatedColumnFormula>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="2">
+    <tableColumn id="15" name="DPS" dataDxfId="6">
       <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="1">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="5">
       <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -936,7 +978,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="0">
+    <tableColumn id="7" name="Burst Time" dataDxfId="4">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -1778,7 +1820,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:C17">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="greaterThan">
       <formula>1.73</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1886,7 +1928,7 @@
       </c>
       <c r="B4">
         <f>COUNTIF(Table16[Vol.], 1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <f>COUNTIF(Table16[Vol.], 2)</f>
@@ -1907,7 +1949,7 @@
       </c>
       <c r="B5">
         <f>COUNTIF(Table16810[Vol.], 1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <f>COUNTIF(Table16810[Vol.], 2)</f>
@@ -1928,7 +1970,7 @@
       </c>
       <c r="B6">
         <f>COUNTIF(Table1681011[Vol.], 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f>COUNTIF(Table1681011[Vol.], 2)</f>
@@ -1970,7 +2012,7 @@
       </c>
       <c r="B8">
         <f>COUNTIF(Table168101112[Vol.], 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <f>COUNTIF(Table168101112[Vol.], 2)</f>
@@ -2034,7 +2076,7 @@
       </c>
       <c r="B13">
         <f>SUM(B2:B11)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <f t="shared" ref="C13:K13" si="0">SUM(C2:C11)</f>
@@ -2660,7 +2702,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="greaterThan">
       <formula>1.63</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2677,7 +2719,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2926,11 +2968,11 @@
       </c>
       <c r="C6" s="2">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.1878881578947369</v>
+        <v>2.1377072368421057</v>
       </c>
       <c r="D6" s="3">
         <f>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</f>
-        <v>6.4539473684210522</v>
+        <v>6.3059210526315796</v>
       </c>
       <c r="E6" s="2">
         <f>SUM((Table16[[#This Row],[Damage]]*Table16[[#This Row],[Burst]])/(Table16[[#This Row],[Ranged Cooldown]]+Table16[[#This Row],[Warm-up]]+(Table16[[#This Row],[Burst Time]]*(Table16[[#This Row],[Burst]]-1))))</f>
@@ -2941,7 +2983,7 @@
       </c>
       <c r="G6" s="2">
         <f>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.54500000000000004</v>
+        <v>0.53250000000000008</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -2969,7 +3011,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="P6">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="Q6">
         <v>0.74</v>
@@ -2990,31 +3032,31 @@
       </c>
       <c r="C7" s="2">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.5018993421052631</v>
+        <v>2.1038684210526313</v>
       </c>
       <c r="D7" s="3">
         <f>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</f>
-        <v>6.9690789473684207</v>
+        <v>6.3947368421052628</v>
       </c>
       <c r="E7" s="2">
         <f>SUM((Table16[[#This Row],[Damage]]*Table16[[#This Row],[Burst]])/(Table16[[#This Row],[Ranged Cooldown]]+Table16[[#This Row],[Warm-up]]+(Table16[[#This Row],[Burst Time]]*(Table16[[#This Row],[Burst]]-1))))</f>
-        <v>13.026315789473683</v>
+        <v>11.842105263157894</v>
       </c>
       <c r="F7">
         <v>20.9</v>
       </c>
       <c r="G7" s="2">
         <f>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.53500000000000003</v>
+        <v>0.54</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <v>0.5</v>
       </c>
       <c r="J7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -3036,10 +3078,10 @@
         <v>0.9</v>
       </c>
       <c r="Q7">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="R7">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="S7">
         <v>0.18</v>
@@ -3182,11 +3224,11 @@
       </c>
       <c r="C10" s="2">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>1.8351737704918032</v>
+        <v>1.8087049180327863</v>
       </c>
       <c r="D10" s="3">
         <f>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</f>
-        <v>6.1377049180327869</v>
+        <v>6.049180327868851</v>
       </c>
       <c r="E10" s="2">
         <f>SUM((Table16[[#This Row],[Damage]]*Table16[[#This Row],[Burst]])/(Table16[[#This Row],[Ranged Cooldown]]+Table16[[#This Row],[Warm-up]]+(Table16[[#This Row],[Burst Time]]*(Table16[[#This Row],[Burst]]-1))))</f>
@@ -3197,7 +3239,7 @@
       </c>
       <c r="G10" s="2">
         <f>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.52</v>
+        <v>0.51249999999999996</v>
       </c>
       <c r="H10">
         <v>8</v>
@@ -3225,7 +3267,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="P10">
-        <v>0.94</v>
+        <v>0.91</v>
       </c>
       <c r="Q10">
         <v>0.7</v>
@@ -3238,26 +3280,67 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="B11" s="12"/>
-      <c r="C11" s="2" t="e">
+      <c r="A11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="3" t="e">
+        <v>2.3144210526315789</v>
+      </c>
+      <c r="D11" s="3">
         <f>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="2" t="e">
+        <v>6.6315789473684212</v>
+      </c>
+      <c r="E11" s="2">
         <f>SUM((Table16[[#This Row],[Damage]]*Table16[[#This Row],[Burst]])/(Table16[[#This Row],[Ranged Cooldown]]+Table16[[#This Row],[Warm-up]]+(Table16[[#This Row],[Burst Time]]*(Table16[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>11.842105263157894</v>
+      </c>
+      <c r="F11">
+        <v>21.9</v>
       </c>
       <c r="G11" s="2">
         <f>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="2" t="e">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>0.5</v>
+      </c>
+      <c r="J11">
+        <v>13</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1.5</v>
+      </c>
+      <c r="M11">
+        <v>0.7</v>
+      </c>
+      <c r="N11">
+        <v>360</v>
+      </c>
+      <c r="O11" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P11">
+        <v>0.9</v>
+      </c>
+      <c r="Q11">
+        <v>0.8</v>
+      </c>
+      <c r="R11">
+        <v>0.38</v>
+      </c>
+      <c r="S11">
+        <v>0.16</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -3439,7 +3522,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C18">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
       <formula>2.599</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3455,8 +3538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4208,25 +4291,67 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="C14" s="2" t="e">
+      <c r="A14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D14" s="3" t="e">
+        <v>3.3203409638554215</v>
+      </c>
+      <c r="D14" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E14" s="2" t="e">
+        <v>4.6831325301204814</v>
+      </c>
+      <c r="E14" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>6.2650602409638552</v>
+      </c>
+      <c r="F14">
+        <v>47.9</v>
       </c>
       <c r="G14" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.74749999999999994</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>23</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>2.1</v>
+      </c>
+      <c r="M14">
+        <v>1.8</v>
+      </c>
+      <c r="N14">
+        <v>240</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="P14">
+        <v>0.4</v>
+      </c>
+      <c r="Q14">
+        <v>0.71</v>
+      </c>
+      <c r="R14">
+        <v>0.98</v>
+      </c>
+      <c r="S14">
+        <v>0.9</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -4391,7 +4516,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6:C13">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="greaterThan">
+      <formula>3.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>3.2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4408,7 +4538,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4647,27 +4777,66 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="e">
+      <c r="A6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D6" s="3" t="e">
+        <v>2.5494545454545454</v>
+      </c>
+      <c r="D6" s="3">
         <f>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="2" t="e">
+        <v>3.2727272727272729</v>
+      </c>
+      <c r="E6" s="2">
         <f>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="F6">
+        <v>42.9</v>
       </c>
       <c r="G6" s="2">
         <f>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="e">
-        <f t="shared" ref="O6:O16" si="0">60/N6</f>
-        <v>#DIV/0!</v>
+        <v>0.72</v>
+      </c>
+      <c r="H6">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <v>1.5</v>
+      </c>
+      <c r="J6">
+        <v>35</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>3.5</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>0.4</v>
+      </c>
+      <c r="Q6">
+        <v>0.71</v>
+      </c>
+      <c r="R6">
+        <v>0.9</v>
+      </c>
+      <c r="S6">
+        <v>0.87</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -4689,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O6:O16" si="0">60/N7</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4994,7 +5163,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThan">
       <formula>2.639</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5847,7 +6016,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C32">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
       <formula>4.429</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5861,10 +6030,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6024,7 +6193,7 @@
         <v>514.29</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" ref="O4:O19" si="0">60/N4</f>
+        <f t="shared" ref="O4:O20" si="0">60/N4</f>
         <v>0.11666569445254624</v>
       </c>
       <c r="P4">
@@ -6041,114 +6210,195 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2</v>
+      <c r="A5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="C5" s="2">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.1437630136986296</v>
+        <v>3.5015625000000004</v>
       </c>
       <c r="D5" s="3">
         <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>5.5109589041095886</v>
+        <v>7.6286764705882364</v>
       </c>
       <c r="E5" s="2">
         <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>14.794520547945204</v>
+        <v>36.764705882352942</v>
       </c>
       <c r="F5">
-        <v>25.9</v>
+        <v>30.9</v>
       </c>
       <c r="G5" s="2">
         <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.3725</v>
+        <v>0.20750000000000002</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M5">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="N5">
         <v>720</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="0"/>
+        <f>60/N5</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="P5">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="Q5">
-        <v>0.48</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="S5">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="e">
+      <c r="A6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D6" s="3" t="e">
+        <v>2.411733390410959</v>
+      </c>
+      <c r="D6" s="3">
         <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="2" t="e">
+        <v>6.1998287671232877</v>
+      </c>
+      <c r="E6" s="2">
         <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>16.643835616438356</v>
+      </c>
+      <c r="F6">
+        <v>25.9</v>
       </c>
       <c r="G6" s="2">
         <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.3725</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N6">
+        <v>720</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="P6">
+        <v>0.4</v>
+      </c>
+      <c r="Q6">
+        <v>0.48</v>
+      </c>
+      <c r="R6">
+        <v>0.35</v>
+      </c>
+      <c r="S6">
+        <v>0.26</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="B7" s="4"/>
-      <c r="C7" s="2" t="e">
+      <c r="A7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="3" t="e">
+        <v>2.8835368421052632</v>
+      </c>
+      <c r="D7" s="3">
         <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="2" t="e">
+        <v>6.5684210526315789</v>
+      </c>
+      <c r="E7" s="2">
         <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>16.842105263157894</v>
+      </c>
+      <c r="F7">
+        <v>30.9</v>
       </c>
       <c r="G7" s="2">
         <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.39</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>13</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>2.4</v>
+      </c>
+      <c r="N7">
+        <v>1200</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="P7">
+        <v>0.4</v>
+      </c>
+      <c r="Q7">
+        <v>0.48</v>
+      </c>
+      <c r="R7">
+        <v>0.41</v>
+      </c>
+      <c r="S7">
+        <v>0.27</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -6221,7 +6471,6 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2" t="e">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -6269,6 +6518,8 @@
       </c>
     </row>
     <row r="13" spans="1:19">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="2" t="e">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6356,9 +6607,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="4" customFormat="1">
-      <c r="A17"/>
-      <c r="B17"/>
+    <row r="17" spans="1:19">
       <c r="C17" s="2" t="e">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6371,28 +6620,18 @@
         <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F17"/>
       <c r="G17" s="2">
         <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
       <c r="O17" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-    </row>
-    <row r="18" spans="1:19">
+    </row>
+    <row r="18" spans="1:19" s="4" customFormat="1">
+      <c r="A18"/>
+      <c r="B18"/>
       <c r="C18" s="2" t="e">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6405,18 +6644,28 @@
         <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="F18"/>
       <c r="G18" s="2">
         <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
       <c r="O18" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
       <c r="C19" s="2" t="e">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6429,31 +6678,55 @@
         <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" s="7"/>
       <c r="G19" s="2">
         <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
       <c r="O19" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="2" t="e">
+        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" s="3" t="e">
+        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="2" t="e">
+        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="2">
+        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
-      <formula>2.479</formula>
+  <conditionalFormatting sqref="C4:C20">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>3.51</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7055,7 +7328,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>2.789</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7071,7 +7344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Handgun" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="93">
   <si>
     <t>Weapon Stats - Sleepy's Weapons</t>
   </si>
@@ -260,6 +260,48 @@
   </si>
   <si>
     <t>M400 Thread Predator*</t>
+  </si>
+  <si>
+    <t>RIFLE MAX RANGE: 44.9</t>
+  </si>
+  <si>
+    <t>LMG MAX RANGE: 32.9</t>
+  </si>
+  <si>
+    <t>SNIPER MAX RANGE: 64.9</t>
+  </si>
+  <si>
+    <t>SHOTGUN MAX RANGE: 20.9</t>
+  </si>
+  <si>
+    <t>REVOLVER MAX RANGE: 25.9</t>
+  </si>
+  <si>
+    <t>HANDGUN MAX RANGE: 25.9</t>
+  </si>
+  <si>
+    <t>MG5*</t>
+  </si>
+  <si>
+    <t>HK21 E</t>
+  </si>
+  <si>
+    <t>MG4 KE</t>
+  </si>
+  <si>
+    <t>MG4 E*</t>
+  </si>
+  <si>
+    <t>Bullet Speed</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>LMG MIN RANGE: 23.9</t>
+  </si>
+  <si>
+    <t>SMG MAX RANGE: 23.9</t>
   </si>
 </sst>
 </file>
@@ -356,41 +398,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="51">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -415,24 +423,6 @@
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -501,6 +491,41 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -629,17 +654,17 @@
   <tableColumns count="19">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="51">
+    <tableColumn id="22" name="Balance" dataDxfId="49">
       <calculatedColumnFormula>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="50">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="48">
       <calculatedColumnFormula>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="49">
+    <tableColumn id="15" name="DPS" dataDxfId="47">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="48">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="46">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -649,7 +674,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="47">
+    <tableColumn id="7" name="Burst Time" dataDxfId="45">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -675,18 +700,18 @@
   </autoFilter>
   <tableColumns count="19">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="45"/>
-    <tableColumn id="22" name="Balance" dataDxfId="44">
+    <tableColumn id="12" name="Vol." dataDxfId="43"/>
+    <tableColumn id="22" name="Balance" dataDxfId="42">
       <calculatedColumnFormula>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="43">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="41">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="42">
+    <tableColumn id="15" name="DPS" dataDxfId="40">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="41">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="39">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -696,7 +721,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="40">
+    <tableColumn id="7" name="Burst Time" dataDxfId="38">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -722,18 +747,18 @@
   </autoFilter>
   <tableColumns count="19">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="38"/>
-    <tableColumn id="22" name="Balance" dataDxfId="37">
+    <tableColumn id="12" name="Vol." dataDxfId="36"/>
+    <tableColumn id="22" name="Balance" dataDxfId="35">
       <calculatedColumnFormula>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="36">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="34">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="35">
+    <tableColumn id="15" name="DPS" dataDxfId="33">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Damage]]*Table16[[#This Row],[Burst]])/(Table16[[#This Row],[Ranged Cooldown]]+Table16[[#This Row],[Warm-up]]+(Table16[[#This Row],[Burst Time]]*(Table16[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="34">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="32">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -743,7 +768,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="33">
+    <tableColumn id="7" name="Burst Time" dataDxfId="31">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -770,17 +795,17 @@
   <tableColumns count="19">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="31">
+    <tableColumn id="22" name="Balance" dataDxfId="28">
       <calculatedColumnFormula>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="30">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="27">
       <calculatedColumnFormula>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="29">
+    <tableColumn id="15" name="DPS" dataDxfId="26">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="28">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="25">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -790,7 +815,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="27">
+    <tableColumn id="7" name="Burst Time" dataDxfId="24">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -817,17 +842,17 @@
   <tableColumns count="19">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="25">
+    <tableColumn id="22" name="Balance" dataDxfId="22">
       <calculatedColumnFormula>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="24">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="23">
+    <tableColumn id="15" name="DPS" dataDxfId="20">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="22">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="19">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -837,7 +862,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="21">
+    <tableColumn id="7" name="Burst Time" dataDxfId="18">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -864,17 +889,17 @@
   <tableColumns count="19">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="19">
+    <tableColumn id="22" name="Balance" dataDxfId="16">
       <calculatedColumnFormula>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="18">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="15">
       <calculatedColumnFormula>SUM(Table1681015[[#This Row],[DPS]]*Table1681015[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="17">
+    <tableColumn id="15" name="DPS" dataDxfId="14">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Damage]]*Table1681015[[#This Row],[Burst]])/(Table1681015[[#This Row],[Ranged Cooldown]]+Table1681015[[#This Row],[Warm-up]]+(Table1681015[[#This Row],[Burst Time]]*(Table1681015[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="16">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="13">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Accuracy (Close)]]+Table1681015[[#This Row],[Accuracy (Short)]]+Table1681015[[#This Row],[Accuracy (Medium)]]+Table1681015[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -884,7 +909,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="15">
+    <tableColumn id="7" name="Burst Time" dataDxfId="12">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -897,8 +922,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table168101112" displayName="Table168101112" ref="A3:S20" totalsRowShown="0">
-  <autoFilter ref="A3:S20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table168101112" displayName="Table168101112" ref="A3:U20" totalsRowShown="0">
+  <autoFilter ref="A3:U20">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -907,21 +932,23 @@
     <filterColumn colId="6"/>
     <filterColumn colId="8"/>
     <filterColumn colId="9"/>
+    <filterColumn colId="19"/>
+    <filterColumn colId="20"/>
   </autoFilter>
-  <tableColumns count="19">
+  <tableColumns count="21">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="14">
+    <tableColumn id="22" name="Balance" dataDxfId="10">
       <calculatedColumnFormula>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="13">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="9">
       <calculatedColumnFormula>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="12">
+    <tableColumn id="15" name="DPS" dataDxfId="8">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="11">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="7">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -931,13 +958,15 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="10">
+    <tableColumn id="7" name="Burst Time" dataDxfId="6">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
+    <tableColumn id="13" name="Bullet Speed"/>
+    <tableColumn id="14" name="Weight"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -958,17 +987,17 @@
   <tableColumns count="19">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="8">
+    <tableColumn id="22" name="Balance" dataDxfId="4">
       <calculatedColumnFormula>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="7">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="3">
       <calculatedColumnFormula>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="6">
+    <tableColumn id="15" name="DPS" dataDxfId="2">
       <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="5">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="1">
       <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -978,7 +1007,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="4">
+    <tableColumn id="7" name="Burst Time" dataDxfId="0">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -1278,7 +1307,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1310,6 +1339,9 @@
       <c r="C1" t="s">
         <v>24</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
@@ -1820,7 +1852,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:C17">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="greaterThan">
       <formula>1.73</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2012,7 +2044,7 @@
       </c>
       <c r="B8">
         <f>COUNTIF(Table168101112[Vol.], 1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <f>COUNTIF(Table168101112[Vol.], 2)</f>
@@ -2076,7 +2108,7 @@
       </c>
       <c r="B13">
         <f>SUM(B2:B11)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <f t="shared" ref="C13:K13" si="0">SUM(C2:C11)</f>
@@ -2125,7 +2157,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2157,6 +2189,9 @@
       <c r="C1" t="s">
         <v>24</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
@@ -2702,7 +2737,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="greaterThan">
       <formula>1.63</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2719,7 +2754,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2751,6 +2786,9 @@
       <c r="C1" t="s">
         <v>24</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
@@ -3522,7 +3560,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C18">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
       <formula>2.599</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3538,8 +3576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3571,6 +3609,9 @@
       <c r="C1" t="s">
         <v>24</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
@@ -3851,7 +3892,7 @@
       </c>
       <c r="C7" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.0814271428571431</v>
+        <v>2.9270985714285711</v>
       </c>
       <c r="D7" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
@@ -3862,7 +3903,7 @@
         <v>7.4285714285714288</v>
       </c>
       <c r="F7">
-        <v>40.9</v>
+        <v>37.9</v>
       </c>
       <c r="G7" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
@@ -3915,7 +3956,7 @@
       </c>
       <c r="C8" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.3286879049676021</v>
+        <v>3.1897030237580988</v>
       </c>
       <c r="D8" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
@@ -3926,7 +3967,7 @@
         <v>10.691144708423325</v>
       </c>
       <c r="F8">
-        <v>33.9</v>
+        <v>31.9</v>
       </c>
       <c r="G8" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
@@ -4107,7 +4148,7 @@
       </c>
       <c r="C11" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.3016871482176362</v>
+        <v>3.174454502814259</v>
       </c>
       <c r="D11" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
@@ -4118,7 +4159,7 @@
         <v>9.2870544090056288</v>
       </c>
       <c r="F11">
-        <v>37.9</v>
+        <v>35.9</v>
       </c>
       <c r="G11" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
@@ -4171,7 +4212,7 @@
       </c>
       <c r="C12" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.1306136986301367</v>
+        <v>2.9283123287671229</v>
       </c>
       <c r="D12" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
@@ -4182,7 +4223,7 @@
         <v>7.1232876712328759</v>
       </c>
       <c r="F12">
-        <v>42.9</v>
+        <v>38.9</v>
       </c>
       <c r="G12" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
@@ -4235,7 +4276,7 @@
       </c>
       <c r="C13" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.2195119047619043</v>
+        <v>3.0179775132275131</v>
       </c>
       <c r="D13" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
@@ -4246,7 +4287,7 @@
         <v>6.8783068783068781</v>
       </c>
       <c r="F13">
-        <v>44.9</v>
+        <v>40.9</v>
       </c>
       <c r="G13" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
@@ -4299,7 +4340,7 @@
       </c>
       <c r="C14" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.3203409638554215</v>
+        <v>3.039353012048192</v>
       </c>
       <c r="D14" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
@@ -4310,7 +4351,7 @@
         <v>6.2650602409638552</v>
       </c>
       <c r="F14">
-        <v>47.9</v>
+        <v>41.9</v>
       </c>
       <c r="G14" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
@@ -4516,12 +4557,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6:C13">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThan">
       <formula>3.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
       <formula>3.2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4538,7 +4579,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4570,6 +4611,9 @@
       <c r="C1" t="s">
         <v>24</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
@@ -4858,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="2" t="e">
-        <f t="shared" ref="O6:O16" si="0">60/N7</f>
+        <f t="shared" ref="O7:O16" si="0">60/N7</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5163,7 +5207,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
       <formula>2.639</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5179,8 +5223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5212,6 +5256,9 @@
       <c r="C1" t="s">
         <v>24</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
@@ -6016,7 +6063,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C32">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>4.429</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6030,10 +6077,931 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:U20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" t="s">
+        <v>89</v>
+      </c>
+      <c r="U3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2">
+        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>2.4682976889010355</v>
+      </c>
+      <c r="D4" s="3">
+        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
+        <v>5.8768992592881801</v>
+      </c>
+      <c r="E4" s="2">
+        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
+        <v>15.776910763189745</v>
+      </c>
+      <c r="F4">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2">
+        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.3725</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>1.8</v>
+      </c>
+      <c r="M4">
+        <v>1.8</v>
+      </c>
+      <c r="N4">
+        <v>514.29</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" ref="O4:O20" si="0">60/N4</f>
+        <v>0.11666569445254624</v>
+      </c>
+      <c r="P4">
+        <v>0.4</v>
+      </c>
+      <c r="Q4">
+        <v>0.48</v>
+      </c>
+      <c r="R4">
+        <v>0.35</v>
+      </c>
+      <c r="S4">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2">
+        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>3.5015625000000004</v>
+      </c>
+      <c r="D5" s="3">
+        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
+        <v>7.6286764705882364</v>
+      </c>
+      <c r="E5" s="2">
+        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
+        <v>36.764705882352942</v>
+      </c>
+      <c r="F5">
+        <v>30.9</v>
+      </c>
+      <c r="G5" s="2">
+        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.20750000000000002</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>25</v>
+      </c>
+      <c r="L5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M5">
+        <v>2.5</v>
+      </c>
+      <c r="N5">
+        <v>720</v>
+      </c>
+      <c r="O5" s="2">
+        <f>60/N5</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="P5">
+        <v>0.15</v>
+      </c>
+      <c r="Q5">
+        <v>0.25</v>
+      </c>
+      <c r="R5">
+        <v>0.25</v>
+      </c>
+      <c r="S5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>2.411733390410959</v>
+      </c>
+      <c r="D6" s="3">
+        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
+        <v>6.1998287671232877</v>
+      </c>
+      <c r="E6" s="2">
+        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
+        <v>16.643835616438356</v>
+      </c>
+      <c r="F6">
+        <v>25.9</v>
+      </c>
+      <c r="G6" s="2">
+        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.3725</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N6">
+        <v>720</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="P6">
+        <v>0.4</v>
+      </c>
+      <c r="Q6">
+        <v>0.48</v>
+      </c>
+      <c r="R6">
+        <v>0.35</v>
+      </c>
+      <c r="S6">
+        <v>0.26</v>
+      </c>
+      <c r="T6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>2.8280842105263155</v>
+      </c>
+      <c r="D7" s="3">
+        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
+        <v>6.4421052631578943</v>
+      </c>
+      <c r="E7" s="2">
+        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
+        <v>16.842105263157894</v>
+      </c>
+      <c r="F7">
+        <v>30.9</v>
+      </c>
+      <c r="G7" s="2">
+        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.38250000000000001</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>13</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>2.4</v>
+      </c>
+      <c r="N7">
+        <v>1200</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="P7">
+        <v>0.4</v>
+      </c>
+      <c r="Q7">
+        <v>0.48</v>
+      </c>
+      <c r="R7">
+        <v>0.38</v>
+      </c>
+      <c r="S7">
+        <v>0.27</v>
+      </c>
+      <c r="T7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>2.6009812499999998</v>
+      </c>
+      <c r="D8" s="3">
+        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
+        <v>6.5187499999999998</v>
+      </c>
+      <c r="E8" s="2">
+        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
+        <v>17.5</v>
+      </c>
+      <c r="F8">
+        <v>25.9</v>
+      </c>
+      <c r="G8" s="2">
+        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.3725</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>1.6</v>
+      </c>
+      <c r="M8">
+        <v>1.9</v>
+      </c>
+      <c r="N8">
+        <v>720</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="P8">
+        <v>0.4</v>
+      </c>
+      <c r="Q8">
+        <v>0.48</v>
+      </c>
+      <c r="R8">
+        <v>0.35</v>
+      </c>
+      <c r="S8">
+        <v>0.26</v>
+      </c>
+      <c r="T8">
+        <v>49</v>
+      </c>
+      <c r="U8">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>2.7735312499999996</v>
+      </c>
+      <c r="D9" s="3">
+        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
+        <v>6.78125</v>
+      </c>
+      <c r="E9" s="2">
+        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
+        <v>17.5</v>
+      </c>
+      <c r="F9">
+        <v>26.9</v>
+      </c>
+      <c r="G9" s="2">
+        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>14</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>1.6</v>
+      </c>
+      <c r="M9">
+        <v>1.9</v>
+      </c>
+      <c r="N9">
+        <v>720</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="P9">
+        <v>0.4</v>
+      </c>
+      <c r="Q9">
+        <v>0.49</v>
+      </c>
+      <c r="R9">
+        <v>0.39</v>
+      </c>
+      <c r="S9">
+        <v>0.27</v>
+      </c>
+      <c r="T9">
+        <v>50</v>
+      </c>
+      <c r="U9">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>2.8811144404332127</v>
+      </c>
+      <c r="D10" s="3">
+        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
+        <v>6.7158844765342955</v>
+      </c>
+      <c r="E10" s="2">
+        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
+        <v>16.895306859205775</v>
+      </c>
+      <c r="F10">
+        <v>25.9</v>
+      </c>
+      <c r="G10" s="2">
+        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.39750000000000002</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>17</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>2.1</v>
+      </c>
+      <c r="M10">
+        <v>2.1</v>
+      </c>
+      <c r="N10">
+        <v>720</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="P10">
+        <v>0.41</v>
+      </c>
+      <c r="Q10">
+        <v>0.5</v>
+      </c>
+      <c r="R10">
+        <v>0.4</v>
+      </c>
+      <c r="S10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="T10">
+        <v>45</v>
+      </c>
+      <c r="U10">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>2.0225093691118703</v>
+      </c>
+      <c r="D11" s="3">
+        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
+        <v>5.9661043336633348</v>
+      </c>
+      <c r="E11" s="2">
+        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
+        <v>17.419282726024335</v>
+      </c>
+      <c r="F11">
+        <v>23.9</v>
+      </c>
+      <c r="G11" s="2">
+        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>0.5</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>15</v>
+      </c>
+      <c r="L11">
+        <v>1.5</v>
+      </c>
+      <c r="M11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N11">
+        <v>327.27</v>
+      </c>
+      <c r="O11" s="2">
+        <f>60/N11</f>
+        <v>0.1833348611238427</v>
+      </c>
+      <c r="P11">
+        <v>0.4</v>
+      </c>
+      <c r="Q11">
+        <v>0.45</v>
+      </c>
+      <c r="R11">
+        <v>0.32</v>
+      </c>
+      <c r="S11">
+        <v>0.2</v>
+      </c>
+      <c r="T11">
+        <v>45</v>
+      </c>
+      <c r="U11">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="2" t="e">
+        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D12" s="3" t="e">
+        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12" s="2" t="e">
+        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" s="2">
+        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="2" t="e">
+        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="3" t="e">
+        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="2" t="e">
+        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="2">
+        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="C14" s="2" t="e">
+        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D14" s="3" t="e">
+        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E14" s="2" t="e">
+        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" s="2">
+        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="C15" s="2" t="e">
+        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D15" s="3" t="e">
+        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" s="2" t="e">
+        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="2">
+        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="C16" s="2" t="e">
+        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D16" s="3" t="e">
+        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16" s="2" t="e">
+        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" s="2">
+        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="C17" s="2" t="e">
+        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D17" s="3" t="e">
+        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E17" s="2" t="e">
+        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17" s="2">
+        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="4" customFormat="1">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18" s="2" t="e">
+        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D18" s="3" t="e">
+        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="2" t="e">
+        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18" s="2">
+        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="C19" s="2" t="e">
+        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="3" t="e">
+        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="2" t="e">
+        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="2">
+        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="2" t="e">
+        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" s="3" t="e">
+        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="2" t="e">
+        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="2">
+        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C4:C20">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+      <formula>3.51</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6065,714 +7033,8 @@
       <c r="C1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2">
-        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.4682976889010355</v>
-      </c>
-      <c r="D4" s="3">
-        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>5.8768992592881801</v>
-      </c>
-      <c r="E4" s="2">
-        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>15.776910763189745</v>
-      </c>
-      <c r="F4">
-        <v>26</v>
-      </c>
-      <c r="G4" s="2">
-        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.3725</v>
-      </c>
-      <c r="H4">
-        <v>11</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>16</v>
-      </c>
-      <c r="K4">
-        <v>6</v>
-      </c>
-      <c r="L4">
-        <v>1.8</v>
-      </c>
-      <c r="M4">
-        <v>1.8</v>
-      </c>
-      <c r="N4">
-        <v>514.29</v>
-      </c>
-      <c r="O4" s="2">
-        <f t="shared" ref="O4:O20" si="0">60/N4</f>
-        <v>0.11666569445254624</v>
-      </c>
-      <c r="P4">
-        <v>0.4</v>
-      </c>
-      <c r="Q4">
-        <v>0.48</v>
-      </c>
-      <c r="R4">
-        <v>0.35</v>
-      </c>
-      <c r="S4">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2">
-        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.5015625000000004</v>
-      </c>
-      <c r="D5" s="3">
-        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>7.6286764705882364</v>
-      </c>
-      <c r="E5" s="2">
-        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>36.764705882352942</v>
-      </c>
-      <c r="F5">
-        <v>30.9</v>
-      </c>
-      <c r="G5" s="2">
-        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.20750000000000002</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>0.5</v>
-      </c>
-      <c r="J5">
-        <v>15</v>
-      </c>
-      <c r="K5">
-        <v>25</v>
-      </c>
-      <c r="L5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="M5">
-        <v>2.5</v>
-      </c>
-      <c r="N5">
-        <v>720</v>
-      </c>
-      <c r="O5" s="2">
-        <f>60/N5</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="P5">
-        <v>0.15</v>
-      </c>
-      <c r="Q5">
-        <v>0.25</v>
-      </c>
-      <c r="R5">
-        <v>0.25</v>
-      </c>
-      <c r="S5">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.411733390410959</v>
-      </c>
-      <c r="D6" s="3">
-        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>6.1998287671232877</v>
-      </c>
-      <c r="E6" s="2">
-        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>16.643835616438356</v>
-      </c>
-      <c r="F6">
-        <v>25.9</v>
-      </c>
-      <c r="G6" s="2">
-        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.3725</v>
-      </c>
-      <c r="H6">
-        <v>9</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>13</v>
-      </c>
-      <c r="K6">
-        <v>9</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N6">
-        <v>720</v>
-      </c>
-      <c r="O6" s="2">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="P6">
-        <v>0.4</v>
-      </c>
-      <c r="Q6">
-        <v>0.48</v>
-      </c>
-      <c r="R6">
-        <v>0.35</v>
-      </c>
-      <c r="S6">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.8835368421052632</v>
-      </c>
-      <c r="D7" s="3">
-        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>6.5684210526315789</v>
-      </c>
-      <c r="E7" s="2">
-        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>16.842105263157894</v>
-      </c>
-      <c r="F7">
-        <v>30.9</v>
-      </c>
-      <c r="G7" s="2">
-        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.39</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>13</v>
-      </c>
-      <c r="K7">
-        <v>8</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <v>2.4</v>
-      </c>
-      <c r="N7">
-        <v>1200</v>
-      </c>
-      <c r="O7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="P7">
-        <v>0.4</v>
-      </c>
-      <c r="Q7">
-        <v>0.48</v>
-      </c>
-      <c r="R7">
-        <v>0.41</v>
-      </c>
-      <c r="S7">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="e">
-        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D8" s="3" t="e">
-        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="2" t="e">
-        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="2">
-        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="e">
-        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="3" t="e">
-        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="2" t="e">
-        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="2">
-        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="B10" s="4"/>
-      <c r="C10" s="2" t="e">
-        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="3" t="e">
-        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="2" t="e">
-        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="2">
-        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="B11" s="4"/>
-      <c r="C11" s="2" t="e">
-        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="3" t="e">
-        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="2" t="e">
-        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="2">
-        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="2" t="e">
-        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="3" t="e">
-        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="2" t="e">
-        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="2">
-        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="2" t="e">
-        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="3" t="e">
-        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="2" t="e">
-        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="2">
-        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="C14" s="2" t="e">
-        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D14" s="3" t="e">
-        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E14" s="2" t="e">
-        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="2">
-        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="C15" s="2" t="e">
-        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="3" t="e">
-        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="2" t="e">
-        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="2">
-        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="C16" s="2" t="e">
-        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="3" t="e">
-        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="2" t="e">
-        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="2">
-        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="C17" s="2" t="e">
-        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="3" t="e">
-        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="2" t="e">
-        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="2">
-        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="4" customFormat="1">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="2" t="e">
-        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" s="3" t="e">
-        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="2" t="e">
-        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18"/>
-      <c r="G18" s="2">
-        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="C19" s="2" t="e">
-        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="3" t="e">
-        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="2" t="e">
-        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="2">
-        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="2" t="e">
-        <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="3" t="e">
-        <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="2" t="e">
-        <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="2">
-        <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C4:C20">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
-      <formula>3.51</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
+      <c r="F1" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -7328,7 +7590,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>2.789</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Handgun" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="98">
   <si>
     <t>Weapon Stats - Sleepy's Weapons</t>
   </si>
@@ -301,14 +301,29 @@
     <t>LMG MIN RANGE: 23.9</t>
   </si>
   <si>
-    <t>SMG MAX RANGE: 23.9</t>
+    <t>F3 ST</t>
+  </si>
+  <si>
+    <t>G36</t>
+  </si>
+  <si>
+    <t>RIFLE MIN RANGE: 23.9</t>
+  </si>
+  <si>
+    <t>SMG MAX RANGE: 22.9</t>
+  </si>
+  <si>
+    <t>G36K TAC*</t>
+  </si>
+  <si>
+    <t>CR300*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,16 +366,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -368,11 +409,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -394,11 +479,295 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -518,44 +887,6 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -640,8 +971,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1689" displayName="Table1689" ref="A3:S17" totalsRowShown="0">
-  <autoFilter ref="A3:S17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1689" displayName="Table1689" ref="A3:U17" totalsRowShown="0">
+  <autoFilter ref="A3:U17">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -650,21 +981,23 @@
     <filterColumn colId="6"/>
     <filterColumn colId="8"/>
     <filterColumn colId="9"/>
+    <filterColumn colId="19"/>
+    <filterColumn colId="20"/>
   </autoFilter>
-  <tableColumns count="19">
+  <tableColumns count="21">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="49">
+    <tableColumn id="22" name="Balance" dataDxfId="58">
       <calculatedColumnFormula>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="48">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="57">
       <calculatedColumnFormula>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="47">
+    <tableColumn id="15" name="DPS" dataDxfId="56">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="46">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="55">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -674,21 +1007,23 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="45">
+    <tableColumn id="7" name="Burst Time" dataDxfId="54">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="6"/>
+    <tableColumn id="14" name="Weight" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table168" displayName="Table168" ref="A3:S20" totalsRowShown="0">
-  <autoFilter ref="A3:S20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table168" displayName="Table168" ref="A3:U20" totalsRowShown="0">
+  <autoFilter ref="A3:U20">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -697,21 +1032,23 @@
     <filterColumn colId="6"/>
     <filterColumn colId="8"/>
     <filterColumn colId="9"/>
+    <filterColumn colId="19"/>
+    <filterColumn colId="20"/>
   </autoFilter>
-  <tableColumns count="19">
+  <tableColumns count="21">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="43"/>
-    <tableColumn id="22" name="Balance" dataDxfId="42">
+    <tableColumn id="12" name="Vol." dataDxfId="52"/>
+    <tableColumn id="22" name="Balance" dataDxfId="51">
       <calculatedColumnFormula>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="41">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="50">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="40">
+    <tableColumn id="15" name="DPS" dataDxfId="49">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="39">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="48">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -721,21 +1058,23 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="38">
+    <tableColumn id="7" name="Burst Time" dataDxfId="47">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
+    <tableColumn id="13" name="Bullet Speed"/>
+    <tableColumn id="14" name="Weight"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="A3:S18" totalsRowShown="0">
-  <autoFilter ref="A3:S18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="A3:U18" totalsRowShown="0">
+  <autoFilter ref="A3:U18">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -744,21 +1083,23 @@
     <filterColumn colId="6"/>
     <filterColumn colId="8"/>
     <filterColumn colId="9"/>
+    <filterColumn colId="19"/>
+    <filterColumn colId="20"/>
   </autoFilter>
-  <tableColumns count="19">
+  <tableColumns count="21">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="36"/>
-    <tableColumn id="22" name="Balance" dataDxfId="35">
+    <tableColumn id="12" name="Vol." dataDxfId="45"/>
+    <tableColumn id="22" name="Balance" dataDxfId="44">
       <calculatedColumnFormula>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="34">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="43">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="33">
+    <tableColumn id="15" name="DPS" dataDxfId="42">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Damage]]*Table16[[#This Row],[Burst]])/(Table16[[#This Row],[Ranged Cooldown]]+Table16[[#This Row],[Warm-up]]+(Table16[[#This Row],[Burst Time]]*(Table16[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="32">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="41">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -768,21 +1109,23 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="31">
+    <tableColumn id="7" name="Burst Time" dataDxfId="40">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="8"/>
+    <tableColumn id="14" name="Weight" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table16810" displayName="Table16810" ref="A3:S20" totalsRowShown="0">
-  <autoFilter ref="A3:S20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table16810" displayName="Table16810" ref="A3:U20" totalsRowShown="0">
+  <autoFilter ref="A3:U20">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -791,21 +1134,23 @@
     <filterColumn colId="6"/>
     <filterColumn colId="8"/>
     <filterColumn colId="9"/>
+    <filterColumn colId="19"/>
+    <filterColumn colId="20"/>
   </autoFilter>
-  <tableColumns count="19">
+  <tableColumns count="21">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="28">
+    <tableColumn id="22" name="Balance" dataDxfId="15">
       <calculatedColumnFormula>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="27">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="14">
       <calculatedColumnFormula>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="26">
+    <tableColumn id="15" name="DPS" dataDxfId="13">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="25">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="12">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -815,21 +1160,23 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="24">
+    <tableColumn id="7" name="Burst Time" dataDxfId="11">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
+    <tableColumn id="13" name="Bullet Speed"/>
+    <tableColumn id="14" name="Weight"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table1681011" displayName="Table1681011" ref="A3:S19" totalsRowShown="0">
-  <autoFilter ref="A3:S19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table1681011" displayName="Table1681011" ref="A3:U19" totalsRowShown="0">
+  <autoFilter ref="A3:U19">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -838,21 +1185,23 @@
     <filterColumn colId="6"/>
     <filterColumn colId="8"/>
     <filterColumn colId="9"/>
+    <filterColumn colId="19"/>
+    <filterColumn colId="20"/>
   </autoFilter>
-  <tableColumns count="19">
+  <tableColumns count="21">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="22">
+    <tableColumn id="22" name="Balance" dataDxfId="38">
       <calculatedColumnFormula>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="21">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="37">
       <calculatedColumnFormula>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="20">
+    <tableColumn id="15" name="DPS" dataDxfId="36">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="19">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="35">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -862,13 +1211,15 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="18">
+    <tableColumn id="7" name="Burst Time" dataDxfId="34">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="10"/>
+    <tableColumn id="14" name="Weight" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -889,17 +1240,17 @@
   <tableColumns count="19">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="16">
+    <tableColumn id="22" name="Balance" dataDxfId="32">
       <calculatedColumnFormula>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="15">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table1681015[[#This Row],[DPS]]*Table1681015[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="14">
+    <tableColumn id="15" name="DPS" dataDxfId="30">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Damage]]*Table1681015[[#This Row],[Burst]])/(Table1681015[[#This Row],[Ranged Cooldown]]+Table1681015[[#This Row],[Warm-up]]+(Table1681015[[#This Row],[Burst Time]]*(Table1681015[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="13">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="29">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Accuracy (Close)]]+Table1681015[[#This Row],[Accuracy (Short)]]+Table1681015[[#This Row],[Accuracy (Medium)]]+Table1681015[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -909,7 +1260,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="12">
+    <tableColumn id="7" name="Burst Time" dataDxfId="28">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -938,17 +1289,17 @@
   <tableColumns count="21">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="10">
+    <tableColumn id="22" name="Balance" dataDxfId="26">
       <calculatedColumnFormula>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="9">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="25">
       <calculatedColumnFormula>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="8">
+    <tableColumn id="15" name="DPS" dataDxfId="24">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="7">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="23">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -958,7 +1309,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="6">
+    <tableColumn id="7" name="Burst Time" dataDxfId="22">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -973,8 +1324,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table16810111213" displayName="Table16810111213" ref="A3:S19" totalsRowShown="0">
-  <autoFilter ref="A3:S19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table16810111213" displayName="Table16810111213" ref="A3:U19" totalsRowShown="0">
+  <autoFilter ref="A3:U19">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -983,21 +1334,23 @@
     <filterColumn colId="6"/>
     <filterColumn colId="8"/>
     <filterColumn colId="9"/>
+    <filterColumn colId="19"/>
+    <filterColumn colId="20"/>
   </autoFilter>
-  <tableColumns count="19">
+  <tableColumns count="21">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="4">
+    <tableColumn id="22" name="Balance" dataDxfId="20">
       <calculatedColumnFormula>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="3">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="19">
       <calculatedColumnFormula>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="2">
+    <tableColumn id="15" name="DPS" dataDxfId="18">
       <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="1">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="17">
       <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1007,13 +1360,15 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="0">
+    <tableColumn id="7" name="Burst Time" dataDxfId="16">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
+    <tableColumn id="13" name="Bullet Speed"/>
+    <tableColumn id="14" name="Weight"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1304,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1318,13 +1673,13 @@
     <col min="4" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="8.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="7" customWidth="1"/>
     <col min="15" max="15" width="13.42578125" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
     <col min="17" max="17" width="16.28515625" customWidth="1"/>
@@ -1332,7 +1687,7 @@
     <col min="19" max="19" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1343,7 +1698,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1363,7 +1718,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1421,8 +1776,14 @@
       <c r="S3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" thickTop="1">
       <c r="A4" s="6" t="s">
         <v>44</v>
       </c>
@@ -1484,8 +1845,12 @@
       <c r="S4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" s="17">
+        <v>55</v>
+      </c>
+      <c r="U4" s="18"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="14" t="s">
         <v>51</v>
       </c>
@@ -1547,8 +1912,10 @@
       <c r="S5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" s="19"/>
+      <c r="U5" s="20"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="5"/>
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="e">
@@ -1571,8 +1938,10 @@
         <f t="shared" ref="O6:O16" si="0">60/N6</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" s="17"/>
+      <c r="U6" s="18"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="e">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -1594,8 +1963,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" s="19"/>
+      <c r="U7" s="20"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="e">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -1617,8 +1988,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" s="17"/>
+      <c r="U8" s="18"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="B9" s="4"/>
       <c r="C9" s="2" t="e">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -1640,8 +2013,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" s="19"/>
+      <c r="U9" s="20"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="e">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -1663,8 +2038,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" s="17"/>
+      <c r="U10" s="18"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="B11" s="4"/>
       <c r="C11" s="2" t="e">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -1686,8 +2063,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" s="19"/>
+      <c r="U11" s="20"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="e">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -1709,8 +2088,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" s="17"/>
+      <c r="U12" s="18"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="B13" s="4"/>
       <c r="C13" s="2" t="e">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -1732,8 +2113,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" s="4" customFormat="1">
+      <c r="T13" s="19"/>
+      <c r="U13" s="20"/>
+    </row>
+    <row r="14" spans="1:21" s="4" customFormat="1">
       <c r="A14"/>
       <c r="C14" s="2" t="e">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -1767,8 +2150,10 @@
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" s="17"/>
+      <c r="U14" s="18"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="e">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -1790,8 +2175,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" s="19"/>
+      <c r="U15" s="20"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="7"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2" t="e">
@@ -1826,8 +2213,10 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="2:15">
+      <c r="T16" s="17"/>
+      <c r="U16" s="18"/>
+    </row>
+    <row r="17" spans="2:21">
       <c r="B17" s="10"/>
       <c r="C17" s="2" t="e">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -1849,10 +2238,12 @@
         <f>60/N17</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="T17" s="19"/>
+      <c r="U17" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:C17">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="greaterThan">
       <formula>1.73</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1981,7 +2372,7 @@
       </c>
       <c r="B5">
         <f>COUNTIF(Table16810[Vol.], 1)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <f>COUNTIF(Table16810[Vol.], 2)</f>
@@ -2065,7 +2456,7 @@
       </c>
       <c r="B9">
         <f>COUNTIF(Table16810111213[Vol.], 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <f>COUNTIF(Table16810111213[Vol.], 2)</f>
@@ -2108,7 +2499,7 @@
       </c>
       <c r="B13">
         <f>SUM(B2:B11)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <f t="shared" ref="C13:K13" si="0">SUM(C2:C11)</f>
@@ -2154,10 +2545,645 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" thickTop="1">
+      <c r="A4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2">
+        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>1.6326315789473682</v>
+      </c>
+      <c r="D4" s="3">
+        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
+        <v>3.7105263157894735</v>
+      </c>
+      <c r="E4" s="2">
+        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
+        <v>6.3157894736842097</v>
+      </c>
+      <c r="F4">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2">
+        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1.6</v>
+      </c>
+      <c r="M4">
+        <v>0.3</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="P4">
+        <v>0.8</v>
+      </c>
+      <c r="Q4">
+        <v>0.75</v>
+      </c>
+      <c r="R4">
+        <v>0.45</v>
+      </c>
+      <c r="S4">
+        <v>0.35</v>
+      </c>
+      <c r="T4" s="17">
+        <v>55</v>
+      </c>
+      <c r="U4" s="18"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="5"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="2" t="e">
+        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D5" s="3" t="e">
+        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E5" s="2" t="e">
+        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" s="2">
+        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="e">
+        <f t="shared" ref="O5:O20" si="0">60/N5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T5" s="19"/>
+      <c r="U5" s="20"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="5"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="2" t="e">
+        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D6" s="3" t="e">
+        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="2" t="e">
+        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="2">
+        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T6" s="17"/>
+      <c r="U6" s="18"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="5"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="2" t="e">
+        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="3" t="e">
+        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="2" t="e">
+        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="2">
+        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T7" s="19"/>
+      <c r="U7" s="20"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="5"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="2" t="e">
+        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D8" s="3" t="e">
+        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E8" s="2" t="e">
+        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="2">
+        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T8" s="17"/>
+      <c r="U8" s="18"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="5"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="2" t="e">
+        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D9" s="3" t="e">
+        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E9" s="2" t="e">
+        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="2">
+        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T9" s="19"/>
+      <c r="U9" s="20"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="5"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="2" t="e">
+        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="3" t="e">
+        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E10" s="2" t="e">
+        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="2">
+        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T10" s="17"/>
+      <c r="U10" s="18"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="B11" s="12"/>
+      <c r="C11" s="2" t="e">
+        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11" s="3" t="e">
+        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E11" s="2" t="e">
+        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="2">
+        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11" s="19"/>
+      <c r="U11" s="20"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="B12" s="12"/>
+      <c r="C12" s="2" t="e">
+        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D12" s="3" t="e">
+        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12" s="2" t="e">
+        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" s="2">
+        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" s="17"/>
+      <c r="U12" s="18"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="B13" s="12"/>
+      <c r="C13" s="2" t="e">
+        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="3" t="e">
+        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="2" t="e">
+        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="2">
+        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" s="19"/>
+      <c r="U13" s="20"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="B14" s="12"/>
+      <c r="C14" s="2" t="e">
+        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D14" s="3" t="e">
+        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E14" s="2" t="e">
+        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" s="2">
+        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" s="17"/>
+      <c r="U14" s="18"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="B15" s="12"/>
+      <c r="C15" s="2" t="e">
+        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D15" s="3" t="e">
+        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" s="2" t="e">
+        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="2">
+        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T15" s="19"/>
+      <c r="U15" s="20"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="B16" s="12"/>
+      <c r="C16" s="2" t="e">
+        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D16" s="3" t="e">
+        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16" s="2" t="e">
+        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" s="2">
+        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" s="17"/>
+      <c r="U16" s="18"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="B17" s="12"/>
+      <c r="C17" s="2" t="e">
+        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D17" s="3" t="e">
+        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E17" s="2" t="e">
+        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17" s="2">
+        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17" s="19"/>
+      <c r="U17" s="20"/>
+    </row>
+    <row r="18" spans="1:21" s="4" customFormat="1">
+      <c r="A18"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="2" t="e">
+        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D18" s="3" t="e">
+        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="2" t="e">
+        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18" s="2">
+        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="18"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="B19" s="12"/>
+      <c r="C19" s="2" t="e">
+        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="3" t="e">
+        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="2" t="e">
+        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="2">
+        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="7"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="2" t="e">
+        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" s="3" t="e">
+        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="2" t="e">
+        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="2">
+        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="greaterThan">
+      <formula>1.63</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U19"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2182,7 +3208,7 @@
     <col min="19" max="19" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2190,10 +3216,10 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2213,7 +3239,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2271,614 +3297,23 @@
       <c r="S3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" thickTop="1">
       <c r="A4" s="6" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="2">
-        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>1.6326315789473682</v>
-      </c>
-      <c r="D4" s="3">
-        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
-        <v>3.7105263157894735</v>
-      </c>
-      <c r="E4" s="2">
-        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
-        <v>6.3157894736842097</v>
-      </c>
-      <c r="F4">
-        <v>26</v>
-      </c>
-      <c r="G4" s="2">
-        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.58750000000000002</v>
-      </c>
-      <c r="H4">
-        <v>12</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>18</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1.6</v>
-      </c>
-      <c r="M4">
-        <v>0.3</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="P4">
-        <v>0.8</v>
-      </c>
-      <c r="Q4">
-        <v>0.75</v>
-      </c>
-      <c r="R4">
-        <v>0.45</v>
-      </c>
-      <c r="S4">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="5"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="2" t="e">
-        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D5" s="3" t="e">
-        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" s="2" t="e">
-        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="2">
-        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="e">
-        <f t="shared" ref="O5:O20" si="0">60/N5</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="5"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="2" t="e">
-        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D6" s="3" t="e">
-        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="2" t="e">
-        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" s="2">
-        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="5"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="2" t="e">
-        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="3" t="e">
-        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="2" t="e">
-        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="2">
-        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="5"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="2" t="e">
-        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D8" s="3" t="e">
-        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="2" t="e">
-        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="2">
-        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="5"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="2" t="e">
-        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="3" t="e">
-        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="2" t="e">
-        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="2">
-        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="5"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="2" t="e">
-        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="3" t="e">
-        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="2" t="e">
-        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="2">
-        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="B11" s="12"/>
-      <c r="C11" s="2" t="e">
-        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="3" t="e">
-        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="2" t="e">
-        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="2">
-        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="B12" s="12"/>
-      <c r="C12" s="2" t="e">
-        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="3" t="e">
-        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="2" t="e">
-        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="2">
-        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="B13" s="12"/>
-      <c r="C13" s="2" t="e">
-        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="3" t="e">
-        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="2" t="e">
-        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="2">
-        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="B14" s="12"/>
-      <c r="C14" s="2" t="e">
-        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D14" s="3" t="e">
-        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E14" s="2" t="e">
-        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="2">
-        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="B15" s="12"/>
-      <c r="C15" s="2" t="e">
-        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="3" t="e">
-        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="2" t="e">
-        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="2">
-        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="B16" s="12"/>
-      <c r="C16" s="2" t="e">
-        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="3" t="e">
-        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="2" t="e">
-        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="2">
-        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="B17" s="12"/>
-      <c r="C17" s="2" t="e">
-        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="3" t="e">
-        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="2" t="e">
-        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="2">
-        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="4" customFormat="1">
-      <c r="A18"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="2" t="e">
-        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" s="3" t="e">
-        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="2" t="e">
-        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18"/>
-      <c r="G18" s="2">
-        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="B19" s="12"/>
-      <c r="C19" s="2" t="e">
-        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="3" t="e">
-        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="2" t="e">
-        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="2">
-        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="7"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="2" t="e">
-        <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="3" t="e">
-        <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="2" t="e">
-        <f>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="2">
-        <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="greaterThan">
-      <formula>1.63</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.5935401400781637</v>
+        <v>2.5872144324194362</v>
       </c>
       <c r="D4" s="3">
         <f>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</f>
@@ -2889,7 +3324,7 @@
         <v>12.342844212150689</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="G4" s="2">
         <f>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</f>
@@ -2932,8 +3367,12 @@
       <c r="S4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" s="17">
+        <v>48</v>
+      </c>
+      <c r="U4" s="18"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
@@ -2996,8 +3435,10 @@
       <c r="S5">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" s="19"/>
+      <c r="U5" s="20"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
@@ -3060,8 +3501,12 @@
       <c r="S6">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" s="17">
+        <v>48</v>
+      </c>
+      <c r="U6" s="18"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3124,8 +3569,12 @@
       <c r="S7">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" s="19">
+        <v>45</v>
+      </c>
+      <c r="U7" s="20"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
@@ -3188,8 +3637,10 @@
       <c r="S8">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" s="17"/>
+      <c r="U8" s="18"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -3252,8 +3703,10 @@
       <c r="S9" s="4">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" s="4" customFormat="1">
+      <c r="T9" s="19"/>
+      <c r="U9" s="20"/>
+    </row>
+    <row r="10" spans="1:21" s="4" customFormat="1">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
@@ -3316,8 +3769,10 @@
       <c r="S10">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" s="17"/>
+      <c r="U10" s="18"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="4" t="s">
         <v>74</v>
       </c>
@@ -3380,8 +3835,10 @@
       <c r="S11">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" s="19"/>
+      <c r="U11" s="20"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="B12" s="12"/>
       <c r="C12" s="2" t="e">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -3403,8 +3860,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" s="17"/>
+      <c r="U12" s="18"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="B13" s="12"/>
       <c r="C13" s="2" t="e">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -3426,8 +3885,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" s="19"/>
+      <c r="U13" s="20"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="B14" s="12"/>
       <c r="C14" s="2" t="e">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -3449,8 +3910,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" s="17"/>
+      <c r="U14" s="18"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="B15" s="12"/>
       <c r="C15" s="2" t="e">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -3472,8 +3935,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" s="19"/>
+      <c r="U15" s="20"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="B16" s="12"/>
       <c r="C16" s="2" t="e">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -3495,8 +3960,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" s="17"/>
+      <c r="U16" s="18"/>
+    </row>
+    <row r="17" spans="1:21">
       <c r="B17" s="12"/>
       <c r="C17" s="2" t="e">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -3518,8 +3985,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17" s="19"/>
+      <c r="U17" s="20"/>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="7"/>
       <c r="B18" s="13"/>
       <c r="C18" s="8" t="e">
@@ -3554,13 +4023,15 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18" s="17"/>
+      <c r="U18" s="18"/>
+    </row>
+    <row r="19" spans="1:21">
       <c r="B19" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C18">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="greaterThan">
       <formula>2.599</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3574,10 +4045,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3602,7 +4073,7 @@
     <col min="19" max="19" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3612,8 +4083,11 @@
       <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="H1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -3633,7 +4107,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3691,8 +4165,14 @@
       <c r="S3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" t="s">
+        <v>89</v>
+      </c>
+      <c r="U3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="6" t="s">
         <v>46</v>
       </c>
@@ -3755,8 +4235,11 @@
       <c r="S4">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="6" t="s">
         <v>48</v>
       </c>
@@ -3818,8 +4301,11 @@
       <c r="S5">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="14" t="s">
         <v>39</v>
       </c>
@@ -3883,7 +4369,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:21">
       <c r="A7" s="14" t="s">
         <v>32</v>
       </c>
@@ -3947,7 +4433,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -4011,7 +4497,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -4075,7 +4561,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -4139,7 +4625,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -4203,7 +4689,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:21">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -4267,7 +4753,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:21">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
@@ -4331,7 +4817,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:21">
       <c r="A14" s="4" t="s">
         <v>78</v>
       </c>
@@ -4395,87 +4881,217 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="C15" s="2" t="e">
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="3" t="e">
+        <v>3.0081290322580645</v>
+      </c>
+      <c r="D15" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="2" t="e">
+        <v>7.3548387096774199</v>
+      </c>
+      <c r="E15" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>12.903225806451612</v>
+      </c>
+      <c r="F15">
+        <v>29.9</v>
       </c>
       <c r="G15" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="C16" s="2" t="e">
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>0.5</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>1.7</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>450</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q15">
+        <v>0.65</v>
+      </c>
+      <c r="R15">
+        <v>0.6</v>
+      </c>
+      <c r="S15">
+        <v>0.48</v>
+      </c>
+      <c r="T15">
+        <v>45</v>
+      </c>
+      <c r="U15">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="3" t="e">
+        <v>2.9985267857142857</v>
+      </c>
+      <c r="D16" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="2" t="e">
+        <v>6.8303571428571432</v>
+      </c>
+      <c r="E16" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>10.714285714285715</v>
+      </c>
+      <c r="F16">
+        <v>26.9</v>
       </c>
       <c r="G16" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" s="4" customFormat="1">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="2" t="e">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>0.5</v>
+      </c>
+      <c r="J16">
+        <v>17</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1.81</v>
+      </c>
+      <c r="M16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N16">
+        <v>300</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="P16">
+        <v>0.6</v>
+      </c>
+      <c r="Q16">
+        <v>0.73</v>
+      </c>
+      <c r="R16">
+        <v>0.67</v>
+      </c>
+      <c r="S16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T16">
+        <v>70</v>
+      </c>
+      <c r="U16">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="4" customFormat="1">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="3" t="e">
+        <v>3.2797636363636364</v>
+      </c>
+      <c r="D17" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="2" t="e">
+        <v>7.1454545454545455</v>
+      </c>
+      <c r="E17" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17"/>
+        <v>10.90909090909091</v>
+      </c>
+      <c r="F17">
+        <v>28.9</v>
+      </c>
       <c r="G17" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-    </row>
-    <row r="18" spans="1:19">
+        <v>0.65499999999999992</v>
+      </c>
+      <c r="H17">
+        <v>12</v>
+      </c>
+      <c r="I17">
+        <v>0.5</v>
+      </c>
+      <c r="J17">
+        <v>17</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1.75</v>
+      </c>
+      <c r="M17">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N17">
+        <v>300</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="P17">
+        <v>0.6</v>
+      </c>
+      <c r="Q17">
+        <v>0.76</v>
+      </c>
+      <c r="R17">
+        <v>0.7</v>
+      </c>
+      <c r="S17">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T17">
+        <v>70</v>
+      </c>
+      <c r="U17">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="C18" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -4497,7 +5113,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:21">
       <c r="C19" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -4519,7 +5135,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:21">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="2" t="e">
@@ -4554,15 +5170,12 @@
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C6:C13">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThan">
-      <formula>3.2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="C4:C999">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>3.2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4576,10 +5189,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4604,7 +5217,7 @@
     <col min="19" max="19" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4615,7 +5228,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -4635,7 +5248,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4693,8 +5306,14 @@
       <c r="S3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" thickTop="1">
       <c r="A4" s="6" t="s">
         <v>49</v>
       </c>
@@ -4756,8 +5375,12 @@
       <c r="S4">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" s="17">
+        <v>100</v>
+      </c>
+      <c r="U4" s="18"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="14" t="s">
         <v>41</v>
       </c>
@@ -4819,8 +5442,10 @@
       <c r="S5">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" s="19"/>
+      <c r="U5" s="20"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="14" t="s">
         <v>77</v>
       </c>
@@ -4882,8 +5507,10 @@
       <c r="S6">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" s="17"/>
+      <c r="U6" s="18"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="e">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -4905,8 +5532,10 @@
         <f t="shared" ref="O7:O16" si="0">60/N7</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" s="19"/>
+      <c r="U7" s="20"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="e">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -4928,8 +5557,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" s="17"/>
+      <c r="U8" s="18"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="B9" s="4"/>
       <c r="C9" s="2" t="e">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -4951,8 +5582,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" s="19"/>
+      <c r="U9" s="20"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="e">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -4974,8 +5607,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" s="17"/>
+      <c r="U10" s="18"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2" t="e">
@@ -4998,8 +5633,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" s="19"/>
+      <c r="U11" s="20"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="e">
@@ -5022,8 +5659,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" s="17"/>
+      <c r="U12" s="18"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="C13" s="2" t="e">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -5044,8 +5683,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" s="19"/>
+      <c r="U13" s="20"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="C14" s="2" t="e">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -5066,8 +5707,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" s="17"/>
+      <c r="U14" s="18"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="C15" s="2" t="e">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -5088,8 +5731,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" s="19"/>
+      <c r="U15" s="20"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="C16" s="2" t="e">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -5110,8 +5755,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" s="4" customFormat="1">
+      <c r="T16" s="17"/>
+      <c r="U16" s="18"/>
+    </row>
+    <row r="17" spans="1:21" s="4" customFormat="1">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17" s="2" t="e">
@@ -5146,8 +5793,10 @@
       <c r="Q17"/>
       <c r="R17"/>
       <c r="S17"/>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17" s="19"/>
+      <c r="U17" s="20"/>
+    </row>
+    <row r="18" spans="1:21">
       <c r="C18" s="2" t="e">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -5168,8 +5817,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18" s="17"/>
+      <c r="U18" s="18"/>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="2" t="e">
@@ -5204,10 +5855,12 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
       <formula>2.639</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6063,7 +6716,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C32">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="greaterThan">
       <formula>4.429</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6079,8 +6732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6089,12 +6742,11 @@
     <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="10" max="11" width="8.5703125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="8.85546875" customWidth="1"/>
     <col min="14" max="14" width="13.5703125" customWidth="1"/>
@@ -6103,8 +6755,8 @@
     <col min="17" max="17" width="16.28515625" customWidth="1"/>
     <col min="18" max="18" width="18.28515625" customWidth="1"/>
     <col min="19" max="19" width="16.28515625" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -6269,6 +6921,9 @@
       <c r="S4">
         <v>0.26</v>
       </c>
+      <c r="T4">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="6" t="s">
@@ -6332,6 +6987,9 @@
       </c>
       <c r="S5">
         <v>0.18</v>
+      </c>
+      <c r="T5">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -6984,7 +7642,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C20">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
       <formula>3.51</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6998,10 +7656,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7011,14 +7669,11 @@
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="10" max="11" width="8.5703125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="13" max="14" width="8.85546875" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
     <col min="17" max="17" width="16.28515625" customWidth="1"/>
@@ -7026,7 +7681,7 @@
     <col min="19" max="19" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7037,7 +7692,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -7057,7 +7712,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7115,8 +7770,14 @@
       <c r="S3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" thickTop="1">
       <c r="A4" s="6" t="s">
         <v>52</v>
       </c>
@@ -7178,8 +7839,12 @@
       <c r="S4">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" s="17">
+        <v>55</v>
+      </c>
+      <c r="U4" s="18"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="6" t="s">
         <v>53</v>
       </c>
@@ -7241,32 +7906,77 @@
       <c r="S5">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="e">
+      <c r="T5" s="19">
+        <v>55</v>
+      </c>
+      <c r="U5" s="20"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D6" s="3" t="e">
+        <v>1.8259500000000002</v>
+      </c>
+      <c r="D6" s="3">
         <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="2" t="e">
+        <v>5.5500000000000007</v>
+      </c>
+      <c r="E6" s="2">
         <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>7.5000000000000009</v>
+      </c>
+      <c r="F6">
+        <v>17.899999999999999</v>
       </c>
       <c r="G6" s="2">
         <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="e">
-        <f t="shared" ref="O6:O19" si="0">60/N6</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>0.74</v>
+      </c>
+      <c r="H6">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>2.1</v>
+      </c>
+      <c r="M6">
+        <v>0.7</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="P6">
+        <v>0.85</v>
+      </c>
+      <c r="Q6">
+        <v>0.91</v>
+      </c>
+      <c r="R6">
+        <v>0.79</v>
+      </c>
+      <c r="S6">
+        <v>0.41</v>
+      </c>
+      <c r="T6" s="17"/>
+      <c r="U6" s="18"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="e">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -7285,11 +7995,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <f t="shared" ref="O7:O19" si="0">60/N7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T7" s="19"/>
+      <c r="U7" s="20"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="e">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -7311,8 +8023,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" s="17"/>
+      <c r="U8" s="18"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="B9" s="4"/>
       <c r="C9" s="2" t="e">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -7335,7 +8049,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:21">
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="e">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -7358,7 +8072,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:21">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2" t="e">
@@ -7382,7 +8096,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:21">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="e">
@@ -7406,7 +8120,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:21">
       <c r="C13" s="2" t="e">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -7428,7 +8142,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:21">
       <c r="C14" s="2" t="e">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -7450,7 +8164,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:21">
       <c r="C15" s="2" t="e">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -7472,7 +8186,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:21">
       <c r="C16" s="2" t="e">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -7590,7 +8304,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
       <formula>2.789</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Handgun" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="105">
   <si>
     <t>Weapon Stats - Sleepy's Weapons</t>
   </si>
@@ -247,9 +247,6 @@
     <t>Melee</t>
   </si>
   <si>
-    <t>MP5A3 TAC</t>
-  </si>
-  <si>
     <t>Minigun</t>
   </si>
   <si>
@@ -317,6 +314,30 @@
   </si>
   <si>
     <t>CR300*</t>
+  </si>
+  <si>
+    <t>HK243 SSAR</t>
+  </si>
+  <si>
+    <t>SPF9 SF SD TAC</t>
+  </si>
+  <si>
+    <t>HK USC</t>
+  </si>
+  <si>
+    <t>HAENEL RS9</t>
+  </si>
+  <si>
+    <t>MP5A3 TAC*</t>
+  </si>
+  <si>
+    <t>MP5A5 MIL*</t>
+  </si>
+  <si>
+    <t>HAENEL MK556*</t>
+  </si>
+  <si>
+    <t>MXC RATTLER SBR*</t>
   </si>
 </sst>
 </file>
@@ -489,196 +510,81 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="56">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
+        <b val="0"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <font>
-        <color auto="1"/>
+        <b val="0"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.59999389629810485"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.59999389629810485"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -769,24 +675,6 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -812,61 +700,84 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -936,6 +847,76 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -987,17 +968,17 @@
   <tableColumns count="21">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="58">
+    <tableColumn id="22" name="Balance" dataDxfId="54">
       <calculatedColumnFormula>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="57">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="53">
       <calculatedColumnFormula>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="56">
+    <tableColumn id="15" name="DPS" dataDxfId="52">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="55">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="51">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1007,15 +988,15 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="54">
+    <tableColumn id="7" name="Burst Time" dataDxfId="50">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="6"/>
-    <tableColumn id="14" name="Weight" dataDxfId="5"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="49"/>
+    <tableColumn id="14" name="Weight" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1037,18 +1018,18 @@
   </autoFilter>
   <tableColumns count="21">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="52"/>
-    <tableColumn id="22" name="Balance" dataDxfId="51">
+    <tableColumn id="12" name="Vol." dataDxfId="46"/>
+    <tableColumn id="22" name="Balance" dataDxfId="45">
       <calculatedColumnFormula>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="50">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="44">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="49">
+    <tableColumn id="15" name="DPS" dataDxfId="43">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="48">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="42">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1058,7 +1039,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="47">
+    <tableColumn id="7" name="Burst Time" dataDxfId="41">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -1088,18 +1069,18 @@
   </autoFilter>
   <tableColumns count="21">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="45"/>
-    <tableColumn id="22" name="Balance" dataDxfId="44">
+    <tableColumn id="12" name="Vol." dataDxfId="39"/>
+    <tableColumn id="22" name="Balance" dataDxfId="38">
       <calculatedColumnFormula>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="43">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="37">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="42">
+    <tableColumn id="15" name="DPS" dataDxfId="36">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Damage]]*Table16[[#This Row],[Burst]])/(Table16[[#This Row],[Ranged Cooldown]]+Table16[[#This Row],[Warm-up]]+(Table16[[#This Row],[Burst Time]]*(Table16[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="41">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="35">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1109,23 +1090,23 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="40">
+    <tableColumn id="7" name="Burst Time" dataDxfId="34">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="8"/>
-    <tableColumn id="14" name="Weight" dataDxfId="7"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="33"/>
+    <tableColumn id="14" name="Weight" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table16810" displayName="Table16810" ref="A3:U20" totalsRowShown="0">
-  <autoFilter ref="A3:U20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table16810" displayName="Table16810" ref="A3:U29" totalsRowShown="0">
+  <autoFilter ref="A3:U29">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -1140,17 +1121,17 @@
   <tableColumns count="21">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="15">
+    <tableColumn id="22" name="Balance" dataDxfId="30">
       <calculatedColumnFormula>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="14">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="29">
       <calculatedColumnFormula>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="13">
+    <tableColumn id="15" name="DPS" dataDxfId="28">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="12">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="27">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1160,7 +1141,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="11">
+    <tableColumn id="7" name="Burst Time" dataDxfId="26">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -1191,17 +1172,17 @@
   <tableColumns count="21">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="38">
+    <tableColumn id="22" name="Balance" dataDxfId="24">
       <calculatedColumnFormula>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="37">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="23">
       <calculatedColumnFormula>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="36">
+    <tableColumn id="15" name="DPS" dataDxfId="22">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="35">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="21">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1211,15 +1192,15 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="34">
+    <tableColumn id="7" name="Burst Time" dataDxfId="20">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="10"/>
-    <tableColumn id="14" name="Weight" dataDxfId="9"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="19"/>
+    <tableColumn id="14" name="Weight" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1240,17 +1221,17 @@
   <tableColumns count="19">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="32">
+    <tableColumn id="22" name="Balance" dataDxfId="16">
       <calculatedColumnFormula>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="31">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="15">
       <calculatedColumnFormula>SUM(Table1681015[[#This Row],[DPS]]*Table1681015[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="30">
+    <tableColumn id="15" name="DPS" dataDxfId="14">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Damage]]*Table1681015[[#This Row],[Burst]])/(Table1681015[[#This Row],[Ranged Cooldown]]+Table1681015[[#This Row],[Warm-up]]+(Table1681015[[#This Row],[Burst Time]]*(Table1681015[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="29">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="13">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Accuracy (Close)]]+Table1681015[[#This Row],[Accuracy (Short)]]+Table1681015[[#This Row],[Accuracy (Medium)]]+Table1681015[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1260,7 +1241,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="28">
+    <tableColumn id="7" name="Burst Time" dataDxfId="12">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -1289,17 +1270,17 @@
   <tableColumns count="21">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="26">
+    <tableColumn id="22" name="Balance" dataDxfId="10">
       <calculatedColumnFormula>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="25">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="9">
       <calculatedColumnFormula>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="24">
+    <tableColumn id="15" name="DPS" dataDxfId="8">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="23">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="7">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1309,7 +1290,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="22">
+    <tableColumn id="7" name="Burst Time" dataDxfId="6">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -1340,17 +1321,17 @@
   <tableColumns count="21">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="20">
+    <tableColumn id="22" name="Balance" dataDxfId="4">
       <calculatedColumnFormula>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="19">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="3">
       <calculatedColumnFormula>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="18">
+    <tableColumn id="15" name="DPS" dataDxfId="2">
       <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="17">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="1">
       <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1360,7 +1341,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="16">
+    <tableColumn id="7" name="Burst Time" dataDxfId="0">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -1662,7 +1643,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1695,7 +1676,7 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -1777,10 +1758,10 @@
         <v>17</v>
       </c>
       <c r="T3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="U3" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickTop="1">
@@ -1916,30 +1897,73 @@
       <c r="U5" s="20"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="e">
+      <c r="A6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D6" s="3" t="e">
+        <v>1.45089</v>
+      </c>
+      <c r="D6" s="3">
         <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="2" t="e">
+        <v>4.41</v>
+      </c>
+      <c r="E6" s="2">
         <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>22.9</v>
       </c>
       <c r="G6" s="2">
         <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="e">
-        <f t="shared" ref="O6:O16" si="0">60/N6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T6" s="17"/>
-      <c r="U6" s="18"/>
+        <v>0.49</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.7</v>
+      </c>
+      <c r="M6">
+        <v>0.3</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="P6">
+        <v>0.81</v>
+      </c>
+      <c r="Q6">
+        <v>0.7</v>
+      </c>
+      <c r="R6">
+        <v>0.25</v>
+      </c>
+      <c r="S6">
+        <v>0.2</v>
+      </c>
+      <c r="T6" s="17">
+        <v>60</v>
+      </c>
+      <c r="U6" s="18">
+        <v>0.71899999999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:21">
       <c r="B7" s="4"/>
@@ -1960,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O7:O16" si="0">60/N7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T7" s="19"/>
@@ -2243,7 +2267,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:C17">
-    <cfRule type="cellIs" dxfId="59" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="greaterThan">
       <formula>1.73</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2309,7 +2333,7 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Table1689[Vol.], 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <f>COUNTIF(Table1689[Vol.], 2)</f>
@@ -2351,7 +2375,7 @@
       </c>
       <c r="B4">
         <f>COUNTIF(Table16[Vol.], 1)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <f>COUNTIF(Table16[Vol.], 2)</f>
@@ -2372,7 +2396,7 @@
       </c>
       <c r="B5">
         <f>COUNTIF(Table16810[Vol.], 1)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <f>COUNTIF(Table16810[Vol.], 2)</f>
@@ -2393,7 +2417,7 @@
       </c>
       <c r="B6">
         <f>COUNTIF(Table1681011[Vol.], 1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <f>COUNTIF(Table1681011[Vol.], 2)</f>
@@ -2456,7 +2480,7 @@
       </c>
       <c r="B9">
         <f>COUNTIF(Table16810111213[Vol.], 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <f>COUNTIF(Table16810111213[Vol.], 2)</f>
@@ -2499,7 +2523,7 @@
       </c>
       <c r="B13">
         <f>SUM(B2:B11)</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <f t="shared" ref="C13:K13" si="0">SUM(C2:C11)</f>
@@ -2581,7 +2605,7 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -2663,10 +2687,10 @@
         <v>17</v>
       </c>
       <c r="T3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="U3" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickTop="1">
@@ -3166,7 +3190,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="greaterThan">
       <formula>1.63</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3182,8 +3206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3216,7 +3240,7 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -3298,10 +3322,10 @@
         <v>17</v>
       </c>
       <c r="T3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="U3" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickTop="1">
@@ -3774,7 +3798,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B11" s="12">
         <v>1</v>
@@ -3839,54 +3863,140 @@
       <c r="U11" s="20"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="B12" s="12"/>
-      <c r="C12" s="2" t="e">
+      <c r="A12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="3" t="e">
+        <v>1.9278456521739133</v>
+      </c>
+      <c r="D12" s="3">
         <f>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="2" t="e">
+        <v>5.5239130434782622</v>
+      </c>
+      <c r="E12" s="2">
         <f>SUM((Table16[[#This Row],[Damage]]*Table16[[#This Row],[Burst]])/(Table16[[#This Row],[Ranged Cooldown]]+Table16[[#This Row],[Warm-up]]+(Table16[[#This Row],[Burst Time]]*(Table16[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>9.5652173913043494</v>
+      </c>
+      <c r="F12">
+        <v>19.899999999999999</v>
       </c>
       <c r="G12" s="2">
         <f>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T12" s="17"/>
-      <c r="U12" s="18"/>
+        <v>0.57750000000000001</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>0.5</v>
+      </c>
+      <c r="J12">
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.6</v>
+      </c>
+      <c r="M12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="P12">
+        <v>0.85</v>
+      </c>
+      <c r="Q12">
+        <v>0.88</v>
+      </c>
+      <c r="R12">
+        <v>0.41</v>
+      </c>
+      <c r="S12">
+        <v>0.17</v>
+      </c>
+      <c r="T12" s="17">
+        <v>51</v>
+      </c>
+      <c r="U12" s="18">
+        <v>2.78</v>
+      </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="B13" s="12"/>
-      <c r="C13" s="2" t="e">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="3" t="e">
+        <v>2.4828825503355705</v>
+      </c>
+      <c r="D13" s="3">
         <f>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="2" t="e">
+        <v>6.9161073825503356</v>
+      </c>
+      <c r="E13" s="2">
         <f>SUM((Table16[[#This Row],[Damage]]*Table16[[#This Row],[Burst]])/(Table16[[#This Row],[Ranged Cooldown]]+Table16[[#This Row],[Warm-up]]+(Table16[[#This Row],[Burst Time]]*(Table16[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>12.080536912751677</v>
+      </c>
+      <c r="F13">
+        <v>22.9</v>
       </c>
       <c r="G13" s="2">
         <f>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="2" t="e">
+        <v>0.57250000000000001</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>0.5</v>
+      </c>
+      <c r="J13">
+        <v>13</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1.5</v>
+      </c>
+      <c r="M13">
+        <v>0.65</v>
+      </c>
+      <c r="N13">
+        <v>360</v>
+      </c>
+      <c r="O13" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T13" s="19"/>
-      <c r="U13" s="20"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P13">
+        <v>0.9</v>
+      </c>
+      <c r="Q13">
+        <v>0.82</v>
+      </c>
+      <c r="R13">
+        <v>0.4</v>
+      </c>
+      <c r="S13">
+        <v>0.17</v>
+      </c>
+      <c r="T13" s="19">
+        <v>48</v>
+      </c>
+      <c r="U13" s="20">
+        <v>3.12</v>
+      </c>
     </row>
     <row r="14" spans="1:21">
       <c r="B14" s="12"/>
@@ -4031,7 +4141,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C18">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="greaterThan">
       <formula>2.599</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4045,10 +4155,1495 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" t="s">
+        <v>88</v>
+      </c>
+      <c r="U3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>3.1957417582417578</v>
+      </c>
+      <c r="D4" s="3">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>6.7994505494505484</v>
+      </c>
+      <c r="E4" s="2">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>10.879120879120878</v>
+      </c>
+      <c r="F4">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.625</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="J4">
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1.7</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>360</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" ref="O4:O20" si="0">60/N4</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P4">
+        <v>0.6</v>
+      </c>
+      <c r="Q4">
+        <v>0.7</v>
+      </c>
+      <c r="R4">
+        <v>0.65</v>
+      </c>
+      <c r="S4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>2.8350000000000004</v>
+      </c>
+      <c r="D5" s="3">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>4.4296875000000009</v>
+      </c>
+      <c r="E5" s="2">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>5.625</v>
+      </c>
+      <c r="F5">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.78750000000000009</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>1.5</v>
+      </c>
+      <c r="J5">
+        <v>27</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1.5</v>
+      </c>
+      <c r="M5">
+        <v>1.7</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="P5">
+        <v>0.65</v>
+      </c>
+      <c r="Q5">
+        <v>0.8</v>
+      </c>
+      <c r="R5">
+        <v>0.9</v>
+      </c>
+      <c r="S5">
+        <v>0.8</v>
+      </c>
+      <c r="T5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>3.0607688571428571</v>
+      </c>
+      <c r="D6" s="3">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>6.8168571428571427</v>
+      </c>
+      <c r="E6" s="2">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>11.314285714285715</v>
+      </c>
+      <c r="F6">
+        <v>30.9</v>
+      </c>
+      <c r="G6" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.60249999999999992</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1.65</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>450</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P6">
+        <v>0.6</v>
+      </c>
+      <c r="Q6">
+        <v>0.7</v>
+      </c>
+      <c r="R6">
+        <v>0.61</v>
+      </c>
+      <c r="S6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>2.9270985714285711</v>
+      </c>
+      <c r="D7" s="3">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>5.1442857142857141</v>
+      </c>
+      <c r="E7" s="2">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>7.4285714285714288</v>
+      </c>
+      <c r="F7">
+        <v>37.9</v>
+      </c>
+      <c r="G7" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.6925</v>
+      </c>
+      <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1.9</v>
+      </c>
+      <c r="M7">
+        <v>1.4</v>
+      </c>
+      <c r="N7">
+        <v>300</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="P7">
+        <v>0.4</v>
+      </c>
+      <c r="Q7">
+        <v>0.7</v>
+      </c>
+      <c r="R7">
+        <v>0.92</v>
+      </c>
+      <c r="S7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>3.1897030237580988</v>
+      </c>
+      <c r="D8" s="3">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>6.9492440604751602</v>
+      </c>
+      <c r="E8" s="2">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>10.691144708423325</v>
+      </c>
+      <c r="F8">
+        <v>31.9</v>
+      </c>
+      <c r="G8" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1.72</v>
+      </c>
+      <c r="M8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N8">
+        <v>450</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P8">
+        <v>0.6</v>
+      </c>
+      <c r="Q8">
+        <v>0.75</v>
+      </c>
+      <c r="R8">
+        <v>0.7</v>
+      </c>
+      <c r="S8">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>2.937166103518777</v>
+      </c>
+      <c r="D9" s="3">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>7.0099429678252436</v>
+      </c>
+      <c r="E9" s="2">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>12.298145557588148</v>
+      </c>
+      <c r="F9">
+        <v>27.9</v>
+      </c>
+      <c r="G9" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+      <c r="J9">
+        <v>14</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1.55</v>
+      </c>
+      <c r="M9">
+        <v>0.9</v>
+      </c>
+      <c r="N9">
+        <v>514.29</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11666569445254624</v>
+      </c>
+      <c r="P9">
+        <v>0.8</v>
+      </c>
+      <c r="Q9">
+        <v>0.78</v>
+      </c>
+      <c r="R9">
+        <v>0.4</v>
+      </c>
+      <c r="S9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>3.0167445812807876</v>
+      </c>
+      <c r="D10" s="3">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>6.169211822660098</v>
+      </c>
+      <c r="E10" s="2">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>9.7536945812807883</v>
+      </c>
+      <c r="F10">
+        <v>34.9</v>
+      </c>
+      <c r="G10" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.63249999999999995</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+      <c r="J10">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1.85</v>
+      </c>
+      <c r="M10">
+        <v>1.2</v>
+      </c>
+      <c r="N10">
+        <v>360</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P10">
+        <v>0.4</v>
+      </c>
+      <c r="Q10">
+        <v>0.75</v>
+      </c>
+      <c r="R10">
+        <v>0.8</v>
+      </c>
+      <c r="S10">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>3.174454502814259</v>
+      </c>
+      <c r="D11" s="3">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>6.3616322701688564</v>
+      </c>
+      <c r="E11" s="2">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>9.2870544090056288</v>
+      </c>
+      <c r="F11">
+        <v>35.9</v>
+      </c>
+      <c r="G11" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>0.5</v>
+      </c>
+      <c r="J11">
+        <v>14</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1.92</v>
+      </c>
+      <c r="M11">
+        <v>1.3</v>
+      </c>
+      <c r="N11">
+        <v>360</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P11">
+        <v>0.4</v>
+      </c>
+      <c r="Q11">
+        <v>0.8</v>
+      </c>
+      <c r="R11">
+        <v>0.89</v>
+      </c>
+      <c r="S11">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>2.9283123287671229</v>
+      </c>
+      <c r="D12" s="3">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>5.0575342465753419</v>
+      </c>
+      <c r="E12" s="2">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>7.1232876712328759</v>
+      </c>
+      <c r="F12">
+        <v>38.9</v>
+      </c>
+      <c r="G12" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.71</v>
+      </c>
+      <c r="H12">
+        <v>13</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>19</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1.95</v>
+      </c>
+      <c r="M12">
+        <v>1.5</v>
+      </c>
+      <c r="N12">
+        <v>300</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="P12">
+        <v>0.4</v>
+      </c>
+      <c r="Q12">
+        <v>0.73</v>
+      </c>
+      <c r="R12">
+        <v>0.93</v>
+      </c>
+      <c r="S12">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>3.0179775132275131</v>
+      </c>
+      <c r="D13" s="3">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>5.0383597883597879</v>
+      </c>
+      <c r="E13" s="2">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>6.8783068783068781</v>
+      </c>
+      <c r="F13">
+        <v>40.9</v>
+      </c>
+      <c r="G13" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.73249999999999993</v>
+      </c>
+      <c r="H13">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>19</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1.98</v>
+      </c>
+      <c r="M13">
+        <v>1.6</v>
+      </c>
+      <c r="N13">
+        <v>300</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="P13">
+        <v>0.4</v>
+      </c>
+      <c r="Q13">
+        <v>0.67</v>
+      </c>
+      <c r="R13">
+        <v>0.98</v>
+      </c>
+      <c r="S13">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>3.039353012048192</v>
+      </c>
+      <c r="D14" s="3">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>4.6831325301204814</v>
+      </c>
+      <c r="E14" s="2">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>6.2650602409638552</v>
+      </c>
+      <c r="F14">
+        <v>41.9</v>
+      </c>
+      <c r="G14" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.74749999999999994</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>23</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>2.1</v>
+      </c>
+      <c r="M14">
+        <v>1.8</v>
+      </c>
+      <c r="N14">
+        <v>240</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="P14">
+        <v>0.4</v>
+      </c>
+      <c r="Q14">
+        <v>0.71</v>
+      </c>
+      <c r="R14">
+        <v>0.98</v>
+      </c>
+      <c r="S14">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>3.0081290322580645</v>
+      </c>
+      <c r="D15" s="3">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>7.3548387096774199</v>
+      </c>
+      <c r="E15" s="2">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>12.903225806451612</v>
+      </c>
+      <c r="F15">
+        <v>29.9</v>
+      </c>
+      <c r="G15" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>0.5</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>1.7</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>450</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q15">
+        <v>0.65</v>
+      </c>
+      <c r="R15">
+        <v>0.6</v>
+      </c>
+      <c r="S15">
+        <v>0.48</v>
+      </c>
+      <c r="T15">
+        <v>45</v>
+      </c>
+      <c r="U15">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>2.9985267857142857</v>
+      </c>
+      <c r="D16" s="3">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>6.8303571428571432</v>
+      </c>
+      <c r="E16" s="2">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>10.714285714285715</v>
+      </c>
+      <c r="F16">
+        <v>26.9</v>
+      </c>
+      <c r="G16" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>0.5</v>
+      </c>
+      <c r="J16">
+        <v>17</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1.81</v>
+      </c>
+      <c r="M16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N16">
+        <v>300</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="P16">
+        <v>0.6</v>
+      </c>
+      <c r="Q16">
+        <v>0.73</v>
+      </c>
+      <c r="R16">
+        <v>0.67</v>
+      </c>
+      <c r="S16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T16">
+        <v>70</v>
+      </c>
+      <c r="U16">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="4" customFormat="1">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>3.2797636363636364</v>
+      </c>
+      <c r="D17" s="3">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>7.1454545454545455</v>
+      </c>
+      <c r="E17" s="2">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>10.90909090909091</v>
+      </c>
+      <c r="F17">
+        <v>28.9</v>
+      </c>
+      <c r="G17" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.65499999999999992</v>
+      </c>
+      <c r="H17">
+        <v>12</v>
+      </c>
+      <c r="I17">
+        <v>0.5</v>
+      </c>
+      <c r="J17">
+        <v>17</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1.75</v>
+      </c>
+      <c r="M17">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N17">
+        <v>300</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="P17">
+        <v>0.6</v>
+      </c>
+      <c r="Q17">
+        <v>0.76</v>
+      </c>
+      <c r="R17">
+        <v>0.7</v>
+      </c>
+      <c r="S17">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T17">
+        <v>70</v>
+      </c>
+      <c r="U17">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>2.4320833333333334</v>
+      </c>
+      <c r="D18" s="3">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>5.416666666666667</v>
+      </c>
+      <c r="E18" s="2">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="F18">
+        <v>27.9</v>
+      </c>
+      <c r="G18" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.65</v>
+      </c>
+      <c r="H18">
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <v>0.5</v>
+      </c>
+      <c r="J18">
+        <v>17</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.9</v>
+      </c>
+      <c r="M18">
+        <v>0.9</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="P18">
+        <v>0.5</v>
+      </c>
+      <c r="Q18">
+        <v>0.79</v>
+      </c>
+      <c r="R18">
+        <v>0.73</v>
+      </c>
+      <c r="S18">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T18">
+        <v>72</v>
+      </c>
+      <c r="U18">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>2.3732000000000002</v>
+      </c>
+      <c r="D19" s="3">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="E19" s="2">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>23.9</v>
+      </c>
+      <c r="G19" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>0.5</v>
+      </c>
+      <c r="J19">
+        <v>11</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>720</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="P19">
+        <v>0.3</v>
+      </c>
+      <c r="Q19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R19">
+        <v>0.5</v>
+      </c>
+      <c r="S19">
+        <v>0.35</v>
+      </c>
+      <c r="T19">
+        <v>45</v>
+      </c>
+      <c r="U19">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>3.0152780898876399</v>
+      </c>
+      <c r="D20" s="3">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>6.2949438202247174</v>
+      </c>
+      <c r="E20" s="2">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>10.112359550561797</v>
+      </c>
+      <c r="F20" s="7">
+        <v>33.9</v>
+      </c>
+      <c r="G20" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.62249999999999994</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>0.5</v>
+      </c>
+      <c r="J20">
+        <v>14</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1.65</v>
+      </c>
+      <c r="M20">
+        <v>1.05</v>
+      </c>
+      <c r="N20">
+        <v>450</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P20">
+        <v>0.6</v>
+      </c>
+      <c r="Q20">
+        <v>0.74</v>
+      </c>
+      <c r="R20">
+        <v>0.63</v>
+      </c>
+      <c r="S20">
+        <v>0.52</v>
+      </c>
+      <c r="T20" s="7">
+        <v>74</v>
+      </c>
+      <c r="U20" s="7">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="C21" s="2" t="e">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D21" s="3" t="e">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" s="2" t="e">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="2" t="e">
+        <f t="shared" ref="O21:O29" si="1">60/N21</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="C22" s="2" t="e">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D22" s="3" t="e">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="2" t="e">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="C23" s="2" t="e">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D23" s="3" t="e">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" s="2" t="e">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="C24" s="2" t="e">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="3" t="e">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="2" t="e">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="C25" s="2" t="e">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="3" t="e">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="2" t="e">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="C26" s="2" t="e">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="3" t="e">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="2" t="e">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="C27" s="2" t="e">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="3" t="e">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="2" t="e">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="C28" s="2" t="e">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="3" t="e">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="2" t="e">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8" t="e">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="9" t="e">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="8" t="e">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C4:C998">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
+      <formula>3.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4081,10 +5676,7 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -4107,1147 +5699,6 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T3" t="s">
-        <v>89</v>
-      </c>
-      <c r="U3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2">
-        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.1957417582417578</v>
-      </c>
-      <c r="D4" s="3">
-        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.7994505494505484</v>
-      </c>
-      <c r="E4" s="2">
-        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>10.879120879120878</v>
-      </c>
-      <c r="F4">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2">
-        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.625</v>
-      </c>
-      <c r="H4">
-        <v>11</v>
-      </c>
-      <c r="I4">
-        <v>0.5</v>
-      </c>
-      <c r="J4">
-        <v>16</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1.7</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>360</v>
-      </c>
-      <c r="O4" s="2">
-        <f t="shared" ref="O4:O20" si="0">60/N4</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="P4">
-        <v>0.6</v>
-      </c>
-      <c r="Q4">
-        <v>0.7</v>
-      </c>
-      <c r="R4">
-        <v>0.65</v>
-      </c>
-      <c r="S4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="T4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2">
-        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.8350000000000004</v>
-      </c>
-      <c r="D5" s="3">
-        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>4.4296875000000009</v>
-      </c>
-      <c r="E5" s="2">
-        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>5.625</v>
-      </c>
-      <c r="F5">
-        <v>37</v>
-      </c>
-      <c r="G5" s="2">
-        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.78750000000000009</v>
-      </c>
-      <c r="H5">
-        <v>18</v>
-      </c>
-      <c r="I5">
-        <v>1.5</v>
-      </c>
-      <c r="J5">
-        <v>27</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1.5</v>
-      </c>
-      <c r="M5">
-        <v>1.7</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="P5">
-        <v>0.65</v>
-      </c>
-      <c r="Q5">
-        <v>0.8</v>
-      </c>
-      <c r="R5">
-        <v>0.9</v>
-      </c>
-      <c r="S5">
-        <v>0.8</v>
-      </c>
-      <c r="T5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.0607688571428571</v>
-      </c>
-      <c r="D6" s="3">
-        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.8168571428571427</v>
-      </c>
-      <c r="E6" s="2">
-        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>11.314285714285715</v>
-      </c>
-      <c r="F6">
-        <v>30.9</v>
-      </c>
-      <c r="G6" s="2">
-        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.60249999999999992</v>
-      </c>
-      <c r="H6">
-        <v>11</v>
-      </c>
-      <c r="I6">
-        <v>0.5</v>
-      </c>
-      <c r="J6">
-        <v>14</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1.65</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>450</v>
-      </c>
-      <c r="O6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="P6">
-        <v>0.6</v>
-      </c>
-      <c r="Q6">
-        <v>0.7</v>
-      </c>
-      <c r="R6">
-        <v>0.61</v>
-      </c>
-      <c r="S6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.9270985714285711</v>
-      </c>
-      <c r="D7" s="3">
-        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>5.1442857142857141</v>
-      </c>
-      <c r="E7" s="2">
-        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>7.4285714285714288</v>
-      </c>
-      <c r="F7">
-        <v>37.9</v>
-      </c>
-      <c r="G7" s="2">
-        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.6925</v>
-      </c>
-      <c r="H7">
-        <v>13</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>19</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1.9</v>
-      </c>
-      <c r="M7">
-        <v>1.4</v>
-      </c>
-      <c r="N7">
-        <v>300</v>
-      </c>
-      <c r="O7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="P7">
-        <v>0.4</v>
-      </c>
-      <c r="Q7">
-        <v>0.7</v>
-      </c>
-      <c r="R7">
-        <v>0.92</v>
-      </c>
-      <c r="S7">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.1897030237580988</v>
-      </c>
-      <c r="D8" s="3">
-        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.9492440604751602</v>
-      </c>
-      <c r="E8" s="2">
-        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>10.691144708423325</v>
-      </c>
-      <c r="F8">
-        <v>31.9</v>
-      </c>
-      <c r="G8" s="2">
-        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.64999999999999991</v>
-      </c>
-      <c r="H8">
-        <v>11</v>
-      </c>
-      <c r="I8">
-        <v>0.5</v>
-      </c>
-      <c r="J8">
-        <v>14</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1.72</v>
-      </c>
-      <c r="M8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N8">
-        <v>450</v>
-      </c>
-      <c r="O8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="P8">
-        <v>0.6</v>
-      </c>
-      <c r="Q8">
-        <v>0.75</v>
-      </c>
-      <c r="R8">
-        <v>0.7</v>
-      </c>
-      <c r="S8">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.937166103518777</v>
-      </c>
-      <c r="D9" s="3">
-        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>7.0099429678252436</v>
-      </c>
-      <c r="E9" s="2">
-        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>12.298145557588148</v>
-      </c>
-      <c r="F9">
-        <v>27.9</v>
-      </c>
-      <c r="G9" s="2">
-        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H9">
-        <v>11</v>
-      </c>
-      <c r="I9">
-        <v>0.5</v>
-      </c>
-      <c r="J9">
-        <v>14</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1.55</v>
-      </c>
-      <c r="M9">
-        <v>0.9</v>
-      </c>
-      <c r="N9">
-        <v>514.29</v>
-      </c>
-      <c r="O9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.11666569445254624</v>
-      </c>
-      <c r="P9">
-        <v>0.8</v>
-      </c>
-      <c r="Q9">
-        <v>0.78</v>
-      </c>
-      <c r="R9">
-        <v>0.4</v>
-      </c>
-      <c r="S9">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.0167445812807876</v>
-      </c>
-      <c r="D10" s="3">
-        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.169211822660098</v>
-      </c>
-      <c r="E10" s="2">
-        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>9.7536945812807883</v>
-      </c>
-      <c r="F10">
-        <v>34.9</v>
-      </c>
-      <c r="G10" s="2">
-        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.63249999999999995</v>
-      </c>
-      <c r="H10">
-        <v>11</v>
-      </c>
-      <c r="I10">
-        <v>0.5</v>
-      </c>
-      <c r="J10">
-        <v>14</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1.85</v>
-      </c>
-      <c r="M10">
-        <v>1.2</v>
-      </c>
-      <c r="N10">
-        <v>360</v>
-      </c>
-      <c r="O10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="P10">
-        <v>0.4</v>
-      </c>
-      <c r="Q10">
-        <v>0.75</v>
-      </c>
-      <c r="R10">
-        <v>0.8</v>
-      </c>
-      <c r="S10">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.174454502814259</v>
-      </c>
-      <c r="D11" s="3">
-        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.3616322701688564</v>
-      </c>
-      <c r="E11" s="2">
-        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>9.2870544090056288</v>
-      </c>
-      <c r="F11">
-        <v>35.9</v>
-      </c>
-      <c r="G11" s="2">
-        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="H11">
-        <v>11</v>
-      </c>
-      <c r="I11">
-        <v>0.5</v>
-      </c>
-      <c r="J11">
-        <v>14</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1.92</v>
-      </c>
-      <c r="M11">
-        <v>1.3</v>
-      </c>
-      <c r="N11">
-        <v>360</v>
-      </c>
-      <c r="O11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="P11">
-        <v>0.4</v>
-      </c>
-      <c r="Q11">
-        <v>0.8</v>
-      </c>
-      <c r="R11">
-        <v>0.89</v>
-      </c>
-      <c r="S11">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.9283123287671229</v>
-      </c>
-      <c r="D12" s="3">
-        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>5.0575342465753419</v>
-      </c>
-      <c r="E12" s="2">
-        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>7.1232876712328759</v>
-      </c>
-      <c r="F12">
-        <v>38.9</v>
-      </c>
-      <c r="G12" s="2">
-        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.71</v>
-      </c>
-      <c r="H12">
-        <v>13</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>19</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1.95</v>
-      </c>
-      <c r="M12">
-        <v>1.5</v>
-      </c>
-      <c r="N12">
-        <v>300</v>
-      </c>
-      <c r="O12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="P12">
-        <v>0.4</v>
-      </c>
-      <c r="Q12">
-        <v>0.73</v>
-      </c>
-      <c r="R12">
-        <v>0.93</v>
-      </c>
-      <c r="S12">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.0179775132275131</v>
-      </c>
-      <c r="D13" s="3">
-        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>5.0383597883597879</v>
-      </c>
-      <c r="E13" s="2">
-        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>6.8783068783068781</v>
-      </c>
-      <c r="F13">
-        <v>40.9</v>
-      </c>
-      <c r="G13" s="2">
-        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.73249999999999993</v>
-      </c>
-      <c r="H13">
-        <v>13</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>19</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1.98</v>
-      </c>
-      <c r="M13">
-        <v>1.6</v>
-      </c>
-      <c r="N13">
-        <v>300</v>
-      </c>
-      <c r="O13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="P13">
-        <v>0.4</v>
-      </c>
-      <c r="Q13">
-        <v>0.67</v>
-      </c>
-      <c r="R13">
-        <v>0.98</v>
-      </c>
-      <c r="S13">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.039353012048192</v>
-      </c>
-      <c r="D14" s="3">
-        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>4.6831325301204814</v>
-      </c>
-      <c r="E14" s="2">
-        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>6.2650602409638552</v>
-      </c>
-      <c r="F14">
-        <v>41.9</v>
-      </c>
-      <c r="G14" s="2">
-        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.74749999999999994</v>
-      </c>
-      <c r="H14">
-        <v>13</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>23</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>2.1</v>
-      </c>
-      <c r="M14">
-        <v>1.8</v>
-      </c>
-      <c r="N14">
-        <v>240</v>
-      </c>
-      <c r="O14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="P14">
-        <v>0.4</v>
-      </c>
-      <c r="Q14">
-        <v>0.71</v>
-      </c>
-      <c r="R14">
-        <v>0.98</v>
-      </c>
-      <c r="S14">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.0081290322580645</v>
-      </c>
-      <c r="D15" s="3">
-        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>7.3548387096774199</v>
-      </c>
-      <c r="E15" s="2">
-        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>12.903225806451612</v>
-      </c>
-      <c r="F15">
-        <v>29.9</v>
-      </c>
-      <c r="G15" s="2">
-        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
-      <c r="I15">
-        <v>0.5</v>
-      </c>
-      <c r="J15">
-        <v>11</v>
-      </c>
-      <c r="K15">
-        <v>4</v>
-      </c>
-      <c r="L15">
-        <v>1.7</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>450</v>
-      </c>
-      <c r="O15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="P15">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="Q15">
-        <v>0.65</v>
-      </c>
-      <c r="R15">
-        <v>0.6</v>
-      </c>
-      <c r="S15">
-        <v>0.48</v>
-      </c>
-      <c r="T15">
-        <v>45</v>
-      </c>
-      <c r="U15">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.9985267857142857</v>
-      </c>
-      <c r="D16" s="3">
-        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.8303571428571432</v>
-      </c>
-      <c r="E16" s="2">
-        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>10.714285714285715</v>
-      </c>
-      <c r="F16">
-        <v>26.9</v>
-      </c>
-      <c r="G16" s="2">
-        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.63749999999999996</v>
-      </c>
-      <c r="H16">
-        <v>12</v>
-      </c>
-      <c r="I16">
-        <v>0.5</v>
-      </c>
-      <c r="J16">
-        <v>17</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1.81</v>
-      </c>
-      <c r="M16">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="N16">
-        <v>300</v>
-      </c>
-      <c r="O16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="P16">
-        <v>0.6</v>
-      </c>
-      <c r="Q16">
-        <v>0.73</v>
-      </c>
-      <c r="R16">
-        <v>0.67</v>
-      </c>
-      <c r="S16">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="T16">
-        <v>70</v>
-      </c>
-      <c r="U16">
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="4" customFormat="1">
-      <c r="A17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.2797636363636364</v>
-      </c>
-      <c r="D17" s="3">
-        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>7.1454545454545455</v>
-      </c>
-      <c r="E17" s="2">
-        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>10.90909090909091</v>
-      </c>
-      <c r="F17">
-        <v>28.9</v>
-      </c>
-      <c r="G17" s="2">
-        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.65499999999999992</v>
-      </c>
-      <c r="H17">
-        <v>12</v>
-      </c>
-      <c r="I17">
-        <v>0.5</v>
-      </c>
-      <c r="J17">
-        <v>17</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1.75</v>
-      </c>
-      <c r="M17">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="N17">
-        <v>300</v>
-      </c>
-      <c r="O17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="P17">
-        <v>0.6</v>
-      </c>
-      <c r="Q17">
-        <v>0.76</v>
-      </c>
-      <c r="R17">
-        <v>0.7</v>
-      </c>
-      <c r="S17">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="T17">
-        <v>70</v>
-      </c>
-      <c r="U17">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="C18" s="2" t="e">
-        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" s="3" t="e">
-        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="2" t="e">
-        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="2">
-        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="C19" s="2" t="e">
-        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="3" t="e">
-        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="2" t="e">
-        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="2">
-        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="2" t="e">
-        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="3" t="e">
-        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="2" t="e">
-        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="2">
-        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C4:C999">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>3.2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1">
       <c r="A3" t="s">
         <v>1</v>
@@ -5307,10 +5758,10 @@
         <v>17</v>
       </c>
       <c r="T3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="U3" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickTop="1">
@@ -5447,7 +5898,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -5511,29 +5962,73 @@
       <c r="U6" s="18"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="B7" s="4"/>
-      <c r="C7" s="2" t="e">
+      <c r="A7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="3" t="e">
+        <v>2.8188557692307694</v>
+      </c>
+      <c r="D7" s="3">
         <f>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="2" t="e">
+        <v>3.0673076923076925</v>
+      </c>
+      <c r="E7" s="2">
         <f>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>4.4615384615384617</v>
+      </c>
+      <c r="F7">
+        <v>49.9</v>
       </c>
       <c r="G7" s="2">
         <f>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="2" t="e">
-        <f t="shared" ref="O7:O16" si="0">60/N7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T7" s="19"/>
-      <c r="U7" s="20"/>
+        <v>0.6875</v>
+      </c>
+      <c r="H7">
+        <v>29</v>
+      </c>
+      <c r="I7">
+        <v>1.5</v>
+      </c>
+      <c r="J7">
+        <v>42</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2.6</v>
+      </c>
+      <c r="M7">
+        <v>3.9</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="P7">
+        <v>0.4</v>
+      </c>
+      <c r="Q7">
+        <v>0.68</v>
+      </c>
+      <c r="R7">
+        <v>0.82</v>
+      </c>
+      <c r="S7">
+        <v>0.85</v>
+      </c>
+      <c r="T7" s="19">
+        <v>120</v>
+      </c>
+      <c r="U7" s="20">
+        <v>7.54</v>
+      </c>
     </row>
     <row r="8" spans="1:21">
       <c r="B8" s="4"/>
@@ -5554,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O8:O16" si="0">60/N8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T8" s="17"/>
@@ -5860,7 +6355,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
       <formula>2.639</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5876,7 +6371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
@@ -5910,7 +6405,7 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -6716,7 +7211,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C32">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>4.429</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6733,7 +7228,7 @@
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6767,10 +7262,10 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -6852,10 +7347,10 @@
         <v>17</v>
       </c>
       <c r="T3" t="s">
+        <v>88</v>
+      </c>
+      <c r="U3" t="s">
         <v>89</v>
-      </c>
-      <c r="U3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -6927,7 +7422,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>43</v>
@@ -7061,7 +7556,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -7128,7 +7623,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -7198,7 +7693,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -7268,7 +7763,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -7338,7 +7833,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -7642,7 +8137,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C20">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>3.51</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7658,8 +8153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7689,7 +8184,7 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -7771,10 +8266,10 @@
         <v>17</v>
       </c>
       <c r="T3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="U3" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickTop="1">
@@ -7913,11 +8408,9 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="2">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>1.8259500000000002</v>
@@ -7973,7 +8466,9 @@
       <c r="S6">
         <v>0.41</v>
       </c>
-      <c r="T6" s="17"/>
+      <c r="T6" s="17">
+        <v>55</v>
+      </c>
       <c r="U6" s="18"/>
     </row>
     <row r="7" spans="1:21">
@@ -8304,7 +8799,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>2.789</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8320,7 +8815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Handgun" sheetId="8" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Shotgun" sheetId="12" r:id="rId8"/>
     <sheet name="Melee" sheetId="17" r:id="rId9"/>
     <sheet name="Volumes" sheetId="15" r:id="rId10"/>
+    <sheet name="Math" sheetId="18" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="144">
   <si>
     <t>Weapon Stats - Sleepy's Weapons</t>
   </si>
@@ -202,9 +203,6 @@
     <t>Shotgun</t>
   </si>
   <si>
-    <t>Misc</t>
-  </si>
-  <si>
     <t>Adds:</t>
   </si>
   <si>
@@ -338,6 +336,126 @@
   </si>
   <si>
     <t>MXC RATTLER SBR*</t>
+  </si>
+  <si>
+    <t>Craftable</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Craftable Weapons</t>
+  </si>
+  <si>
+    <t>Vol 1H</t>
+  </si>
+  <si>
+    <t>Vol 2H</t>
+  </si>
+  <si>
+    <t>Vol 3H</t>
+  </si>
+  <si>
+    <t>Vol 4H</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Vol 1Re</t>
+  </si>
+  <si>
+    <t>Vol 2Re</t>
+  </si>
+  <si>
+    <t>Vol 3Re</t>
+  </si>
+  <si>
+    <t>Vol 4Re</t>
+  </si>
+  <si>
+    <t>Vol 1SMG</t>
+  </si>
+  <si>
+    <t>Vol 2SMG</t>
+  </si>
+  <si>
+    <t>Vol 3SMG</t>
+  </si>
+  <si>
+    <t>Vol 4SMG</t>
+  </si>
+  <si>
+    <t>Vol 1Rif</t>
+  </si>
+  <si>
+    <t>Vol 2Rif</t>
+  </si>
+  <si>
+    <t>Vol 3Rif</t>
+  </si>
+  <si>
+    <t>Vol 4Rif</t>
+  </si>
+  <si>
+    <t>Vol 1Sni</t>
+  </si>
+  <si>
+    <t>Vol 2Sni</t>
+  </si>
+  <si>
+    <t>Vol 3Sni</t>
+  </si>
+  <si>
+    <t>Vol 4Sni</t>
+  </si>
+  <si>
+    <t>Vol 1Spr</t>
+  </si>
+  <si>
+    <t>Vol 2Spr</t>
+  </si>
+  <si>
+    <t>Vol 3Spr</t>
+  </si>
+  <si>
+    <t>Vol 4Spr</t>
+  </si>
+  <si>
+    <t>Vol 1Lmg</t>
+  </si>
+  <si>
+    <t>Vol 2Lmg</t>
+  </si>
+  <si>
+    <t>Vol 3Lmg</t>
+  </si>
+  <si>
+    <t>Vol 4Lmg</t>
+  </si>
+  <si>
+    <t>Vol 1Sho</t>
+  </si>
+  <si>
+    <t>Vol 2Sho</t>
+  </si>
+  <si>
+    <t>Vol 3Sho</t>
+  </si>
+  <si>
+    <t>Vol 4Sho</t>
+  </si>
+  <si>
+    <t>Misc (Craftable)</t>
+  </si>
+  <si>
+    <t>Misc (Not Craftable)</t>
   </si>
 </sst>
 </file>
@@ -478,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -506,28 +624,66 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="59">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -555,6 +711,69 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -580,11 +799,40 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -673,41 +921,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -801,13 +1014,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -838,13 +1044,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -934,13 +1133,6 @@
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -952,8 +1144,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1689" displayName="Table1689" ref="A3:U17" totalsRowShown="0">
-  <autoFilter ref="A3:U17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1689" displayName="Table1689" ref="A3:V17" totalsRowShown="0">
+  <autoFilter ref="A3:V17">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -964,21 +1156,22 @@
     <filterColumn colId="9"/>
     <filterColumn colId="19"/>
     <filterColumn colId="20"/>
+    <filterColumn colId="21"/>
   </autoFilter>
-  <tableColumns count="21">
+  <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="54">
+    <tableColumn id="22" name="Balance" dataDxfId="58">
       <calculatedColumnFormula>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="53">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="57">
       <calculatedColumnFormula>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="52">
+    <tableColumn id="15" name="DPS" dataDxfId="56">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="51">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="55">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -988,23 +1181,24 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="50">
+    <tableColumn id="7" name="Burst Time" dataDxfId="54">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="49"/>
-    <tableColumn id="14" name="Weight" dataDxfId="48"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="53"/>
+    <tableColumn id="14" name="Weight" dataDxfId="52"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table168" displayName="Table168" ref="A3:U20" totalsRowShown="0">
-  <autoFilter ref="A3:U20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table168" displayName="Table168" ref="A3:V20" totalsRowShown="0">
+  <autoFilter ref="A3:V20">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -1015,21 +1209,22 @@
     <filterColumn colId="9"/>
     <filterColumn colId="19"/>
     <filterColumn colId="20"/>
+    <filterColumn colId="21"/>
   </autoFilter>
-  <tableColumns count="21">
+  <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="46"/>
-    <tableColumn id="22" name="Balance" dataDxfId="45">
+    <tableColumn id="12" name="Vol." dataDxfId="51"/>
+    <tableColumn id="22" name="Balance" dataDxfId="50">
       <calculatedColumnFormula>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="44">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="49">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="43">
+    <tableColumn id="15" name="DPS" dataDxfId="48">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="42">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="47">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1039,7 +1234,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="41">
+    <tableColumn id="7" name="Burst Time" dataDxfId="46">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -1048,14 +1243,15 @@
     <tableColumn id="11" name="Accuracy (Long)"/>
     <tableColumn id="13" name="Bullet Speed"/>
     <tableColumn id="14" name="Weight"/>
+    <tableColumn id="21" name="Craftable"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="A3:U18" totalsRowShown="0">
-  <autoFilter ref="A3:U18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="A3:V18" totalsRowShown="0">
+  <autoFilter ref="A3:V18">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -1066,21 +1262,22 @@
     <filterColumn colId="9"/>
     <filterColumn colId="19"/>
     <filterColumn colId="20"/>
+    <filterColumn colId="21"/>
   </autoFilter>
-  <tableColumns count="21">
+  <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="39"/>
-    <tableColumn id="22" name="Balance" dataDxfId="38">
+    <tableColumn id="12" name="Vol." dataDxfId="45"/>
+    <tableColumn id="22" name="Balance" dataDxfId="44">
       <calculatedColumnFormula>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="37">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="43">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="36">
+    <tableColumn id="15" name="DPS" dataDxfId="42">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Damage]]*Table16[[#This Row],[Burst]])/(Table16[[#This Row],[Ranged Cooldown]]+Table16[[#This Row],[Warm-up]]+(Table16[[#This Row],[Burst Time]]*(Table16[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="35">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="41">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1090,23 +1287,24 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="34">
+    <tableColumn id="7" name="Burst Time" dataDxfId="40">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="33"/>
-    <tableColumn id="14" name="Weight" dataDxfId="32"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="39"/>
+    <tableColumn id="14" name="Weight" dataDxfId="38"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table16810" displayName="Table16810" ref="A3:U29" totalsRowShown="0">
-  <autoFilter ref="A3:U29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table16810" displayName="Table16810" ref="A3:V29" totalsRowShown="0">
+  <autoFilter ref="A3:V29">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -1117,22 +1315,129 @@
     <filterColumn colId="9"/>
     <filterColumn colId="19"/>
     <filterColumn colId="20"/>
+    <filterColumn colId="21"/>
   </autoFilter>
-  <tableColumns count="21">
+  <tableColumns count="22">
+    <tableColumn id="1" name="Weapon Name"/>
+    <tableColumn id="12" name="Vol."/>
+    <tableColumn id="22" name="Balance" dataDxfId="10">
+      <calculatedColumnFormula>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="Avg DPS" dataDxfId="9">
+      <calculatedColumnFormula>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="DPS" dataDxfId="8">
+      <calculatedColumnFormula>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="Range"/>
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="7">
+      <calculatedColumnFormula>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Damage"/>
+    <tableColumn id="18" name="Stopping Pwr"/>
+    <tableColumn id="19" name="Arm Pen (%)"/>
+    <tableColumn id="3" name="Burst"/>
+    <tableColumn id="4" name="Ranged Cooldown"/>
+    <tableColumn id="5" name="Warm-up"/>
+    <tableColumn id="6" name="RPM"/>
+    <tableColumn id="7" name="Burst Time" dataDxfId="6">
+      <calculatedColumnFormula>60/N4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Accuracy (Close)"/>
+    <tableColumn id="9" name="Accuracy (Short)"/>
+    <tableColumn id="10" name="Accuracy (Medium)"/>
+    <tableColumn id="11" name="Accuracy (Long)"/>
+    <tableColumn id="13" name="Bullet Speed"/>
+    <tableColumn id="14" name="Weight"/>
+    <tableColumn id="21" name="Craftable"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table1681011" displayName="Table1681011" ref="A3:V19" totalsRowShown="0">
+  <autoFilter ref="A3:V19">
+    <filterColumn colId="1"/>
+    <filterColumn colId="2"/>
+    <filterColumn colId="3"/>
+    <filterColumn colId="4"/>
+    <filterColumn colId="5"/>
+    <filterColumn colId="6"/>
+    <filterColumn colId="8"/>
+    <filterColumn colId="9"/>
+    <filterColumn colId="19"/>
+    <filterColumn colId="20"/>
+    <filterColumn colId="21"/>
+  </autoFilter>
+  <tableColumns count="22">
+    <tableColumn id="1" name="Weapon Name"/>
+    <tableColumn id="12" name="Vol."/>
+    <tableColumn id="22" name="Balance" dataDxfId="37">
+      <calculatedColumnFormula>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="Avg DPS" dataDxfId="36">
+      <calculatedColumnFormula>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="DPS" dataDxfId="35">
+      <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="Range"/>
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="34">
+      <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Damage"/>
+    <tableColumn id="18" name="Stopping Pwr"/>
+    <tableColumn id="19" name="Arm Pen (%)"/>
+    <tableColumn id="3" name="Burst"/>
+    <tableColumn id="4" name="Ranged Cooldown"/>
+    <tableColumn id="5" name="Warm-up"/>
+    <tableColumn id="6" name="RPM"/>
+    <tableColumn id="7" name="Burst Time" dataDxfId="33">
+      <calculatedColumnFormula>60/N4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Accuracy (Close)"/>
+    <tableColumn id="9" name="Accuracy (Short)"/>
+    <tableColumn id="10" name="Accuracy (Medium)"/>
+    <tableColumn id="11" name="Accuracy (Long)"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="32"/>
+    <tableColumn id="14" name="Weight" dataDxfId="31"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table1681015" displayName="Table1681015" ref="A3:V32" totalsRowShown="0">
+  <autoFilter ref="A3:V32">
+    <filterColumn colId="1"/>
+    <filterColumn colId="2"/>
+    <filterColumn colId="3"/>
+    <filterColumn colId="4"/>
+    <filterColumn colId="5"/>
+    <filterColumn colId="6"/>
+    <filterColumn colId="8"/>
+    <filterColumn colId="9"/>
+    <filterColumn colId="19"/>
+    <filterColumn colId="20"/>
+    <filterColumn colId="21"/>
+  </autoFilter>
+  <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
     <tableColumn id="22" name="Balance" dataDxfId="30">
-      <calculatedColumnFormula>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="20" name="Avg DPS" dataDxfId="29">
-      <calculatedColumnFormula>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table1681015[[#This Row],[DPS]]*Table1681015[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" name="DPS" dataDxfId="28">
-      <calculatedColumnFormula>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Damage]]*Table1681015[[#This Row],[Burst]])/(Table1681015[[#This Row],[Ranged Cooldown]]+Table1681015[[#This Row],[Warm-up]]+(Table1681015[[#This Row],[Burst Time]]*(Table1681015[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
     <tableColumn id="17" name="Avg Accuracy" dataDxfId="27">
-      <calculatedColumnFormula>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Accuracy (Close)]]+Table1681015[[#This Row],[Accuracy (Short)]]+Table1681015[[#This Row],[Accuracy (Medium)]]+Table1681015[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
     <tableColumn id="18" name="Stopping Pwr"/>
@@ -1150,14 +1455,15 @@
     <tableColumn id="11" name="Accuracy (Long)"/>
     <tableColumn id="13" name="Bullet Speed"/>
     <tableColumn id="14" name="Weight"/>
+    <tableColumn id="21" name="Craftable"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table1681011" displayName="Table1681011" ref="A3:U19" totalsRowShown="0">
-  <autoFilter ref="A3:U19">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table168101112" displayName="Table168101112" ref="A3:V20" totalsRowShown="0">
+  <autoFilter ref="A3:V20">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -1168,22 +1474,23 @@
     <filterColumn colId="9"/>
     <filterColumn colId="19"/>
     <filterColumn colId="20"/>
+    <filterColumn colId="21"/>
   </autoFilter>
-  <tableColumns count="21">
+  <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="24">
-      <calculatedColumnFormula>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
+    <tableColumn id="22" name="Balance" dataDxfId="25">
+      <calculatedColumnFormula>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="23">
-      <calculatedColumnFormula>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
+    <tableColumn id="20" name="Avg DPS" dataDxfId="24">
+      <calculatedColumnFormula>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="22">
-      <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
+    <tableColumn id="15" name="DPS" dataDxfId="23">
+      <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="21">
-      <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="22">
+      <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
     <tableColumn id="18" name="Stopping Pwr"/>
@@ -1192,70 +1499,24 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="20">
+    <tableColumn id="7" name="Burst Time" dataDxfId="21">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="19"/>
-    <tableColumn id="14" name="Weight" dataDxfId="18"/>
+    <tableColumn id="13" name="Bullet Speed"/>
+    <tableColumn id="14" name="Weight"/>
+    <tableColumn id="21" name="Craftable"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table1681015" displayName="Table1681015" ref="A3:S32" totalsRowShown="0">
-  <autoFilter ref="A3:S32">
-    <filterColumn colId="1"/>
-    <filterColumn colId="2"/>
-    <filterColumn colId="3"/>
-    <filterColumn colId="4"/>
-    <filterColumn colId="5"/>
-    <filterColumn colId="6"/>
-    <filterColumn colId="8"/>
-    <filterColumn colId="9"/>
-  </autoFilter>
-  <tableColumns count="19">
-    <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="16">
-      <calculatedColumnFormula>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="15">
-      <calculatedColumnFormula>SUM(Table1681015[[#This Row],[DPS]]*Table1681015[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="14">
-      <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Damage]]*Table1681015[[#This Row],[Burst]])/(Table1681015[[#This Row],[Ranged Cooldown]]+Table1681015[[#This Row],[Warm-up]]+(Table1681015[[#This Row],[Burst Time]]*(Table1681015[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="13">
-      <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Accuracy (Close)]]+Table1681015[[#This Row],[Accuracy (Short)]]+Table1681015[[#This Row],[Accuracy (Medium)]]+Table1681015[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" name="Damage"/>
-    <tableColumn id="18" name="Stopping Pwr"/>
-    <tableColumn id="19" name="Arm Pen (%)"/>
-    <tableColumn id="3" name="Burst"/>
-    <tableColumn id="4" name="Ranged Cooldown"/>
-    <tableColumn id="5" name="Warm-up"/>
-    <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="12">
-      <calculatedColumnFormula>60/N4</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="Accuracy (Close)"/>
-    <tableColumn id="9" name="Accuracy (Short)"/>
-    <tableColumn id="10" name="Accuracy (Medium)"/>
-    <tableColumn id="11" name="Accuracy (Long)"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table168101112" displayName="Table168101112" ref="A3:U20" totalsRowShown="0">
-  <autoFilter ref="A3:U20">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table16810111213" displayName="Table16810111213" ref="A3:V19" totalsRowShown="0">
+  <autoFilter ref="A3:V19">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -1266,72 +1527,22 @@
     <filterColumn colId="9"/>
     <filterColumn colId="19"/>
     <filterColumn colId="20"/>
+    <filterColumn colId="21"/>
   </autoFilter>
-  <tableColumns count="21">
+  <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="10">
-      <calculatedColumnFormula>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="9">
-      <calculatedColumnFormula>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="8">
-      <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="7">
-      <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" name="Damage"/>
-    <tableColumn id="18" name="Stopping Pwr"/>
-    <tableColumn id="19" name="Arm Pen (%)"/>
-    <tableColumn id="3" name="Burst"/>
-    <tableColumn id="4" name="Ranged Cooldown"/>
-    <tableColumn id="5" name="Warm-up"/>
-    <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="6">
-      <calculatedColumnFormula>60/N4</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="Accuracy (Close)"/>
-    <tableColumn id="9" name="Accuracy (Short)"/>
-    <tableColumn id="10" name="Accuracy (Medium)"/>
-    <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed"/>
-    <tableColumn id="14" name="Weight"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table16810111213" displayName="Table16810111213" ref="A3:U19" totalsRowShown="0">
-  <autoFilter ref="A3:U19">
-    <filterColumn colId="1"/>
-    <filterColumn colId="2"/>
-    <filterColumn colId="3"/>
-    <filterColumn colId="4"/>
-    <filterColumn colId="5"/>
-    <filterColumn colId="6"/>
-    <filterColumn colId="8"/>
-    <filterColumn colId="9"/>
-    <filterColumn colId="19"/>
-    <filterColumn colId="20"/>
-  </autoFilter>
-  <tableColumns count="21">
-    <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="4">
+    <tableColumn id="22" name="Balance" dataDxfId="20">
       <calculatedColumnFormula>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="3">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="19">
       <calculatedColumnFormula>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="2">
+    <tableColumn id="15" name="DPS" dataDxfId="18">
       <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="1">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="17">
       <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1341,7 +1552,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="0">
+    <tableColumn id="7" name="Burst Time" dataDxfId="16">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -1350,6 +1561,7 @@
     <tableColumn id="11" name="Accuracy (Long)"/>
     <tableColumn id="13" name="Bullet Speed"/>
     <tableColumn id="14" name="Weight"/>
+    <tableColumn id="21" name="Craftable"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1640,10 +1852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1668,7 +1880,7 @@
     <col min="19" max="19" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1676,10 +1888,10 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1699,7 +1911,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1758,13 +1970,16 @@
         <v>17</v>
       </c>
       <c r="T3" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="U3" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" thickTop="1">
+      <c r="V3" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" thickTop="1">
       <c r="A4" s="6" t="s">
         <v>44</v>
       </c>
@@ -1830,8 +2045,9 @@
         <v>55</v>
       </c>
       <c r="U4" s="18"/>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="14" t="s">
         <v>51</v>
       </c>
@@ -1895,10 +2111,13 @@
       </c>
       <c r="T5" s="19"/>
       <c r="U5" s="20"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -1964,8 +2183,11 @@
       <c r="U6" s="18">
         <v>0.71899999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="e">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -1989,8 +2211,9 @@
       </c>
       <c r="T7" s="19"/>
       <c r="U7" s="20"/>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" s="23"/>
+    </row>
+    <row r="8" spans="1:22">
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="e">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -2014,8 +2237,9 @@
       </c>
       <c r="T8" s="17"/>
       <c r="U8" s="18"/>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" s="22"/>
+    </row>
+    <row r="9" spans="1:22">
       <c r="B9" s="4"/>
       <c r="C9" s="2" t="e">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -2039,8 +2263,9 @@
       </c>
       <c r="T9" s="19"/>
       <c r="U9" s="20"/>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" s="23"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="e">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -2064,8 +2289,9 @@
       </c>
       <c r="T10" s="17"/>
       <c r="U10" s="18"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10" s="22"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="B11" s="4"/>
       <c r="C11" s="2" t="e">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -2089,8 +2315,9 @@
       </c>
       <c r="T11" s="19"/>
       <c r="U11" s="20"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11" s="23"/>
+    </row>
+    <row r="12" spans="1:22">
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="e">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -2114,8 +2341,9 @@
       </c>
       <c r="T12" s="17"/>
       <c r="U12" s="18"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12" s="22"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="B13" s="4"/>
       <c r="C13" s="2" t="e">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -2139,8 +2367,9 @@
       </c>
       <c r="T13" s="19"/>
       <c r="U13" s="20"/>
-    </row>
-    <row r="14" spans="1:21" s="4" customFormat="1">
+      <c r="V13" s="23"/>
+    </row>
+    <row r="14" spans="1:22" s="4" customFormat="1">
       <c r="A14"/>
       <c r="C14" s="2" t="e">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -2176,8 +2405,9 @@
       <c r="S14"/>
       <c r="T14" s="17"/>
       <c r="U14" s="18"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14" s="22"/>
+    </row>
+    <row r="15" spans="1:22">
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="e">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -2201,8 +2431,9 @@
       </c>
       <c r="T15" s="19"/>
       <c r="U15" s="20"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15" s="23"/>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="7"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2" t="e">
@@ -2239,8 +2470,9 @@
       <c r="S16" s="7"/>
       <c r="T16" s="17"/>
       <c r="U16" s="18"/>
-    </row>
-    <row r="17" spans="2:21">
+      <c r="V16" s="22"/>
+    </row>
+    <row r="17" spans="2:22">
       <c r="B17" s="10"/>
       <c r="C17" s="2" t="e">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -2264,10 +2496,11 @@
       </c>
       <c r="T17" s="19"/>
       <c r="U17" s="20"/>
+      <c r="V17" s="23"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:C17">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>1.73</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2281,50 +2514,50 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2480,7 +2713,7 @@
       </c>
       <c r="B9">
         <f>COUNTIF(Table16810111213[Vol.], 1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <f>COUNTIF(Table16810111213[Vol.], 2)</f>
@@ -2497,12 +2730,12 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2517,48 +2750,2708 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13">
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14">
         <f>SUM(B2:B11)</f>
-        <v>31</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ref="C13:K13" si="0">SUM(C2:C11)</f>
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:K14" si="0">SUM(C2:C11)</f>
         <v>4</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15">
+        <f>Math!B2+B11</f>
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <f>Math!B3+C11</f>
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <f>Math!B4+D11</f>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f>Math!B5+E11</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AP20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U1" t="s">
+        <v>124</v>
+      </c>
+      <c r="V1" t="s">
+        <v>125</v>
+      </c>
+      <c r="X1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>COUNTIF(D:D, 1)+COUNTIF(I:I, 1)+COUNTIF(N:N, 1)+COUNTIF(S:S, 1)+COUNTIF(X:X, 1)+COUNTIF(AC:AC, 1)+COUNTIF(AH:AH, 1)+COUNTIF(AM:AM, 1)</f>
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <f>IF(AND(Handgun!B5=1,Handgun!V5="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>IF(AND(Handgun!B5=2,Handgun!V5="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>IF(AND(Handgun!B5=3,Handgun!V5="Yes"),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>IF(AND(Handgun!B5=4,Handgun!V5="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>IF(AND(Revolver!B5=1,Revolver!V5="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>IF(AND(Revolver!B5=1,Revolver!V5="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>IF(AND(Revolver!B5=1,Revolver!V5="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>IF(AND(Revolver!B5=1,Revolver!V5="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>IF(AND(SMG!B6=1,SMG!V6="Yes"),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f>IF(AND(SMG!B6=2,SMG!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>IF(AND(SMG!B6=3,SMG!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>IF(AND(SMG!B6=4,SMG!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>IF(AND(Rifle!B6=1,Rifle!V6="Yes"),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <f>IF(AND(Rifle!B6=2,Rifle!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f>IF(AND(Rifle!B6=3,Rifle!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f>IF(AND(Rifle!B6=4,Rifle!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f>IF(AND('Sniper Rifle'!B5=1,'Sniper Rifle'!V5="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>IF(AND('Sniper Rifle'!B5=2,'Sniper Rifle'!V5="Yes"),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <f>IF(AND('Sniper Rifle'!B5=3,'Sniper Rifle'!V5="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f>IF(AND('Sniper Rifle'!B5=4,'Sniper Rifle'!V5="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f>IF(AND('Spacer Rifle'!B5=1,'Spacer Rifle'!V5="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <f>IF(AND('Spacer Rifle'!B5=2,'Spacer Rifle'!V5="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <f>IF(AND('Spacer Rifle'!B5=3,'Spacer Rifle'!V5="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <f>IF(AND('Spacer Rifle'!B5=4,'Spacer Rifle'!V5="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <f>IF(AND(LMG!B6=1,LMG!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <f>IF(AND(LMG!B6=2,LMG!V6="Yes"),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <f>IF(AND(LMG!B6=3,LMG!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <f>IF(AND(LMG!B6=4,LMG!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <f>IF(AND(Shotgun!B6=1,Shotgun!V6="Yes"),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <f>IF(AND(Shotgun!B6=2,Shotgun!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <f>IF(AND(Shotgun!B6=3,Shotgun!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <f>IF(AND(Shotgun!B6=4,Shotgun!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIF(E:E, 1)+COUNTIF(J:J, 1)+COUNTIF(O:O, 1)+COUNTIF(T:T, 1)+COUNTIF(Y:Y, 1)+COUNTIF(AD:AD, 1)+COUNTIF(AI:AI, 1)+COUNTIF(AN:AN, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f>IF(AND(Handgun!B6=1,Handgun!V6="Yes"),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>IF(AND(Handgun!B6=2,Handgun!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>IF(AND(Handgun!B6=3,Handgun!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>IF(AND(Handgun!B6=4,Handgun!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>IF(AND(Revolver!B6=1,Revolver!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>IF(AND(Revolver!B6=1,Revolver!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>IF(AND(Revolver!B6=1,Revolver!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>IF(AND(Revolver!B6=1,Revolver!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>IF(AND(SMG!B7=1,SMG!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>IF(AND(SMG!B7=2,SMG!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>IF(AND(Revolver!G6=1,Revolver!AB6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>IF(AND(SMG!B7=4,SMG!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>IF(AND(Rifle!B7=1,Rifle!V7="Yes"),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <f>IF(AND(Rifle!B7=2,Rifle!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>IF(AND(Rifle!B7=3,Rifle!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>IF(AND(Rifle!B7=4,Rifle!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>IF(AND('Sniper Rifle'!B6=1,'Sniper Rifle'!V6="Yes"),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <f>IF(AND('Sniper Rifle'!B6=2,'Sniper Rifle'!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f>IF(AND('Sniper Rifle'!B6=3,'Sniper Rifle'!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f>IF(AND('Sniper Rifle'!B6=4,'Sniper Rifle'!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f>IF(AND('Spacer Rifle'!B6=1,'Spacer Rifle'!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <f>IF(AND('Spacer Rifle'!B6=2,'Spacer Rifle'!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <f>IF(AND('Spacer Rifle'!B6=3,'Spacer Rifle'!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <f>IF(AND('Spacer Rifle'!B6=4,'Spacer Rifle'!V6="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <f>IF(AND(LMG!B7=1,LMG!V7="Yes"),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <f>IF(AND(LMG!B7=2,LMG!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <f>IF(AND(LMG!B7=3,LMG!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <f>IF(AND(LMG!B7=4,LMG!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <f>IF(AND(Shotgun!B7=1,Shotgun!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <f>IF(AND(Shotgun!B7=2,Shotgun!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <f>IF(AND(Shotgun!B7=3,Shotgun!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <f>IF(AND(Shotgun!B7=4,Shotgun!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIF(F:F, 1)+COUNTIF(K:K, 1)+COUNTIF(P:P, 1)+COUNTIF(U:U, 1)+COUNTIF(Z:Z, 1)+COUNTIF(AE:AE, 1)+COUNTIF(AJ:AJ, 1)+COUNTIF(AO:AO, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f>IF(AND(Handgun!B7=1,Handgun!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>IF(AND(Handgun!B7=2,Handgun!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>IF(AND(Handgun!B7=3,Handgun!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>IF(AND(Handgun!B7=4,Handgun!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>IF(AND(Revolver!B7=1,Revolver!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>IF(AND(Revolver!B7=1,Revolver!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>IF(AND(Revolver!B7=1,Revolver!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>IF(AND(Revolver!B7=1,Revolver!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>IF(AND(SMG!B8=1,SMG!V8="Yes"),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f>IF(AND(SMG!B8=2,SMG!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>IF(AND(Revolver!G7=1,Revolver!AB7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>IF(AND(SMG!B8=4,SMG!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>IF(AND(Rifle!B8=1,Rifle!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f>IF(AND(Rifle!B8=2,Rifle!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f>IF(AND(Rifle!B8=3,Rifle!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f>IF(AND(Rifle!B8=4,Rifle!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f>IF(AND('Sniper Rifle'!B7=1,'Sniper Rifle'!V7="Yes"),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <f>IF(AND('Sniper Rifle'!B7=2,'Sniper Rifle'!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f>IF(AND('Sniper Rifle'!B7=3,'Sniper Rifle'!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f>IF(AND('Sniper Rifle'!B7=4,'Sniper Rifle'!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <f>IF(AND('Spacer Rifle'!B7=1,'Spacer Rifle'!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <f>IF(AND('Spacer Rifle'!B7=2,'Spacer Rifle'!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <f>IF(AND('Spacer Rifle'!B7=3,'Spacer Rifle'!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <f>IF(AND('Spacer Rifle'!B7=4,'Spacer Rifle'!V7="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <f>IF(AND(LMG!B8=1,LMG!V8="Yes"),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <f>IF(AND(LMG!B8=2,LMG!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <f>IF(AND(LMG!B8=3,LMG!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <f>IF(AND(LMG!B8=4,LMG!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <f>IF(AND(Shotgun!B8=1,Shotgun!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <f>IF(AND(Shotgun!B8=2,Shotgun!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <f>IF(AND(Shotgun!B8=3,Shotgun!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <f>IF(AND(Shotgun!B8=4,Shotgun!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>COUNTIF(G:G, 1)+COUNTIF(L:L, 1)+COUNTIF(Q:Q, 1)+COUNTIF(V:V, 1)+COUNTIF(AA:AA, 1)+COUNTIF(AF:AF, 1)+COUNTIF(AK:AK, 1)+COUNTIF(AP:AP, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>IF(AND(Handgun!B8=1,Handgun!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>IF(AND(Handgun!B8=2,Handgun!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>IF(AND(Handgun!B8=3,Handgun!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>IF(AND(Handgun!B8=4,Handgun!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>IF(AND(Revolver!B8=1,Revolver!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>IF(AND(Revolver!B8=1,Revolver!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>IF(AND(Revolver!B8=1,Revolver!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>IF(AND(Revolver!B8=1,Revolver!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>IF(AND(SMG!B9=1,SMG!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f>IF(AND(SMG!B9=2,SMG!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>IF(AND(Revolver!G8=1,Revolver!AB8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f>IF(AND(SMG!B9=4,SMG!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f>IF(AND(Rifle!B9=1,Rifle!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f>IF(AND(Rifle!B9=2,Rifle!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f>IF(AND(Rifle!B9=3,Rifle!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f>IF(AND(Rifle!B9=4,Rifle!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f>IF(AND('Sniper Rifle'!B8=1,'Sniper Rifle'!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f>IF(AND('Sniper Rifle'!B8=2,'Sniper Rifle'!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f>IF(AND('Sniper Rifle'!B8=3,'Sniper Rifle'!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <f>IF(AND('Sniper Rifle'!B8=4,'Sniper Rifle'!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <f>IF(AND('Spacer Rifle'!B8=1,'Spacer Rifle'!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <f>IF(AND('Spacer Rifle'!B8=2,'Spacer Rifle'!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <f>IF(AND('Spacer Rifle'!B8=3,'Spacer Rifle'!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <f>IF(AND('Spacer Rifle'!B8=4,'Spacer Rifle'!V8="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <f>IF(AND(LMG!B9=1,LMG!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <f>IF(AND(LMG!B9=2,LMG!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <f>IF(AND(LMG!B9=3,LMG!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <f>IF(AND(LMG!B9=4,LMG!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <f>IF(AND(Shotgun!B9=1,Shotgun!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <f>IF(AND(Shotgun!B9=2,Shotgun!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <f>IF(AND(Shotgun!B9=3,Shotgun!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <f>IF(AND(Shotgun!B9=4,Shotgun!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="D6">
+        <f>IF(AND(Handgun!B9=1,Handgun!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>IF(AND(Handgun!B9=2,Handgun!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>IF(AND(Handgun!B9=3,Handgun!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>IF(AND(Handgun!B9=4,Handgun!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>IF(AND(Revolver!B9=1,Revolver!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>IF(AND(Revolver!B9=1,Revolver!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>IF(AND(Revolver!B9=1,Revolver!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>IF(AND(Revolver!B9=1,Revolver!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>IF(AND(SMG!B10=1,SMG!V10="Yes"),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f>IF(AND(SMG!B10=2,SMG!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>IF(AND(Revolver!G9=1,Revolver!AB9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f>IF(AND(SMG!B10=4,SMG!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>IF(AND(Rifle!B10=1,Rifle!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f>IF(AND(Rifle!B10=2,Rifle!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f>IF(AND(Rifle!B10=3,Rifle!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f>IF(AND(Rifle!B10=4,Rifle!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f>IF(AND('Sniper Rifle'!B9=1,'Sniper Rifle'!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f>IF(AND('Sniper Rifle'!B9=2,'Sniper Rifle'!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f>IF(AND('Sniper Rifle'!B9=3,'Sniper Rifle'!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f>IF(AND('Sniper Rifle'!B9=4,'Sniper Rifle'!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f>IF(AND('Spacer Rifle'!B9=1,'Spacer Rifle'!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <f>IF(AND('Spacer Rifle'!B9=2,'Spacer Rifle'!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <f>IF(AND('Spacer Rifle'!B9=3,'Spacer Rifle'!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <f>IF(AND('Spacer Rifle'!B9=4,'Spacer Rifle'!V9="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <f>IF(AND(LMG!B10=1,LMG!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <f>IF(AND(LMG!B10=2,LMG!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <f>IF(AND(LMG!B10=3,LMG!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <f>IF(AND(LMG!B10=4,LMG!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <f>IF(AND(Shotgun!B10=1,Shotgun!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <f>IF(AND(Shotgun!B10=2,Shotgun!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <f>IF(AND(Shotgun!B10=3,Shotgun!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <f>IF(AND(Shotgun!B10=4,Shotgun!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="D7">
+        <f>IF(AND(Handgun!B10=1,Handgun!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>IF(AND(Handgun!B10=2,Handgun!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>IF(AND(Handgun!B10=3,Handgun!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>IF(AND(Handgun!B10=4,Handgun!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>IF(AND(Revolver!B10=1,Revolver!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>IF(AND(Revolver!B10=1,Revolver!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>IF(AND(Revolver!B10=1,Revolver!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>IF(AND(Revolver!B10=1,Revolver!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>IF(AND(SMG!B11=1,SMG!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f>IF(AND(SMG!B11=2,SMG!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f>IF(AND(Revolver!G10=1,Revolver!AB10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f>IF(AND(SMG!B11=4,SMG!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f>IF(AND(Rifle!B11=1,Rifle!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f>IF(AND(Rifle!B11=2,Rifle!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f>IF(AND(Rifle!B11=3,Rifle!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f>IF(AND(Rifle!B11=4,Rifle!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f>IF(AND('Sniper Rifle'!B10=1,'Sniper Rifle'!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f>IF(AND('Sniper Rifle'!B10=2,'Sniper Rifle'!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f>IF(AND('Sniper Rifle'!B10=3,'Sniper Rifle'!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f>IF(AND('Sniper Rifle'!B10=4,'Sniper Rifle'!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f>IF(AND('Spacer Rifle'!B10=1,'Spacer Rifle'!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f>IF(AND('Spacer Rifle'!B10=2,'Spacer Rifle'!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f>IF(AND('Spacer Rifle'!B10=3,'Spacer Rifle'!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f>IF(AND('Spacer Rifle'!B10=4,'Spacer Rifle'!V10="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <f>IF(AND(LMG!B11=1,LMG!V11="Yes"),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <f>IF(AND(LMG!B11=2,LMG!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <f>IF(AND(LMG!B11=3,LMG!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <f>IF(AND(LMG!B11=4,LMG!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <f>IF(AND(Shotgun!B11=1,Shotgun!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <f>IF(AND(Shotgun!B11=2,Shotgun!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <f>IF(AND(Shotgun!B11=3,Shotgun!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <f>IF(AND(Shotgun!B11=4,Shotgun!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="D8">
+        <f>IF(AND(Handgun!B11=1,Handgun!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>IF(AND(Handgun!B11=2,Handgun!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>IF(AND(Handgun!B11=3,Handgun!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>IF(AND(Handgun!B11=4,Handgun!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>IF(AND(Revolver!B11=1,Revolver!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>IF(AND(Revolver!B11=1,Revolver!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>IF(AND(Revolver!B11=1,Revolver!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>IF(AND(Revolver!B11=1,Revolver!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>IF(AND(SMG!B12=1,SMG!V12="Yes"),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f>IF(AND(SMG!B12=2,SMG!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f>IF(AND(Revolver!G11=1,Revolver!AB11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f>IF(AND(SMG!B12=4,SMG!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f>IF(AND(Rifle!B12=1,Rifle!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f>IF(AND(Rifle!B12=2,Rifle!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f>IF(AND(Rifle!B12=3,Rifle!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f>IF(AND(Rifle!B12=4,Rifle!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f>IF(AND('Sniper Rifle'!B11=1,'Sniper Rifle'!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f>IF(AND('Sniper Rifle'!B11=2,'Sniper Rifle'!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f>IF(AND('Sniper Rifle'!B11=3,'Sniper Rifle'!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f>IF(AND('Sniper Rifle'!B11=4,'Sniper Rifle'!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <f>IF(AND('Spacer Rifle'!B11=1,'Spacer Rifle'!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <f>IF(AND('Spacer Rifle'!B11=2,'Spacer Rifle'!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <f>IF(AND('Spacer Rifle'!B11=3,'Spacer Rifle'!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <f>IF(AND('Spacer Rifle'!B11=4,'Spacer Rifle'!V11="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <f>IF(AND(LMG!B12=1,LMG!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <f>IF(AND(LMG!B12=2,LMG!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <f>IF(AND(LMG!B12=3,LMG!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <f>IF(AND(LMG!B12=4,LMG!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <f>IF(AND(Shotgun!B12=1,Shotgun!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <f>IF(AND(Shotgun!B12=2,Shotgun!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <f>IF(AND(Shotgun!B12=3,Shotgun!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <f>IF(AND(Shotgun!B12=4,Shotgun!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="D9">
+        <f>IF(AND(Handgun!B12=1,Handgun!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>IF(AND(Handgun!B12=2,Handgun!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>IF(AND(Handgun!B12=3,Handgun!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>IF(AND(Handgun!B12=4,Handgun!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>IF(AND(Revolver!B12=1,Revolver!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>IF(AND(Revolver!B12=1,Revolver!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>IF(AND(Revolver!B12=1,Revolver!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>IF(AND(Revolver!B12=1,Revolver!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>IF(AND(SMG!B13=1,SMG!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f>IF(AND(SMG!B13=2,SMG!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>IF(AND(Revolver!G12=1,Revolver!AB12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f>IF(AND(SMG!B13=4,SMG!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f>IF(AND(Rifle!B13=1,Rifle!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f>IF(AND(Rifle!B13=2,Rifle!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f>IF(AND(Rifle!B13=3,Rifle!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f>IF(AND(Rifle!B13=4,Rifle!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f>IF(AND('Sniper Rifle'!B12=1,'Sniper Rifle'!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f>IF(AND('Sniper Rifle'!B12=2,'Sniper Rifle'!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f>IF(AND('Sniper Rifle'!B12=3,'Sniper Rifle'!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f>IF(AND('Sniper Rifle'!B12=4,'Sniper Rifle'!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f>IF(AND('Spacer Rifle'!B12=1,'Spacer Rifle'!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <f>IF(AND('Spacer Rifle'!B12=2,'Spacer Rifle'!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <f>IF(AND('Spacer Rifle'!B12=3,'Spacer Rifle'!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <f>IF(AND('Spacer Rifle'!B12=4,'Spacer Rifle'!V12="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <f>IF(AND(LMG!B13=1,LMG!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <f>IF(AND(LMG!B13=2,LMG!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <f>IF(AND(LMG!B13=3,LMG!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <f>IF(AND(LMG!B13=4,LMG!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <f>IF(AND(Shotgun!B13=1,Shotgun!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <f>IF(AND(Shotgun!B13=2,Shotgun!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <f>IF(AND(Shotgun!B13=3,Shotgun!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <f>IF(AND(Shotgun!B13=4,Shotgun!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="D10">
+        <f>IF(AND(Handgun!B13=1,Handgun!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>IF(AND(Handgun!B13=2,Handgun!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>IF(AND(Handgun!B13=3,Handgun!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>IF(AND(Handgun!B13=4,Handgun!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>IF(AND(Revolver!B13=1,Revolver!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>IF(AND(Revolver!B13=1,Revolver!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>IF(AND(Revolver!B13=1,Revolver!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>IF(AND(Revolver!B13=1,Revolver!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f>IF(AND(SMG!B14=1,SMG!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f>IF(AND(SMG!B14=2,SMG!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f>IF(AND(Revolver!G13=1,Revolver!AB13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f>IF(AND(SMG!B14=4,SMG!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f>IF(AND(Rifle!B14=1,Rifle!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f>IF(AND(Rifle!B14=2,Rifle!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f>IF(AND(Rifle!B14=3,Rifle!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f>IF(AND(Rifle!B14=4,Rifle!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f>IF(AND('Sniper Rifle'!B13=1,'Sniper Rifle'!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f>IF(AND('Sniper Rifle'!B13=2,'Sniper Rifle'!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f>IF(AND('Sniper Rifle'!B13=3,'Sniper Rifle'!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <f>IF(AND('Sniper Rifle'!B13=4,'Sniper Rifle'!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f>IF(AND('Spacer Rifle'!B13=1,'Spacer Rifle'!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <f>IF(AND('Spacer Rifle'!B13=2,'Spacer Rifle'!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <f>IF(AND('Spacer Rifle'!B13=3,'Spacer Rifle'!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <f>IF(AND('Spacer Rifle'!B13=4,'Spacer Rifle'!V13="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <f>IF(AND(LMG!B14=1,LMG!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <f>IF(AND(LMG!B14=2,LMG!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <f>IF(AND(LMG!B14=3,LMG!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <f>IF(AND(LMG!B14=4,LMG!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <f>IF(AND(Shotgun!B14=1,Shotgun!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <f>IF(AND(Shotgun!B14=2,Shotgun!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <f>IF(AND(Shotgun!B14=3,Shotgun!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <f>IF(AND(Shotgun!B14=4,Shotgun!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="D11">
+        <f>IF(AND(Handgun!B14=1,Handgun!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>IF(AND(Handgun!B14=2,Handgun!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>IF(AND(Handgun!B14=3,Handgun!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>IF(AND(Handgun!B14=4,Handgun!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>IF(AND(Revolver!B14=1,Revolver!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>IF(AND(Revolver!B14=1,Revolver!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>IF(AND(Revolver!B14=1,Revolver!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>IF(AND(Revolver!B14=1,Revolver!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>IF(AND(SMG!B15=1,SMG!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f>IF(AND(SMG!B15=2,SMG!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f>IF(AND(Revolver!G14=1,Revolver!AB14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f>IF(AND(SMG!B15=4,SMG!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f>IF(AND(Rifle!B15=1,Rifle!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f>IF(AND(Rifle!B15=2,Rifle!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f>IF(AND(Rifle!B15=3,Rifle!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f>IF(AND(Rifle!B15=4,Rifle!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f>IF(AND('Sniper Rifle'!B14=1,'Sniper Rifle'!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <f>IF(AND('Sniper Rifle'!B14=2,'Sniper Rifle'!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f>IF(AND('Sniper Rifle'!B14=3,'Sniper Rifle'!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <f>IF(AND('Sniper Rifle'!B14=4,'Sniper Rifle'!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <f>IF(AND('Spacer Rifle'!B14=1,'Spacer Rifle'!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <f>IF(AND('Spacer Rifle'!B14=2,'Spacer Rifle'!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <f>IF(AND('Spacer Rifle'!B14=3,'Spacer Rifle'!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <f>IF(AND('Spacer Rifle'!B14=4,'Spacer Rifle'!V14="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <f>IF(AND(LMG!B15=1,LMG!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <f>IF(AND(LMG!B15=2,LMG!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <f>IF(AND(LMG!B15=3,LMG!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <f>IF(AND(LMG!B15=4,LMG!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <f>IF(AND(Shotgun!B15=1,Shotgun!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <f>IF(AND(Shotgun!B15=2,Shotgun!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <f>IF(AND(Shotgun!B15=3,Shotgun!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <f>IF(AND(Shotgun!B15=4,Shotgun!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42">
+      <c r="D12">
+        <f>IF(AND(Handgun!B15=1,Handgun!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>IF(AND(Handgun!B15=2,Handgun!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>IF(AND(Handgun!B15=3,Handgun!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>IF(AND(Handgun!B15=4,Handgun!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>IF(AND(Revolver!B15=1,Revolver!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f>IF(AND(Revolver!B15=1,Revolver!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>IF(AND(Revolver!B15=1,Revolver!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>IF(AND(Revolver!B15=1,Revolver!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>IF(AND(SMG!B16=1,SMG!V16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>IF(AND(SMG!B16=2,SMG!V16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f>IF(AND(Revolver!G15=1,Revolver!AB15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f>IF(AND(SMG!B16=4,SMG!V16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f>IF(AND(Rifle!B16=1,Rifle!V16="Yes"),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <f>IF(AND(Rifle!B16=2,Rifle!V16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f>IF(AND(Rifle!B16=3,Rifle!V16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f>IF(AND(Rifle!B16=4,Rifle!V16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f>IF(AND('Sniper Rifle'!B15=1,'Sniper Rifle'!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f>IF(AND('Sniper Rifle'!B15=2,'Sniper Rifle'!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f>IF(AND('Sniper Rifle'!B15=3,'Sniper Rifle'!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <f>IF(AND('Sniper Rifle'!B15=4,'Sniper Rifle'!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <f>IF(AND('Spacer Rifle'!B15=1,'Spacer Rifle'!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <f>IF(AND('Spacer Rifle'!B15=2,'Spacer Rifle'!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <f>IF(AND('Spacer Rifle'!B15=3,'Spacer Rifle'!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <f>IF(AND('Spacer Rifle'!B15=4,'Spacer Rifle'!V15="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <f>IF(AND(LMG!B16=1,LMG!V16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <f>IF(AND(LMG!B16=2,LMG!V16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <f>IF(AND(LMG!B16=3,LMG!V16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <f>IF(AND(LMG!B16=4,LMG!V16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <f>IF(AND(Shotgun!B16=1,Shotgun!V16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <f>IF(AND(Shotgun!B16=2,Shotgun!V16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <f>IF(AND(Shotgun!B16=3,Shotgun!V16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <f>IF(AND(Shotgun!B16=4,Shotgun!V16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42">
+      <c r="D13">
+        <f>IF(AND(Handgun!B16=1,Handgun!V16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>IF(AND(Handgun!B16=2,Handgun!V16="Yes"),1,0)</f>
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f>IF(AND(Handgun!B16=3,Handgun!V16="Yes"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
+        <f>IF(AND(Handgun!B16=4,Handgun!V16="Yes"),1,0)</f>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f>IF(AND(Revolver!B16=1,Revolver!V16="Yes"),1,0)</f>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f>IF(AND(Revolver!B16=1,Revolver!V16="Yes"),1,0)</f>
         <v>0</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
+        <f>IF(AND(Revolver!B16=1,Revolver!V16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>IF(AND(Revolver!B16=1,Revolver!V16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>IF(AND(SMG!B17=1,SMG!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f>IF(AND(SMG!B17=2,SMG!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f>IF(AND(Revolver!G16=1,Revolver!AB16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f>IF(AND(SMG!B17=4,SMG!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f>IF(AND(Rifle!B17=1,Rifle!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f>IF(AND(Rifle!B17=2,Rifle!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f>IF(AND(Rifle!B17=3,Rifle!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f>IF(AND(Rifle!B17=4,Rifle!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f>IF(AND('Sniper Rifle'!B16=1,'Sniper Rifle'!V16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f>IF(AND('Sniper Rifle'!B16=2,'Sniper Rifle'!V16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f>IF(AND('Sniper Rifle'!B16=3,'Sniper Rifle'!V16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <f>IF(AND('Sniper Rifle'!B16=4,'Sniper Rifle'!V16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <f>IF(AND('Spacer Rifle'!B16=1,'Spacer Rifle'!V16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <f>IF(AND('Spacer Rifle'!B16=2,'Spacer Rifle'!V16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <f>IF(AND('Spacer Rifle'!B16=3,'Spacer Rifle'!V16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <f>IF(AND('Spacer Rifle'!B16=4,'Spacer Rifle'!V16="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <f>IF(AND(LMG!B17=1,LMG!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <f>IF(AND(LMG!B17=2,LMG!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <f>IF(AND(LMG!B17=3,LMG!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <f>IF(AND(LMG!B17=4,LMG!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <f>IF(AND(Shotgun!B17=1,Shotgun!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <f>IF(AND(Shotgun!B17=2,Shotgun!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <f>IF(AND(Shotgun!B17=3,Shotgun!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <f>IF(AND(Shotgun!B17=4,Shotgun!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
+      <c r="D14">
+        <f>IF(AND(Handgun!B17=1,Handgun!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>IF(AND(Handgun!B17=2,Handgun!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>IF(AND(Handgun!B17=3,Handgun!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>IF(AND(Handgun!B17=4,Handgun!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>IF(AND(Revolver!B17=1,Revolver!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f>IF(AND(Revolver!B17=1,Revolver!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>IF(AND(Revolver!B17=1,Revolver!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>IF(AND(Revolver!B17=1,Revolver!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>IF(AND(SMG!B18=1,SMG!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>IF(AND(SMG!B18=2,SMG!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>IF(AND(Revolver!G17=1,Revolver!AB17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f>IF(AND(SMG!B18=4,SMG!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f>IF(AND(Rifle!B18=1,Rifle!V18="Yes"),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <f>IF(AND(Rifle!B18=2,Rifle!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f>IF(AND(Rifle!B18=3,Rifle!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f>IF(AND(Rifle!B18=4,Rifle!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f>IF(AND('Sniper Rifle'!B17=1,'Sniper Rifle'!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f>IF(AND('Sniper Rifle'!B17=2,'Sniper Rifle'!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f>IF(AND('Sniper Rifle'!B17=3,'Sniper Rifle'!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f>IF(AND('Sniper Rifle'!B17=4,'Sniper Rifle'!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f>IF(AND('Spacer Rifle'!B17=1,'Spacer Rifle'!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <f>IF(AND('Spacer Rifle'!B17=2,'Spacer Rifle'!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <f>IF(AND('Spacer Rifle'!B17=3,'Spacer Rifle'!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <f>IF(AND('Spacer Rifle'!B17=4,'Spacer Rifle'!V17="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <f>IF(AND(LMG!B18=1,LMG!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <f>IF(AND(LMG!B18=2,LMG!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <f>IF(AND(LMG!B18=3,LMG!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <f>IF(AND(LMG!B18=4,LMG!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <f>IF(AND(Shotgun!B18=1,Shotgun!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <f>IF(AND(Shotgun!B18=2,Shotgun!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <f>IF(AND(Shotgun!B18=3,Shotgun!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <f>IF(AND(Shotgun!B18=4,Shotgun!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42">
+      <c r="D15">
+        <f>IF(AND(Handgun!B18=1,Handgun!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>IF(AND(Handgun!B18=2,Handgun!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>IF(AND(Handgun!B18=3,Handgun!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>IF(AND(Handgun!B18=4,Handgun!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f>IF(AND(Revolver!B18=1,Revolver!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>IF(AND(Revolver!B18=1,Revolver!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>IF(AND(Revolver!B18=1,Revolver!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>IF(AND(Revolver!B18=1,Revolver!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>IF(AND(SMG!B19=1,SMG!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>IF(AND(SMG!B19=2,SMG!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f>IF(AND(Revolver!G18=1,Revolver!AB18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f>IF(AND(SMG!B19=4,SMG!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f>IF(AND(Rifle!B19=1,Rifle!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f>IF(AND(Rifle!B19=2,Rifle!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>IF(AND(Rifle!B19=3,Rifle!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f>IF(AND(Rifle!B19=4,Rifle!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f>IF(AND('Sniper Rifle'!B18=1,'Sniper Rifle'!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f>IF(AND('Sniper Rifle'!B18=2,'Sniper Rifle'!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f>IF(AND('Sniper Rifle'!B18=3,'Sniper Rifle'!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <f>IF(AND('Sniper Rifle'!B18=4,'Sniper Rifle'!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <f>IF(AND('Spacer Rifle'!B18=1,'Spacer Rifle'!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <f>IF(AND('Spacer Rifle'!B18=2,'Spacer Rifle'!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <f>IF(AND('Spacer Rifle'!B18=3,'Spacer Rifle'!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <f>IF(AND('Spacer Rifle'!B18=4,'Spacer Rifle'!V18="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <f>IF(AND(LMG!B19=1,LMG!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <f>IF(AND(LMG!B19=2,LMG!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <f>IF(AND(LMG!B19=3,LMG!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <f>IF(AND(LMG!B19=4,LMG!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <f>IF(AND(Shotgun!B19=1,Shotgun!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <f>IF(AND(Shotgun!B19=2,Shotgun!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <f>IF(AND(Shotgun!B19=3,Shotgun!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <f>IF(AND(Shotgun!B19=4,Shotgun!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42">
+      <c r="D16">
+        <f>IF(AND(Handgun!B19=1,Handgun!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f>IF(AND(Handgun!B19=2,Handgun!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>IF(AND(Handgun!B19=3,Handgun!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>IF(AND(Handgun!B19=4,Handgun!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>IF(AND(Revolver!B19=1,Revolver!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f>IF(AND(Revolver!B19=1,Revolver!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>IF(AND(Revolver!B19=1,Revolver!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>IF(AND(Revolver!B19=1,Revolver!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>IF(AND(SMG!B20=1,SMG!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f>IF(AND(SMG!B20=2,SMG!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f>IF(AND(Revolver!G19=1,Revolver!AB19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f>IF(AND(SMG!B20=4,SMG!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f>IF(AND(Rifle!B20=1,Rifle!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f>IF(AND(Rifle!B20=2,Rifle!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f>IF(AND(Rifle!B20=3,Rifle!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f>IF(AND(Rifle!B20=4,Rifle!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f>IF(AND('Sniper Rifle'!B19=1,'Sniper Rifle'!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f>IF(AND('Sniper Rifle'!B19=2,'Sniper Rifle'!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f>IF(AND('Sniper Rifle'!B19=3,'Sniper Rifle'!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <f>IF(AND('Sniper Rifle'!B19=4,'Sniper Rifle'!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <f>IF(AND('Spacer Rifle'!B19=1,'Spacer Rifle'!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <f>IF(AND('Spacer Rifle'!B19=2,'Spacer Rifle'!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <f>IF(AND('Spacer Rifle'!B19=3,'Spacer Rifle'!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <f>IF(AND('Spacer Rifle'!B19=4,'Spacer Rifle'!V19="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <f>IF(AND(LMG!B20=1,LMG!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <f>IF(AND(LMG!B20=2,LMG!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <f>IF(AND(LMG!B20=3,LMG!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <f>IF(AND(LMG!B20=4,LMG!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <f>IF(AND(Shotgun!B20=1,Shotgun!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <f>IF(AND(Shotgun!B20=2,Shotgun!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <f>IF(AND(Shotgun!B20=3,Shotgun!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <f>IF(AND(Shotgun!B20=4,Shotgun!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:42">
+      <c r="D17">
+        <f>IF(AND(Handgun!B20=1,Handgun!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>IF(AND(Handgun!B20=2,Handgun!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>IF(AND(Handgun!B20=3,Handgun!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>IF(AND(Handgun!B20=4,Handgun!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>IF(AND(Revolver!B20=1,Revolver!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f>IF(AND(Revolver!B20=1,Revolver!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f>IF(AND(Revolver!B20=1,Revolver!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f>IF(AND(Revolver!B20=1,Revolver!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>IF(AND(SMG!B21=1,SMG!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f>IF(AND(SMG!B21=2,SMG!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f>IF(AND(Revolver!G20=1,Revolver!AB20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f>IF(AND(SMG!B21=4,SMG!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f>IF(AND(Rifle!B21=1,Rifle!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f>IF(AND(Rifle!B21=2,Rifle!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f>IF(AND(Rifle!B21=3,Rifle!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f>IF(AND(Rifle!B21=4,Rifle!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f>IF(AND('Sniper Rifle'!B20=1,'Sniper Rifle'!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f>IF(AND('Sniper Rifle'!B20=2,'Sniper Rifle'!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f>IF(AND('Sniper Rifle'!B20=3,'Sniper Rifle'!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <f>IF(AND('Sniper Rifle'!B20=4,'Sniper Rifle'!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <f>IF(AND('Spacer Rifle'!B20=1,'Spacer Rifle'!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <f>IF(AND('Spacer Rifle'!B20=2,'Spacer Rifle'!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <f>IF(AND('Spacer Rifle'!B20=3,'Spacer Rifle'!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <f>IF(AND('Spacer Rifle'!B20=4,'Spacer Rifle'!V20="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <f>IF(AND(LMG!B21=1,LMG!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <f>IF(AND(LMG!B21=2,LMG!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <f>IF(AND(LMG!B21=3,LMG!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <f>IF(AND(LMG!B21=4,LMG!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <f>IF(AND(Shotgun!B21=1,Shotgun!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <f>IF(AND(Shotgun!B21=2,Shotgun!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <f>IF(AND(Shotgun!B21=3,Shotgun!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <f>IF(AND(Shotgun!B21=4,Shotgun!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:42">
+      <c r="D18">
+        <f>IF(AND(Handgun!B21=1,Handgun!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f>IF(AND(Handgun!B21=2,Handgun!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f>IF(AND(Handgun!B21=3,Handgun!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>IF(AND(Handgun!B21=4,Handgun!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f>IF(AND(Revolver!B21=1,Revolver!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f>IF(AND(Revolver!B21=1,Revolver!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f>IF(AND(Revolver!B21=1,Revolver!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f>IF(AND(Revolver!B21=1,Revolver!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f>IF(AND(SMG!B22=1,SMG!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f>IF(AND(SMG!B22=2,SMG!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f>IF(AND(Revolver!G21=1,Revolver!AB21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f>IF(AND(SMG!B22=4,SMG!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f>IF(AND(Rifle!B22=1,Rifle!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f>IF(AND(Rifle!B22=2,Rifle!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f>IF(AND(Rifle!B22=3,Rifle!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f>IF(AND(Rifle!B22=4,Rifle!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f>IF(AND('Sniper Rifle'!B21=1,'Sniper Rifle'!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <f>IF(AND('Sniper Rifle'!B21=2,'Sniper Rifle'!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f>IF(AND('Sniper Rifle'!B21=3,'Sniper Rifle'!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <f>IF(AND('Sniper Rifle'!B21=4,'Sniper Rifle'!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <f>IF(AND('Spacer Rifle'!B21=1,'Spacer Rifle'!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <f>IF(AND('Spacer Rifle'!B21=2,'Spacer Rifle'!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <f>IF(AND('Spacer Rifle'!B21=3,'Spacer Rifle'!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <f>IF(AND('Spacer Rifle'!B21=4,'Spacer Rifle'!V21="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <f>IF(AND(LMG!B22=1,LMG!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <f>IF(AND(LMG!B22=2,LMG!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <f>IF(AND(LMG!B22=3,LMG!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <f>IF(AND(LMG!B22=4,LMG!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <f>IF(AND(Shotgun!B22=1,Shotgun!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <f>IF(AND(Shotgun!B22=2,Shotgun!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <f>IF(AND(Shotgun!B22=3,Shotgun!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <f>IF(AND(Shotgun!B22=4,Shotgun!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:42">
+      <c r="D19">
+        <f>IF(AND(Handgun!B22=1,Handgun!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f>IF(AND(Handgun!B22=2,Handgun!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>IF(AND(Handgun!B22=3,Handgun!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>IF(AND(Handgun!B22=4,Handgun!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>IF(AND(Revolver!B22=1,Revolver!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f>IF(AND(Revolver!B22=1,Revolver!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f>IF(AND(Revolver!B22=1,Revolver!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>IF(AND(Revolver!B22=1,Revolver!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>IF(AND(SMG!B23=1,SMG!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f>IF(AND(SMG!B23=2,SMG!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f>IF(AND(Revolver!G22=1,Revolver!AB22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f>IF(AND(SMG!B23=4,SMG!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f>IF(AND(Rifle!B23=1,Rifle!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f>IF(AND(Rifle!B23=2,Rifle!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f>IF(AND(Rifle!B23=3,Rifle!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f>IF(AND(Rifle!B23=4,Rifle!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f>IF(AND('Sniper Rifle'!B22=1,'Sniper Rifle'!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <f>IF(AND('Sniper Rifle'!B22=2,'Sniper Rifle'!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f>IF(AND('Sniper Rifle'!B22=3,'Sniper Rifle'!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <f>IF(AND('Sniper Rifle'!B22=4,'Sniper Rifle'!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <f>IF(AND('Spacer Rifle'!B22=1,'Spacer Rifle'!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <f>IF(AND('Spacer Rifle'!B22=2,'Spacer Rifle'!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <f>IF(AND('Spacer Rifle'!B22=3,'Spacer Rifle'!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <f>IF(AND('Spacer Rifle'!B22=4,'Spacer Rifle'!V22="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <f>IF(AND(LMG!B23=1,LMG!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <f>IF(AND(LMG!B23=2,LMG!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <f>IF(AND(LMG!B23=3,LMG!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <f>IF(AND(LMG!B23=4,LMG!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <f>IF(AND(Shotgun!B23=1,Shotgun!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <f>IF(AND(Shotgun!B23=2,Shotgun!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <f>IF(AND(Shotgun!B23=3,Shotgun!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <f>IF(AND(Shotgun!B23=4,Shotgun!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:42">
+      <c r="D20">
+        <f>IF(AND(Handgun!B23=1,Handgun!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>IF(AND(Handgun!B23=2,Handgun!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>IF(AND(Handgun!B23=3,Handgun!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>IF(AND(Handgun!B23=4,Handgun!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>IF(AND(Revolver!B23=1,Revolver!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>IF(AND(Revolver!B23=1,Revolver!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f>IF(AND(Revolver!B23=1,Revolver!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>IF(AND(Revolver!B23=1,Revolver!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f>IF(AND(SMG!B24=1,SMG!V24="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f>IF(AND(SMG!B24=2,SMG!V24="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f>IF(AND(Revolver!G23=1,Revolver!AB23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f>IF(AND(SMG!B24=4,SMG!V24="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f>IF(AND(Rifle!B24=1,Rifle!V24="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f>IF(AND(Rifle!B24=2,Rifle!V24="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f>IF(AND(Rifle!B24=3,Rifle!V24="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f>IF(AND(Rifle!B24=4,Rifle!V24="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f>IF(AND('Sniper Rifle'!B23=1,'Sniper Rifle'!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f>IF(AND('Sniper Rifle'!B23=2,'Sniper Rifle'!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <f>IF(AND('Sniper Rifle'!B23=3,'Sniper Rifle'!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <f>IF(AND('Sniper Rifle'!B23=4,'Sniper Rifle'!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <f>IF(AND('Spacer Rifle'!B23=1,'Spacer Rifle'!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <f>IF(AND('Spacer Rifle'!B23=2,'Spacer Rifle'!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <f>IF(AND('Spacer Rifle'!B23=3,'Spacer Rifle'!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <f>IF(AND('Spacer Rifle'!B23=4,'Spacer Rifle'!V23="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <f>IF(AND(LMG!B24=1,LMG!V24="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <f>IF(AND(LMG!B24=2,LMG!V24="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <f>IF(AND(LMG!B24=3,LMG!V24="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <f>IF(AND(LMG!B24=4,LMG!V24="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <f>IF(AND(Shotgun!B24=1,Shotgun!V24="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <f>IF(AND(Shotgun!B24=2,Shotgun!V24="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <f>IF(AND(Shotgun!B24=3,Shotgun!V24="Yes"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <f>IF(AND(Shotgun!B24=4,Shotgun!V24="Yes"),1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2569,10 +5462,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2597,7 +5490,7 @@
     <col min="19" max="19" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2605,10 +5498,10 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2628,7 +5521,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2687,13 +5580,16 @@
         <v>17</v>
       </c>
       <c r="T3" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="U3" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" thickTop="1">
+      <c r="V3" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" thickTop="1">
       <c r="A4" s="6" t="s">
         <v>45</v>
       </c>
@@ -2759,8 +5655,9 @@
         <v>55</v>
       </c>
       <c r="U4" s="18"/>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="5"/>
       <c r="B5" s="12"/>
       <c r="C5" s="2" t="e">
@@ -2785,8 +5682,9 @@
       </c>
       <c r="T5" s="19"/>
       <c r="U5" s="20"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" s="23"/>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="5"/>
       <c r="B6" s="12"/>
       <c r="C6" s="2" t="e">
@@ -2811,8 +5709,9 @@
       </c>
       <c r="T6" s="17"/>
       <c r="U6" s="18"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" s="22"/>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="5"/>
       <c r="B7" s="12"/>
       <c r="C7" s="2" t="e">
@@ -2837,8 +5736,9 @@
       </c>
       <c r="T7" s="19"/>
       <c r="U7" s="20"/>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" s="23"/>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="5"/>
       <c r="B8" s="12"/>
       <c r="C8" s="2" t="e">
@@ -2863,8 +5763,9 @@
       </c>
       <c r="T8" s="17"/>
       <c r="U8" s="18"/>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" s="22"/>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="5"/>
       <c r="B9" s="12"/>
       <c r="C9" s="2" t="e">
@@ -2889,8 +5790,9 @@
       </c>
       <c r="T9" s="19"/>
       <c r="U9" s="20"/>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" s="23"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="5"/>
       <c r="B10" s="12"/>
       <c r="C10" s="2" t="e">
@@ -2915,8 +5817,9 @@
       </c>
       <c r="T10" s="17"/>
       <c r="U10" s="18"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10" s="22"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="B11" s="12"/>
       <c r="C11" s="2" t="e">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -2940,8 +5843,9 @@
       </c>
       <c r="T11" s="19"/>
       <c r="U11" s="20"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11" s="23"/>
+    </row>
+    <row r="12" spans="1:22">
       <c r="B12" s="12"/>
       <c r="C12" s="2" t="e">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -2965,8 +5869,9 @@
       </c>
       <c r="T12" s="17"/>
       <c r="U12" s="18"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12" s="22"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="B13" s="12"/>
       <c r="C13" s="2" t="e">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -2990,8 +5895,9 @@
       </c>
       <c r="T13" s="19"/>
       <c r="U13" s="20"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13" s="23"/>
+    </row>
+    <row r="14" spans="1:22">
       <c r="B14" s="12"/>
       <c r="C14" s="2" t="e">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -3015,8 +5921,9 @@
       </c>
       <c r="T14" s="17"/>
       <c r="U14" s="18"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14" s="22"/>
+    </row>
+    <row r="15" spans="1:22">
       <c r="B15" s="12"/>
       <c r="C15" s="2" t="e">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -3040,8 +5947,9 @@
       </c>
       <c r="T15" s="19"/>
       <c r="U15" s="20"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15" s="23"/>
+    </row>
+    <row r="16" spans="1:22">
       <c r="B16" s="12"/>
       <c r="C16" s="2" t="e">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -3065,8 +5973,9 @@
       </c>
       <c r="T16" s="17"/>
       <c r="U16" s="18"/>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16" s="22"/>
+    </row>
+    <row r="17" spans="1:22">
       <c r="B17" s="12"/>
       <c r="C17" s="2" t="e">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -3090,8 +5999,9 @@
       </c>
       <c r="T17" s="19"/>
       <c r="U17" s="20"/>
-    </row>
-    <row r="18" spans="1:21" s="4" customFormat="1">
+      <c r="V17" s="23"/>
+    </row>
+    <row r="18" spans="1:22" s="4" customFormat="1">
       <c r="A18"/>
       <c r="B18" s="12"/>
       <c r="C18" s="2" t="e">
@@ -3128,8 +6038,9 @@
       <c r="S18"/>
       <c r="T18" s="17"/>
       <c r="U18" s="18"/>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18" s="22"/>
+    </row>
+    <row r="19" spans="1:22">
       <c r="B19" s="12"/>
       <c r="C19" s="2" t="e">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -3152,7 +6063,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:22">
       <c r="A20" s="7"/>
       <c r="B20" s="13"/>
       <c r="C20" s="2" t="e">
@@ -3190,7 +6101,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>1.63</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3204,10 +6115,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3232,7 +6143,7 @@
     <col min="19" max="19" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3240,10 +6151,10 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -3263,7 +6174,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3322,13 +6233,16 @@
         <v>17</v>
       </c>
       <c r="T3" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="U3" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" thickTop="1">
+      <c r="V3" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" thickTop="1">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -3395,8 +6309,9 @@
         <v>48</v>
       </c>
       <c r="U4" s="18"/>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
@@ -3461,8 +6376,9 @@
       </c>
       <c r="T5" s="19"/>
       <c r="U5" s="20"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" s="23"/>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
@@ -3529,8 +6445,11 @@
         <v>48</v>
       </c>
       <c r="U6" s="18"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3597,8 +6516,11 @@
         <v>45</v>
       </c>
       <c r="U7" s="20"/>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
@@ -3663,8 +6585,11 @@
       </c>
       <c r="T8" s="17"/>
       <c r="U8" s="18"/>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -3729,10 +6654,13 @@
       </c>
       <c r="T9" s="19"/>
       <c r="U9" s="20"/>
-    </row>
-    <row r="10" spans="1:21" s="4" customFormat="1">
+      <c r="V9" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="4" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="12">
         <v>1</v>
@@ -3795,10 +6723,13 @@
       </c>
       <c r="T10" s="17"/>
       <c r="U10" s="18"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="12">
         <v>1</v>
@@ -3861,10 +6792,13 @@
       </c>
       <c r="T11" s="19"/>
       <c r="U11" s="20"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="12">
         <v>1</v>
@@ -3927,10 +6861,13 @@
       <c r="U12" s="18">
         <v>2.78</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="12">
         <v>1</v>
@@ -3997,8 +6934,11 @@
       <c r="U13" s="20">
         <v>3.12</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="B14" s="12"/>
       <c r="C14" s="2" t="e">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -4022,8 +6962,9 @@
       </c>
       <c r="T14" s="17"/>
       <c r="U14" s="18"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14" s="22"/>
+    </row>
+    <row r="15" spans="1:22">
       <c r="B15" s="12"/>
       <c r="C15" s="2" t="e">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -4047,8 +6988,9 @@
       </c>
       <c r="T15" s="19"/>
       <c r="U15" s="20"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15" s="23"/>
+    </row>
+    <row r="16" spans="1:22">
       <c r="B16" s="12"/>
       <c r="C16" s="2" t="e">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -4072,8 +7014,9 @@
       </c>
       <c r="T16" s="17"/>
       <c r="U16" s="18"/>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16" s="22"/>
+    </row>
+    <row r="17" spans="1:22">
       <c r="B17" s="12"/>
       <c r="C17" s="2" t="e">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -4097,8 +7040,9 @@
       </c>
       <c r="T17" s="19"/>
       <c r="U17" s="20"/>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17" s="23"/>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="7"/>
       <c r="B18" s="13"/>
       <c r="C18" s="8" t="e">
@@ -4135,13 +7079,14 @@
       <c r="S18" s="7"/>
       <c r="T18" s="17"/>
       <c r="U18" s="18"/>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18" s="22"/>
+    </row>
+    <row r="19" spans="1:22">
       <c r="B19" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C18">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>2.599</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4155,10 +7100,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4183,7 +7128,7 @@
     <col min="19" max="19" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4191,13 +7136,13 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -4217,7 +7162,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4276,13 +7221,16 @@
         <v>17</v>
       </c>
       <c r="T3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U3" t="s">
         <v>88</v>
       </c>
-      <c r="U3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="6" t="s">
         <v>46</v>
       </c>
@@ -4349,7 +7297,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:22">
       <c r="A5" s="6" t="s">
         <v>48</v>
       </c>
@@ -4415,7 +7363,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:22">
       <c r="A6" s="14" t="s">
         <v>39</v>
       </c>
@@ -4478,8 +7426,11 @@
       <c r="S6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="14" t="s">
         <v>32</v>
       </c>
@@ -4542,8 +7493,11 @@
       <c r="S7">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -4606,8 +7560,11 @@
       <c r="S8">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -4670,8 +7627,11 @@
       <c r="S9">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -4734,8 +7694,11 @@
       <c r="S10">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -4798,8 +7761,11 @@
       <c r="S11">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -4862,8 +7828,11 @@
       <c r="S12">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
@@ -4926,10 +7895,13 @@
       <c r="S13">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -4990,10 +7962,13 @@
       <c r="S14">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -5060,10 +8035,13 @@
       <c r="U15">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -5130,10 +8108,13 @@
       <c r="U16">
         <v>3.63</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" s="4" customFormat="1">
+      <c r="V16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="4" customFormat="1">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5200,10 +8181,13 @@
       <c r="U17">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -5269,10 +8253,13 @@
       <c r="U18">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5339,10 +8326,13 @@
       <c r="U19">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" s="7">
         <v>1</v>
@@ -5409,8 +8399,11 @@
       <c r="U20" s="7">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="C21" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -5432,7 +8425,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:22">
       <c r="C22" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -5454,7 +8447,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:22">
       <c r="C23" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -5476,7 +8469,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:22">
       <c r="C24" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -5498,7 +8491,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:22">
       <c r="C25" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -5520,7 +8513,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:22">
       <c r="C26" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -5542,7 +8535,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:22">
       <c r="C27" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -5564,7 +8557,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:22">
       <c r="C28" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -5586,7 +8579,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:22">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8" t="e">
@@ -5623,10 +8616,11 @@
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C998">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>3.2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5640,10 +8634,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5668,7 +8662,7 @@
     <col min="19" max="19" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5676,10 +8670,10 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -5699,7 +8693,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5758,13 +8752,16 @@
         <v>17</v>
       </c>
       <c r="T3" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="U3" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" thickTop="1">
+      <c r="V3" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" thickTop="1">
       <c r="A4" s="6" t="s">
         <v>49</v>
       </c>
@@ -5830,8 +8827,9 @@
         <v>100</v>
       </c>
       <c r="U4" s="18"/>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="14" t="s">
         <v>41</v>
       </c>
@@ -5895,10 +8893,13 @@
       </c>
       <c r="T5" s="19"/>
       <c r="U5" s="20"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -5960,10 +8961,13 @@
       </c>
       <c r="T6" s="17"/>
       <c r="U6" s="18"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -6029,8 +9033,11 @@
       <c r="U7" s="20">
         <v>7.54</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="e">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -6054,8 +9061,9 @@
       </c>
       <c r="T8" s="17"/>
       <c r="U8" s="18"/>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" s="22"/>
+    </row>
+    <row r="9" spans="1:22">
       <c r="B9" s="4"/>
       <c r="C9" s="2" t="e">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -6079,8 +9087,9 @@
       </c>
       <c r="T9" s="19"/>
       <c r="U9" s="20"/>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" s="23"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="e">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -6104,8 +9113,9 @@
       </c>
       <c r="T10" s="17"/>
       <c r="U10" s="18"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10" s="22"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2" t="e">
@@ -6130,8 +9140,9 @@
       </c>
       <c r="T11" s="19"/>
       <c r="U11" s="20"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11" s="23"/>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="e">
@@ -6156,8 +9167,9 @@
       </c>
       <c r="T12" s="17"/>
       <c r="U12" s="18"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12" s="22"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="C13" s="2" t="e">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6180,8 +9192,9 @@
       </c>
       <c r="T13" s="19"/>
       <c r="U13" s="20"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13" s="23"/>
+    </row>
+    <row r="14" spans="1:22">
       <c r="C14" s="2" t="e">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6204,8 +9217,9 @@
       </c>
       <c r="T14" s="17"/>
       <c r="U14" s="18"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14" s="22"/>
+    </row>
+    <row r="15" spans="1:22">
       <c r="C15" s="2" t="e">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6228,8 +9242,9 @@
       </c>
       <c r="T15" s="19"/>
       <c r="U15" s="20"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15" s="23"/>
+    </row>
+    <row r="16" spans="1:22">
       <c r="C16" s="2" t="e">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6252,8 +9267,9 @@
       </c>
       <c r="T16" s="17"/>
       <c r="U16" s="18"/>
-    </row>
-    <row r="17" spans="1:21" s="4" customFormat="1">
+      <c r="V16" s="22"/>
+    </row>
+    <row r="17" spans="1:22" s="4" customFormat="1">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17" s="2" t="e">
@@ -6290,8 +9306,9 @@
       <c r="S17"/>
       <c r="T17" s="19"/>
       <c r="U17" s="20"/>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17" s="23"/>
+    </row>
+    <row r="18" spans="1:22">
       <c r="C18" s="2" t="e">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6314,8 +9331,9 @@
       </c>
       <c r="T18" s="17"/>
       <c r="U18" s="18"/>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18" s="22"/>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="2" t="e">
@@ -6352,10 +9370,11 @@
       <c r="S19" s="7"/>
       <c r="T19" s="19"/>
       <c r="U19" s="20"/>
+      <c r="V19" s="23"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>2.639</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6369,10 +9388,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6397,7 +9416,7 @@
     <col min="19" max="19" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6405,10 +9424,10 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -6428,7 +9447,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6486,8 +9505,17 @@
       <c r="S3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U3" t="s">
+        <v>88</v>
+      </c>
+      <c r="V3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="6" t="s">
         <v>47</v>
       </c>
@@ -6551,7 +9579,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:22">
       <c r="C5" s="2" t="e">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6573,7 +9601,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:22">
       <c r="C6" s="2" t="e">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6595,7 +9623,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:22">
       <c r="C7" s="2" t="e">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6617,7 +9645,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="4" customFormat="1">
+    <row r="8" spans="1:22" s="4" customFormat="1">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8" s="2" t="e">
@@ -6652,8 +9680,11 @@
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8"/>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+    </row>
+    <row r="9" spans="1:22">
       <c r="C9" s="2" t="e">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6675,7 +9706,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:22">
       <c r="C10" s="2" t="e">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6697,7 +9728,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:22">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="2" t="e">
@@ -6732,8 +9763,11 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="1:22">
       <c r="C12" s="2" t="e">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6755,7 +9789,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:22">
       <c r="C13" s="2" t="e">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6777,7 +9811,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:22">
       <c r="C14" s="2" t="e">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6799,7 +9833,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:22">
       <c r="C15" s="2" t="e">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6821,7 +9855,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:22">
       <c r="C16" s="2" t="e">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6843,7 +9877,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:22">
       <c r="C17" s="2" t="e">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6865,7 +9899,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:22">
       <c r="C18" s="2" t="e">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6887,7 +9921,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:22">
       <c r="C19" s="2" t="e">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6909,7 +9943,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:22">
       <c r="C20" s="2" t="e">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6931,7 +9965,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:22">
       <c r="C21" s="2" t="e">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6953,7 +9987,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:22">
       <c r="C22" s="2" t="e">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6975,7 +10009,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:22">
       <c r="C23" s="2" t="e">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -6997,7 +10031,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:22">
       <c r="C24" s="2" t="e">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -7019,7 +10053,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:22">
       <c r="C25" s="2" t="e">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -7041,7 +10075,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:22">
       <c r="C26" s="2" t="e">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -7063,7 +10097,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:22">
       <c r="C27" s="2" t="e">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -7085,7 +10119,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:22">
       <c r="C28" s="2" t="e">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -7107,7 +10141,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:22">
       <c r="C29" s="2" t="e">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -7129,7 +10163,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:22">
       <c r="C30" s="2" t="e">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -7151,7 +10185,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:22">
       <c r="C31" s="2" t="e">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -7173,7 +10207,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:22">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="8" t="e">
@@ -7208,10 +10242,13 @@
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C32">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>4.429</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7225,10 +10262,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7254,7 +10291,7 @@
     <col min="21" max="21" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7262,13 +10299,13 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -7288,7 +10325,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7347,13 +10384,16 @@
         <v>17</v>
       </c>
       <c r="T3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U3" t="s">
         <v>88</v>
       </c>
-      <c r="U3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="6" t="s">
         <v>50</v>
       </c>
@@ -7420,9 +10460,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:22">
       <c r="A5" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>43</v>
@@ -7487,7 +10527,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:22">
       <c r="A6" s="14" t="s">
         <v>28</v>
       </c>
@@ -7553,10 +10593,13 @@
       <c r="T6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -7620,10 +10663,13 @@
       <c r="T7">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -7690,10 +10736,13 @@
       <c r="U8">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -7760,10 +10809,13 @@
       <c r="U9">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -7830,10 +10882,13 @@
       <c r="U10">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -7900,8 +10955,11 @@
       <c r="U11">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="e">
@@ -7925,7 +10983,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:22">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2" t="e">
@@ -7949,7 +11007,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:22">
       <c r="C14" s="2" t="e">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -7971,7 +11029,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:22">
       <c r="C15" s="2" t="e">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -7993,7 +11051,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:22">
       <c r="C16" s="2" t="e">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -8015,7 +11073,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:22">
       <c r="C17" s="2" t="e">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -8037,7 +11095,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="4" customFormat="1">
+    <row r="18" spans="1:22" s="4" customFormat="1">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18" s="2" t="e">
@@ -8074,8 +11132,9 @@
       <c r="S18"/>
       <c r="T18"/>
       <c r="U18"/>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18"/>
+    </row>
+    <row r="19" spans="1:22">
       <c r="C19" s="2" t="e">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -8097,7 +11156,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:22">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="2" t="e">
@@ -8134,10 +11193,11 @@
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C20">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>3.51</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8151,10 +11211,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8176,7 +11236,7 @@
     <col min="19" max="19" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8184,10 +11244,10 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -8207,7 +11267,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8266,13 +11326,16 @@
         <v>17</v>
       </c>
       <c r="T3" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="U3" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" thickTop="1">
+      <c r="V3" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" thickTop="1">
       <c r="A4" s="6" t="s">
         <v>52</v>
       </c>
@@ -8338,8 +11401,9 @@
         <v>55</v>
       </c>
       <c r="U4" s="18"/>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" s="22"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="6" t="s">
         <v>53</v>
       </c>
@@ -8405,12 +11469,15 @@
         <v>55</v>
       </c>
       <c r="U5" s="20"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" s="23"/>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
       <c r="C6" s="2">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>1.8259500000000002</v>
@@ -8469,9 +11536,14 @@
       <c r="T6" s="17">
         <v>55</v>
       </c>
-      <c r="U6" s="18"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="U6" s="18">
+        <v>3.4</v>
+      </c>
+      <c r="V6" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="e">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -8495,8 +11567,9 @@
       </c>
       <c r="T7" s="19"/>
       <c r="U7" s="20"/>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" s="23"/>
+    </row>
+    <row r="8" spans="1:22">
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="e">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -8520,8 +11593,9 @@
       </c>
       <c r="T8" s="17"/>
       <c r="U8" s="18"/>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" s="22"/>
+    </row>
+    <row r="9" spans="1:22">
       <c r="B9" s="4"/>
       <c r="C9" s="2" t="e">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -8544,7 +11618,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:22">
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="e">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -8567,7 +11641,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:22">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2" t="e">
@@ -8591,7 +11665,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:22">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="e">
@@ -8615,7 +11689,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:22">
       <c r="C13" s="2" t="e">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -8637,7 +11711,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:22">
       <c r="C14" s="2" t="e">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -8659,7 +11733,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:22">
       <c r="C15" s="2" t="e">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -8681,7 +11755,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:22">
       <c r="C16" s="2" t="e">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -8799,7 +11873,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>2.789</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Handgun" sheetId="8" r:id="rId1"/>
@@ -16,15 +16,16 @@
     <sheet name="LMG" sheetId="11" r:id="rId7"/>
     <sheet name="Shotgun" sheetId="12" r:id="rId8"/>
     <sheet name="Melee" sheetId="17" r:id="rId9"/>
-    <sheet name="Volumes" sheetId="15" r:id="rId10"/>
-    <sheet name="Math" sheetId="18" r:id="rId11"/>
+    <sheet name="Misc" sheetId="19" r:id="rId10"/>
+    <sheet name="Volumes" sheetId="15" r:id="rId11"/>
+    <sheet name="Math" sheetId="18" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="164">
   <si>
     <t>Weapon Stats - Sleepy's Weapons</t>
   </si>
@@ -456,6 +457,66 @@
   </si>
   <si>
     <t>Misc (Not Craftable)</t>
+  </si>
+  <si>
+    <t>FGM-148 Javelin (HEAT)</t>
+  </si>
+  <si>
+    <t>FGM-148 Javelin (HE)</t>
+  </si>
+  <si>
+    <t>Blast Range</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Stopping Power</t>
+  </si>
+  <si>
+    <t>Single Use</t>
+  </si>
+  <si>
+    <t>Warm-Up</t>
+  </si>
+  <si>
+    <t>Cooldown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add to Germany: </t>
+  </si>
+  <si>
+    <t>1 CR</t>
+  </si>
+  <si>
+    <t>0 CR</t>
+  </si>
+  <si>
+    <t>5 HG</t>
+  </si>
+  <si>
+    <t>2 R</t>
+  </si>
+  <si>
+    <t>2 RFL</t>
+  </si>
+  <si>
+    <t>1 SMG</t>
+  </si>
+  <si>
+    <t>3 LMG</t>
+  </si>
+  <si>
+    <t>3 SNR</t>
+  </si>
+  <si>
+    <t>2 MISC</t>
+  </si>
+  <si>
+    <t>Max 50 Weapons Total / Max 18 Craftable (Reduces Receipe Bloat) Per Volume (I want players to be able to have as little or as much as they want).</t>
+  </si>
+  <si>
+    <t>2 CR</t>
   </si>
 </sst>
 </file>
@@ -596,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -629,11 +690,273 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="70">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -642,11 +965,47 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <fill>
@@ -677,162 +1036,6 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.59999389629810485"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -921,6 +1124,64 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1014,6 +1275,13 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -1044,6 +1312,36 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1133,6 +1431,13 @@
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1161,17 +1466,17 @@
   <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="58">
+    <tableColumn id="22" name="Balance" dataDxfId="68">
       <calculatedColumnFormula>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="57">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="67">
       <calculatedColumnFormula>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="56">
+    <tableColumn id="15" name="DPS" dataDxfId="66">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="55">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="65">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1181,16 +1486,16 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="54">
+    <tableColumn id="7" name="Burst Time" dataDxfId="64">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="53"/>
-    <tableColumn id="14" name="Weight" dataDxfId="52"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="12"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="63"/>
+    <tableColumn id="14" name="Weight" dataDxfId="62"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1213,18 +1518,18 @@
   </autoFilter>
   <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="51"/>
-    <tableColumn id="22" name="Balance" dataDxfId="50">
+    <tableColumn id="12" name="Vol." dataDxfId="59"/>
+    <tableColumn id="22" name="Balance" dataDxfId="58">
       <calculatedColumnFormula>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="49">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="57">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="48">
+    <tableColumn id="15" name="DPS" dataDxfId="56">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="47">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="55">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1234,7 +1539,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="46">
+    <tableColumn id="7" name="Burst Time" dataDxfId="54">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -1266,18 +1571,18 @@
   </autoFilter>
   <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="45"/>
-    <tableColumn id="22" name="Balance" dataDxfId="44">
+    <tableColumn id="12" name="Vol." dataDxfId="52"/>
+    <tableColumn id="22" name="Balance" dataDxfId="51">
       <calculatedColumnFormula>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="43">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="50">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="42">
+    <tableColumn id="15" name="DPS" dataDxfId="49">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Damage]]*Table16[[#This Row],[Burst]])/(Table16[[#This Row],[Ranged Cooldown]]+Table16[[#This Row],[Warm-up]]+(Table16[[#This Row],[Burst Time]]*(Table16[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="41">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="48">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1287,16 +1592,16 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="40">
+    <tableColumn id="7" name="Burst Time" dataDxfId="47">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="39"/>
-    <tableColumn id="14" name="Weight" dataDxfId="38"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="14"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="46"/>
+    <tableColumn id="14" name="Weight" dataDxfId="45"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1320,17 +1625,17 @@
   <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="10">
+    <tableColumn id="22" name="Balance" dataDxfId="42">
       <calculatedColumnFormula>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="9">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="41">
       <calculatedColumnFormula>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="8">
+    <tableColumn id="15" name="DPS" dataDxfId="40">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="7">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="39">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1340,7 +1645,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="6">
+    <tableColumn id="7" name="Burst Time" dataDxfId="38">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -1373,17 +1678,17 @@
   <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="37">
+    <tableColumn id="22" name="Balance" dataDxfId="36">
       <calculatedColumnFormula>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="36">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="35">
       <calculatedColumnFormula>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="35">
+    <tableColumn id="15" name="DPS" dataDxfId="34">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="34">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="33">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1393,16 +1698,16 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="33">
+    <tableColumn id="7" name="Burst Time" dataDxfId="32">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="32"/>
-    <tableColumn id="14" name="Weight" dataDxfId="31"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="3"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="31"/>
+    <tableColumn id="14" name="Weight" dataDxfId="30"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1426,17 +1731,17 @@
   <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="30">
+    <tableColumn id="22" name="Balance" dataDxfId="27">
       <calculatedColumnFormula>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="29">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="26">
       <calculatedColumnFormula>SUM(Table1681015[[#This Row],[DPS]]*Table1681015[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="28">
+    <tableColumn id="15" name="DPS" dataDxfId="25">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Damage]]*Table1681015[[#This Row],[Burst]])/(Table1681015[[#This Row],[Ranged Cooldown]]+Table1681015[[#This Row],[Warm-up]]+(Table1681015[[#This Row],[Burst Time]]*(Table1681015[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="27">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="24">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Accuracy (Close)]]+Table1681015[[#This Row],[Accuracy (Short)]]+Table1681015[[#This Row],[Accuracy (Medium)]]+Table1681015[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1446,7 +1751,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="26">
+    <tableColumn id="7" name="Burst Time" dataDxfId="23">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -1479,17 +1784,17 @@
   <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="25">
+    <tableColumn id="22" name="Balance" dataDxfId="21">
       <calculatedColumnFormula>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="24">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="20">
       <calculatedColumnFormula>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="23">
+    <tableColumn id="15" name="DPS" dataDxfId="19">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="22">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="18">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1499,7 +1804,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="21">
+    <tableColumn id="7" name="Burst Time" dataDxfId="17">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -1532,17 +1837,17 @@
   <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="20">
+    <tableColumn id="22" name="Balance" dataDxfId="15">
       <calculatedColumnFormula>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="19">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="14">
       <calculatedColumnFormula>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="18">
+    <tableColumn id="15" name="DPS" dataDxfId="13">
       <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="17">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="12">
       <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1552,7 +1857,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="16">
+    <tableColumn id="7" name="Burst Time" dataDxfId="11">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -1562,6 +1867,37 @@
     <tableColumn id="13" name="Bullet Speed"/>
     <tableColumn id="14" name="Weight"/>
     <tableColumn id="21" name="Craftable"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table16892" displayName="Table16892" ref="A3:M17" totalsRowShown="0">
+  <autoFilter ref="A3:M17">
+    <filterColumn colId="2"/>
+    <filterColumn colId="3"/>
+    <filterColumn colId="4"/>
+    <filterColumn colId="5"/>
+    <filterColumn colId="6"/>
+    <filterColumn colId="7"/>
+    <filterColumn colId="8"/>
+    <filterColumn colId="11"/>
+  </autoFilter>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Weapon Name"/>
+    <tableColumn id="12" name="Vol."/>
+    <tableColumn id="3" name="Range" dataDxfId="10"/>
+    <tableColumn id="4" name="Damage" dataDxfId="9"/>
+    <tableColumn id="5" name="AP" dataDxfId="8"/>
+    <tableColumn id="6" name="Stopping Power" dataDxfId="7"/>
+    <tableColumn id="2" name="Blast Range" dataDxfId="6"/>
+    <tableColumn id="8" name="Warm-Up" dataDxfId="5"/>
+    <tableColumn id="9" name="Cooldown" dataDxfId="4"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="3"/>
+    <tableColumn id="14" name="Weight" dataDxfId="2"/>
+    <tableColumn id="7" name="Single Use" dataDxfId="1"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1854,8 +2190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2500,7 +2836,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:C17">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="1" operator="greaterThan">
       <formula>1.73</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2514,10 +2850,351 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="7" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="15.75" thickTop="1">
+      <c r="A4" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="12">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>46.9</v>
+      </c>
+      <c r="D4" s="12">
+        <v>495</v>
+      </c>
+      <c r="E4" s="29">
+        <v>1.3</v>
+      </c>
+      <c r="F4" s="12">
+        <v>2</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="H4" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="J4" s="26">
+        <v>75</v>
+      </c>
+      <c r="K4" s="27">
+        <v>22.3</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>35.9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>50</v>
+      </c>
+      <c r="E5" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J5" s="19">
+        <v>75</v>
+      </c>
+      <c r="K5" s="20">
+        <v>22.3</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="14"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+    </row>
+    <row r="14" spans="1:13" s="4" customFormat="1">
+      <c r="A14"/>
+      <c r="E14" s="30"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="7"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2772,42 +3449,18 @@
         <v>61</v>
       </c>
       <c r="B14">
-        <f>SUM(B2:B11)</f>
+        <f>SUM(B2:B12)</f>
         <v>32</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:K14" si="0">SUM(C2:C11)</f>
+        <f>SUM(C2:C12)</f>
         <v>4</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D14:E14" si="0">SUM(D2:D12)</f>
         <v>1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2831,6 +3484,60 @@
       <c r="E15">
         <f>Math!B5+E11</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" t="s">
+        <v>159</v>
+      </c>
+      <c r="H22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2838,12 +3545,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5464,7 +6171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
@@ -6101,7 +6808,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="1" operator="greaterThan">
       <formula>1.63</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6117,7 +6824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
@@ -7086,7 +7793,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C18">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="greaterThan">
       <formula>2.599</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7102,8 +7809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8620,7 +9327,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C998">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
       <formula>3.2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8636,8 +9343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9374,7 +10081,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
       <formula>2.639</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9390,7 +10097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
@@ -10248,7 +10955,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C32">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
       <formula>4.429</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10264,7 +10971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
@@ -11197,7 +11904,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C20">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="greaterThan">
       <formula>3.51</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11873,7 +12580,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
       <formula>2.789</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Handgun" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="174">
   <si>
     <t>Weapon Stats - Sleepy's Weapons</t>
   </si>
@@ -517,13 +517,43 @@
   </si>
   <si>
     <t>2 CR</t>
+  </si>
+  <si>
+    <t>GEWEHR43*</t>
+  </si>
+  <si>
+    <t>K98K*</t>
+  </si>
+  <si>
+    <t>Stick Grenade</t>
+  </si>
+  <si>
+    <t>Frag Grenade</t>
+  </si>
+  <si>
+    <t>explosiveRadius</t>
+  </si>
+  <si>
+    <t>DetDelay</t>
+  </si>
+  <si>
+    <t>ForcedMiss</t>
+  </si>
+  <si>
+    <t>MP40*</t>
+  </si>
+  <si>
+    <t>Bundle Stick Grenade*</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +602,17 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -657,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -690,19 +731,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="73">
     <dxf>
       <font>
         <b val="0"/>
@@ -720,9 +769,9 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -743,9 +792,9 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -766,20 +815,18 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top/>
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -799,12 +846,12 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0"/>
         </left>
@@ -815,9 +862,58 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1466,17 +1562,17 @@
   <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="68">
+    <tableColumn id="22" name="Balance" dataDxfId="71">
       <calculatedColumnFormula>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="67">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="70">
       <calculatedColumnFormula>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="66">
+    <tableColumn id="15" name="DPS" dataDxfId="69">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="65">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="68">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1486,16 +1582,16 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="64">
+    <tableColumn id="7" name="Burst Time" dataDxfId="67">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="63"/>
-    <tableColumn id="14" name="Weight" dataDxfId="62"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="61"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="66"/>
+    <tableColumn id="14" name="Weight" dataDxfId="65"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1518,18 +1614,18 @@
   </autoFilter>
   <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="59"/>
-    <tableColumn id="22" name="Balance" dataDxfId="58">
+    <tableColumn id="12" name="Vol." dataDxfId="62"/>
+    <tableColumn id="22" name="Balance" dataDxfId="61">
       <calculatedColumnFormula>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="57">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="60">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="56">
+    <tableColumn id="15" name="DPS" dataDxfId="59">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="55">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="58">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1539,7 +1635,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="54">
+    <tableColumn id="7" name="Burst Time" dataDxfId="57">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -1571,18 +1667,18 @@
   </autoFilter>
   <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="52"/>
-    <tableColumn id="22" name="Balance" dataDxfId="51">
+    <tableColumn id="12" name="Vol." dataDxfId="55"/>
+    <tableColumn id="22" name="Balance" dataDxfId="54">
       <calculatedColumnFormula>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="50">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="53">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="49">
+    <tableColumn id="15" name="DPS" dataDxfId="52">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Damage]]*Table16[[#This Row],[Burst]])/(Table16[[#This Row],[Ranged Cooldown]]+Table16[[#This Row],[Warm-up]]+(Table16[[#This Row],[Burst Time]]*(Table16[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="48">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="51">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1592,16 +1688,16 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="47">
+    <tableColumn id="7" name="Burst Time" dataDxfId="50">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="46"/>
-    <tableColumn id="14" name="Weight" dataDxfId="45"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="44"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="49"/>
+    <tableColumn id="14" name="Weight" dataDxfId="48"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1625,17 +1721,17 @@
   <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="42">
+    <tableColumn id="22" name="Balance" dataDxfId="45">
       <calculatedColumnFormula>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="41">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="44">
       <calculatedColumnFormula>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="40">
+    <tableColumn id="15" name="DPS" dataDxfId="43">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="39">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="42">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1645,7 +1741,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="38">
+    <tableColumn id="7" name="Burst Time" dataDxfId="41">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -1678,17 +1774,17 @@
   <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="36">
+    <tableColumn id="22" name="Balance" dataDxfId="39">
       <calculatedColumnFormula>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="35">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="38">
       <calculatedColumnFormula>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="34">
+    <tableColumn id="15" name="DPS" dataDxfId="37">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="33">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="36">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1698,16 +1794,16 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="32">
+    <tableColumn id="7" name="Burst Time" dataDxfId="35">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="31"/>
-    <tableColumn id="14" name="Weight" dataDxfId="30"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="29"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="34"/>
+    <tableColumn id="14" name="Weight" dataDxfId="33"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1731,17 +1827,17 @@
   <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="27">
+    <tableColumn id="22" name="Balance" dataDxfId="30">
       <calculatedColumnFormula>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="26">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="29">
       <calculatedColumnFormula>SUM(Table1681015[[#This Row],[DPS]]*Table1681015[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="25">
+    <tableColumn id="15" name="DPS" dataDxfId="28">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Damage]]*Table1681015[[#This Row],[Burst]])/(Table1681015[[#This Row],[Ranged Cooldown]]+Table1681015[[#This Row],[Warm-up]]+(Table1681015[[#This Row],[Burst Time]]*(Table1681015[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="24">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="27">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Accuracy (Close)]]+Table1681015[[#This Row],[Accuracy (Short)]]+Table1681015[[#This Row],[Accuracy (Medium)]]+Table1681015[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1751,7 +1847,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="23">
+    <tableColumn id="7" name="Burst Time" dataDxfId="26">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -1784,17 +1880,17 @@
   <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="21">
+    <tableColumn id="22" name="Balance" dataDxfId="24">
       <calculatedColumnFormula>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="20">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="23">
       <calculatedColumnFormula>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="19">
+    <tableColumn id="15" name="DPS" dataDxfId="22">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="18">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="21">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1804,7 +1900,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="17">
+    <tableColumn id="7" name="Burst Time" dataDxfId="20">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -1837,17 +1933,17 @@
   <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="15">
+    <tableColumn id="22" name="Balance" dataDxfId="18">
       <calculatedColumnFormula>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="14">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="17">
       <calculatedColumnFormula>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="13">
+    <tableColumn id="15" name="DPS" dataDxfId="16">
       <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="12">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="15">
       <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1857,7 +1953,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="11">
+    <tableColumn id="7" name="Burst Time" dataDxfId="14">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -1873,8 +1969,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table16892" displayName="Table16892" ref="A3:M17" totalsRowShown="0">
-  <autoFilter ref="A3:M17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table16892" displayName="Table16892" ref="A3:P18" totalsRowShown="0">
+  <autoFilter ref="A3:P18">
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
     <filterColumn colId="4"/>
@@ -1882,16 +1978,22 @@
     <filterColumn colId="6"/>
     <filterColumn colId="7"/>
     <filterColumn colId="8"/>
+    <filterColumn colId="9"/>
+    <filterColumn colId="10"/>
     <filterColumn colId="11"/>
+    <filterColumn colId="14"/>
   </autoFilter>
-  <tableColumns count="13">
+  <tableColumns count="16">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="3" name="Range" dataDxfId="10"/>
-    <tableColumn id="4" name="Damage" dataDxfId="9"/>
-    <tableColumn id="5" name="AP" dataDxfId="8"/>
-    <tableColumn id="6" name="Stopping Power" dataDxfId="7"/>
-    <tableColumn id="2" name="Blast Range" dataDxfId="6"/>
+    <tableColumn id="3" name="Range" dataDxfId="13"/>
+    <tableColumn id="4" name="Damage" dataDxfId="12"/>
+    <tableColumn id="5" name="AP" dataDxfId="11"/>
+    <tableColumn id="6" name="Stopping Power" dataDxfId="10"/>
+    <tableColumn id="15" name="ForcedMiss" dataDxfId="9"/>
+    <tableColumn id="11" name="DetDelay" dataDxfId="8"/>
+    <tableColumn id="10" name="Blast Range" dataDxfId="7"/>
+    <tableColumn id="2" name="explosiveRadius" dataDxfId="6"/>
     <tableColumn id="8" name="Warm-Up" dataDxfId="5"/>
     <tableColumn id="9" name="Cooldown" dataDxfId="4"/>
     <tableColumn id="13" name="Bullet Speed" dataDxfId="3"/>
@@ -2836,7 +2938,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:C17">
-    <cfRule type="cellIs" dxfId="69" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="1" operator="greaterThan">
       <formula>1.73</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2850,36 +2952,39 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="7" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="7" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2887,13 +2992,16 @@
         <v>24</v>
       </c>
       <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2913,272 +3021,447 @@
         <v>148</v>
       </c>
       <c r="G3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" t="s">
         <v>146</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K3" t="s">
         <v>150</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>151</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="M3" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="N3" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="O3" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="P3" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="15.75" thickTop="1">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:16" s="4" customFormat="1" ht="15.75" thickTop="1">
+      <c r="A4" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="29">
+        <v>12.9</v>
+      </c>
+      <c r="D4" s="29">
+        <v>50</v>
+      </c>
+      <c r="E4" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="29">
+        <v>1.9</v>
+      </c>
+      <c r="H4" s="29">
+        <v>100</v>
+      </c>
+      <c r="I4" s="29">
+        <v>1.9</v>
+      </c>
+      <c r="J4" s="29">
+        <v>2.66</v>
+      </c>
+      <c r="K4" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="L4" s="29">
+        <v>2.66</v>
+      </c>
+      <c r="M4" s="37">
+        <v>12</v>
+      </c>
+      <c r="N4" s="38">
+        <v>1</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B5" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C5" s="12">
         <v>46.9</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D5" s="12">
         <v>495</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E5" s="26">
         <v>1.3</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F5" s="12">
         <v>2</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" s="12">
         <v>1.5</v>
       </c>
-      <c r="H4" s="12">
+      <c r="J5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="K5" s="12">
         <v>5.5</v>
       </c>
-      <c r="I4" s="12">
+      <c r="L5" s="12">
         <v>0.8</v>
       </c>
-      <c r="J4" s="26">
+      <c r="M5" s="31">
         <v>75</v>
       </c>
-      <c r="K4" s="27">
+      <c r="N5" s="32">
         <v>22.3</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="O5" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="P5" s="33" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="14" t="s">
+    <row r="6" spans="1:16">
+      <c r="A6" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="4">
         <v>35.9</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D6" s="4">
         <v>50</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E6" s="27">
         <v>0.1</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6" s="4">
         <v>4.5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="J6" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="K6" s="4">
         <v>5.5</v>
       </c>
-      <c r="I5" s="4">
+      <c r="L6" s="4">
         <v>0.8</v>
       </c>
-      <c r="J5" s="19">
+      <c r="M6" s="34">
         <v>75</v>
       </c>
-      <c r="K5" s="20">
+      <c r="N6" s="35">
         <v>22.3</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="O6" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="P6" s="36" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="14"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-    </row>
-    <row r="9" spans="1:13">
+    <row r="7" spans="1:16">
+      <c r="A7" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>15.9</v>
+      </c>
+      <c r="D7" s="4">
+        <v>40</v>
+      </c>
+      <c r="E7" s="27">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H7" s="4">
+        <v>100</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2.66</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="L7" s="4">
+        <v>2.66</v>
+      </c>
+      <c r="M7" s="34">
+        <v>15</v>
+      </c>
+      <c r="N7" s="35">
+        <v>1</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="D8" s="4">
+        <v>70</v>
+      </c>
+      <c r="E8" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="4">
+        <v>100</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2.66</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2.66</v>
+      </c>
+      <c r="M8" s="34">
+        <v>10</v>
+      </c>
+      <c r="N8" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="30"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="30"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="30"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="30"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="30"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-    </row>
-    <row r="14" spans="1:13" s="4" customFormat="1">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+    </row>
+    <row r="14" spans="1:16" s="4" customFormat="1">
       <c r="A14"/>
-      <c r="E14" s="30"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="E14" s="27"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="30"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="7"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="30"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="7"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3193,8 +3476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3306,7 +3589,7 @@
       </c>
       <c r="B5">
         <f>COUNTIF(Table16810[Vol.], 1)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <f>COUNTIF(Table16810[Vol.], 2)</f>
@@ -3450,7 +3733,7 @@
       </c>
       <c r="B14">
         <f>SUM(B2:B12)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <f>SUM(C2:C12)</f>
@@ -6808,7 +7091,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="60" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="greaterThan">
       <formula>1.63</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6825,7 +7108,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7547,6 +7830,9 @@
       <c r="M12">
         <v>0.55000000000000004</v>
       </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
       <c r="O12" s="2">
         <v>0.6</v>
       </c>
@@ -7646,30 +7932,73 @@
       </c>
     </row>
     <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
       <c r="B14" s="12"/>
-      <c r="C14" s="2" t="e">
+      <c r="C14" s="2">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D14" s="3" t="e">
+        <v>2.2882499999999997</v>
+      </c>
+      <c r="D14" s="3">
         <f>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E14" s="2" t="e">
+        <v>6.75</v>
+      </c>
+      <c r="E14" s="2">
         <f>SUM((Table16[[#This Row],[Damage]]*Table16[[#This Row],[Burst]])/(Table16[[#This Row],[Ranged Cooldown]]+Table16[[#This Row],[Warm-up]]+(Table16[[#This Row],[Burst Time]]*(Table16[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>13.636363636363637</v>
+      </c>
+      <c r="F14">
+        <v>20.9</v>
       </c>
       <c r="G14" s="2">
         <f>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="2" t="e">
+        <v>0.495</v>
+      </c>
+      <c r="H14">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>0.5</v>
+      </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1.5</v>
+      </c>
+      <c r="M14">
+        <v>0.52</v>
+      </c>
+      <c r="N14">
+        <v>300</v>
+      </c>
+      <c r="O14" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T14" s="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="P14">
+        <v>0.85</v>
+      </c>
+      <c r="Q14">
+        <v>0.69</v>
+      </c>
+      <c r="R14">
+        <v>0.3</v>
+      </c>
+      <c r="S14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T14" s="17">
+        <v>44</v>
+      </c>
       <c r="U14" s="18"/>
-      <c r="V14" s="22"/>
+      <c r="V14" s="24" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="15" spans="1:22">
       <c r="B15" s="12"/>
@@ -7793,7 +8122,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C18">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="greaterThan">
       <formula>2.599</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7810,7 +8139,7 @@
   <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9111,47 +9440,141 @@
       </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="C21" s="2" t="e">
+      <c r="A21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D21" s="3" t="e">
+        <v>2.8970666666666665</v>
+      </c>
+      <c r="D21" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="2" t="e">
+        <v>5.1733333333333329</v>
+      </c>
+      <c r="E21" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>7.1111111111111107</v>
+      </c>
+      <c r="F21">
+        <v>36</v>
       </c>
       <c r="G21" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="2" t="e">
-        <f t="shared" ref="O21:O29" si="1">60/N21</f>
-        <v>#DIV/0!</v>
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="H21">
+        <v>16</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.25</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>0.6</v>
+      </c>
+      <c r="Q21">
+        <v>0.75</v>
+      </c>
+      <c r="R21">
+        <v>0.84</v>
+      </c>
+      <c r="S21">
+        <v>0.72</v>
+      </c>
+      <c r="T21">
+        <v>70</v>
+      </c>
+      <c r="V21" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="C22" s="2" t="e">
+      <c r="A22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="3" t="e">
+        <v>2.8381906077348065</v>
+      </c>
+      <c r="D22" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="2" t="e">
+        <v>4.0545580110497239</v>
+      </c>
+      <c r="E22" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>5.2486187845303869</v>
+      </c>
+      <c r="F22">
+        <v>41</v>
       </c>
       <c r="G22" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="H22">
+        <v>19</v>
+      </c>
+      <c r="I22">
+        <v>1.5</v>
+      </c>
+      <c r="J22">
+        <v>29</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1.72</v>
+      </c>
+      <c r="M22">
+        <v>1.9</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1.72</v>
+      </c>
+      <c r="P22">
+        <v>0.59</v>
+      </c>
+      <c r="Q22">
+        <v>0.7</v>
+      </c>
+      <c r="R22">
+        <v>0.94</v>
+      </c>
+      <c r="S22">
+        <v>0.86</v>
+      </c>
+      <c r="T22">
+        <v>88</v>
+      </c>
+      <c r="V22" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -9172,7 +9595,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O23:O29" si="1">60/N23</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9327,7 +9750,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C998">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="greaterThan">
       <formula>3.2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10081,7 +10504,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="greaterThan">
       <formula>2.639</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10955,7 +11378,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C32">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
       <formula>4.429</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11904,7 +12327,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C20">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
       <formula>3.51</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12580,7 +13003,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
       <formula>2.789</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Handgun" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="173">
   <si>
     <t>Weapon Stats - Sleepy's Weapons</t>
   </si>
@@ -529,9 +529,6 @@
   </si>
   <si>
     <t>Frag Grenade</t>
-  </si>
-  <si>
-    <t>explosiveRadius</t>
   </si>
   <si>
     <t>DetDelay</t>
@@ -751,7 +748,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="72">
     <dxf>
       <font>
         <b val="0"/>
@@ -863,23 +860,6 @@
           <color theme="0"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1562,17 +1542,17 @@
   <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="71">
+    <tableColumn id="22" name="Balance" dataDxfId="70">
       <calculatedColumnFormula>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="70">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="69">
       <calculatedColumnFormula>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="69">
+    <tableColumn id="15" name="DPS" dataDxfId="68">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="68">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="67">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1582,16 +1562,16 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="67">
+    <tableColumn id="7" name="Burst Time" dataDxfId="66">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="66"/>
-    <tableColumn id="14" name="Weight" dataDxfId="65"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="64"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="65"/>
+    <tableColumn id="14" name="Weight" dataDxfId="64"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1614,18 +1594,18 @@
   </autoFilter>
   <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="62"/>
-    <tableColumn id="22" name="Balance" dataDxfId="61">
+    <tableColumn id="12" name="Vol." dataDxfId="61"/>
+    <tableColumn id="22" name="Balance" dataDxfId="60">
       <calculatedColumnFormula>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="60">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="59">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="59">
+    <tableColumn id="15" name="DPS" dataDxfId="58">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="58">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="57">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1635,7 +1615,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="57">
+    <tableColumn id="7" name="Burst Time" dataDxfId="56">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -1667,18 +1647,18 @@
   </autoFilter>
   <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="55"/>
-    <tableColumn id="22" name="Balance" dataDxfId="54">
+    <tableColumn id="12" name="Vol." dataDxfId="54"/>
+    <tableColumn id="22" name="Balance" dataDxfId="53">
       <calculatedColumnFormula>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="53">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="52">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="52">
+    <tableColumn id="15" name="DPS" dataDxfId="51">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Damage]]*Table16[[#This Row],[Burst]])/(Table16[[#This Row],[Ranged Cooldown]]+Table16[[#This Row],[Warm-up]]+(Table16[[#This Row],[Burst Time]]*(Table16[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="51">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="50">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1688,16 +1668,16 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="50">
+    <tableColumn id="7" name="Burst Time" dataDxfId="49">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="49"/>
-    <tableColumn id="14" name="Weight" dataDxfId="48"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="47"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="48"/>
+    <tableColumn id="14" name="Weight" dataDxfId="47"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1721,17 +1701,17 @@
   <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="45">
+    <tableColumn id="22" name="Balance" dataDxfId="44">
       <calculatedColumnFormula>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="44">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="43">
       <calculatedColumnFormula>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="43">
+    <tableColumn id="15" name="DPS" dataDxfId="42">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="42">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="41">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1741,7 +1721,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="41">
+    <tableColumn id="7" name="Burst Time" dataDxfId="40">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -1774,17 +1754,17 @@
   <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="39">
+    <tableColumn id="22" name="Balance" dataDxfId="38">
       <calculatedColumnFormula>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="38">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="37">
       <calculatedColumnFormula>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="37">
+    <tableColumn id="15" name="DPS" dataDxfId="36">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="36">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="35">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1794,16 +1774,16 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="35">
+    <tableColumn id="7" name="Burst Time" dataDxfId="34">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="34"/>
-    <tableColumn id="14" name="Weight" dataDxfId="33"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="32"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="33"/>
+    <tableColumn id="14" name="Weight" dataDxfId="32"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1827,17 +1807,17 @@
   <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="30">
+    <tableColumn id="22" name="Balance" dataDxfId="29">
       <calculatedColumnFormula>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="29">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="28">
       <calculatedColumnFormula>SUM(Table1681015[[#This Row],[DPS]]*Table1681015[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="28">
+    <tableColumn id="15" name="DPS" dataDxfId="27">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Damage]]*Table1681015[[#This Row],[Burst]])/(Table1681015[[#This Row],[Ranged Cooldown]]+Table1681015[[#This Row],[Warm-up]]+(Table1681015[[#This Row],[Burst Time]]*(Table1681015[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="27">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="26">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Accuracy (Close)]]+Table1681015[[#This Row],[Accuracy (Short)]]+Table1681015[[#This Row],[Accuracy (Medium)]]+Table1681015[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1847,7 +1827,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="26">
+    <tableColumn id="7" name="Burst Time" dataDxfId="25">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -1880,17 +1860,17 @@
   <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="24">
+    <tableColumn id="22" name="Balance" dataDxfId="23">
       <calculatedColumnFormula>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="23">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="22">
       <calculatedColumnFormula>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="22">
+    <tableColumn id="15" name="DPS" dataDxfId="21">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="21">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="20">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1900,7 +1880,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="20">
+    <tableColumn id="7" name="Burst Time" dataDxfId="19">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -1933,17 +1913,17 @@
   <tableColumns count="22">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="18">
+    <tableColumn id="22" name="Balance" dataDxfId="17">
       <calculatedColumnFormula>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="17">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="16">
+    <tableColumn id="15" name="DPS" dataDxfId="15">
       <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="15">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="14">
       <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -1953,7 +1933,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="14">
+    <tableColumn id="7" name="Burst Time" dataDxfId="13">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -1969,8 +1949,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table16892" displayName="Table16892" ref="A3:P18" totalsRowShown="0">
-  <autoFilter ref="A3:P18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table16892" displayName="Table16892" ref="A3:O18" totalsRowShown="0">
+  <autoFilter ref="A3:O18">
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
     <filterColumn colId="4"/>
@@ -1980,20 +1960,18 @@
     <filterColumn colId="8"/>
     <filterColumn colId="9"/>
     <filterColumn colId="10"/>
-    <filterColumn colId="11"/>
-    <filterColumn colId="14"/>
+    <filterColumn colId="13"/>
   </autoFilter>
-  <tableColumns count="16">
+  <tableColumns count="15">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="3" name="Range" dataDxfId="13"/>
-    <tableColumn id="4" name="Damage" dataDxfId="12"/>
-    <tableColumn id="5" name="AP" dataDxfId="11"/>
-    <tableColumn id="6" name="Stopping Power" dataDxfId="10"/>
-    <tableColumn id="15" name="ForcedMiss" dataDxfId="9"/>
-    <tableColumn id="11" name="DetDelay" dataDxfId="8"/>
-    <tableColumn id="10" name="Blast Range" dataDxfId="7"/>
-    <tableColumn id="2" name="explosiveRadius" dataDxfId="6"/>
+    <tableColumn id="3" name="Range" dataDxfId="12"/>
+    <tableColumn id="4" name="Damage" dataDxfId="11"/>
+    <tableColumn id="5" name="AP" dataDxfId="10"/>
+    <tableColumn id="6" name="Stopping Power" dataDxfId="9"/>
+    <tableColumn id="15" name="ForcedMiss" dataDxfId="8"/>
+    <tableColumn id="11" name="DetDelay" dataDxfId="7"/>
+    <tableColumn id="10" name="Blast Range" dataDxfId="6"/>
     <tableColumn id="8" name="Warm-Up" dataDxfId="5"/>
     <tableColumn id="9" name="Cooldown" dataDxfId="4"/>
     <tableColumn id="13" name="Bullet Speed" dataDxfId="3"/>
@@ -2938,7 +2916,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:C17">
-    <cfRule type="cellIs" dxfId="72" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="1" operator="greaterThan">
       <formula>1.73</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2952,10 +2930,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2984,7 +2962,7 @@
     <col min="22" max="22" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2996,12 +2974,12 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3021,37 +2999,34 @@
         <v>148</v>
       </c>
       <c r="G3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I3" t="s">
         <v>146</v>
       </c>
       <c r="J3" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="K3" t="s">
-        <v>150</v>
-      </c>
-      <c r="L3" t="s">
         <v>151</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="M3" s="16" t="s">
         <v>88</v>
       </c>
+      <c r="N3" s="21" t="s">
+        <v>149</v>
+      </c>
       <c r="O3" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="P3" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="4" customFormat="1" ht="15.75" thickTop="1">
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="15.75" thickTop="1">
       <c r="A4" s="6" t="s">
         <v>167</v>
       </c>
@@ -3080,28 +3055,25 @@
         <v>1.9</v>
       </c>
       <c r="J4" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="K4" s="29">
         <v>2.66</v>
       </c>
-      <c r="K4" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="L4" s="29">
-        <v>2.66</v>
-      </c>
-      <c r="M4" s="37">
+      <c r="L4" s="37">
         <v>12</v>
       </c>
-      <c r="N4" s="38">
+      <c r="M4" s="38">
         <v>1</v>
       </c>
+      <c r="N4" s="36" t="s">
+        <v>106</v>
+      </c>
       <c r="O4" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="P4" s="36" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:15">
       <c r="A5" s="14" t="s">
         <v>144</v>
       </c>
@@ -3124,34 +3096,31 @@
         <v>0</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I5" s="12">
         <v>1.5</v>
       </c>
-      <c r="J5" s="4">
-        <v>1.5</v>
+      <c r="J5" s="12">
+        <v>5.5</v>
       </c>
       <c r="K5" s="12">
-        <v>5.5</v>
-      </c>
-      <c r="L5" s="12">
         <v>0.8</v>
       </c>
-      <c r="M5" s="31">
+      <c r="L5" s="31">
         <v>75</v>
       </c>
-      <c r="N5" s="32">
+      <c r="M5" s="32">
         <v>22.3</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>105</v>
       </c>
       <c r="O5" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="P5" s="33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="14" t="s">
         <v>145</v>
       </c>
@@ -3174,34 +3143,31 @@
         <v>0</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I6" s="4">
         <v>4.5</v>
       </c>
       <c r="J6" s="4">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="K6" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="L6" s="4">
         <v>0.8</v>
       </c>
-      <c r="M6" s="34">
+      <c r="L6" s="34">
         <v>75</v>
       </c>
-      <c r="N6" s="35">
+      <c r="M6" s="35">
         <v>22.3</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>105</v>
       </c>
       <c r="O6" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="P6" s="36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="14" t="s">
         <v>166</v>
       </c>
@@ -3230,30 +3196,27 @@
         <v>1.9</v>
       </c>
       <c r="J7" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="K7" s="4">
         <v>2.66</v>
       </c>
-      <c r="K7" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="L7" s="4">
-        <v>2.66</v>
-      </c>
-      <c r="M7" s="34">
+      <c r="L7" s="34">
         <v>15</v>
       </c>
-      <c r="N7" s="35">
+      <c r="M7" s="35">
         <v>1</v>
       </c>
+      <c r="N7" s="36" t="s">
+        <v>106</v>
+      </c>
       <c r="O7" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="P7" s="36" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -3280,28 +3243,25 @@
         <v>2.5</v>
       </c>
       <c r="J8" s="4">
+        <v>2</v>
+      </c>
+      <c r="K8" s="4">
         <v>2.66</v>
       </c>
-      <c r="K8" s="4">
-        <v>2</v>
-      </c>
-      <c r="L8" s="4">
-        <v>2.66</v>
-      </c>
-      <c r="M8" s="34">
+      <c r="L8" s="34">
         <v>10</v>
       </c>
-      <c r="N8" s="35">
+      <c r="M8" s="35">
         <v>2.5</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>106</v>
       </c>
       <c r="O8" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="P8" s="36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+    </row>
+    <row r="9" spans="1:15">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -3312,13 +3272,12 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="35"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="39"/>
       <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-    </row>
-    <row r="10" spans="1:16">
+    </row>
+    <row r="10" spans="1:15">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -3329,13 +3288,12 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="35"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="39"/>
       <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-    </row>
-    <row r="11" spans="1:16">
+    </row>
+    <row r="11" spans="1:15">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3346,13 +3304,12 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="35"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="39"/>
       <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-    </row>
-    <row r="12" spans="1:16">
+    </row>
+    <row r="12" spans="1:15">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -3363,13 +3320,12 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="35"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="39"/>
       <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-    </row>
-    <row r="13" spans="1:16">
+    </row>
+    <row r="13" spans="1:15">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -3380,21 +3336,20 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="35"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="39"/>
       <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-    </row>
-    <row r="14" spans="1:16" s="4" customFormat="1">
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1">
       <c r="A14"/>
       <c r="E14" s="27"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="35"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="39"/>
       <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-    </row>
-    <row r="15" spans="1:16">
+    </row>
+    <row r="15" spans="1:15">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3405,13 +3360,12 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="35"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="39"/>
       <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-    </row>
-    <row r="16" spans="1:16">
+    </row>
+    <row r="16" spans="1:15">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3422,13 +3376,12 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="35"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="39"/>
       <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-    </row>
-    <row r="17" spans="1:16">
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="7"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -3440,13 +3393,12 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="35"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="39"/>
       <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-    </row>
-    <row r="18" spans="1:16">
+    </row>
+    <row r="18" spans="1:15">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -3457,11 +3409,10 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="35"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="39"/>
       <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3477,7 +3428,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3698,7 +3649,7 @@
         <v>142</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -3715,7 +3666,7 @@
         <v>143</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3733,7 +3684,7 @@
       </c>
       <c r="B14">
         <f>SUM(B2:B12)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14">
         <f>SUM(C2:C12)</f>
@@ -3754,7 +3705,7 @@
       </c>
       <c r="B15">
         <f>Math!B2+B11</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <f>Math!B3+C11</f>
@@ -7091,7 +7042,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="63" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="1" operator="greaterThan">
       <formula>1.63</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7108,7 +7059,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="P14" sqref="P14:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7933,7 +7884,7 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="2">
@@ -8122,7 +8073,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C18">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="greaterThan">
       <formula>2.599</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8138,8 +8089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9448,7 +9399,7 @@
       </c>
       <c r="C21" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.8970666666666665</v>
+        <v>2.891893333333333</v>
       </c>
       <c r="D21" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
@@ -9459,7 +9410,7 @@
         <v>7.1111111111111107</v>
       </c>
       <c r="F21">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="G21" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
@@ -9517,7 +9468,7 @@
       </c>
       <c r="C22" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.8381906077348065</v>
+        <v>2.8341360497237571</v>
       </c>
       <c r="D22" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
@@ -9528,7 +9479,7 @@
         <v>5.2486187845303869</v>
       </c>
       <c r="F22">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="G22" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
@@ -9750,7 +9701,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C998">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="greaterThan">
       <formula>3.2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10504,7 +10455,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
       <formula>2.639</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11378,7 +11329,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C32">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
       <formula>4.429</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12327,7 +12278,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C20">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
       <formula>3.51</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13003,7 +12954,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThan">
       <formula>2.789</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Handgun" sheetId="8" r:id="rId1"/>
@@ -3427,8 +3427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8089,8 +8089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Handgun" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="170">
   <si>
     <t>Weapon Stats - Sleepy's Weapons</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Higher is overall better</t>
   </si>
   <si>
-    <t>MP5K</t>
-  </si>
-  <si>
     <t>MP5K STK*</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>HK416 ACOG*</t>
   </si>
   <si>
-    <t>M82A1 CQ 50BMG</t>
-  </si>
-  <si>
     <t>Vol.</t>
   </si>
   <si>
@@ -279,12 +273,6 @@
     <t>MG5*</t>
   </si>
   <si>
-    <t>HK21 E</t>
-  </si>
-  <si>
-    <t>MG4 KE</t>
-  </si>
-  <si>
     <t>MG4 E*</t>
   </si>
   <si>
@@ -300,9 +288,6 @@
     <t>F3 ST</t>
   </si>
   <si>
-    <t>G36</t>
-  </si>
-  <si>
     <t>RIFLE MIN RANGE: 23.9</t>
   </si>
   <si>
@@ -315,18 +300,9 @@
     <t>CR300*</t>
   </si>
   <si>
-    <t>HK243 SSAR</t>
-  </si>
-  <si>
     <t>SPF9 SF SD TAC</t>
   </si>
   <si>
-    <t>HK USC</t>
-  </si>
-  <si>
-    <t>HAENEL RS9</t>
-  </si>
-  <si>
     <t>MP5A3 TAC*</t>
   </si>
   <si>
@@ -459,12 +435,6 @@
     <t>Misc (Not Craftable)</t>
   </si>
   <si>
-    <t>FGM-148 Javelin (HEAT)</t>
-  </si>
-  <si>
-    <t>FGM-148 Javelin (HE)</t>
-  </si>
-  <si>
     <t>Blast Range</t>
   </si>
   <si>
@@ -483,42 +453,6 @@
     <t>Cooldown</t>
   </si>
   <si>
-    <t xml:space="preserve">Add to Germany: </t>
-  </si>
-  <si>
-    <t>1 CR</t>
-  </si>
-  <si>
-    <t>0 CR</t>
-  </si>
-  <si>
-    <t>5 HG</t>
-  </si>
-  <si>
-    <t>2 R</t>
-  </si>
-  <si>
-    <t>2 RFL</t>
-  </si>
-  <si>
-    <t>1 SMG</t>
-  </si>
-  <si>
-    <t>3 LMG</t>
-  </si>
-  <si>
-    <t>3 SNR</t>
-  </si>
-  <si>
-    <t>2 MISC</t>
-  </si>
-  <si>
-    <t>Max 50 Weapons Total / Max 18 Craftable (Reduces Receipe Bloat) Per Volume (I want players to be able to have as little or as much as they want).</t>
-  </si>
-  <si>
-    <t>2 CR</t>
-  </si>
-  <si>
     <t>GEWEHR43*</t>
   </si>
   <si>
@@ -544,6 +478,63 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>HK USC*</t>
+  </si>
+  <si>
+    <t>MP5K*</t>
+  </si>
+  <si>
+    <t>G36*</t>
+  </si>
+  <si>
+    <t>HK243 SSAR*</t>
+  </si>
+  <si>
+    <t>M82A1 CQ 50BMG*</t>
+  </si>
+  <si>
+    <t>HAENEL RS9*</t>
+  </si>
+  <si>
+    <t>MG4 KE*</t>
+  </si>
+  <si>
+    <t>HK21 E*</t>
+  </si>
+  <si>
+    <t>FGM-148 Javelin (HEAT)*</t>
+  </si>
+  <si>
+    <t>FGM-148 Javelin (HE)*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max 50 Weapons Total / Max 10 Craftable  Per Volume </t>
+  </si>
+  <si>
+    <t>P229 Compact*</t>
+  </si>
+  <si>
+    <t>P320 Spectre*</t>
+  </si>
+  <si>
+    <t>Q5 MatchSF*</t>
+  </si>
+  <si>
+    <t>HK USP Match*</t>
+  </si>
+  <si>
+    <t>HK169*</t>
+  </si>
+  <si>
+    <t>MPX CU*</t>
+  </si>
+  <si>
+    <t>R8 ULTS*</t>
+  </si>
+  <si>
+    <t>Pazerfaust 3</t>
   </si>
 </sst>
 </file>
@@ -695,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -744,6 +735,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2270,8 +2263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2304,7 +2297,7 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -2318,13 +2311,13 @@
         <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75" thickBot="1">
@@ -2332,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2386,25 +2379,25 @@
         <v>17</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" thickTop="1">
       <c r="A4" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>1.7346153846153842</v>
+        <v>1.730384615384615</v>
       </c>
       <c r="D4" s="3">
         <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
@@ -2415,7 +2408,7 @@
         <v>7.6923076923076916</v>
       </c>
       <c r="F4">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="G4" s="2">
         <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
@@ -2461,11 +2454,13 @@
         <v>55</v>
       </c>
       <c r="U4" s="18"/>
-      <c r="V4" s="22"/>
+      <c r="V4" s="24" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="4">
         <v>3</v>
@@ -2528,12 +2523,12 @@
       <c r="T5" s="19"/>
       <c r="U5" s="20"/>
       <c r="V5" s="25" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -2581,131 +2576,315 @@
       <c r="O6" s="2">
         <v>0.7</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="41">
         <v>0.81</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="41">
         <v>0.7</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="41">
         <v>0.25</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="41">
         <v>0.2</v>
       </c>
-      <c r="T6" s="17">
+      <c r="T6" s="34">
         <v>60</v>
       </c>
       <c r="U6" s="18">
         <v>0.71899999999999997</v>
       </c>
-      <c r="V6" s="24" t="s">
-        <v>105</v>
+      <c r="V6" s="36" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="B7" s="4"/>
-      <c r="C7" s="2" t="e">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="3" t="e">
+        <v>1.3145192307692306</v>
+      </c>
+      <c r="D7" s="3">
         <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="2" t="e">
+        <v>4.7115384615384617</v>
+      </c>
+      <c r="E7" s="2">
         <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>10.769230769230768</v>
+      </c>
+      <c r="F7">
+        <v>20.9</v>
       </c>
       <c r="G7" s="2">
         <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="2" t="e">
-        <f t="shared" ref="O7:O16" si="0">60/N7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T7" s="19"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="23"/>
+        <v>0.43750000000000006</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>0.5</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.15</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="Q7" s="41">
+        <v>0.6</v>
+      </c>
+      <c r="R7" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="S7" s="41">
+        <v>0.1</v>
+      </c>
+      <c r="T7" s="34">
+        <v>55</v>
+      </c>
+      <c r="U7" s="20">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="V7" s="36" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="e">
+      <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D8" s="3" t="e">
+        <v>1.6924285714285709</v>
+      </c>
+      <c r="D8" s="3">
         <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="2" t="e">
+        <v>4.7142857142857135</v>
+      </c>
+      <c r="E8" s="2">
         <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="F8">
+        <v>22.9</v>
       </c>
       <c r="G8" s="2">
         <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T8" s="17"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="22"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+      <c r="J8">
+        <v>13</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.78</v>
+      </c>
+      <c r="M8">
+        <v>0.27</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="P8" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="Q8" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="R8" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="S8" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="T8" s="34">
+        <v>55</v>
+      </c>
+      <c r="U8" s="18">
+        <v>1.19</v>
+      </c>
+      <c r="V8" s="36" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="e">
+      <c r="A9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="3" t="e">
+        <v>1.7754493670886071</v>
+      </c>
+      <c r="D9" s="3">
         <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="2" t="e">
+        <v>4.0443037974683538</v>
+      </c>
+      <c r="E9" s="2">
         <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>7.5949367088607591</v>
+      </c>
+      <c r="F9">
+        <v>25.9</v>
       </c>
       <c r="G9" s="2">
         <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T9" s="19"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="23"/>
+        <v>0.53249999999999997</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+      <c r="J9">
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1.18</v>
+      </c>
+      <c r="M9">
+        <v>0.4</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1.18</v>
+      </c>
+      <c r="P9" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="Q9" s="41">
+        <v>0.66</v>
+      </c>
+      <c r="R9" s="41">
+        <v>0.42</v>
+      </c>
+      <c r="S9" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="T9" s="34">
+        <v>65</v>
+      </c>
+      <c r="U9" s="20">
+        <v>1.1990000000000001</v>
+      </c>
+      <c r="V9" s="36" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="10" spans="1:22">
-      <c r="B10" s="4"/>
-      <c r="C10" s="2" t="e">
+      <c r="A10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="3" t="e">
+        <v>1.7088953488372089</v>
+      </c>
+      <c r="D10" s="3">
         <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="2" t="e">
+        <v>4.2829457364341081</v>
+      </c>
+      <c r="E10" s="2">
         <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>7.7519379844961236</v>
+      </c>
+      <c r="F10">
+        <v>25.9</v>
       </c>
       <c r="G10" s="2">
         <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T10" s="17"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="22"/>
+        <v>0.55249999999999999</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+      <c r="J10">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="41">
+        <v>0.78</v>
+      </c>
+      <c r="Q10" s="41">
+        <v>0.67</v>
+      </c>
+      <c r="R10" s="41">
+        <v>0.45</v>
+      </c>
+      <c r="S10" s="41">
+        <v>0.31</v>
+      </c>
+      <c r="T10" s="34">
+        <v>60</v>
+      </c>
+      <c r="U10" s="18">
+        <v>1.08</v>
+      </c>
+      <c r="V10" s="36" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="4"/>
@@ -2726,10 +2905,14 @@
         <v>0</v>
       </c>
       <c r="O11" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T11" s="19"/>
+        <f t="shared" ref="O7:O16" si="0">60/N11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="34"/>
       <c r="U11" s="20"/>
       <c r="V11" s="23"/>
     </row>
@@ -2933,7 +3116,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2984,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -2993,45 +3176,45 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" t="s">
         <v>147</v>
       </c>
-      <c r="F3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" t="s">
-        <v>169</v>
-      </c>
       <c r="H3" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="I3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" ht="15.75" thickTop="1">
       <c r="A4" s="6" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="29">
         <v>12.9</v>
@@ -3067,15 +3250,15 @@
         <v>1</v>
       </c>
       <c r="N4" s="36" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="14" t="s">
-        <v>144</v>
+      <c r="A5" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="B5" s="12">
         <v>2</v>
@@ -3096,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="I5" s="12">
         <v>1.5</v>
@@ -3114,15 +3297,15 @@
         <v>22.3</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="14" t="s">
-        <v>145</v>
+      <c r="A6" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
@@ -3143,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="I6" s="4">
         <v>4.5</v>
@@ -3161,15 +3344,15 @@
         <v>22.3</v>
       </c>
       <c r="N6" s="36" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="O6" s="36" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="14" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -3208,15 +3391,15 @@
         <v>1</v>
       </c>
       <c r="N7" s="36" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="O7" s="36" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -3255,14 +3438,19 @@
         <v>2.5</v>
       </c>
       <c r="N8" s="36" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="O8" s="36" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="B9" s="4"/>
+      <c r="A9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="27"/>
@@ -3275,10 +3463,17 @@
       <c r="L9" s="34"/>
       <c r="M9" s="35"/>
       <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
+      <c r="O9" s="36" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="B10" s="4"/>
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="27"/>
@@ -3425,10 +3620,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3438,46 +3633,46 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Table1689[Vol.], 1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <f>COUNTIF(Table1689[Vol.], 2)</f>
@@ -3494,7 +3689,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <f>COUNTIF(Table168[Vol.], 1)</f>
@@ -3515,11 +3710,11 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <f>COUNTIF(Table16[Vol.], 1)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <f>COUNTIF(Table16[Vol.], 2)</f>
@@ -3536,7 +3731,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5">
         <f>COUNTIF(Table16810[Vol.], 1)</f>
@@ -3557,11 +3752,11 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <f>COUNTIF(Table1681011[Vol.], 1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <f>COUNTIF(Table1681011[Vol.], 2)</f>
@@ -3578,7 +3773,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <f>COUNTIF(Table1681015[Vol.], 1)</f>
@@ -3599,7 +3794,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <f>COUNTIF(Table168101112[Vol.], 1)</f>
@@ -3620,7 +3815,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <f>COUNTIF(Table16810111213[Vol.], 1)</f>
@@ -3641,18 +3836,18 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3663,13 +3858,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3680,11 +3875,11 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14">
         <f>SUM(B2:B12)</f>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <f>SUM(C2:C12)</f>
@@ -3701,15 +3896,15 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B15">
         <f>Math!B2+B11</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <f>Math!B3+C11</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <f>Math!B4+D11</f>
@@ -3720,58 +3915,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D22" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" t="s">
-        <v>157</v>
-      </c>
-      <c r="F22" t="s">
-        <v>160</v>
-      </c>
-      <c r="G22" t="s">
-        <v>159</v>
-      </c>
-      <c r="H22" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="B23" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" t="s">
-        <v>154</v>
-      </c>
-      <c r="E23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" t="s">
-        <v>154</v>
-      </c>
-      <c r="G23" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3796,106 +3942,106 @@
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" t="s">
         <v>113</v>
       </c>
-      <c r="B1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
         <v>114</v>
       </c>
-      <c r="J1" t="s">
+      <c r="T1" t="s">
         <v>115</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
         <v>116</v>
       </c>
-      <c r="L1" t="s">
+      <c r="V1" t="s">
         <v>117</v>
       </c>
-      <c r="N1" t="s">
+      <c r="X1" t="s">
         <v>118</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Y1" t="s">
         <v>119</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Z1" t="s">
         <v>120</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AA1" t="s">
         <v>121</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AC1" t="s">
         <v>122</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AD1" t="s">
         <v>123</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AE1" t="s">
         <v>124</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AF1" t="s">
         <v>125</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AH1" t="s">
         <v>126</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AI1" t="s">
         <v>127</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AJ1" t="s">
         <v>128</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AK1" t="s">
         <v>129</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AM1" t="s">
         <v>130</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AN1" t="s">
         <v>131</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AO1" t="s">
         <v>132</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AP1" t="s">
         <v>133</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:42">
@@ -3904,7 +4050,7 @@
       </c>
       <c r="B2">
         <f>COUNTIF(D:D, 1)+COUNTIF(I:I, 1)+COUNTIF(N:N, 1)+COUNTIF(S:S, 1)+COUNTIF(X:X, 1)+COUNTIF(AC:AC, 1)+COUNTIF(AH:AH, 1)+COUNTIF(AM:AM, 1)</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <f>IF(AND(Handgun!B5=1,Handgun!V5="Yes"),1,0)</f>
@@ -3976,7 +4122,7 @@
       </c>
       <c r="Y2">
         <f>IF(AND('Sniper Rifle'!B5=2,'Sniper Rifle'!V5="Yes"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <f>IF(AND('Sniper Rifle'!B5=3,'Sniper Rifle'!V5="Yes"),1,0)</f>
@@ -4041,7 +4187,7 @@
       </c>
       <c r="B3">
         <f>COUNTIF(E:E, 1)+COUNTIF(J:J, 1)+COUNTIF(O:O, 1)+COUNTIF(T:T, 1)+COUNTIF(Y:Y, 1)+COUNTIF(AD:AD, 1)+COUNTIF(AI:AI, 1)+COUNTIF(AN:AN, 1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <f>IF(AND(Handgun!B6=1,Handgun!V6="Yes"),1,0)</f>
@@ -4214,7 +4360,7 @@
       </c>
       <c r="N4">
         <f>IF(AND(SMG!B8=1,SMG!V8="Yes"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <f>IF(AND(SMG!B8=2,SMG!V8="Yes"),1,0)</f>
@@ -4246,7 +4392,7 @@
       </c>
       <c r="X4">
         <f>IF(AND('Sniper Rifle'!B7=1,'Sniper Rifle'!V7="Yes"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <f>IF(AND('Sniper Rifle'!B7=2,'Sniper Rifle'!V7="Yes"),1,0)</f>
@@ -4278,7 +4424,7 @@
       </c>
       <c r="AH4">
         <f>IF(AND(LMG!B8=1,LMG!V8="Yes"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <f>IF(AND(LMG!B8=2,LMG!V8="Yes"),1,0)</f>
@@ -4675,7 +4821,7 @@
       </c>
       <c r="AH7">
         <f>IF(AND(LMG!B11=1,LMG!V11="Yes"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7">
         <f>IF(AND(LMG!B11=2,LMG!V11="Yes"),1,0)</f>
@@ -4741,7 +4887,7 @@
       </c>
       <c r="N8">
         <f>IF(AND(SMG!B12=1,SMG!V12="Yes"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <f>IF(AND(SMG!B12=2,SMG!V12="Yes"),1,0)</f>
@@ -5277,7 +5423,7 @@
       </c>
       <c r="S12">
         <f>IF(AND(Rifle!B16=1,Rifle!V16="Yes"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12">
         <f>IF(AND(Rifle!B16=2,Rifle!V16="Yes"),1,0)</f>
@@ -5537,7 +5683,7 @@
       </c>
       <c r="S14">
         <f>IF(AND(Rifle!B18=1,Rifle!V18="Yes"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14">
         <f>IF(AND(Rifle!B18=2,Rifle!V18="Yes"),1,0)</f>
@@ -6406,7 +6552,7 @@
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6439,7 +6585,7 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -6453,13 +6599,13 @@
         <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75" thickBot="1">
@@ -6467,7 +6613,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -6521,25 +6667,25 @@
         <v>17</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" thickTop="1">
       <c r="A4" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>1.6326315789473682</v>
+        <v>1.6289210526315787</v>
       </c>
       <c r="D4" s="3">
         <f>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</f>
@@ -6550,7 +6696,7 @@
         <v>6.3157894736842097</v>
       </c>
       <c r="F4">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="G4" s="2">
         <f>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</f>
@@ -7059,7 +7205,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14:S14"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7092,7 +7238,7 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -7106,13 +7252,13 @@
         <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75" thickBot="1">
@@ -7120,7 +7266,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -7174,13 +7320,13 @@
         <v>17</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" thickTop="1">
@@ -7188,7 +7334,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -7250,14 +7396,16 @@
         <v>48</v>
       </c>
       <c r="U4" s="18"/>
-      <c r="V4" s="22"/>
+      <c r="V4" s="24" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -7317,7 +7465,9 @@
       </c>
       <c r="T5" s="19"/>
       <c r="U5" s="20"/>
-      <c r="V5" s="23"/>
+      <c r="V5" s="25" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="14" t="s">
@@ -7387,7 +7537,7 @@
       </c>
       <c r="U6" s="18"/>
       <c r="V6" s="24" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -7458,12 +7608,12 @@
       </c>
       <c r="U7" s="20"/>
       <c r="V7" s="25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="14" t="s">
-        <v>26</v>
+      <c r="A8" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
@@ -7527,12 +7677,12 @@
       <c r="T8" s="17"/>
       <c r="U8" s="18"/>
       <c r="V8" s="24" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
@@ -7596,12 +7746,12 @@
       <c r="T9" s="19"/>
       <c r="U9" s="20"/>
       <c r="V9" s="25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="4" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B10" s="12">
         <v>1</v>
@@ -7665,12 +7815,12 @@
       <c r="T10" s="17"/>
       <c r="U10" s="18"/>
       <c r="V10" s="24" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B11" s="12">
         <v>1</v>
@@ -7734,12 +7884,12 @@
       <c r="T11" s="19"/>
       <c r="U11" s="20"/>
       <c r="V11" s="25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="1" t="s">
-        <v>98</v>
+      <c r="A12" t="s">
+        <v>151</v>
       </c>
       <c r="B12" s="12">
         <v>1</v>
@@ -7806,12 +7956,12 @@
         <v>2.78</v>
       </c>
       <c r="V12" s="24" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B13" s="12">
         <v>1</v>
@@ -7879,14 +8029,16 @@
         <v>3.12</v>
       </c>
       <c r="V13" s="25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" s="12"/>
+        <v>148</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
       <c r="C14" s="2">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>2.2882499999999997</v>
@@ -7948,11 +8100,16 @@
       </c>
       <c r="U14" s="18"/>
       <c r="V14" s="24" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="B15" s="12"/>
+      <c r="A15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1</v>
+      </c>
       <c r="C15" s="2" t="e">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -7975,7 +8132,9 @@
       </c>
       <c r="T15" s="19"/>
       <c r="U15" s="20"/>
-      <c r="V15" s="23"/>
+      <c r="V15" s="25" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="16" spans="1:22">
       <c r="B16" s="12"/>
@@ -8090,7 +8249,7 @@
   <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8123,10 +8282,10 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -8140,13 +8299,13 @@
         <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -8154,7 +8313,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -8208,21 +8367,21 @@
         <v>17</v>
       </c>
       <c r="T3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="V3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -8286,10 +8445,10 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -8352,7 +8511,7 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -8414,12 +8573,12 @@
         <v>0.5</v>
       </c>
       <c r="V6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -8481,12 +8640,12 @@
         <v>0.75</v>
       </c>
       <c r="V7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -8548,12 +8707,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="V8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -8615,12 +8774,12 @@
         <v>0.3</v>
       </c>
       <c r="V9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -8682,12 +8841,12 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="V10" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -8749,12 +8908,12 @@
         <v>0.65</v>
       </c>
       <c r="V11" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -8816,12 +8975,12 @@
         <v>0.78</v>
       </c>
       <c r="V12" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -8883,12 +9042,12 @@
         <v>0.88</v>
       </c>
       <c r="V13" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -8950,12 +9109,12 @@
         <v>0.9</v>
       </c>
       <c r="V14" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -9023,12 +9182,12 @@
         <v>3.4</v>
       </c>
       <c r="V15" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="1" t="s">
-        <v>91</v>
+      <c r="A16" t="s">
+        <v>153</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -9096,12 +9255,12 @@
         <v>3.63</v>
       </c>
       <c r="V16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:22" s="4" customFormat="1">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -9169,12 +9328,12 @@
         <v>3.3</v>
       </c>
       <c r="V17" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="1" t="s">
-        <v>96</v>
+      <c r="A18" s="40" t="s">
+        <v>154</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -9241,12 +9400,12 @@
         <v>3.21</v>
       </c>
       <c r="V18" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -9314,12 +9473,12 @@
         <v>4.2</v>
       </c>
       <c r="V19" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B20" s="7">
         <v>1</v>
@@ -9387,12 +9546,12 @@
         <v>3.5</v>
       </c>
       <c r="V20" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -9456,12 +9615,12 @@
         <v>70</v>
       </c>
       <c r="V21" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -9525,7 +9684,7 @@
         <v>88</v>
       </c>
       <c r="V22" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -9717,8 +9876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9751,7 +9910,7 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -9765,13 +9924,13 @@
         <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75" thickBot="1">
@@ -9779,7 +9938,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -9833,21 +9992,21 @@
         <v>17</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" thickTop="1">
       <c r="A4" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -9908,18 +10067,20 @@
         <v>100</v>
       </c>
       <c r="U4" s="18"/>
-      <c r="V4" s="22"/>
+      <c r="V4" s="24" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="14" t="s">
-        <v>41</v>
+      <c r="A5" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="2">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.141916666666666</v>
+        <v>3.0802499999999999</v>
       </c>
       <c r="D5" s="3">
         <f>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</f>
@@ -9930,7 +10091,7 @@
         <v>4.1666666666666661</v>
       </c>
       <c r="F5">
-        <v>54.9</v>
+        <v>52.9</v>
       </c>
       <c r="G5" s="2">
         <f>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</f>
@@ -9975,12 +10136,12 @@
       <c r="T5" s="19"/>
       <c r="U5" s="20"/>
       <c r="V5" s="25" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -10043,19 +10204,19 @@
       <c r="T6" s="17"/>
       <c r="U6" s="18"/>
       <c r="V6" s="24" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="1" t="s">
-        <v>99</v>
+      <c r="A7" t="s">
+        <v>156</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.8188557692307694</v>
+        <v>2.757509615384615</v>
       </c>
       <c r="D7" s="3">
         <f>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</f>
@@ -10066,7 +10227,7 @@
         <v>4.4615384615384617</v>
       </c>
       <c r="F7">
-        <v>49.9</v>
+        <v>47.9</v>
       </c>
       <c r="G7" s="2">
         <f>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</f>
@@ -10115,11 +10276,16 @@
         <v>7.54</v>
       </c>
       <c r="V7" s="25" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="B8" s="4"/>
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
       <c r="C8" s="2" t="e">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -10142,7 +10308,9 @@
       </c>
       <c r="T8" s="17"/>
       <c r="U8" s="18"/>
-      <c r="V8" s="22"/>
+      <c r="V8" s="24" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="9" spans="1:22">
       <c r="B9" s="4"/>
@@ -10505,7 +10673,7 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -10519,13 +10687,13 @@
         <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -10533,7 +10701,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -10587,21 +10755,21 @@
         <v>17</v>
       </c>
       <c r="T3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="V3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -11346,7 +11514,7 @@
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11380,10 +11548,10 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -11397,13 +11565,13 @@
         <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -11411,7 +11579,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -11465,21 +11633,21 @@
         <v>17</v>
       </c>
       <c r="T3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="V3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -11540,13 +11708,16 @@
       <c r="T4">
         <v>46</v>
       </c>
+      <c r="V4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -11607,10 +11778,13 @@
       <c r="T5">
         <v>70</v>
       </c>
+      <c r="V5" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
@@ -11674,13 +11848,16 @@
       <c r="T6">
         <v>50</v>
       </c>
+      <c r="U6">
+        <v>10.199999999999999</v>
+      </c>
       <c r="V6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -11745,12 +11922,12 @@
         <v>55</v>
       </c>
       <c r="V7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="1" t="s">
-        <v>85</v>
+      <c r="A8" t="s">
+        <v>157</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -11818,12 +11995,12 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="V8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -11891,12 +12068,12 @@
         <v>10.1</v>
       </c>
       <c r="V9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -11964,12 +12141,12 @@
         <v>14.4</v>
       </c>
       <c r="V10" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="1" t="s">
-        <v>84</v>
+      <c r="A11" t="s">
+        <v>158</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -12037,7 +12214,7 @@
         <v>8.9</v>
       </c>
       <c r="V11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -12294,8 +12471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12325,7 +12502,7 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -12339,13 +12516,13 @@
         <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75" thickBot="1">
@@ -12353,7 +12530,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -12407,21 +12584,21 @@
         <v>17</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" thickTop="1">
       <c r="A4" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -12482,14 +12659,16 @@
         <v>55</v>
       </c>
       <c r="U4" s="18"/>
-      <c r="V4" s="22"/>
+      <c r="V4" s="24" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -12550,11 +12729,13 @@
         <v>55</v>
       </c>
       <c r="U5" s="20"/>
-      <c r="V5" s="23"/>
+      <c r="V5" s="25" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -12621,7 +12802,7 @@
         <v>3.4</v>
       </c>
       <c r="V6" s="24" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:22">

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -2264,7 +2264,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2607,18 +2607,18 @@
       </c>
       <c r="C7" s="2">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>1.3145192307692306</v>
+        <v>1.0984166666666666</v>
       </c>
       <c r="D7" s="3">
         <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
-        <v>4.7115384615384617</v>
+        <v>4.0833333333333339</v>
       </c>
       <c r="E7" s="2">
         <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
-        <v>10.769230769230768</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="F7">
-        <v>20.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="G7" s="2">
         <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
@@ -2637,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="M7">
         <v>0.15</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="P7" s="41">
         <v>0.75</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="2" t="e">
-        <f t="shared" ref="O7:O16" si="0">60/N11</f>
+        <f t="shared" ref="O11:O16" si="0">60/N11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P11" s="41"/>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Handgun" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="174">
   <si>
     <t>Weapon Stats - Sleepy's Weapons</t>
   </si>
@@ -525,16 +525,28 @@
     <t>HK USP Match*</t>
   </si>
   <si>
-    <t>HK169*</t>
-  </si>
-  <si>
     <t>MPX CU*</t>
   </si>
   <si>
     <t>R8 ULTS*</t>
   </si>
   <si>
-    <t>Pazerfaust 3</t>
+    <t>HK169 HE*</t>
+  </si>
+  <si>
+    <t>HK169 AP*</t>
+  </si>
+  <si>
+    <t>HK169 ICD*</t>
+  </si>
+  <si>
+    <t>Triple Rocket</t>
+  </si>
+  <si>
+    <t>Doomsday</t>
+  </si>
+  <si>
+    <t>Panzerfaust 3</t>
   </si>
 </sst>
 </file>
@@ -1942,8 +1954,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table16892" displayName="Table16892" ref="A3:O18" totalsRowShown="0">
-  <autoFilter ref="A3:O18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table16892" displayName="Table16892" ref="A3:O20" totalsRowShown="0">
+  <autoFilter ref="A3:O20">
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
     <filterColumn colId="4"/>
@@ -2263,8 +2275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3113,10 +3125,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3311,7 +3323,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4">
-        <v>35.9</v>
+        <v>38.9</v>
       </c>
       <c r="D6" s="4">
         <v>50</v>
@@ -3338,7 +3350,7 @@
         <v>0.8</v>
       </c>
       <c r="L6" s="34">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="M6" s="35">
         <v>22.3</v>
@@ -3446,23 +3458,47 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="39"/>
+      <c r="C9" s="4">
+        <v>23.9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>30</v>
+      </c>
+      <c r="E9" s="27">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="J9" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="K9" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="L9" s="34">
+        <v>40</v>
+      </c>
+      <c r="M9" s="35">
+        <v>2</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>98</v>
+      </c>
       <c r="O9" s="36" t="s">
         <v>98</v>
       </c>
@@ -3474,75 +3510,229 @@
       <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
+      <c r="C10" s="4">
+        <v>25.9</v>
+      </c>
+      <c r="D10" s="4">
+        <v>20</v>
+      </c>
+      <c r="E10" s="27">
+        <v>0.33</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="J10" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="K10" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="L10" s="34">
+        <v>46</v>
+      </c>
+      <c r="M10" s="35">
+        <v>2</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
+      <c r="A11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>23.9</v>
+      </c>
+      <c r="D11" s="4">
+        <v>10</v>
+      </c>
+      <c r="E11" s="27">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="J11" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="K11" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="L11" s="34">
+        <v>35</v>
+      </c>
+      <c r="M11" s="35">
+        <v>2</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="39"/>
+      <c r="A12" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4">
+        <v>35.9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>50</v>
+      </c>
+      <c r="E12" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="J12" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="K12" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="L12" s="34">
+        <v>50</v>
+      </c>
+      <c r="M12" s="35">
+        <v>7</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>97</v>
+      </c>
       <c r="O12" s="39"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="39"/>
+      <c r="A13" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4">
+        <v>35.9</v>
+      </c>
+      <c r="D13" s="4">
+        <v>50</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="J13" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="K13" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="L13" s="34">
+        <v>50</v>
+      </c>
+      <c r="M13" s="35">
+        <v>8</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>97</v>
+      </c>
       <c r="O13" s="39"/>
     </row>
     <row r="14" spans="1:15" s="4" customFormat="1">
-      <c r="A14"/>
-      <c r="E14" s="27"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
+      <c r="A14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>40.9</v>
+      </c>
+      <c r="D14" s="4">
+        <v>40</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="J14" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="K14" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="L14" s="34">
+        <v>65</v>
+      </c>
+      <c r="M14" s="35">
+        <v>15.2</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="O14" s="36" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="B15" s="4"/>
@@ -3577,7 +3767,6 @@
       <c r="O16" s="39"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="7"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -3594,20 +3783,53 @@
       <c r="O17" s="39"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
       <c r="L18" s="34"/>
       <c r="M18" s="35"/>
       <c r="N18" s="39"/>
       <c r="O18" s="39"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="7"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3623,7 +3845,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3844,7 +4066,7 @@
         <v>134</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3861,7 +4083,7 @@
         <v>135</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -3879,7 +4101,7 @@
       </c>
       <c r="B14">
         <f>SUM(B2:B12)</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C14">
         <f>SUM(C2:C12)</f>
@@ -3900,7 +4122,7 @@
       </c>
       <c r="B15">
         <f>Math!B2+B11</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <f>Math!B3+C11</f>
@@ -8105,7 +8327,7 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" s="12">
         <v>1</v>
@@ -10281,7 +10503,7 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Handgun" sheetId="8" r:id="rId1"/>
@@ -3127,8 +3127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3845,7 +3845,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4083,7 +4083,7 @@
         <v>135</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B14">
         <f>SUM(B2:B12)</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <f>SUM(C2:C12)</f>
@@ -8332,28 +8332,68 @@
       <c r="B15" s="12">
         <v>1</v>
       </c>
-      <c r="C15" s="2" t="e">
+      <c r="C15" s="2">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="3" t="e">
+        <v>1.7575593749999998</v>
+      </c>
+      <c r="D15" s="3">
         <f>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="2" t="e">
+        <v>5.8781249999999998</v>
+      </c>
+      <c r="E15" s="2">
         <f>SUM((Table16[[#This Row],[Damage]]*Table16[[#This Row],[Burst]])/(Table16[[#This Row],[Ranged Cooldown]]+Table16[[#This Row],[Warm-up]]+(Table16[[#This Row],[Burst Time]]*(Table16[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>11.25</v>
+      </c>
+      <c r="F15">
+        <v>19.899999999999999</v>
       </c>
       <c r="G15" s="2">
         <f>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="2" t="e">
+        <v>0.52249999999999996</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>0.5</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6</v>
+      </c>
+      <c r="N15">
+        <v>450</v>
+      </c>
+      <c r="O15" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T15" s="19"/>
-      <c r="U15" s="20"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="T15" s="19">
+        <v>45</v>
+      </c>
+      <c r="U15" s="20">
+        <v>2.6</v>
+      </c>
       <c r="V15" s="25" t="s">
         <v>98</v>
       </c>
@@ -8471,7 +8511,7 @@
   <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10098,8 +10138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10508,28 +10548,67 @@
       <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="e">
+      <c r="C8" s="2">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D8" s="3" t="e">
+        <v>2.4359125000000006</v>
+      </c>
+      <c r="D8" s="3">
         <f>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="2" t="e">
+        <v>3.5875000000000008</v>
+      </c>
+      <c r="E8" s="2">
         <f>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="F8">
+        <v>36.9</v>
       </c>
       <c r="G8" s="2">
         <f>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="2" t="e">
-        <f t="shared" ref="O8:O16" si="0">60/N8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T8" s="17"/>
-      <c r="U8" s="18"/>
+        <v>0.71750000000000003</v>
+      </c>
+      <c r="H8">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <v>1.5</v>
+      </c>
+      <c r="J8">
+        <v>31</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1.9</v>
+      </c>
+      <c r="M8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="P8">
+        <v>0.5</v>
+      </c>
+      <c r="Q8">
+        <v>0.71</v>
+      </c>
+      <c r="R8">
+        <v>0.86</v>
+      </c>
+      <c r="S8">
+        <v>0.8</v>
+      </c>
+      <c r="T8" s="17">
+        <v>90</v>
+      </c>
+      <c r="U8" s="18">
+        <v>3.1</v>
+      </c>
       <c r="V8" s="24" t="s">
         <v>98</v>
       </c>
@@ -10553,7 +10632,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O9:O16" si="0">60/N9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T9" s="19"/>
@@ -12693,7 +12772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -2276,7 +2276,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11815,7 +11815,7 @@
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -48699,8 +48699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49042,22 +49042,22 @@
       </c>
       <c r="C6" s="2">
         <f>SUM(((Table1681011124[[#This Row],[Avg DPS]]*(Table1681011124[[#This Row],[Range]]))+(Table1681011124[[#This Row],[Avg DPS]]*Table1681011124[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>4.3083214285714293</v>
+        <v>4.9952393617021267</v>
       </c>
       <c r="D6" s="3">
         <f>SUM(Table1681011124[[#This Row],[DPS]]*Table1681011124[[#This Row],[Avg Accuracy]])</f>
-        <v>8.4642857142857153</v>
+        <v>9.8138297872340416</v>
       </c>
       <c r="E6" s="2">
         <f>SUM((Table1681011124[[#This Row],[Damage]]*Table1681011124[[#This Row],[Burst]])/(Table1681011124[[#This Row],[Ranged Cooldown]]+Table1681011124[[#This Row],[Warm-up]]+(Table1681011124[[#This Row],[Burst Time]]*(Table1681011124[[#This Row],[Burst]]-1))))</f>
-        <v>42.857142857142861</v>
+        <v>47.872340425531917</v>
       </c>
       <c r="F6">
         <v>35.9</v>
       </c>
       <c r="G6" s="2">
         <f>SUM((Table1681011124[[#This Row],[Accuracy (Close)]]+Table1681011124[[#This Row],[Accuracy (Short)]]+Table1681011124[[#This Row],[Accuracy (Medium)]]+Table1681011124[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.19750000000000001</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="H6">
         <v>12</v>
@@ -49069,7 +49069,7 @@
         <v>15</v>
       </c>
       <c r="K6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -49094,7 +49094,7 @@
         <v>0.25</v>
       </c>
       <c r="S6">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="T6">
         <v>100</v>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Handgun" sheetId="8" r:id="rId1"/>
@@ -119,31 +119,16 @@
     <t>HK416 L*</t>
   </si>
   <si>
-    <t>HK416 L ACOG*</t>
-  </si>
-  <si>
     <t>HK416 DMR</t>
   </si>
   <si>
     <t>0.4 Lowest</t>
   </si>
   <si>
-    <t>HK416 DMR ACOG*</t>
-  </si>
-  <si>
-    <t>HK416 DMR SCOPE*</t>
-  </si>
-  <si>
     <t>0.98 Highest</t>
   </si>
   <si>
     <t>Aim for:</t>
-  </si>
-  <si>
-    <t>HK416 CQB*</t>
-  </si>
-  <si>
-    <t>HK416 ACOG*</t>
   </si>
   <si>
     <t>Vol.</t>
@@ -874,6 +859,21 @@
   <si>
     <t>375 S, 8 C</t>
   </si>
+  <si>
+    <t>HK416 M SRS</t>
+  </si>
+  <si>
+    <t>HK416 S*</t>
+  </si>
+  <si>
+    <t>HK416 L SRS*</t>
+  </si>
+  <si>
+    <t>HK416 DMR SRS*</t>
+  </si>
+  <si>
+    <t>HK416 DMR LRS*</t>
+  </si>
 </sst>
 </file>
 
@@ -1063,7 +1063,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1142,6 +1142,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2884,7 +2887,7 @@
   <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2918,7 +2921,7 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -2932,16 +2935,16 @@
         <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
         <v>32</v>
       </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
       <c r="V2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="W2">
         <v>80.346000000000004</v>
@@ -2952,7 +2955,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -3006,24 +3009,24 @@
         <v>17</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickTop="1">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -3084,7 +3087,7 @@
         <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W4">
         <v>139</v>
@@ -3092,7 +3095,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -3159,12 +3162,16 @@
         <v>0.71899999999999997</v>
       </c>
       <c r="V5" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="W5" s="54">
+        <f>Table1689[[#This Row],[Balance]]*$W$2</f>
+        <v>116.57320794</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -3231,12 +3238,16 @@
         <v>0.90700000000000003</v>
       </c>
       <c r="V6" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="W6" s="54">
+        <f>Table1689[[#This Row],[Balance]]*$W$2</f>
+        <v>88.253385499999993</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -3303,12 +3314,16 @@
         <v>1.19</v>
       </c>
       <c r="V7" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="W7" s="54">
+        <f>Table1689[[#This Row],[Balance]]*$W$2</f>
+        <v>135.97986599999996</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -3375,12 +3390,16 @@
         <v>1.1990000000000001</v>
       </c>
       <c r="V8" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="W8" s="54">
+        <f>Table1689[[#This Row],[Balance]]*$W$2</f>
+        <v>142.65025484810124</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -3447,12 +3466,16 @@
         <v>1.08</v>
       </c>
       <c r="V9" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="W9" s="54">
+        <f>Table1689[[#This Row],[Balance]]*$W$2</f>
+        <v>137.30290569767439</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B10" s="4">
         <v>3</v>
@@ -3519,7 +3542,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="V10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W10" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -3528,7 +3551,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B11" s="4">
         <v>3</v>
@@ -3595,7 +3618,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="V11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W11" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -3604,7 +3627,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B12" s="4">
         <v>3</v>
@@ -3672,7 +3695,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="V12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W12" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -3681,7 +3704,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B13" s="4">
         <v>3</v>
@@ -3748,7 +3771,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="V13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W13" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -3757,7 +3780,7 @@
     </row>
     <row r="14" spans="1:23" s="4" customFormat="1">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B14" s="4">
         <v>3</v>
@@ -3824,7 +3847,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="V14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W14" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -3833,7 +3856,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B15" s="4">
         <v>3</v>
@@ -3900,7 +3923,7 @@
         <v>1.25</v>
       </c>
       <c r="V15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W15" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -3909,7 +3932,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B16" s="4">
         <v>3</v>
@@ -3976,7 +3999,7 @@
         <v>1.3</v>
       </c>
       <c r="V16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W16" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -3985,7 +4008,7 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B17" s="4">
         <v>3</v>
@@ -4052,7 +4075,7 @@
         <v>0.8</v>
       </c>
       <c r="V17" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W17" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -4061,7 +4084,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B18" s="4">
         <v>3</v>
@@ -4128,7 +4151,7 @@
         <v>0.85</v>
       </c>
       <c r="V18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W18" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -4137,7 +4160,7 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B19" s="4">
         <v>3</v>
@@ -4204,7 +4227,7 @@
         <v>0.7</v>
       </c>
       <c r="V19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W19" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -4213,7 +4236,7 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B20" s="4">
         <v>3</v>
@@ -4280,7 +4303,7 @@
         <v>1.08</v>
       </c>
       <c r="V20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W20" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -4289,7 +4312,7 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B21" s="4">
         <v>3</v>
@@ -4356,7 +4379,7 @@
         <v>1.08</v>
       </c>
       <c r="V21" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W21" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -4365,7 +4388,7 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -4432,7 +4455,7 @@
         <v>1.25</v>
       </c>
       <c r="V22" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W22" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -4592,13 +4615,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="X1" s="41"/>
     </row>
@@ -4607,16 +4630,16 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="N2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="Q2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="X2" s="41"/>
     </row>
@@ -4625,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -4634,69 +4657,69 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O3" t="s">
+        <v>170</v>
+      </c>
+      <c r="P3" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>172</v>
+      </c>
+      <c r="R3" t="s">
         <v>154</v>
       </c>
-      <c r="H3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" t="s">
-        <v>155</v>
-      </c>
-      <c r="J3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K3" t="s">
-        <v>156</v>
-      </c>
-      <c r="L3" t="s">
-        <v>143</v>
-      </c>
-      <c r="M3" t="s">
-        <v>157</v>
-      </c>
-      <c r="N3" t="s">
-        <v>168</v>
-      </c>
-      <c r="O3" t="s">
-        <v>175</v>
-      </c>
-      <c r="P3" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>177</v>
-      </c>
-      <c r="R3" t="s">
-        <v>159</v>
-      </c>
       <c r="S3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="T3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15.75" thickTop="1">
       <c r="A4" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2">
         <f>SUM(((Table168101112133[[#This Row],[DPS]]*Table168101112133[[#This Row],[Avg Cooldown]])+((Table168101112133[[#This Row],[DPS]]*(Table168101112133[[#This Row],[HPM]])))+P4)/100)+(Table168101112133[[#This Row],[ArmPen+]]/5)+(Table168101112133[[#This Row],[ExtraDamFactor]]/20)</f>
@@ -4729,7 +4752,7 @@
         <v>2</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="P4" s="47">
         <f>IF(Table168101112133[[#This Row],[Extra Dam C%]]="N/A",0,SUM((Table168101112133[[#This Row],[Extra Dam C%]]*Table168101112133[[#This Row],[Extra Dam]])))</f>
@@ -4754,16 +4777,16 @@
         <v>0.85</v>
       </c>
       <c r="V4" s="24" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W4" s="52"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2">
         <f>SUM(((Table168101112133[[#This Row],[DPS]]*Table168101112133[[#This Row],[Avg Cooldown]])+((Table168101112133[[#This Row],[DPS]]*(Table168101112133[[#This Row],[HPM]])))+P5)/100)+(Table168101112133[[#This Row],[ArmPen+]]/5)+(Table168101112133[[#This Row],[ExtraDamFactor]]/20)</f>
@@ -4790,7 +4813,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="47" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="P5" s="47">
         <f>IF(Table168101112133[[#This Row],[Extra Dam C%]]="N/A",0,SUM((Table168101112133[[#This Row],[Extra Dam C%]]*Table168101112133[[#This Row],[Extra Dam]])))</f>
@@ -4815,16 +4838,16 @@
         <v>1.25</v>
       </c>
       <c r="V5" s="25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W5" s="53"/>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2">
         <f>SUM(((Table168101112133[[#This Row],[DPS]]*Table168101112133[[#This Row],[Avg Cooldown]])+((Table168101112133[[#This Row],[DPS]]*(Table168101112133[[#This Row],[HPM]])))+P6)/100)+(Table168101112133[[#This Row],[ArmPen+]]/5)+(Table168101112133[[#This Row],[ExtraDamFactor]]/20)</f>
@@ -4857,7 +4880,7 @@
         <v>2.6</v>
       </c>
       <c r="O6" s="47" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="P6" s="47">
         <f>IF(Table168101112133[[#This Row],[Extra Dam C%]]="N/A",0,SUM((Table168101112133[[#This Row],[Extra Dam C%]]*Table168101112133[[#This Row],[Extra Dam]])))</f>
@@ -4882,16 +4905,16 @@
         <v>2</v>
       </c>
       <c r="V6" s="24" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W6" s="52"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(((Table168101112133[[#This Row],[DPS]]*Table168101112133[[#This Row],[Avg Cooldown]])+((Table168101112133[[#This Row],[DPS]]*(Table168101112133[[#This Row],[HPM]])))+P7)/100)+(Table168101112133[[#This Row],[ArmPen+]]/5)+(Table168101112133[[#This Row],[ExtraDamFactor]]/20)</f>
@@ -4924,7 +4947,7 @@
         <v>2</v>
       </c>
       <c r="O7" s="47" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="P7" s="47">
         <f>IF(Table168101112133[[#This Row],[Extra Dam C%]]="N/A",0,SUM((Table168101112133[[#This Row],[Extra Dam C%]]*Table168101112133[[#This Row],[Extra Dam]])))</f>
@@ -4947,16 +4970,16 @@
       </c>
       <c r="U7" s="46"/>
       <c r="V7" s="25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W7" s="53"/>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2">
         <f>SUM(((Table168101112133[[#This Row],[DPS]]*Table168101112133[[#This Row],[Avg Cooldown]])+((Table168101112133[[#This Row],[DPS]]*(Table168101112133[[#This Row],[HPM]])))+P8)/100)+(Table168101112133[[#This Row],[ArmPen+]]/5)+(Table168101112133[[#This Row],[ExtraDamFactor]]/20)</f>
@@ -5009,16 +5032,16 @@
       </c>
       <c r="U8" s="45"/>
       <c r="V8" s="24" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W8" s="52"/>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(((Table168101112133[[#This Row],[DPS]]*Table168101112133[[#This Row],[Avg Cooldown]])+((Table168101112133[[#This Row],[DPS]]*(Table168101112133[[#This Row],[HPM]])))+P9)/100)+(Table168101112133[[#This Row],[ArmPen+]]/5)+(Table168101112133[[#This Row],[ExtraDamFactor]]/20)</f>
@@ -5501,7 +5524,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1">
@@ -5509,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -5518,51 +5541,51 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" t="s">
         <v>95</v>
-      </c>
-      <c r="J3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K3" t="s">
-        <v>100</v>
       </c>
       <c r="L3" t="s">
         <v>5</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="4" customFormat="1" ht="15.75" thickTop="1">
       <c r="A4" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C4" s="29">
         <v>12.9</v>
@@ -5601,19 +5624,19 @@
         <v>1</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P4" s="36" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="36"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4">
         <v>35.9</v>
@@ -5652,19 +5675,19 @@
         <v>7</v>
       </c>
       <c r="O5" s="36" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Q5" s="36"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4">
         <v>35.9</v>
@@ -5703,16 +5726,16 @@
         <v>8</v>
       </c>
       <c r="O6" s="36" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Q6" s="36"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B7" s="12">
         <v>4</v>
@@ -5733,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I7" s="12">
         <v>1.5</v>
@@ -5754,16 +5777,16 @@
         <v>8</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
@@ -5784,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I8" s="4">
         <v>4.5</v>
@@ -5805,16 +5828,16 @@
         <v>8</v>
       </c>
       <c r="O8" s="36" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="36"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -5856,16 +5879,16 @@
         <v>1</v>
       </c>
       <c r="O9" s="36" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Q9" s="36"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -5907,16 +5930,16 @@
         <v>2.5</v>
       </c>
       <c r="O10" s="36" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="36"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -5958,16 +5981,16 @@
         <v>2</v>
       </c>
       <c r="O11" s="36" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Q11" s="36"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -6009,16 +6032,16 @@
         <v>2</v>
       </c>
       <c r="O12" s="36" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Q12" s="36"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -6060,16 +6083,16 @@
         <v>2</v>
       </c>
       <c r="O13" s="36" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P13" s="36" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="36"/>
     </row>
     <row r="14" spans="1:17" s="4" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -6111,16 +6134,16 @@
         <v>6</v>
       </c>
       <c r="O14" s="36" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P14" s="36" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="36"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B15" s="4">
         <v>2</v>
@@ -6162,18 +6185,18 @@
         <v>1</v>
       </c>
       <c r="O15" s="36" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P15" s="36" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Q15" s="36" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B16" s="4">
         <v>2</v>
@@ -6215,16 +6238,16 @@
         <v>1</v>
       </c>
       <c r="O16" s="36" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P16" s="36" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="36"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B17" s="4">
         <v>2</v>
@@ -6266,16 +6289,16 @@
         <v>1</v>
       </c>
       <c r="O17" s="36" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P17" s="36" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="36"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B18" s="4">
         <v>3</v>
@@ -6317,10 +6340,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="36" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P18" s="36" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="39"/>
     </row>
@@ -6888,7 +6911,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6899,58 +6922,58 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" t="s">
         <v>270</v>
       </c>
-      <c r="C1" t="s">
-        <v>275</v>
-      </c>
       <c r="D1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <f>COUNTIF(Handgun!B:B, 1)</f>
@@ -6991,7 +7014,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <f>COUNTIF(Revolver!B:B, 1)</f>
@@ -7032,7 +7055,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <f>COUNTIF(SMG!B:B, 1)</f>
@@ -7073,7 +7096,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <f>COUNTIF(Rifle!B:B, 1)</f>
@@ -7114,7 +7137,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <f>COUNTIF('Sniper Rifle'!B:B, 1)</f>
@@ -7155,7 +7178,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <f>COUNTIF('Spacer Rifle'!B:B, 1)</f>
@@ -7196,7 +7219,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <f>COUNTIF(LMG!B:B, 1)</f>
@@ -7208,7 +7231,7 @@
       </c>
       <c r="D9">
         <f>COUNTIF(LMG!B:B, 2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <f>COUNTIF(LMG!B:B, 3)</f>
@@ -7216,7 +7239,7 @@
       </c>
       <c r="F9">
         <f>COUNTIF(LMG!B:B, 4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f>COUNTIF(LMG!B:B, 5)</f>
@@ -7237,7 +7260,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <f>COUNTIF(Shotgun!B:B, 1)</f>
@@ -7278,7 +7301,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <f>COUNTIF(Melee!B:B, 1)</f>
@@ -7319,7 +7342,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B12">
         <f>COUNTIF(Misc!B:B, 1)</f>
@@ -7360,7 +7383,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="40" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B13">
         <f>COUNTIF(HMG!B:B, 1)</f>
@@ -7404,22 +7427,22 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="39" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
@@ -7428,7 +7451,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <f>SUM(B3:B13)</f>
@@ -7440,7 +7463,7 @@
       </c>
       <c r="D17">
         <f t="shared" ref="D17:J17" si="0">SUM(D3:D13)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
@@ -7448,7 +7471,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
@@ -7467,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="R17">
         <f>SUM(B17:P17)</f>
@@ -7476,7 +7499,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B18" s="56">
         <v>10</v>
@@ -7500,7 +7523,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -7535,110 +7558,110 @@
   <sheetData>
     <row r="3" spans="2:42">
       <c r="B3" s="43" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="W3" s="43" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="X3" s="41"/>
       <c r="Y3" s="41"/>
     </row>
     <row r="4" spans="2:42">
       <c r="B4" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="42" t="s">
+      <c r="N4" t="s">
         <v>139</v>
       </c>
-      <c r="E4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="P4" t="s">
         <v>145</v>
       </c>
-      <c r="H4" t="s">
+      <c r="Q4" t="s">
         <v>146</v>
       </c>
-      <c r="I4" t="s">
+      <c r="R4" t="s">
         <v>147</v>
       </c>
-      <c r="J4" t="s">
+      <c r="S4" t="s">
         <v>148</v>
       </c>
-      <c r="L4" t="s">
-        <v>141</v>
-      </c>
-      <c r="M4" t="s">
-        <v>142</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="U4" t="s">
         <v>144</v>
       </c>
-      <c r="P4" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>151</v>
-      </c>
-      <c r="R4" t="s">
-        <v>152</v>
-      </c>
-      <c r="S4" t="s">
-        <v>153</v>
-      </c>
-      <c r="U4" t="s">
-        <v>149</v>
-      </c>
       <c r="W4" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="X4" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y4" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH4" t="s">
         <v>137</v>
       </c>
-      <c r="X4" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y4" s="42" t="s">
+      <c r="AI4" t="s">
         <v>139</v>
       </c>
-      <c r="Z4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AK4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP4" t="s">
         <v>144</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="2:42">
@@ -38599,22 +38622,22 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -38660,7 +38683,7 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -38674,16 +38697,16 @@
         <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
         <v>32</v>
       </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
       <c r="V2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="W2">
         <v>82.822000000000003</v>
@@ -38694,7 +38717,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -38748,24 +38771,24 @@
         <v>17</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickTop="1">
       <c r="A4" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -39305,8 +39328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5:S5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39315,20 +39338,20 @@
     <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
     <col min="13" max="13" width="8.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -39339,10 +39362,10 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="U1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="W1">
         <v>137.065</v>
@@ -39359,16 +39382,16 @@
         <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
         <v>32</v>
       </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
       <c r="T2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="W2">
         <v>134.14599999999999</v>
@@ -39379,7 +39402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -39433,16 +39456,16 @@
         <v>17</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickTop="1">
@@ -39450,7 +39473,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -39511,9 +39534,11 @@
       <c r="T4" s="17">
         <v>48</v>
       </c>
-      <c r="U4" s="18"/>
+      <c r="U4" s="18">
+        <v>3.5</v>
+      </c>
       <c r="V4" s="24" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W4" s="24">
         <v>355</v>
@@ -39524,7 +39549,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -39582,10 +39607,14 @@
       <c r="S5">
         <v>0.15</v>
       </c>
-      <c r="T5" s="19"/>
-      <c r="U5" s="20"/>
+      <c r="T5" s="19">
+        <v>55</v>
+      </c>
+      <c r="U5" s="20">
+        <v>2.5</v>
+      </c>
       <c r="V5" s="25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W5" s="25">
         <v>220</v>
@@ -39657,11 +39686,16 @@
       <c r="T6" s="17">
         <v>48</v>
       </c>
-      <c r="U6" s="18"/>
+      <c r="U6" s="18">
+        <v>2.88</v>
+      </c>
       <c r="V6" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="W6" s="24"/>
+        <v>87</v>
+      </c>
+      <c r="W6" s="58">
+        <f>Table16[[#This Row],[Balance]]*$W$1</f>
+        <v>293.0048424177632</v>
+      </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
@@ -39729,15 +39763,20 @@
       <c r="T7" s="19">
         <v>45</v>
       </c>
-      <c r="U7" s="20"/>
+      <c r="U7" s="60">
+        <v>3.4</v>
+      </c>
       <c r="V7" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="W7" s="25"/>
+        <v>88</v>
+      </c>
+      <c r="W7" s="58">
+        <f>Table16[[#This Row],[Balance]]*$W$1</f>
+        <v>288.3667251315789</v>
+      </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
@@ -39798,12 +39837,19 @@
       <c r="S8">
         <v>0.1</v>
       </c>
-      <c r="T8" s="17"/>
-      <c r="U8" s="18"/>
+      <c r="T8" s="17">
+        <v>48</v>
+      </c>
+      <c r="U8" s="18">
+        <v>2.5299999999999998</v>
+      </c>
       <c r="V8" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="W8" s="24"/>
+        <v>88</v>
+      </c>
+      <c r="W8" s="58">
+        <f>Table16[[#This Row],[Balance]]*$W$2</f>
+        <v>235.78842419999998</v>
+      </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="4" t="s">
@@ -39868,16 +39914,23 @@
       <c r="S9" s="4">
         <v>0.11</v>
       </c>
-      <c r="T9" s="19"/>
-      <c r="U9" s="20"/>
+      <c r="T9" s="19">
+        <v>48</v>
+      </c>
+      <c r="U9" s="20">
+        <v>2.6</v>
+      </c>
       <c r="V9" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="W9" s="25"/>
+        <v>88</v>
+      </c>
+      <c r="W9" s="58">
+        <f>Table16[[#This Row],[Balance]]*$W$2</f>
+        <v>236.46727762859879</v>
+      </c>
     </row>
     <row r="10" spans="1:23" s="4" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B10" s="12">
         <v>1</v>
@@ -39938,16 +39991,23 @@
       <c r="S10">
         <v>0.12</v>
       </c>
-      <c r="T10" s="17"/>
-      <c r="U10" s="18"/>
+      <c r="T10" s="17">
+        <v>51</v>
+      </c>
+      <c r="U10" s="18">
+        <v>2.1</v>
+      </c>
       <c r="V10" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="W10" s="24"/>
+        <v>87</v>
+      </c>
+      <c r="W10" s="58">
+        <f>Table16[[#This Row],[Balance]]*$W$2</f>
+        <v>242.63052993442614</v>
+      </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B11" s="12">
         <v>1</v>
@@ -40008,16 +40068,23 @@
       <c r="S11">
         <v>0.16</v>
       </c>
-      <c r="T11" s="19"/>
-      <c r="U11" s="20"/>
+      <c r="T11" s="19">
+        <v>48</v>
+      </c>
+      <c r="U11" s="20">
+        <v>3.2</v>
+      </c>
       <c r="V11" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="W11" s="25"/>
+        <v>88</v>
+      </c>
+      <c r="W11" s="58">
+        <f>Table16[[#This Row],[Balance]]*$W$1</f>
+        <v>317.22612157894736</v>
+      </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B12" s="12">
         <v>1</v>
@@ -40084,13 +40151,16 @@
         <v>2.78</v>
       </c>
       <c r="V12" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="W12" s="24"/>
+        <v>88</v>
+      </c>
+      <c r="W12" s="58">
+        <f>Table16[[#This Row],[Balance]]*$W$1</f>
+        <v>264.24016431521744</v>
+      </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B13" s="12">
         <v>1</v>
@@ -40158,13 +40228,16 @@
         <v>3.12</v>
       </c>
       <c r="V13" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="W13" s="25"/>
+        <v>88</v>
+      </c>
+      <c r="W13" s="58">
+        <f>Table16[[#This Row],[Balance]]*$W$1</f>
+        <v>340.31629676174498</v>
+      </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B14" s="12">
         <v>1</v>
@@ -40228,15 +40301,20 @@
       <c r="T14" s="17">
         <v>44</v>
       </c>
-      <c r="U14" s="18"/>
+      <c r="U14" s="18">
+        <v>3.97</v>
+      </c>
       <c r="V14" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="W14" s="24"/>
+        <v>88</v>
+      </c>
+      <c r="W14" s="58">
+        <f>Table16[[#This Row],[Balance]]*$W$1</f>
+        <v>313.63898624999996</v>
+      </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B15" s="12">
         <v>1</v>
@@ -40304,13 +40382,16 @@
         <v>2.6</v>
       </c>
       <c r="V15" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="W15" s="25"/>
+        <v>88</v>
+      </c>
+      <c r="W15" s="58">
+        <f>Table16[[#This Row],[Balance]]*$W$1</f>
+        <v>240.89987573437497</v>
+      </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B16" s="12">
         <v>2</v>
@@ -40378,13 +40459,16 @@
         <v>3.7</v>
       </c>
       <c r="V16" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="W16" s="24"/>
+        <v>88</v>
+      </c>
+      <c r="W16" s="58">
+        <f>Table16[[#This Row],[Balance]]*$W$1</f>
+        <v>233.46439995335817</v>
+      </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B17" s="12">
         <v>2</v>
@@ -40452,13 +40536,16 @@
         <v>3.23</v>
       </c>
       <c r="V17" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="W17" s="25"/>
+        <v>88</v>
+      </c>
+      <c r="W17" s="58">
+        <f>Table16[[#This Row],[Balance]]*$W$1</f>
+        <v>272.55044685459438</v>
+      </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="49" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B18" s="13">
         <v>2</v>
@@ -40526,7 +40613,11 @@
         <v>3.4</v>
       </c>
       <c r="V18" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="W18" s="58">
+        <f>Table16[[#This Row],[Balance]]*$W$1</f>
+        <v>235.52447268292684</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -40880,8 +40971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40918,13 +41009,13 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V1" s="41" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="W1">
         <v>150.47</v>
@@ -40941,16 +41032,16 @@
         <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
         <v>32</v>
       </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
       <c r="V2" s="41" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="W2">
         <v>90.105999999999995</v>
@@ -40961,7 +41052,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -41015,24 +41106,24 @@
         <v>17</v>
       </c>
       <c r="T3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="V3" s="41" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="W3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -41093,16 +41184,19 @@
       <c r="T4">
         <v>70</v>
       </c>
+      <c r="U4" s="2">
+        <v>3.5</v>
+      </c>
       <c r="W4">
         <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -41162,7 +41256,7 @@
       <c r="T5">
         <v>70</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="2">
         <v>3.5</v>
       </c>
       <c r="W5">
@@ -41171,7 +41265,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="14" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -41235,13 +41329,20 @@
       <c r="T6">
         <v>70</v>
       </c>
+      <c r="U6" s="2">
+        <v>3.49</v>
+      </c>
       <c r="V6" s="41" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="W6" s="54">
+        <f>C6*$W$1</f>
+        <v>460.55388993428568</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -41305,13 +41406,20 @@
       <c r="T7">
         <v>80</v>
       </c>
+      <c r="U7" s="2">
+        <v>5.21</v>
+      </c>
       <c r="V7" s="41" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="W7" s="54">
+        <f t="shared" ref="W7:W14" si="1">C7*$W$1</f>
+        <v>440.44052204285708</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -41375,13 +41483,20 @@
       <c r="T8">
         <v>70</v>
       </c>
+      <c r="U8" s="2">
+        <v>3.62</v>
+      </c>
       <c r="V8" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="W8" s="54">
+        <f t="shared" si="1"/>
+        <v>479.95461398488112</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>278</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -41445,8 +41560,15 @@
       <c r="T9">
         <v>70</v>
       </c>
+      <c r="U9" s="2">
+        <v>3.01</v>
+      </c>
       <c r="V9" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="W9" s="54">
+        <f t="shared" si="1"/>
+        <v>441.95538359647037</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -41515,13 +41637,20 @@
       <c r="T10">
         <v>70</v>
       </c>
+      <c r="U10" s="2">
+        <v>4.01</v>
+      </c>
       <c r="V10" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="W10" s="54">
+        <f t="shared" si="1"/>
+        <v>453.92955714532013</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>279</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -41585,13 +41714,20 @@
       <c r="T11">
         <v>70</v>
       </c>
+      <c r="U11" s="2">
+        <v>4.1399999999999997</v>
+      </c>
       <c r="V11" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="W11" s="54">
+        <f t="shared" si="1"/>
+        <v>477.66016903846156</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>280</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -41655,13 +41791,20 @@
       <c r="T12">
         <v>80</v>
       </c>
+      <c r="U12" s="2">
+        <v>5.4</v>
+      </c>
       <c r="V12" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="W12" s="54">
+        <f t="shared" si="1"/>
+        <v>440.62315610958899</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="4" t="s">
-        <v>34</v>
+        <v>281</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -41725,13 +41868,20 @@
       <c r="T13">
         <v>80</v>
       </c>
+      <c r="U13" s="2">
+        <v>5.62</v>
+      </c>
       <c r="V13" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="W13" s="54">
+        <f t="shared" si="1"/>
+        <v>454.11507641534388</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -41795,16 +41945,20 @@
       <c r="T14">
         <v>85</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="2">
         <v>5.4</v>
       </c>
       <c r="V14" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="W14" s="54">
+        <f t="shared" si="1"/>
+        <v>457.33144772289143</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -41868,16 +42022,19 @@
       <c r="T15">
         <v>45</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="2">
         <v>3.4</v>
       </c>
       <c r="V15" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="W15">
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -41941,16 +42098,19 @@
       <c r="T16">
         <v>70</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="2">
         <v>3.63</v>
       </c>
       <c r="V16" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="W16">
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:23" s="4" customFormat="1">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -42014,17 +42174,19 @@
       <c r="T17">
         <v>70</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="2">
         <v>3.3</v>
       </c>
       <c r="V17" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="W17"/>
+        <v>88</v>
+      </c>
+      <c r="W17">
+        <v>530</v>
+      </c>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="40" t="s">
-        <v>113</v>
+      <c r="A18" t="s">
+        <v>108</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -42087,16 +42249,20 @@
       <c r="T18">
         <v>72</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="2">
         <v>3.21</v>
       </c>
       <c r="V18" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="W18" s="54">
+        <f>C18*$W$1</f>
+        <v>365.95557916666667</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -42160,16 +42326,20 @@
       <c r="T19">
         <v>45</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="2">
         <v>4.2</v>
       </c>
       <c r="V19" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="W19" s="54">
+        <f>C19*$W$1</f>
+        <v>357.09540400000003</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B20" s="7">
         <v>1</v>
@@ -42233,17 +42403,20 @@
       <c r="T20" s="7">
         <v>74</v>
       </c>
-      <c r="U20" s="7">
+      <c r="U20" s="8">
         <v>3.5</v>
       </c>
       <c r="V20" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="W20" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="W20" s="54">
+        <f>C20*$W$1</f>
+        <v>453.70889418539315</v>
+      </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -42306,16 +42479,20 @@
       <c r="T21">
         <v>70</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="2">
         <v>4.4000000000000004</v>
       </c>
       <c r="V21" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="W21" s="54">
+        <f>C21*$W$2</f>
+        <v>260.57694069333331</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -42378,16 +42555,20 @@
       <c r="T22">
         <v>88</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="2">
         <v>4.0999999999999996</v>
       </c>
       <c r="V22" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="W22" s="54">
+        <f>C22*$W$2</f>
+        <v>255.37266289640885</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -42450,11 +42631,11 @@
       <c r="T23">
         <v>80</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="2">
         <v>4.0999999999999996</v>
       </c>
       <c r="V23" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W23">
         <v>245</v>
@@ -42462,7 +42643,7 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -42525,11 +42706,11 @@
       <c r="T24">
         <v>78</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="2">
         <v>4</v>
       </c>
       <c r="V24" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W24">
         <v>410</v>
@@ -42537,7 +42718,7 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -42583,7 +42764,7 @@
         <v>360</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" ref="O25:O26" si="1">60/N25</f>
+        <f t="shared" ref="O25:O26" si="2">60/N25</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="P25">
@@ -42601,11 +42782,11 @@
       <c r="T25">
         <v>70</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="2">
         <v>3.6</v>
       </c>
       <c r="V25" s="41" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W25">
         <v>455</v>
@@ -42613,7 +42794,7 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -42659,7 +42840,7 @@
         <v>400</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="P26">
@@ -42677,11 +42858,11 @@
       <c r="T26">
         <v>70</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="2">
         <v>3.7</v>
       </c>
       <c r="V26" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W26">
         <v>460</v>
@@ -42689,7 +42870,7 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -42752,11 +42933,11 @@
       <c r="T27">
         <v>90</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="2">
         <v>4</v>
       </c>
       <c r="V27" s="41" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W27">
         <v>410</v>
@@ -42764,7 +42945,7 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -42827,11 +43008,11 @@
       <c r="T28">
         <v>65</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="2">
         <v>3.1</v>
       </c>
       <c r="V28" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W28">
         <v>185</v>
@@ -42839,7 +43020,7 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -42885,7 +43066,7 @@
         <v>400</v>
       </c>
       <c r="O29" s="2">
-        <f t="shared" ref="O29:O60" si="2">60/N29</f>
+        <f t="shared" ref="O29:O60" si="3">60/N29</f>
         <v>0.15</v>
       </c>
       <c r="P29">
@@ -42903,11 +43084,11 @@
       <c r="T29">
         <v>70</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="2">
         <v>3.4</v>
       </c>
       <c r="V29" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W29">
         <v>435</v>
@@ -42915,7 +43096,7 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B30" s="12">
         <v>3</v>
@@ -42961,7 +43142,7 @@
         <v>360</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="P30">
@@ -42979,11 +43160,11 @@
       <c r="T30">
         <v>70</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="2">
         <v>3.3</v>
       </c>
       <c r="V30" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W30" s="54">
         <f>Table16810[[#This Row],[Balance]]*W1</f>
@@ -42992,7 +43173,7 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B31" s="41">
         <v>3</v>
@@ -43038,7 +43219,7 @@
         <v>360</v>
       </c>
       <c r="O31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="P31">
@@ -43056,11 +43237,11 @@
       <c r="T31">
         <v>70</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="2">
         <v>3.6</v>
       </c>
       <c r="V31" s="41" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W31" s="54">
         <f>Table16810[[#This Row],[Balance]]*W1</f>
@@ -43069,7 +43250,7 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B32" s="41">
         <v>3</v>
@@ -43115,7 +43296,7 @@
         <v>360</v>
       </c>
       <c r="O32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="P32">
@@ -43133,11 +43314,11 @@
       <c r="T32">
         <v>70</v>
       </c>
-      <c r="U32">
+      <c r="U32" s="2">
         <v>3.7</v>
       </c>
       <c r="V32" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W32" s="54">
         <f>Table16810[[#This Row],[Balance]]*W1</f>
@@ -43146,7 +43327,7 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B33" s="41">
         <v>3</v>
@@ -43192,7 +43373,7 @@
         <v>300</v>
       </c>
       <c r="O33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="P33">
@@ -43210,11 +43391,11 @@
       <c r="T33">
         <v>70</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="2">
         <v>3.75</v>
       </c>
       <c r="V33" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W33" s="54">
         <f>Table16810[[#This Row],[Balance]]*W1</f>
@@ -43223,7 +43404,7 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B34" s="41">
         <v>3</v>
@@ -43269,7 +43450,7 @@
         <v>600</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="P34">
@@ -43287,11 +43468,11 @@
       <c r="T34">
         <v>60</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="2">
         <v>2.6</v>
       </c>
       <c r="V34" s="41" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W34" s="54">
         <f>Table16810[[#This Row],[Balance]]*W1</f>
@@ -43300,7 +43481,7 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B35" s="41">
         <v>3</v>
@@ -43346,7 +43527,7 @@
         <v>600</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="P35">
@@ -43364,11 +43545,11 @@
       <c r="T35">
         <v>70</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="2">
         <v>4</v>
       </c>
       <c r="V35" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W35" s="54">
         <f>Table16810[[#This Row],[Balance]]*W1</f>
@@ -43377,7 +43558,7 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B36" s="41">
         <v>3</v>
@@ -43423,7 +43604,7 @@
         <v>450</v>
       </c>
       <c r="O36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="P36">
@@ -43441,11 +43622,11 @@
       <c r="T36">
         <v>70</v>
       </c>
-      <c r="U36">
+      <c r="U36" s="2">
         <v>3.3</v>
       </c>
       <c r="V36" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W36" s="54">
         <f>Table16810[[#This Row],[Balance]]*W1</f>
@@ -43470,7 +43651,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -43492,7 +43673,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -43514,7 +43695,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -43536,7 +43717,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -43558,7 +43739,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -43580,7 +43761,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -43602,7 +43783,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -43624,7 +43805,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -43646,7 +43827,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -43668,7 +43849,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -43690,7 +43871,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -43712,7 +43893,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -43734,7 +43915,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -43756,7 +43937,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -43778,7 +43959,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -43800,7 +43981,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -43822,7 +44003,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -43844,7 +44025,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -43866,7 +44047,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -43888,7 +44069,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -43910,7 +44091,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -43932,7 +44113,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -43954,7 +44135,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -43976,7 +44157,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -43998,7 +44179,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="2" t="e">
-        <f t="shared" ref="O61:O92" si="3">60/N61</f>
+        <f t="shared" ref="O61:O92" si="4">60/N61</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44020,7 +44201,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44042,7 +44223,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44064,7 +44245,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44086,7 +44267,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44108,7 +44289,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44130,7 +44311,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44152,7 +44333,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44174,7 +44355,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44196,7 +44377,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44218,7 +44399,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44240,7 +44421,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44262,7 +44443,7 @@
         <v>0</v>
       </c>
       <c r="O73" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44284,7 +44465,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44306,7 +44487,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44328,7 +44509,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44350,7 +44531,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44372,7 +44553,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44394,7 +44575,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44416,7 +44597,7 @@
         <v>0</v>
       </c>
       <c r="O80" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44438,7 +44619,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44460,7 +44641,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44482,7 +44663,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44504,7 +44685,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44526,7 +44707,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44548,7 +44729,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44570,7 +44751,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44592,7 +44773,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44614,7 +44795,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44636,7 +44817,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44658,7 +44839,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44680,7 +44861,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="2" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44702,7 +44883,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="2" t="e">
-        <f t="shared" ref="O93:O123" si="4">60/N93</f>
+        <f t="shared" ref="O93:O123" si="5">60/N93</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44724,7 +44905,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44746,7 +44927,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44768,7 +44949,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44790,7 +44971,7 @@
         <v>0</v>
       </c>
       <c r="O97" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44812,7 +44993,7 @@
         <v>0</v>
       </c>
       <c r="O98" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44834,7 +45015,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44856,7 +45037,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44878,7 +45059,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44900,7 +45081,7 @@
         <v>0</v>
       </c>
       <c r="O102" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44922,7 +45103,7 @@
         <v>0</v>
       </c>
       <c r="O103" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44944,7 +45125,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44966,7 +45147,7 @@
         <v>0</v>
       </c>
       <c r="O105" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -44988,7 +45169,7 @@
         <v>0</v>
       </c>
       <c r="O106" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -45010,7 +45191,7 @@
         <v>0</v>
       </c>
       <c r="O107" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -45032,7 +45213,7 @@
         <v>0</v>
       </c>
       <c r="O108" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -45054,7 +45235,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -45076,7 +45257,7 @@
         <v>0</v>
       </c>
       <c r="O110" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -45098,7 +45279,7 @@
         <v>0</v>
       </c>
       <c r="O111" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -45120,7 +45301,7 @@
         <v>0</v>
       </c>
       <c r="O112" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -45142,7 +45323,7 @@
         <v>0</v>
       </c>
       <c r="O113" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -45164,7 +45345,7 @@
         <v>0</v>
       </c>
       <c r="O114" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -45186,7 +45367,7 @@
         <v>0</v>
       </c>
       <c r="O115" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -45208,7 +45389,7 @@
         <v>0</v>
       </c>
       <c r="O116" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -45230,7 +45411,7 @@
         <v>0</v>
       </c>
       <c r="O117" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -45252,7 +45433,7 @@
         <v>0</v>
       </c>
       <c r="O118" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -45274,7 +45455,7 @@
         <v>0</v>
       </c>
       <c r="O119" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -45296,7 +45477,7 @@
         <v>0</v>
       </c>
       <c r="O120" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -45318,7 +45499,7 @@
         <v>0</v>
       </c>
       <c r="O121" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -45340,7 +45521,7 @@
         <v>0</v>
       </c>
       <c r="O122" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -45372,7 +45553,7 @@
       <c r="M123" s="7"/>
       <c r="N123" s="7"/>
       <c r="O123" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P123" s="7"/>
@@ -45408,7 +45589,7 @@
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45433,6 +45614,7 @@
     <col min="18" max="18" width="16.140625" customWidth="1"/>
     <col min="19" max="19" width="15.28515625" customWidth="1"/>
     <col min="20" max="20" width="10.140625" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -45443,7 +45625,7 @@
         <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -45457,16 +45639,16 @@
         <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
         <v>32</v>
       </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
       <c r="V2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="W2">
         <v>201.52</v>
@@ -45477,7 +45659,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -45531,24 +45713,24 @@
         <v>17</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickTop="1">
       <c r="A4" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -45610,7 +45792,7 @@
       </c>
       <c r="U4" s="18"/>
       <c r="V4" s="24" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W4" s="24">
         <v>530</v>
@@ -45618,7 +45800,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
@@ -45685,7 +45867,7 @@
         <v>13.5</v>
       </c>
       <c r="V5" s="25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W5" s="25">
         <v>650</v>
@@ -45693,7 +45875,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -45754,13 +45936,16 @@
         <v>0.87</v>
       </c>
       <c r="V6" t="s">
-        <v>92</v>
-      </c>
-      <c r="W6" s="24"/>
+        <v>87</v>
+      </c>
+      <c r="W6" s="58">
+        <f>Table1681011[[#This Row],[Balance]]*W2</f>
+        <v>513.76607999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -45827,13 +46012,16 @@
         <v>7.54</v>
       </c>
       <c r="V7" t="s">
-        <v>93</v>
-      </c>
-      <c r="W7" s="25"/>
+        <v>88</v>
+      </c>
+      <c r="W7" s="58">
+        <f>Table1681011[[#This Row],[Balance]]*W2</f>
+        <v>555.69333769230764</v>
+      </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -45900,13 +46088,16 @@
         <v>3.1</v>
       </c>
       <c r="V8" t="s">
-        <v>93</v>
-      </c>
-      <c r="W8" s="24"/>
+        <v>88</v>
+      </c>
+      <c r="W8" s="58">
+        <f>Table1681011[[#This Row],[Balance]]*W2</f>
+        <v>490.88508700000017</v>
+      </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
@@ -45973,7 +46164,7 @@
         <v>4.75</v>
       </c>
       <c r="V9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W9" s="25">
         <v>530</v>
@@ -45981,7 +46172,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B10" s="4">
         <v>3</v>
@@ -46048,7 +46239,7 @@
         <v>6.2</v>
       </c>
       <c r="V10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W10" s="54">
         <f>Table1681011[[#This Row],[Balance]]*W2</f>
@@ -46057,7 +46248,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B11" s="4">
         <v>3</v>
@@ -46124,7 +46315,7 @@
         <v>12.4</v>
       </c>
       <c r="V11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W11" s="54">
         <v>750</v>
@@ -46132,7 +46323,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B12" s="4">
         <v>3</v>
@@ -46199,7 +46390,7 @@
         <v>3.3</v>
       </c>
       <c r="V12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W12" s="54">
         <f>Table1681011[[#This Row],[Balance]]*W2</f>
@@ -46208,7 +46399,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -46275,7 +46466,7 @@
         <v>4.3</v>
       </c>
       <c r="V13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W13" s="54">
         <f>Table1681011[[#This Row],[Balance]]*W2</f>
@@ -46284,7 +46475,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -46351,7 +46542,7 @@
         <v>5</v>
       </c>
       <c r="V14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W14" s="54">
         <f>Table1681011[[#This Row],[Balance]]*W2</f>
@@ -46360,7 +46551,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -46427,7 +46618,7 @@
         <v>4.2</v>
       </c>
       <c r="V15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W15" s="54">
         <f>Table1681011[[#This Row],[Balance]]*W2</f>
@@ -46436,7 +46627,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -46503,7 +46694,7 @@
         <v>3.6</v>
       </c>
       <c r="V16" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W16" s="54">
         <f>Table1681011[[#This Row],[Balance]]*W2</f>
@@ -46512,7 +46703,7 @@
     </row>
     <row r="17" spans="1:23" s="4" customFormat="1">
       <c r="A17" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -46579,7 +46770,7 @@
         <v>6.3</v>
       </c>
       <c r="V17" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W17" s="54">
         <f>Table1681011[[#This Row],[Balance]]*W2</f>
@@ -46588,7 +46779,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -46655,7 +46846,7 @@
         <v>27</v>
       </c>
       <c r="V18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W18" s="22">
         <v>1500</v>
@@ -46756,7 +46947,7 @@
         <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -46770,16 +46961,16 @@
         <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
         <v>32</v>
       </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
       <c r="V2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="W2">
         <v>228.506</v>
@@ -46790,7 +46981,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -46844,24 +47035,24 @@
         <v>17</v>
       </c>
       <c r="T3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="W3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -46925,10 +47116,10 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2">
         <f>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -47662,7 +47853,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5:S5"/>
+      <selection activeCell="A7" sqref="A7:W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -47674,17 +47865,17 @@
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
     <col min="10" max="11" width="8.5703125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="8.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" customWidth="1"/>
+    <col min="20" max="20" width="11" customWidth="1"/>
     <col min="21" max="21" width="8.85546875" customWidth="1"/>
     <col min="23" max="23" width="9" customWidth="1"/>
   </cols>
@@ -47697,13 +47888,13 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="V1" s="41" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="W1">
         <v>172.06399999999999</v>
@@ -47720,16 +47911,16 @@
         <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
         <v>32</v>
       </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
       <c r="V2" s="41" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="W2">
         <v>331.428</v>
@@ -47740,7 +47931,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -47794,28 +47985,28 @@
         <v>17</v>
       </c>
       <c r="T3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="W3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.4682976889010355</v>
+        <v>2.4624207896417474</v>
       </c>
       <c r="D4" s="3">
         <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
@@ -47826,7 +48017,7 @@
         <v>15.776910763189745</v>
       </c>
       <c r="F4">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="G4" s="2">
         <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
@@ -47872,8 +48063,11 @@
       <c r="T4">
         <v>46</v>
       </c>
+      <c r="U4">
+        <v>8.5</v>
+      </c>
       <c r="V4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W4">
         <v>425</v>
@@ -47881,10 +48075,10 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -47945,8 +48139,11 @@
       <c r="T5">
         <v>70</v>
       </c>
+      <c r="U5">
+        <v>10</v>
+      </c>
       <c r="V5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W5">
         <v>1160</v>
@@ -47957,7 +48154,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -48022,12 +48219,16 @@
         <v>10.199999999999999</v>
       </c>
       <c r="V6" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="W6" s="54">
+        <f>Table168101112[[#This Row],[Balance]]*W1</f>
+        <v>414.97249408767124</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -48095,12 +48296,16 @@
         <v>11.5</v>
       </c>
       <c r="V7" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="W7" s="54">
+        <f>Table168101112[[#This Row],[Balance]]*$W$1</f>
+        <v>595.90898234999975</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -48168,12 +48373,16 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="V8" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="W8" s="54">
+        <f>Table168101112[[#This Row],[Balance]]*$W$1</f>
+        <v>447.53523779999995</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -48241,12 +48450,16 @@
         <v>10.1</v>
       </c>
       <c r="V9" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="W9" s="54">
+        <f>Table168101112[[#This Row],[Balance]]*$W$1</f>
+        <v>477.22488099999993</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -48314,12 +48527,16 @@
         <v>14.4</v>
       </c>
       <c r="V10" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="W10" s="54">
+        <f>Table168101112[[#This Row],[Balance]]*$W$1</f>
+        <v>495.73607507870031</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -48387,12 +48604,16 @@
         <v>8.9</v>
       </c>
       <c r="V11" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="W11" s="54">
+        <f>Table168101112[[#This Row],[Balance]]*$W$1</f>
+        <v>348.00105208686483</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="14" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B12" s="4">
         <v>3</v>
@@ -48460,7 +48681,7 @@
         <v>11.5</v>
       </c>
       <c r="V12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W12" s="54">
         <f>Table168101112[[#This Row],[Balance]]*W1</f>
@@ -48699,7 +48920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F20:F21"/>
     </sheetView>
   </sheetViews>
@@ -48738,25 +48959,25 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="O1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="S1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="V1" s="41" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="W1">
         <v>250</v>
@@ -48773,16 +48994,16 @@
         <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="R2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V2" s="41"/>
     </row>
@@ -48791,7 +49012,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -48845,30 +49066,30 @@
         <v>17</v>
       </c>
       <c r="T3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="W3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="X3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="Y3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Z3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B4" s="12">
         <v>4</v>
@@ -48936,24 +49157,24 @@
         <v>19</v>
       </c>
       <c r="V4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W4">
         <v>755</v>
       </c>
       <c r="X4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Y4" s="57" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Z4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B5" s="12">
         <v>4</v>
@@ -49021,21 +49242,21 @@
         <v>29</v>
       </c>
       <c r="V5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W5">
         <v>965</v>
       </c>
       <c r="Y5" s="57" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Z5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B6" s="4">
         <v>4</v>
@@ -49103,21 +49324,21 @@
         <v>58</v>
       </c>
       <c r="V6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W6">
         <v>1050</v>
       </c>
       <c r="Y6" s="57" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="Z6" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B7" s="4">
         <v>4</v>
@@ -49146,21 +49367,21 @@
         <v>39</v>
       </c>
       <c r="V7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W7" s="54"/>
       <c r="X7" s="54"/>
       <c r="Y7" s="54"/>
       <c r="Z7" s="54" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C8" s="2" t="e">
         <f>SUM(((Table1681011124[[#This Row],[Avg DPS]]*(Table1681011124[[#This Row],[Range]]))+(Table1681011124[[#This Row],[Avg DPS]]*Table1681011124[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -49186,18 +49407,18 @@
         <v>16.600000000000001</v>
       </c>
       <c r="V8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Z8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C9" s="2" t="e">
         <f>SUM(((Table1681011124[[#This Row],[Avg DPS]]*(Table1681011124[[#This Row],[Range]]))+(Table1681011124[[#This Row],[Avg DPS]]*Table1681011124[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -49223,10 +49444,10 @@
         <v>26.6</v>
       </c>
       <c r="V9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Z9" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -49434,7 +49655,7 @@
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49443,17 +49664,20 @@
     <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="11" width="8.5703125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="14" width="8.85546875" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -49464,10 +49688,10 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="V1" s="41" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="W1">
         <v>132.124</v>
@@ -49484,16 +49708,16 @@
         <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
         <v>32</v>
       </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
       <c r="V2" s="41" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="W2">
         <v>145.68299999999999</v>
@@ -49504,7 +49728,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -49558,24 +49782,24 @@
         <v>17</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickTop="1">
       <c r="A4" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -49637,7 +49861,7 @@
       </c>
       <c r="U4" s="18"/>
       <c r="V4" s="24" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W4" s="24">
         <v>255</v>
@@ -49645,10 +49869,10 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -49710,7 +49934,7 @@
       </c>
       <c r="U5" s="20"/>
       <c r="V5" s="25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W5" s="25">
         <v>405</v>
@@ -49718,7 +49942,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -49785,9 +50009,12 @@
         <v>3.4</v>
       </c>
       <c r="V6" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="W6" s="24"/>
+        <v>87</v>
+      </c>
+      <c r="W6" s="59">
+        <f>Table16810111213[[#This Row],[Balance]]*W1</f>
+        <v>241.25181780000003</v>
+      </c>
     </row>
     <row r="7" spans="1:23">
       <c r="B7" s="4"/>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Handgun" sheetId="8" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="284">
   <si>
     <t>Weapon Stats - Sleepy's Weapons</t>
   </si>
@@ -243,9 +243,6 @@
   </si>
   <si>
     <t>MG5*</t>
-  </si>
-  <si>
-    <t>MG4 E*</t>
   </si>
   <si>
     <t>Bullet Speed</t>
@@ -874,12 +871,21 @@
   <si>
     <t>HK416 DMR LRS*</t>
   </si>
+  <si>
+    <t>MG4 E SRS*</t>
+  </si>
+  <si>
+    <t>Machine Pistol are Green</t>
+  </si>
+  <si>
+    <t>Bolt Action are Purple</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -944,6 +950,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00823B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00823B"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1063,7 +1084,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1145,12 +1166,40 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="95">
+  <dxfs count="97">
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1985,19 +2034,6 @@
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2027,17 +2063,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="92">
+    <tableColumn id="22" name="Balance" dataDxfId="96">
       <calculatedColumnFormula>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="91">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="95">
       <calculatedColumnFormula>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="90">
+    <tableColumn id="15" name="DPS" dataDxfId="94">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="89">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="93">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2047,7 +2083,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="88">
+    <tableColumn id="7" name="Burst Time" dataDxfId="92">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2083,13 +2119,13 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="24">
+    <tableColumn id="22" name="Balance" dataDxfId="28">
       <calculatedColumnFormula>SUM(((Table168101112133[[#This Row],[DPS]]*Table168101112133[[#This Row],[Avg Cooldown]])+((Table168101112133[[#This Row],[DPS]]*(Table168101112133[[#This Row],[HPM]])))+P4)/100)+(Table168101112133[[#This Row],[ArmPen+]]/5)+(Table168101112133[[#This Row],[ExtraDamFactor]]/20)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="23">
+    <tableColumn id="15" name="DPS" dataDxfId="27">
       <calculatedColumnFormula>SUM(Table168101112133[[#This Row],[Avg DAM]]*Table168101112133[[#This Row],[HPS]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Avg DAM" dataDxfId="22">
+    <tableColumn id="3" name="Avg DAM" dataDxfId="26">
       <calculatedColumnFormula>Formulas!U5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage 1"/>
@@ -2101,23 +2137,23 @@
     <tableColumn id="25" name="Damage 4"/>
     <tableColumn id="30" name="Cooldown 4"/>
     <tableColumn id="34" name="Extra Dam"/>
-    <tableColumn id="32" name="Extra Dam C%" dataDxfId="21"/>
-    <tableColumn id="33" name="ExtraDamFactor" dataDxfId="20">
+    <tableColumn id="32" name="Extra Dam C%" dataDxfId="25"/>
+    <tableColumn id="33" name="ExtraDamFactor" dataDxfId="24">
       <calculatedColumnFormula>IF(Table168101112133[[#This Row],[Extra Dam C%]]="N/A",0,SUM((Table168101112133[[#This Row],[Extra Dam C%]]*Table168101112133[[#This Row],[Extra Dam]])))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="31" name="ArmPen+"/>
-    <tableColumn id="4" name="Avg Cooldown" dataDxfId="19">
+    <tableColumn id="4" name="Avg Cooldown" dataDxfId="23">
       <calculatedColumnFormula>Formulas!AP5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="HPM" dataDxfId="18">
+    <tableColumn id="6" name="HPM" dataDxfId="22">
       <calculatedColumnFormula>SUM(60/Table168101112133[[#This Row],[Avg Cooldown]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="HPS" dataDxfId="17">
+    <tableColumn id="7" name="HPS" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table168101112133[[#This Row],[HPM]]/60)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Weight" dataDxfId="16"/>
+    <tableColumn id="14" name="Weight" dataDxfId="20"/>
     <tableColumn id="21" name="Craftable"/>
-    <tableColumn id="5" name="Value" dataDxfId="15"/>
+    <tableColumn id="5" name="Value" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2145,21 +2181,21 @@
   <tableColumns count="17">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="3" name="Range" dataDxfId="14"/>
-    <tableColumn id="4" name="Damage" dataDxfId="13"/>
-    <tableColumn id="5" name="AP" dataDxfId="12"/>
-    <tableColumn id="6" name="Stopping Power" dataDxfId="11"/>
-    <tableColumn id="15" name="ForcedMiss" dataDxfId="10"/>
-    <tableColumn id="11" name="DetDelay" dataDxfId="9"/>
-    <tableColumn id="10" name="Blast Range" dataDxfId="8"/>
-    <tableColumn id="8" name="Warm-Up" dataDxfId="7"/>
-    <tableColumn id="9" name="Cooldown" dataDxfId="6"/>
-    <tableColumn id="20" name="Burst" dataDxfId="5"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="4"/>
-    <tableColumn id="14" name="Weight" dataDxfId="3"/>
-    <tableColumn id="7" name="Single Use" dataDxfId="2"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="1"/>
-    <tableColumn id="2" name="Accuracy" dataDxfId="0"/>
+    <tableColumn id="3" name="Range" dataDxfId="18"/>
+    <tableColumn id="4" name="Damage" dataDxfId="17"/>
+    <tableColumn id="5" name="AP" dataDxfId="16"/>
+    <tableColumn id="6" name="Stopping Power" dataDxfId="15"/>
+    <tableColumn id="15" name="ForcedMiss" dataDxfId="14"/>
+    <tableColumn id="11" name="DetDelay" dataDxfId="13"/>
+    <tableColumn id="10" name="Blast Range" dataDxfId="12"/>
+    <tableColumn id="8" name="Warm-Up" dataDxfId="11"/>
+    <tableColumn id="9" name="Cooldown" dataDxfId="10"/>
+    <tableColumn id="20" name="Burst" dataDxfId="9"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="8"/>
+    <tableColumn id="14" name="Weight" dataDxfId="7"/>
+    <tableColumn id="7" name="Single Use" dataDxfId="6"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="5"/>
+    <tableColumn id="2" name="Accuracy" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2183,18 +2219,18 @@
   </autoFilter>
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="86"/>
-    <tableColumn id="22" name="Balance" dataDxfId="85">
+    <tableColumn id="12" name="Vol." dataDxfId="90"/>
+    <tableColumn id="22" name="Balance" dataDxfId="89">
       <calculatedColumnFormula>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="84">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="88">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="83">
+    <tableColumn id="15" name="DPS" dataDxfId="87">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="82">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="86">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2204,7 +2240,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="81">
+    <tableColumn id="7" name="Burst Time" dataDxfId="85">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2238,18 +2274,18 @@
   </autoFilter>
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="78"/>
-    <tableColumn id="22" name="Balance" dataDxfId="77">
+    <tableColumn id="12" name="Vol." dataDxfId="82"/>
+    <tableColumn id="22" name="Balance" dataDxfId="81">
       <calculatedColumnFormula>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="76">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="80">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="75">
+    <tableColumn id="15" name="DPS" dataDxfId="79">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Damage]]*Table16[[#This Row],[Burst]])/(Table16[[#This Row],[Ranged Cooldown]]+Table16[[#This Row],[Warm-up]]+(Table16[[#This Row],[Burst Time]]*(Table16[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="74">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="78">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2259,17 +2295,17 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="73">
+    <tableColumn id="7" name="Burst Time" dataDxfId="77">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="72"/>
-    <tableColumn id="14" name="Weight" dataDxfId="71"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="70"/>
-    <tableColumn id="23" name="Value" dataDxfId="69"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="76"/>
+    <tableColumn id="14" name="Weight" dataDxfId="75"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="74"/>
+    <tableColumn id="23" name="Value" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2294,17 +2330,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="66">
+    <tableColumn id="22" name="Balance" dataDxfId="70">
       <calculatedColumnFormula>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="65">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="69">
       <calculatedColumnFormula>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="64">
+    <tableColumn id="15" name="DPS" dataDxfId="68">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="63">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="67">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2314,7 +2350,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="62">
+    <tableColumn id="7" name="Burst Time" dataDxfId="66">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2323,7 +2359,7 @@
     <tableColumn id="11" name="Accuracy (Long)"/>
     <tableColumn id="13" name="Bullet Speed"/>
     <tableColumn id="14" name="Weight"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="61"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="65"/>
     <tableColumn id="23" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2349,17 +2385,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="58">
+    <tableColumn id="22" name="Balance" dataDxfId="62">
       <calculatedColumnFormula>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="57">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="61">
       <calculatedColumnFormula>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="56">
+    <tableColumn id="15" name="DPS" dataDxfId="60">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="55">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="59">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2369,17 +2405,17 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="54">
+    <tableColumn id="7" name="Burst Time" dataDxfId="58">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="53"/>
-    <tableColumn id="14" name="Weight" dataDxfId="52"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="51"/>
-    <tableColumn id="23" name="Value" dataDxfId="50"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="57"/>
+    <tableColumn id="14" name="Weight" dataDxfId="56"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="55"/>
+    <tableColumn id="23" name="Value" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2404,17 +2440,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="48">
+    <tableColumn id="22" name="Balance" dataDxfId="52">
       <calculatedColumnFormula>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="47">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="51">
       <calculatedColumnFormula>SUM(Table1681015[[#This Row],[DPS]]*Table1681015[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="46">
+    <tableColumn id="15" name="DPS" dataDxfId="50">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Damage]]*Table1681015[[#This Row],[Burst]])/(Table1681015[[#This Row],[Ranged Cooldown]]+Table1681015[[#This Row],[Warm-up]]+(Table1681015[[#This Row],[Burst Time]]*(Table1681015[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="45">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="49">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Accuracy (Close)]]+Table1681015[[#This Row],[Accuracy (Short)]]+Table1681015[[#This Row],[Accuracy (Medium)]]+Table1681015[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2424,7 +2460,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="44">
+    <tableColumn id="7" name="Burst Time" dataDxfId="48">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2459,17 +2495,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="42">
+    <tableColumn id="22" name="Balance" dataDxfId="46">
       <calculatedColumnFormula>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="41">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="45">
       <calculatedColumnFormula>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="40">
+    <tableColumn id="15" name="DPS" dataDxfId="44">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="39">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="43">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2479,7 +2515,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="38">
+    <tableColumn id="7" name="Burst Time" dataDxfId="42">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2505,17 +2541,17 @@
   <tableColumns count="26">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="36">
+    <tableColumn id="22" name="Balance" dataDxfId="40">
       <calculatedColumnFormula>SUM(((Table1681011124[[#This Row],[Avg DPS]]*(Table1681011124[[#This Row],[Range]]))+(Table1681011124[[#This Row],[Avg DPS]]*Table1681011124[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="35">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="39">
       <calculatedColumnFormula>SUM(Table1681011124[[#This Row],[DPS]]*Table1681011124[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="34">
+    <tableColumn id="15" name="DPS" dataDxfId="38">
       <calculatedColumnFormula>SUM((Table1681011124[[#This Row],[Damage]]*Table1681011124[[#This Row],[Burst]])/(Table1681011124[[#This Row],[Ranged Cooldown]]+Table1681011124[[#This Row],[Warm-up]]+(Table1681011124[[#This Row],[Burst Time]]*(Table1681011124[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="33">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="37">
       <calculatedColumnFormula>SUM((Table1681011124[[#This Row],[Accuracy (Close)]]+Table1681011124[[#This Row],[Accuracy (Short)]]+Table1681011124[[#This Row],[Accuracy (Medium)]]+Table1681011124[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2525,7 +2561,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="32">
+    <tableColumn id="7" name="Burst Time" dataDxfId="36">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2563,17 +2599,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="30">
+    <tableColumn id="22" name="Balance" dataDxfId="34">
       <calculatedColumnFormula>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="29">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="33">
       <calculatedColumnFormula>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="28">
+    <tableColumn id="15" name="DPS" dataDxfId="32">
       <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="27">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="31">
       <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2583,7 +2619,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="26">
+    <tableColumn id="7" name="Burst Time" dataDxfId="30">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2887,7 +2923,7 @@
   <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2944,7 +2980,7 @@
         <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W2">
         <v>80.346000000000004</v>
@@ -3009,16 +3045,16 @@
         <v>17</v>
       </c>
       <c r="T3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="U3" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="V3" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickTop="1">
@@ -3087,7 +3123,7 @@
         <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W4">
         <v>139</v>
@@ -3095,7 +3131,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -3162,7 +3198,7 @@
         <v>0.71899999999999997</v>
       </c>
       <c r="V5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W5" s="54">
         <f>Table1689[[#This Row],[Balance]]*$W$2</f>
@@ -3171,7 +3207,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -3238,7 +3274,7 @@
         <v>0.90700000000000003</v>
       </c>
       <c r="V6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W6" s="54">
         <f>Table1689[[#This Row],[Balance]]*$W$2</f>
@@ -3247,7 +3283,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -3314,7 +3350,7 @@
         <v>1.19</v>
       </c>
       <c r="V7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W7" s="54">
         <f>Table1689[[#This Row],[Balance]]*$W$2</f>
@@ -3323,7 +3359,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -3390,7 +3426,7 @@
         <v>1.1990000000000001</v>
       </c>
       <c r="V8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W8" s="54">
         <f>Table1689[[#This Row],[Balance]]*$W$2</f>
@@ -3399,7 +3435,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -3466,7 +3502,7 @@
         <v>1.08</v>
       </c>
       <c r="V9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W9" s="54">
         <f>Table1689[[#This Row],[Balance]]*$W$2</f>
@@ -3475,7 +3511,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B10" s="4">
         <v>3</v>
@@ -3542,7 +3578,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="V10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W10" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -3551,7 +3587,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B11" s="4">
         <v>3</v>
@@ -3618,7 +3654,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="V11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W11" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -3627,7 +3663,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B12" s="4">
         <v>3</v>
@@ -3695,7 +3731,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="V12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W12" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -3704,7 +3740,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B13" s="4">
         <v>3</v>
@@ -3771,7 +3807,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="V13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W13" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -3780,7 +3816,7 @@
     </row>
     <row r="14" spans="1:23" s="4" customFormat="1">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B14" s="4">
         <v>3</v>
@@ -3847,7 +3883,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="V14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W14" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -3856,7 +3892,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B15" s="4">
         <v>3</v>
@@ -3923,7 +3959,7 @@
         <v>1.25</v>
       </c>
       <c r="V15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W15" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -3932,7 +3968,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B16" s="4">
         <v>3</v>
@@ -3999,7 +4035,7 @@
         <v>1.3</v>
       </c>
       <c r="V16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W16" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -4008,7 +4044,7 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B17" s="4">
         <v>3</v>
@@ -4075,7 +4111,7 @@
         <v>0.8</v>
       </c>
       <c r="V17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W17" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -4084,7 +4120,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B18" s="4">
         <v>3</v>
@@ -4151,7 +4187,7 @@
         <v>0.85</v>
       </c>
       <c r="V18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W18" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -4160,7 +4196,7 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B19" s="4">
         <v>3</v>
@@ -4227,7 +4263,7 @@
         <v>0.7</v>
       </c>
       <c r="V19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W19" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -4236,7 +4272,7 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B20" s="4">
         <v>3</v>
@@ -4303,7 +4339,7 @@
         <v>1.08</v>
       </c>
       <c r="V20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W20" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -4312,7 +4348,7 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B21" s="4">
         <v>3</v>
@@ -4379,7 +4415,7 @@
         <v>1.08</v>
       </c>
       <c r="V21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W21" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -4388,7 +4424,7 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -4455,7 +4491,7 @@
         <v>1.25</v>
       </c>
       <c r="V22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W22" s="54">
         <f>Table1689[[#This Row],[Balance]]*W2</f>
@@ -4562,12 +4598,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C26">
-    <cfRule type="cellIs" dxfId="94" priority="2" operator="greaterThan">
-      <formula>1.73</formula>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>1.731</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="93" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4615,13 +4651,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X1" s="41"/>
     </row>
@@ -4630,16 +4666,16 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N2" t="s">
         <v>174</v>
       </c>
-      <c r="N2" t="s">
-        <v>175</v>
-      </c>
       <c r="Q2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X2" s="41"/>
     </row>
@@ -4657,66 +4693,66 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N3" t="s">
+        <v>162</v>
+      </c>
+      <c r="O3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>171</v>
+      </c>
+      <c r="R3" t="s">
         <v>153</v>
       </c>
-      <c r="F3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K3" t="s">
-        <v>151</v>
-      </c>
-      <c r="L3" t="s">
-        <v>138</v>
-      </c>
-      <c r="M3" t="s">
-        <v>152</v>
-      </c>
-      <c r="N3" t="s">
-        <v>163</v>
-      </c>
-      <c r="O3" t="s">
-        <v>170</v>
-      </c>
-      <c r="P3" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
+        <v>126</v>
+      </c>
+      <c r="T3" t="s">
         <v>172</v>
       </c>
-      <c r="R3" t="s">
-        <v>154</v>
-      </c>
-      <c r="S3" t="s">
-        <v>127</v>
-      </c>
-      <c r="T3" t="s">
-        <v>173</v>
-      </c>
       <c r="U3" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15.75" thickTop="1">
       <c r="A4" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>35</v>
@@ -4752,7 +4788,7 @@
         <v>2</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P4" s="47">
         <f>IF(Table168101112133[[#This Row],[Extra Dam C%]]="N/A",0,SUM((Table168101112133[[#This Row],[Extra Dam C%]]*Table168101112133[[#This Row],[Extra Dam]])))</f>
@@ -4777,13 +4813,13 @@
         <v>0.85</v>
       </c>
       <c r="V4" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W4" s="52"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>35</v>
@@ -4813,7 +4849,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P5" s="47">
         <f>IF(Table168101112133[[#This Row],[Extra Dam C%]]="N/A",0,SUM((Table168101112133[[#This Row],[Extra Dam C%]]*Table168101112133[[#This Row],[Extra Dam]])))</f>
@@ -4838,13 +4874,13 @@
         <v>1.25</v>
       </c>
       <c r="V5" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W5" s="53"/>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>35</v>
@@ -4880,7 +4916,7 @@
         <v>2.6</v>
       </c>
       <c r="O6" s="47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P6" s="47">
         <f>IF(Table168101112133[[#This Row],[Extra Dam C%]]="N/A",0,SUM((Table168101112133[[#This Row],[Extra Dam C%]]*Table168101112133[[#This Row],[Extra Dam]])))</f>
@@ -4905,13 +4941,13 @@
         <v>2</v>
       </c>
       <c r="V6" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W6" s="52"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>35</v>
@@ -4947,7 +4983,7 @@
         <v>2</v>
       </c>
       <c r="O7" s="47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P7" s="47">
         <f>IF(Table168101112133[[#This Row],[Extra Dam C%]]="N/A",0,SUM((Table168101112133[[#This Row],[Extra Dam C%]]*Table168101112133[[#This Row],[Extra Dam]])))</f>
@@ -4970,13 +5006,13 @@
       </c>
       <c r="U7" s="46"/>
       <c r="V7" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W7" s="53"/>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>35</v>
@@ -5032,13 +5068,13 @@
       </c>
       <c r="U8" s="45"/>
       <c r="V8" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W8" s="52"/>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>35</v>
@@ -5462,7 +5498,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5524,7 +5560,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1">
@@ -5541,48 +5577,48 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
         <v>91</v>
       </c>
-      <c r="F3" t="s">
-        <v>92</v>
-      </c>
       <c r="G3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" t="s">
         <v>94</v>
-      </c>
-      <c r="K3" t="s">
-        <v>95</v>
       </c>
       <c r="L3" t="s">
         <v>5</v>
       </c>
       <c r="M3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="N3" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="O3" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="4" customFormat="1" ht="15.75" thickTop="1">
       <c r="A4" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>35</v>
@@ -5624,16 +5660,16 @@
         <v>1</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P4" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="36"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>35</v>
@@ -5675,16 +5711,16 @@
         <v>7</v>
       </c>
       <c r="O5" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="36" t="s">
         <v>87</v>
-      </c>
-      <c r="P5" s="36" t="s">
-        <v>88</v>
       </c>
       <c r="Q5" s="36"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>35</v>
@@ -5726,16 +5762,16 @@
         <v>8</v>
       </c>
       <c r="O6" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" s="36" t="s">
         <v>87</v>
-      </c>
-      <c r="P6" s="36" t="s">
-        <v>88</v>
       </c>
       <c r="Q6" s="36"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="12">
         <v>4</v>
@@ -5756,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I7" s="12">
         <v>1.5</v>
@@ -5777,16 +5813,16 @@
         <v>8</v>
       </c>
       <c r="O7" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="P7" s="33" t="s">
-        <v>88</v>
       </c>
       <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
@@ -5807,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I8" s="4">
         <v>4.5</v>
@@ -5828,16 +5864,16 @@
         <v>8</v>
       </c>
       <c r="O8" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" s="36" t="s">
         <v>87</v>
-      </c>
-      <c r="P8" s="36" t="s">
-        <v>88</v>
       </c>
       <c r="Q8" s="36"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -5879,16 +5915,16 @@
         <v>1</v>
       </c>
       <c r="O9" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q9" s="36"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -5930,16 +5966,16 @@
         <v>2.5</v>
       </c>
       <c r="O10" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="36"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -5981,16 +6017,16 @@
         <v>2</v>
       </c>
       <c r="O11" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="36"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -6032,16 +6068,16 @@
         <v>2</v>
       </c>
       <c r="O12" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="36"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -6083,16 +6119,16 @@
         <v>2</v>
       </c>
       <c r="O13" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P13" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="36"/>
     </row>
     <row r="14" spans="1:17" s="4" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -6134,16 +6170,16 @@
         <v>6</v>
       </c>
       <c r="O14" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P14" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="36"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B15" s="4">
         <v>2</v>
@@ -6185,18 +6221,18 @@
         <v>1</v>
       </c>
       <c r="O15" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P15" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q15" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16" s="4">
         <v>2</v>
@@ -6238,16 +6274,16 @@
         <v>1</v>
       </c>
       <c r="O16" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P16" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="36"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" s="4">
         <v>2</v>
@@ -6289,16 +6325,16 @@
         <v>1</v>
       </c>
       <c r="O17" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P17" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="36"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B18" s="4">
         <v>3</v>
@@ -6340,10 +6376,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P18" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="39"/>
     </row>
@@ -6922,19 +6958,19 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" t="s">
         <v>265</v>
       </c>
-      <c r="C1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>266</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>267</v>
-      </c>
-      <c r="F1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -6945,7 +6981,7 @@
         <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>53</v>
@@ -7342,7 +7378,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12">
         <f>COUNTIF(Misc!B:B, 1)</f>
@@ -7383,7 +7419,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13">
         <f>COUNTIF(HMG!B:B, 1)</f>
@@ -7427,22 +7463,22 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B15" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="41" t="s">
-        <v>88</v>
-      </c>
       <c r="D15" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="41" t="s">
         <v>87</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>88</v>
       </c>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
@@ -7490,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R17">
         <f>SUM(B17:P17)</f>
@@ -7499,7 +7535,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="56">
         <v>10</v>
@@ -7523,7 +7559,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -7558,110 +7594,110 @@
   <sheetData>
     <row r="3" spans="2:42">
       <c r="B3" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W3" s="43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X3" s="41"/>
       <c r="Y3" s="41"/>
     </row>
     <row r="4" spans="2:42">
       <c r="B4" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="D4" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="E4" t="s">
         <v>134</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L4" t="s">
         <v>135</v>
       </c>
-      <c r="G4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N4" t="s">
+        <v>138</v>
+      </c>
+      <c r="P4" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>145</v>
+      </c>
+      <c r="R4" t="s">
+        <v>146</v>
+      </c>
+      <c r="S4" t="s">
+        <v>147</v>
+      </c>
+      <c r="U4" t="s">
         <v>143</v>
       </c>
-      <c r="L4" t="s">
+      <c r="W4" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="X4" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y4" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH4" t="s">
         <v>136</v>
       </c>
-      <c r="M4" t="s">
-        <v>137</v>
-      </c>
-      <c r="N4" t="s">
-        <v>139</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="AI4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL4" t="s">
         <v>145</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="AM4" t="s">
         <v>146</v>
       </c>
-      <c r="R4" t="s">
+      <c r="AN4" t="s">
         <v>147</v>
       </c>
-      <c r="S4" t="s">
-        <v>148</v>
-      </c>
-      <c r="U4" t="s">
-        <v>144</v>
-      </c>
-      <c r="W4" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="X4" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y4" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>148</v>
-      </c>
       <c r="AP4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:42">
@@ -38622,22 +38658,22 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -38706,7 +38742,7 @@
         <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W2">
         <v>82.822000000000003</v>
@@ -38771,16 +38807,16 @@
         <v>17</v>
       </c>
       <c r="T3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="U3" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="V3" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickTop="1">
@@ -39312,7 +39348,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="87" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="1" operator="greaterThan">
       <formula>1.63</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39329,7 +39365,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39362,10 +39398,10 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W1">
         <v>137.065</v>
@@ -39381,6 +39417,9 @@
       <c r="E2" t="s">
         <v>21</v>
       </c>
+      <c r="H2" s="61" t="s">
+        <v>282</v>
+      </c>
       <c r="P2" t="s">
         <v>33</v>
       </c>
@@ -39391,7 +39430,7 @@
         <v>32</v>
       </c>
       <c r="T2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W2">
         <v>134.14599999999999</v>
@@ -39456,16 +39495,16 @@
         <v>17</v>
       </c>
       <c r="T3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="U3" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="V3" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickTop="1">
@@ -39538,7 +39577,7 @@
         <v>3.5</v>
       </c>
       <c r="V4" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W4" s="24">
         <v>355</v>
@@ -39614,7 +39653,7 @@
         <v>2.5</v>
       </c>
       <c r="V5" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W5" s="25">
         <v>220</v>
@@ -39690,7 +39729,7 @@
         <v>2.88</v>
       </c>
       <c r="V6" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W6" s="58">
         <f>Table16[[#This Row],[Balance]]*$W$1</f>
@@ -39767,7 +39806,7 @@
         <v>3.4</v>
       </c>
       <c r="V7" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W7" s="58">
         <f>Table16[[#This Row],[Balance]]*$W$1</f>
@@ -39775,8 +39814,8 @@
       </c>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="4" t="s">
-        <v>106</v>
+      <c r="A8" s="61" t="s">
+        <v>105</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
@@ -39844,7 +39883,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="V8" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W8" s="58">
         <f>Table16[[#This Row],[Balance]]*$W$2</f>
@@ -39852,7 +39891,7 @@
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="12">
@@ -39921,7 +39960,7 @@
         <v>2.6</v>
       </c>
       <c r="V9" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W9" s="58">
         <f>Table16[[#This Row],[Balance]]*$W$2</f>
@@ -39929,7 +39968,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" s="4" customFormat="1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="62" t="s">
         <v>60</v>
       </c>
       <c r="B10" s="12">
@@ -39998,7 +40037,7 @@
         <v>2.1</v>
       </c>
       <c r="V10" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W10" s="58">
         <f>Table16[[#This Row],[Balance]]*$W$2</f>
@@ -40007,7 +40046,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="12">
         <v>1</v>
@@ -40075,7 +40114,7 @@
         <v>3.2</v>
       </c>
       <c r="V11" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W11" s="58">
         <f>Table16[[#This Row],[Balance]]*$W$1</f>
@@ -40084,7 +40123,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" s="12">
         <v>1</v>
@@ -40151,7 +40190,7 @@
         <v>2.78</v>
       </c>
       <c r="V12" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W12" s="58">
         <f>Table16[[#This Row],[Balance]]*$W$1</f>
@@ -40160,7 +40199,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="12">
         <v>1</v>
@@ -40228,7 +40267,7 @@
         <v>3.12</v>
       </c>
       <c r="V13" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W13" s="58">
         <f>Table16[[#This Row],[Balance]]*$W$1</f>
@@ -40237,7 +40276,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="12">
         <v>1</v>
@@ -40305,7 +40344,7 @@
         <v>3.97</v>
       </c>
       <c r="V14" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W14" s="58">
         <f>Table16[[#This Row],[Balance]]*$W$1</f>
@@ -40313,8 +40352,8 @@
       </c>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" t="s">
-        <v>119</v>
+      <c r="A15" s="61" t="s">
+        <v>118</v>
       </c>
       <c r="B15" s="12">
         <v>1</v>
@@ -40382,7 +40421,7 @@
         <v>2.6</v>
       </c>
       <c r="V15" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W15" s="58">
         <f>Table16[[#This Row],[Balance]]*$W$1</f>
@@ -40391,7 +40430,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" s="12">
         <v>2</v>
@@ -40459,7 +40498,7 @@
         <v>3.7</v>
       </c>
       <c r="V16" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W16" s="58">
         <f>Table16[[#This Row],[Balance]]*$W$1</f>
@@ -40468,7 +40507,7 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" s="12">
         <v>2</v>
@@ -40536,7 +40575,7 @@
         <v>3.23</v>
       </c>
       <c r="V17" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W17" s="58">
         <f>Table16[[#This Row],[Balance]]*$W$1</f>
@@ -40545,7 +40584,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" s="13">
         <v>2</v>
@@ -40613,7 +40652,7 @@
         <v>3.4</v>
       </c>
       <c r="V18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W18" s="58">
         <f>Table16[[#This Row],[Balance]]*$W$1</f>
@@ -40950,12 +40989,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C32">
-    <cfRule type="cellIs" dxfId="80" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="2" operator="greaterThan">
       <formula>2.599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40971,8 +41010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:W21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41012,10 +41051,10 @@
         <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V1" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="W1">
         <v>150.47</v>
@@ -41031,6 +41070,9 @@
       <c r="E2" t="s">
         <v>21</v>
       </c>
+      <c r="I2" s="5" t="s">
+        <v>283</v>
+      </c>
       <c r="P2" t="s">
         <v>33</v>
       </c>
@@ -41041,7 +41083,7 @@
         <v>32</v>
       </c>
       <c r="V2" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W2">
         <v>90.105999999999995</v>
@@ -41106,16 +41148,16 @@
         <v>17</v>
       </c>
       <c r="T3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" t="s">
         <v>73</v>
       </c>
-      <c r="U3" t="s">
-        <v>74</v>
-      </c>
       <c r="V3" s="41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -41265,7 +41307,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -41333,7 +41375,7 @@
         <v>3.49</v>
       </c>
       <c r="V6" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W6" s="54">
         <f>C6*$W$1</f>
@@ -41410,7 +41452,7 @@
         <v>5.21</v>
       </c>
       <c r="V7" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W7" s="54">
         <f t="shared" ref="W7:W14" si="1">C7*$W$1</f>
@@ -41419,7 +41461,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -41487,7 +41529,7 @@
         <v>3.62</v>
       </c>
       <c r="V8" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W8" s="54">
         <f t="shared" si="1"/>
@@ -41496,7 +41538,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -41564,7 +41606,7 @@
         <v>3.01</v>
       </c>
       <c r="V9" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W9" s="54">
         <f t="shared" si="1"/>
@@ -41641,7 +41683,7 @@
         <v>4.01</v>
       </c>
       <c r="V10" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W10" s="54">
         <f t="shared" si="1"/>
@@ -41650,7 +41692,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -41718,7 +41760,7 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="V11" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W11" s="54">
         <f t="shared" si="1"/>
@@ -41727,7 +41769,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -41795,7 +41837,7 @@
         <v>5.4</v>
       </c>
       <c r="V12" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W12" s="54">
         <f t="shared" si="1"/>
@@ -41804,7 +41846,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -41872,7 +41914,7 @@
         <v>5.62</v>
       </c>
       <c r="V13" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W13" s="54">
         <f t="shared" si="1"/>
@@ -41949,7 +41991,7 @@
         <v>5.4</v>
       </c>
       <c r="V14" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W14" s="54">
         <f t="shared" si="1"/>
@@ -41958,7 +42000,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -42026,7 +42068,7 @@
         <v>3.4</v>
       </c>
       <c r="V15" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W15">
         <v>480</v>
@@ -42034,7 +42076,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -42102,7 +42144,7 @@
         <v>3.63</v>
       </c>
       <c r="V16" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W16">
         <v>480</v>
@@ -42110,7 +42152,7 @@
     </row>
     <row r="17" spans="1:23" s="4" customFormat="1">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -42178,7 +42220,7 @@
         <v>3.3</v>
       </c>
       <c r="V17" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W17">
         <v>530</v>
@@ -42186,7 +42228,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -42253,7 +42295,7 @@
         <v>3.21</v>
       </c>
       <c r="V18" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W18" s="54">
         <f>C18*$W$1</f>
@@ -42262,7 +42304,7 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -42330,7 +42372,7 @@
         <v>4.2</v>
       </c>
       <c r="V19" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W19" s="54">
         <f>C19*$W$1</f>
@@ -42339,7 +42381,7 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="7">
         <v>1</v>
@@ -42407,7 +42449,7 @@
         <v>3.5</v>
       </c>
       <c r="V20" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W20" s="54">
         <f>C20*$W$1</f>
@@ -42415,8 +42457,8 @@
       </c>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" t="s">
-        <v>96</v>
+      <c r="A21" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -42483,7 +42525,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="V21" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W21" s="54">
         <f>C21*$W$2</f>
@@ -42491,8 +42533,8 @@
       </c>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" t="s">
-        <v>97</v>
+      <c r="A22" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -42559,7 +42601,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="V22" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W22" s="54">
         <f>C22*$W$2</f>
@@ -42568,7 +42610,7 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -42635,7 +42677,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="V23" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W23">
         <v>245</v>
@@ -42643,7 +42685,7 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -42710,7 +42752,7 @@
         <v>4</v>
       </c>
       <c r="V24" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W24">
         <v>410</v>
@@ -42718,7 +42760,7 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -42786,7 +42828,7 @@
         <v>3.6</v>
       </c>
       <c r="V25" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W25">
         <v>455</v>
@@ -42794,7 +42836,7 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -42862,7 +42904,7 @@
         <v>3.7</v>
       </c>
       <c r="V26" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W26">
         <v>460</v>
@@ -42870,7 +42912,7 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -42937,7 +42979,7 @@
         <v>4</v>
       </c>
       <c r="V27" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W27">
         <v>410</v>
@@ -42945,7 +42987,7 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -43012,7 +43054,7 @@
         <v>3.1</v>
       </c>
       <c r="V28" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W28">
         <v>185</v>
@@ -43020,7 +43062,7 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -43088,7 +43130,7 @@
         <v>3.4</v>
       </c>
       <c r="V29" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W29">
         <v>435</v>
@@ -43096,7 +43138,7 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B30" s="12">
         <v>3</v>
@@ -43164,7 +43206,7 @@
         <v>3.3</v>
       </c>
       <c r="V30" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W30" s="54">
         <f>Table16810[[#This Row],[Balance]]*W1</f>
@@ -43173,7 +43215,7 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B31" s="41">
         <v>3</v>
@@ -43241,7 +43283,7 @@
         <v>3.6</v>
       </c>
       <c r="V31" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W31" s="54">
         <f>Table16810[[#This Row],[Balance]]*W1</f>
@@ -43250,7 +43292,7 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B32" s="41">
         <v>3</v>
@@ -43318,7 +43360,7 @@
         <v>3.7</v>
       </c>
       <c r="V32" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W32" s="54">
         <f>Table16810[[#This Row],[Balance]]*W1</f>
@@ -43327,7 +43369,7 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B33" s="41">
         <v>3</v>
@@ -43395,7 +43437,7 @@
         <v>3.75</v>
       </c>
       <c r="V33" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W33" s="54">
         <f>Table16810[[#This Row],[Balance]]*W1</f>
@@ -43404,7 +43446,7 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B34" s="41">
         <v>3</v>
@@ -43472,7 +43514,7 @@
         <v>2.6</v>
       </c>
       <c r="V34" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W34" s="54">
         <f>Table16810[[#This Row],[Balance]]*W1</f>
@@ -43481,7 +43523,7 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B35" s="41">
         <v>3</v>
@@ -43549,7 +43591,7 @@
         <v>4</v>
       </c>
       <c r="V35" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W35" s="54">
         <f>Table16810[[#This Row],[Balance]]*W1</f>
@@ -43558,7 +43600,7 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B36" s="41">
         <v>3</v>
@@ -43626,7 +43668,7 @@
         <v>3.3</v>
       </c>
       <c r="V36" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W36" s="54">
         <f>Table16810[[#This Row],[Balance]]*W1</f>
@@ -45567,12 +45609,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C997">
-    <cfRule type="cellIs" dxfId="68" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="2" operator="greaterThan">
       <formula>3.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O123">
-    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45625,7 +45667,7 @@
         <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -45648,7 +45690,7 @@
         <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W2">
         <v>201.52</v>
@@ -45713,16 +45755,16 @@
         <v>17</v>
       </c>
       <c r="T3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="U3" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="V3" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickTop="1">
@@ -45792,7 +45834,7 @@
       </c>
       <c r="U4" s="18"/>
       <c r="V4" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W4" s="24">
         <v>530</v>
@@ -45800,7 +45842,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
@@ -45867,7 +45909,7 @@
         <v>13.5</v>
       </c>
       <c r="V5" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W5" s="25">
         <v>650</v>
@@ -45936,7 +45978,7 @@
         <v>0.87</v>
       </c>
       <c r="V6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W6" s="58">
         <f>Table1681011[[#This Row],[Balance]]*W2</f>
@@ -45945,7 +45987,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -46012,7 +46054,7 @@
         <v>7.54</v>
       </c>
       <c r="V7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W7" s="58">
         <f>Table1681011[[#This Row],[Balance]]*W2</f>
@@ -46021,7 +46063,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -46088,7 +46130,7 @@
         <v>3.1</v>
       </c>
       <c r="V8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W8" s="58">
         <f>Table1681011[[#This Row],[Balance]]*W2</f>
@@ -46097,7 +46139,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
@@ -46164,7 +46206,7 @@
         <v>4.75</v>
       </c>
       <c r="V9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W9" s="25">
         <v>530</v>
@@ -46172,7 +46214,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B10" s="4">
         <v>3</v>
@@ -46239,7 +46281,7 @@
         <v>6.2</v>
       </c>
       <c r="V10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W10" s="54">
         <f>Table1681011[[#This Row],[Balance]]*W2</f>
@@ -46248,7 +46290,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B11" s="4">
         <v>3</v>
@@ -46315,7 +46357,7 @@
         <v>12.4</v>
       </c>
       <c r="V11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W11" s="54">
         <v>750</v>
@@ -46323,7 +46365,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B12" s="4">
         <v>3</v>
@@ -46390,7 +46432,7 @@
         <v>3.3</v>
       </c>
       <c r="V12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W12" s="54">
         <f>Table1681011[[#This Row],[Balance]]*W2</f>
@@ -46399,7 +46441,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -46466,7 +46508,7 @@
         <v>4.3</v>
       </c>
       <c r="V13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W13" s="54">
         <f>Table1681011[[#This Row],[Balance]]*W2</f>
@@ -46475,7 +46517,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -46542,7 +46584,7 @@
         <v>5</v>
       </c>
       <c r="V14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W14" s="54">
         <f>Table1681011[[#This Row],[Balance]]*W2</f>
@@ -46551,7 +46593,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -46618,7 +46660,7 @@
         <v>4.2</v>
       </c>
       <c r="V15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W15" s="54">
         <f>Table1681011[[#This Row],[Balance]]*W2</f>
@@ -46627,7 +46669,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -46694,7 +46736,7 @@
         <v>3.6</v>
       </c>
       <c r="V16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W16" s="54">
         <f>Table1681011[[#This Row],[Balance]]*W2</f>
@@ -46703,7 +46745,7 @@
     </row>
     <row r="17" spans="1:23" s="4" customFormat="1">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -46770,7 +46812,7 @@
         <v>6.3</v>
       </c>
       <c r="V17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W17" s="54">
         <f>Table1681011[[#This Row],[Balance]]*W2</f>
@@ -46779,7 +46821,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -46846,7 +46888,7 @@
         <v>27</v>
       </c>
       <c r="V18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W18" s="22">
         <v>1500</v>
@@ -46892,12 +46934,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="60" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="2" operator="greaterThan">
       <formula>2.639</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46914,7 +46956,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -46970,7 +47012,7 @@
         <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W2">
         <v>228.506</v>
@@ -47035,16 +47077,16 @@
         <v>17</v>
       </c>
       <c r="T3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" t="s">
         <v>73</v>
       </c>
-      <c r="U3" t="s">
-        <v>74</v>
-      </c>
       <c r="V3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -47116,7 +47158,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>35</v>
@@ -47836,7 +47878,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C32">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="greaterThan">
       <formula>4.429</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47852,8 +47894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:W7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -47891,10 +47933,10 @@
         <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V1" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W1">
         <v>172.06399999999999</v>
@@ -47920,7 +47962,7 @@
         <v>32</v>
       </c>
       <c r="V2" s="41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W2">
         <v>331.428</v>
@@ -47985,16 +48027,16 @@
         <v>17</v>
       </c>
       <c r="T3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" t="s">
         <v>73</v>
       </c>
-      <c r="U3" t="s">
-        <v>74</v>
-      </c>
       <c r="V3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -48067,7 +48109,7 @@
         <v>8.5</v>
       </c>
       <c r="V4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W4">
         <v>425</v>
@@ -48143,7 +48185,7 @@
         <v>10</v>
       </c>
       <c r="V5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W5">
         <v>1160</v>
@@ -48219,7 +48261,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="V6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W6" s="54">
         <f>Table168101112[[#This Row],[Balance]]*W1</f>
@@ -48296,7 +48338,7 @@
         <v>11.5</v>
       </c>
       <c r="V7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W7" s="54">
         <f>Table168101112[[#This Row],[Balance]]*$W$1</f>
@@ -48305,7 +48347,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -48373,7 +48415,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="V8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W8" s="54">
         <f>Table168101112[[#This Row],[Balance]]*$W$1</f>
@@ -48382,7 +48424,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>281</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -48450,7 +48492,7 @@
         <v>10.1</v>
       </c>
       <c r="V9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W9" s="54">
         <f>Table168101112[[#This Row],[Balance]]*$W$1</f>
@@ -48527,7 +48569,7 @@
         <v>14.4</v>
       </c>
       <c r="V10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W10" s="54">
         <f>Table168101112[[#This Row],[Balance]]*$W$1</f>
@@ -48536,7 +48578,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -48604,7 +48646,7 @@
         <v>8.9</v>
       </c>
       <c r="V11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W11" s="54">
         <f>Table168101112[[#This Row],[Balance]]*$W$1</f>
@@ -48613,7 +48655,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B12" s="4">
         <v>3</v>
@@ -48681,7 +48723,7 @@
         <v>11.5</v>
       </c>
       <c r="V12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W12" s="54">
         <f>Table168101112[[#This Row],[Balance]]*W1</f>
@@ -48904,7 +48946,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C20">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="greaterThan">
       <formula>3.51</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48959,25 +49001,25 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J1" t="s">
         <v>250</v>
       </c>
-      <c r="J1" t="s">
-        <v>251</v>
-      </c>
       <c r="M1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="V1" s="41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W1">
         <v>250</v>
@@ -48997,10 +49039,10 @@
         <v>33</v>
       </c>
       <c r="Q2" t="s">
+        <v>247</v>
+      </c>
+      <c r="R2" t="s">
         <v>248</v>
-      </c>
-      <c r="R2" t="s">
-        <v>249</v>
       </c>
       <c r="S2" t="s">
         <v>32</v>
@@ -49066,30 +49108,30 @@
         <v>17</v>
       </c>
       <c r="T3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" t="s">
         <v>73</v>
       </c>
-      <c r="U3" t="s">
-        <v>74</v>
-      </c>
       <c r="V3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Y3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Z3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B4" s="12">
         <v>4</v>
@@ -49157,24 +49199,24 @@
         <v>19</v>
       </c>
       <c r="V4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W4">
         <v>755</v>
       </c>
       <c r="X4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y4" s="57" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Z4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B5" s="12">
         <v>4</v>
@@ -49242,21 +49284,21 @@
         <v>29</v>
       </c>
       <c r="V5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W5">
         <v>965</v>
       </c>
       <c r="Y5" s="57" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Z5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B6" s="4">
         <v>4</v>
@@ -49324,21 +49366,21 @@
         <v>58</v>
       </c>
       <c r="V6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W6">
         <v>1050</v>
       </c>
       <c r="Y6" s="57" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Z6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B7" s="4">
         <v>4</v>
@@ -49367,21 +49409,21 @@
         <v>39</v>
       </c>
       <c r="V7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W7" s="54"/>
       <c r="X7" s="54"/>
       <c r="Y7" s="54"/>
       <c r="Z7" s="54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C8" s="2" t="e">
         <f>SUM(((Table1681011124[[#This Row],[Avg DPS]]*(Table1681011124[[#This Row],[Range]]))+(Table1681011124[[#This Row],[Avg DPS]]*Table1681011124[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -49407,18 +49449,18 @@
         <v>16.600000000000001</v>
       </c>
       <c r="V8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C9" s="2" t="e">
         <f>SUM(((Table1681011124[[#This Row],[Avg DPS]]*(Table1681011124[[#This Row],[Range]]))+(Table1681011124[[#This Row],[Avg DPS]]*Table1681011124[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -49444,10 +49486,10 @@
         <v>26.6</v>
       </c>
       <c r="V9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -49638,7 +49680,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
       <formula>3.51</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49691,7 +49733,7 @@
         <v>68</v>
       </c>
       <c r="V1" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W1">
         <v>132.124</v>
@@ -49717,7 +49759,7 @@
         <v>32</v>
       </c>
       <c r="V2" s="41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="W2">
         <v>145.68299999999999</v>
@@ -49782,16 +49824,16 @@
         <v>17</v>
       </c>
       <c r="T3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="U3" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="V3" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickTop="1">
@@ -49861,7 +49903,7 @@
       </c>
       <c r="U4" s="18"/>
       <c r="V4" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W4" s="24">
         <v>255</v>
@@ -49934,7 +49976,7 @@
       </c>
       <c r="U5" s="20"/>
       <c r="V5" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W5" s="25">
         <v>405</v>
@@ -49942,7 +49984,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -50009,7 +50051,7 @@
         <v>3.4</v>
       </c>
       <c r="V6" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W6" s="59">
         <f>Table16810111213[[#This Row],[Balance]]*W1</f>
@@ -50348,7 +50390,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
       <formula>2.789</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Handgun" sheetId="8" r:id="rId1"/>
@@ -509,9 +509,6 @@
     <t>Gladis</t>
   </si>
   <si>
-    <t>LEAVE DAMAGE 2, 3 AND 4, BLANK IF NOTS USED (E.G. HANDLE, STAB, CUT)</t>
-  </si>
-  <si>
     <t>Misc</t>
   </si>
   <si>
@@ -880,6 +877,9 @@
   <si>
     <t>Bolt Action are Purple</t>
   </si>
+  <si>
+    <t>LEAVE DAMAGE 2, 3 AND 4, BLANK IF NOT USED (E.G. HANDLE, STAB, CUT)</t>
+  </si>
 </sst>
 </file>
 
@@ -1084,7 +1084,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1168,38 +1168,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="97">
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
-    </dxf>
+  <dxfs count="95">
     <dxf>
       <font>
         <b val="0"/>
@@ -2034,6 +2009,19 @@
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2063,17 +2051,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="96">
+    <tableColumn id="22" name="Balance" dataDxfId="92">
       <calculatedColumnFormula>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="95">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="91">
       <calculatedColumnFormula>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="94">
+    <tableColumn id="15" name="DPS" dataDxfId="90">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="93">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="89">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2083,7 +2071,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="92">
+    <tableColumn id="7" name="Burst Time" dataDxfId="88">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2119,13 +2107,13 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="28">
+    <tableColumn id="22" name="Balance" dataDxfId="24">
       <calculatedColumnFormula>SUM(((Table168101112133[[#This Row],[DPS]]*Table168101112133[[#This Row],[Avg Cooldown]])+((Table168101112133[[#This Row],[DPS]]*(Table168101112133[[#This Row],[HPM]])))+P4)/100)+(Table168101112133[[#This Row],[ArmPen+]]/5)+(Table168101112133[[#This Row],[ExtraDamFactor]]/20)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="27">
+    <tableColumn id="15" name="DPS" dataDxfId="23">
       <calculatedColumnFormula>SUM(Table168101112133[[#This Row],[Avg DAM]]*Table168101112133[[#This Row],[HPS]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Avg DAM" dataDxfId="26">
+    <tableColumn id="3" name="Avg DAM" dataDxfId="22">
       <calculatedColumnFormula>Formulas!U5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage 1"/>
@@ -2137,23 +2125,23 @@
     <tableColumn id="25" name="Damage 4"/>
     <tableColumn id="30" name="Cooldown 4"/>
     <tableColumn id="34" name="Extra Dam"/>
-    <tableColumn id="32" name="Extra Dam C%" dataDxfId="25"/>
-    <tableColumn id="33" name="ExtraDamFactor" dataDxfId="24">
+    <tableColumn id="32" name="Extra Dam C%" dataDxfId="21"/>
+    <tableColumn id="33" name="ExtraDamFactor" dataDxfId="20">
       <calculatedColumnFormula>IF(Table168101112133[[#This Row],[Extra Dam C%]]="N/A",0,SUM((Table168101112133[[#This Row],[Extra Dam C%]]*Table168101112133[[#This Row],[Extra Dam]])))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="31" name="ArmPen+"/>
-    <tableColumn id="4" name="Avg Cooldown" dataDxfId="23">
+    <tableColumn id="4" name="Avg Cooldown" dataDxfId="19">
       <calculatedColumnFormula>Formulas!AP5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="HPM" dataDxfId="22">
+    <tableColumn id="6" name="HPM" dataDxfId="18">
       <calculatedColumnFormula>SUM(60/Table168101112133[[#This Row],[Avg Cooldown]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="HPS" dataDxfId="21">
+    <tableColumn id="7" name="HPS" dataDxfId="17">
       <calculatedColumnFormula>SUM(Table168101112133[[#This Row],[HPM]]/60)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Weight" dataDxfId="20"/>
+    <tableColumn id="14" name="Weight" dataDxfId="16"/>
     <tableColumn id="21" name="Craftable"/>
-    <tableColumn id="5" name="Value" dataDxfId="19"/>
+    <tableColumn id="5" name="Value" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2181,21 +2169,21 @@
   <tableColumns count="17">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="3" name="Range" dataDxfId="18"/>
-    <tableColumn id="4" name="Damage" dataDxfId="17"/>
-    <tableColumn id="5" name="AP" dataDxfId="16"/>
-    <tableColumn id="6" name="Stopping Power" dataDxfId="15"/>
-    <tableColumn id="15" name="ForcedMiss" dataDxfId="14"/>
-    <tableColumn id="11" name="DetDelay" dataDxfId="13"/>
-    <tableColumn id="10" name="Blast Range" dataDxfId="12"/>
-    <tableColumn id="8" name="Warm-Up" dataDxfId="11"/>
-    <tableColumn id="9" name="Cooldown" dataDxfId="10"/>
-    <tableColumn id="20" name="Burst" dataDxfId="9"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="8"/>
-    <tableColumn id="14" name="Weight" dataDxfId="7"/>
-    <tableColumn id="7" name="Single Use" dataDxfId="6"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="5"/>
-    <tableColumn id="2" name="Accuracy" dataDxfId="4"/>
+    <tableColumn id="3" name="Range" dataDxfId="14"/>
+    <tableColumn id="4" name="Damage" dataDxfId="13"/>
+    <tableColumn id="5" name="AP" dataDxfId="12"/>
+    <tableColumn id="6" name="Stopping Power" dataDxfId="11"/>
+    <tableColumn id="15" name="ForcedMiss" dataDxfId="10"/>
+    <tableColumn id="11" name="DetDelay" dataDxfId="9"/>
+    <tableColumn id="10" name="Blast Range" dataDxfId="8"/>
+    <tableColumn id="8" name="Warm-Up" dataDxfId="7"/>
+    <tableColumn id="9" name="Cooldown" dataDxfId="6"/>
+    <tableColumn id="20" name="Burst" dataDxfId="5"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="4"/>
+    <tableColumn id="14" name="Weight" dataDxfId="3"/>
+    <tableColumn id="7" name="Single Use" dataDxfId="2"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="1"/>
+    <tableColumn id="2" name="Accuracy" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2219,18 +2207,18 @@
   </autoFilter>
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="90"/>
-    <tableColumn id="22" name="Balance" dataDxfId="89">
+    <tableColumn id="12" name="Vol." dataDxfId="86"/>
+    <tableColumn id="22" name="Balance" dataDxfId="85">
       <calculatedColumnFormula>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="88">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="84">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="87">
+    <tableColumn id="15" name="DPS" dataDxfId="83">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="86">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="82">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2240,7 +2228,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="85">
+    <tableColumn id="7" name="Burst Time" dataDxfId="81">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2274,18 +2262,18 @@
   </autoFilter>
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="82"/>
-    <tableColumn id="22" name="Balance" dataDxfId="81">
+    <tableColumn id="12" name="Vol." dataDxfId="78"/>
+    <tableColumn id="22" name="Balance" dataDxfId="77">
       <calculatedColumnFormula>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="80">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="76">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="79">
+    <tableColumn id="15" name="DPS" dataDxfId="75">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Damage]]*Table16[[#This Row],[Burst]])/(Table16[[#This Row],[Ranged Cooldown]]+Table16[[#This Row],[Warm-up]]+(Table16[[#This Row],[Burst Time]]*(Table16[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="78">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="74">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2295,17 +2283,17 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="77">
+    <tableColumn id="7" name="Burst Time" dataDxfId="73">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="76"/>
-    <tableColumn id="14" name="Weight" dataDxfId="75"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="74"/>
-    <tableColumn id="23" name="Value" dataDxfId="73"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="72"/>
+    <tableColumn id="14" name="Weight" dataDxfId="71"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="70"/>
+    <tableColumn id="23" name="Value" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2330,17 +2318,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="70">
+    <tableColumn id="22" name="Balance" dataDxfId="66">
       <calculatedColumnFormula>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="69">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="65">
       <calculatedColumnFormula>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="68">
+    <tableColumn id="15" name="DPS" dataDxfId="64">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="67">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="63">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2350,7 +2338,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="66">
+    <tableColumn id="7" name="Burst Time" dataDxfId="62">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2359,7 +2347,7 @@
     <tableColumn id="11" name="Accuracy (Long)"/>
     <tableColumn id="13" name="Bullet Speed"/>
     <tableColumn id="14" name="Weight"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="65"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="61"/>
     <tableColumn id="23" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2385,17 +2373,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="62">
+    <tableColumn id="22" name="Balance" dataDxfId="58">
       <calculatedColumnFormula>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="61">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="57">
       <calculatedColumnFormula>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="60">
+    <tableColumn id="15" name="DPS" dataDxfId="56">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="59">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="55">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2405,17 +2393,17 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="58">
+    <tableColumn id="7" name="Burst Time" dataDxfId="54">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="57"/>
-    <tableColumn id="14" name="Weight" dataDxfId="56"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="55"/>
-    <tableColumn id="23" name="Value" dataDxfId="54"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="53"/>
+    <tableColumn id="14" name="Weight" dataDxfId="52"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="51"/>
+    <tableColumn id="23" name="Value" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2440,17 +2428,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="52">
+    <tableColumn id="22" name="Balance" dataDxfId="48">
       <calculatedColumnFormula>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="51">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="47">
       <calculatedColumnFormula>SUM(Table1681015[[#This Row],[DPS]]*Table1681015[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="50">
+    <tableColumn id="15" name="DPS" dataDxfId="46">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Damage]]*Table1681015[[#This Row],[Burst]])/(Table1681015[[#This Row],[Ranged Cooldown]]+Table1681015[[#This Row],[Warm-up]]+(Table1681015[[#This Row],[Burst Time]]*(Table1681015[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="49">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="45">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Accuracy (Close)]]+Table1681015[[#This Row],[Accuracy (Short)]]+Table1681015[[#This Row],[Accuracy (Medium)]]+Table1681015[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2460,7 +2448,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="48">
+    <tableColumn id="7" name="Burst Time" dataDxfId="44">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2495,17 +2483,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="46">
+    <tableColumn id="22" name="Balance" dataDxfId="42">
       <calculatedColumnFormula>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="45">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="41">
       <calculatedColumnFormula>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="44">
+    <tableColumn id="15" name="DPS" dataDxfId="40">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="43">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="39">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2515,7 +2503,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="42">
+    <tableColumn id="7" name="Burst Time" dataDxfId="38">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2541,17 +2529,17 @@
   <tableColumns count="26">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="40">
+    <tableColumn id="22" name="Balance" dataDxfId="36">
       <calculatedColumnFormula>SUM(((Table1681011124[[#This Row],[Avg DPS]]*(Table1681011124[[#This Row],[Range]]))+(Table1681011124[[#This Row],[Avg DPS]]*Table1681011124[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="39">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="35">
       <calculatedColumnFormula>SUM(Table1681011124[[#This Row],[DPS]]*Table1681011124[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="38">
+    <tableColumn id="15" name="DPS" dataDxfId="34">
       <calculatedColumnFormula>SUM((Table1681011124[[#This Row],[Damage]]*Table1681011124[[#This Row],[Burst]])/(Table1681011124[[#This Row],[Ranged Cooldown]]+Table1681011124[[#This Row],[Warm-up]]+(Table1681011124[[#This Row],[Burst Time]]*(Table1681011124[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="37">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="33">
       <calculatedColumnFormula>SUM((Table1681011124[[#This Row],[Accuracy (Close)]]+Table1681011124[[#This Row],[Accuracy (Short)]]+Table1681011124[[#This Row],[Accuracy (Medium)]]+Table1681011124[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2561,7 +2549,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="36">
+    <tableColumn id="7" name="Burst Time" dataDxfId="32">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2599,17 +2587,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="34">
+    <tableColumn id="22" name="Balance" dataDxfId="30">
       <calculatedColumnFormula>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="33">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="29">
       <calculatedColumnFormula>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="32">
+    <tableColumn id="15" name="DPS" dataDxfId="28">
       <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="31">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="27">
       <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2619,7 +2607,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="30">
+    <tableColumn id="7" name="Burst Time" dataDxfId="26">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2923,7 +2911,7 @@
   <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2980,7 +2968,7 @@
         <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W2">
         <v>80.346000000000004</v>
@@ -3054,7 +3042,7 @@
         <v>85</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickTop="1">
@@ -3511,7 +3499,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B10" s="4">
         <v>3</v>
@@ -3587,7 +3575,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B11" s="4">
         <v>3</v>
@@ -3663,7 +3651,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B12" s="4">
         <v>3</v>
@@ -3740,7 +3728,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B13" s="4">
         <v>3</v>
@@ -3816,7 +3804,7 @@
     </row>
     <row r="14" spans="1:23" s="4" customFormat="1">
       <c r="A14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B14" s="4">
         <v>3</v>
@@ -3892,7 +3880,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B15" s="4">
         <v>3</v>
@@ -3968,7 +3956,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B16" s="4">
         <v>3</v>
@@ -4044,7 +4032,7 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B17" s="4">
         <v>3</v>
@@ -4120,7 +4108,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B18" s="4">
         <v>3</v>
@@ -4196,7 +4184,7 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B19" s="4">
         <v>3</v>
@@ -4272,7 +4260,7 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B20" s="4">
         <v>3</v>
@@ -4348,7 +4336,7 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B21" s="4">
         <v>3</v>
@@ -4424,7 +4412,7 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -4598,12 +4586,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C26">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="2" operator="greaterThan">
       <formula>1.731</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4619,8 +4607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4651,13 +4639,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>160</v>
+        <v>283</v>
       </c>
       <c r="Q1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X1" s="41"/>
     </row>
@@ -4666,16 +4654,16 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
+        <v>172</v>
+      </c>
+      <c r="N2" t="s">
         <v>173</v>
       </c>
-      <c r="N2" t="s">
-        <v>174</v>
-      </c>
       <c r="Q2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X2" s="41"/>
     </row>
@@ -4720,16 +4708,16 @@
         <v>151</v>
       </c>
       <c r="N3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P3" t="s">
         <v>169</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>170</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>171</v>
       </c>
       <c r="R3" t="s">
         <v>153</v>
@@ -4738,7 +4726,7 @@
         <v>126</v>
       </c>
       <c r="T3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U3" s="16" t="s">
         <v>73</v>
@@ -4747,7 +4735,7 @@
         <v>85</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15.75" thickTop="1">
@@ -4794,7 +4782,7 @@
         <f>IF(Table168101112133[[#This Row],[Extra Dam C%]]="N/A",0,SUM((Table168101112133[[#This Row],[Extra Dam C%]]*Table168101112133[[#This Row],[Extra Dam]])))</f>
         <v>0</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="63">
         <v>0</v>
       </c>
       <c r="R4" s="2">
@@ -4819,7 +4807,7 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>35</v>
@@ -4855,7 +4843,7 @@
         <f>IF(Table168101112133[[#This Row],[Extra Dam C%]]="N/A",0,SUM((Table168101112133[[#This Row],[Extra Dam C%]]*Table168101112133[[#This Row],[Extra Dam]])))</f>
         <v>0</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="63">
         <v>0</v>
       </c>
       <c r="R5" s="2">
@@ -4880,7 +4868,7 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>35</v>
@@ -4922,7 +4910,7 @@
         <f>IF(Table168101112133[[#This Row],[Extra Dam C%]]="N/A",0,SUM((Table168101112133[[#This Row],[Extra Dam C%]]*Table168101112133[[#This Row],[Extra Dam]])))</f>
         <v>0</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="63">
         <v>0</v>
       </c>
       <c r="R6" s="2">
@@ -4947,7 +4935,7 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>35</v>
@@ -4989,7 +4977,7 @@
         <f>IF(Table168101112133[[#This Row],[Extra Dam C%]]="N/A",0,SUM((Table168101112133[[#This Row],[Extra Dam C%]]*Table168101112133[[#This Row],[Extra Dam]])))</f>
         <v>0</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="63">
         <v>0.9</v>
       </c>
       <c r="R7" s="2">
@@ -5012,7 +5000,7 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>35</v>
@@ -5051,7 +5039,7 @@
         <f>IF(Table168101112133[[#This Row],[Extra Dam C%]]="N/A",0,SUM((Table168101112133[[#This Row],[Extra Dam C%]]*Table168101112133[[#This Row],[Extra Dam]])))</f>
         <v>9</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="63">
         <v>0</v>
       </c>
       <c r="R8" s="2">
@@ -5074,7 +5062,7 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>35</v>
@@ -5119,7 +5107,7 @@
         <f>IF(Table168101112133[[#This Row],[Extra Dam C%]]="N/A",0,SUM((Table168101112133[[#This Row],[Extra Dam C%]]*Table168101112133[[#This Row],[Extra Dam]])))</f>
         <v>10</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="63">
         <v>0</v>
       </c>
       <c r="R9" s="2">
@@ -5498,7 +5486,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5514,7 +5502,7 @@
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="A13" sqref="A13:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5560,7 +5548,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1">
@@ -5613,7 +5601,7 @@
         <v>85</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="4" customFormat="1" ht="15.75" thickTop="1">
@@ -6179,7 +6167,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" s="4">
         <v>2</v>
@@ -6227,12 +6215,12 @@
         <v>86</v>
       </c>
       <c r="Q15" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B16" s="4">
         <v>2</v>
@@ -6283,7 +6271,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" s="4">
         <v>2</v>
@@ -6334,7 +6322,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B18" s="4">
         <v>3</v>
@@ -6958,19 +6946,19 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" t="s">
         <v>264</v>
       </c>
-      <c r="C1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>265</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>266</v>
-      </c>
-      <c r="F1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -6981,7 +6969,7 @@
         <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>53</v>
@@ -7378,7 +7366,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B12">
         <f>COUNTIF(Misc!B:B, 1)</f>
@@ -7419,7 +7407,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B13">
         <f>COUNTIF(HMG!B:B, 1)</f>
@@ -7463,7 +7451,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B15" s="41" t="s">
         <v>86</v>
@@ -7526,7 +7514,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R17">
         <f>SUM(B17:P17)</f>
@@ -7559,7 +7547,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -38658,22 +38646,22 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -38742,7 +38730,7 @@
         <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W2">
         <v>82.822000000000003</v>
@@ -38816,7 +38804,7 @@
         <v>85</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickTop="1">
@@ -39348,7 +39336,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="91" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="1" operator="greaterThan">
       <formula>1.63</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39365,7 +39353,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39401,7 +39389,7 @@
         <v>77</v>
       </c>
       <c r="U1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="W1">
         <v>137.065</v>
@@ -39418,7 +39406,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P2" t="s">
         <v>33</v>
@@ -39430,7 +39418,7 @@
         <v>32</v>
       </c>
       <c r="T2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W2">
         <v>134.14599999999999</v>
@@ -39504,7 +39492,7 @@
         <v>85</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickTop="1">
@@ -40430,7 +40418,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16" s="12">
         <v>2</v>
@@ -40507,7 +40495,7 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="12">
         <v>2</v>
@@ -40584,7 +40572,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="49" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" s="13">
         <v>2</v>
@@ -40989,12 +40977,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C32">
-    <cfRule type="cellIs" dxfId="84" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="2" operator="greaterThan">
       <formula>2.599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="83" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41054,7 +41042,7 @@
         <v>76</v>
       </c>
       <c r="V1" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W1">
         <v>150.47</v>
@@ -41071,7 +41059,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P2" t="s">
         <v>33</v>
@@ -41083,7 +41071,7 @@
         <v>32</v>
       </c>
       <c r="V2" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="W2">
         <v>90.105999999999995</v>
@@ -41157,7 +41145,7 @@
         <v>85</v>
       </c>
       <c r="W3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -41307,7 +41295,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -41461,7 +41449,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -41538,7 +41526,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -41692,7 +41680,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -41769,7 +41757,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -41846,7 +41834,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -42610,7 +42598,7 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -42685,7 +42673,7 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -42760,7 +42748,7 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -42836,7 +42824,7 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -42912,7 +42900,7 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -42987,7 +42975,7 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -43062,7 +43050,7 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -43138,7 +43126,7 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B30" s="12">
         <v>3</v>
@@ -43215,7 +43203,7 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B31" s="41">
         <v>3</v>
@@ -43292,7 +43280,7 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B32" s="41">
         <v>3</v>
@@ -43369,7 +43357,7 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B33" s="41">
         <v>3</v>
@@ -43446,7 +43434,7 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B34" s="41">
         <v>3</v>
@@ -43523,7 +43511,7 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B35" s="41">
         <v>3</v>
@@ -43600,7 +43588,7 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B36" s="41">
         <v>3</v>
@@ -45609,12 +45597,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C997">
-    <cfRule type="cellIs" dxfId="72" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="2" operator="greaterThan">
       <formula>3.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O123">
-    <cfRule type="cellIs" dxfId="71" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45667,7 +45655,7 @@
         <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -45690,7 +45678,7 @@
         <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W2">
         <v>201.52</v>
@@ -45764,7 +45752,7 @@
         <v>85</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickTop="1">
@@ -46139,7 +46127,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
@@ -46214,7 +46202,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B10" s="4">
         <v>3</v>
@@ -46290,7 +46278,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B11" s="4">
         <v>3</v>
@@ -46365,7 +46353,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B12" s="4">
         <v>3</v>
@@ -46441,7 +46429,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -46517,7 +46505,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -46593,7 +46581,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -46669,7 +46657,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -46745,7 +46733,7 @@
     </row>
     <row r="17" spans="1:23" s="4" customFormat="1">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -46821,7 +46809,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -46934,12 +46922,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="64" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="2" operator="greaterThan">
       <formula>2.639</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47012,7 +47000,7 @@
         <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W2">
         <v>228.506</v>
@@ -47086,7 +47074,7 @@
         <v>85</v>
       </c>
       <c r="W3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -47158,7 +47146,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>35</v>
@@ -47878,7 +47866,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C32">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="greaterThan">
       <formula>4.429</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47894,7 +47882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -47936,7 +47924,7 @@
         <v>74</v>
       </c>
       <c r="V1" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="W1">
         <v>172.06399999999999</v>
@@ -47962,7 +47950,7 @@
         <v>32</v>
       </c>
       <c r="V2" s="41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W2">
         <v>331.428</v>
@@ -48036,7 +48024,7 @@
         <v>85</v>
       </c>
       <c r="W3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -48424,7 +48412,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -48655,7 +48643,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B12" s="4">
         <v>3</v>
@@ -48946,7 +48934,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C20">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
       <formula>3.51</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49001,25 +48989,25 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J1" t="s">
         <v>249</v>
       </c>
-      <c r="J1" t="s">
-        <v>250</v>
-      </c>
       <c r="M1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V1" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W1">
         <v>250</v>
@@ -49039,10 +49027,10 @@
         <v>33</v>
       </c>
       <c r="Q2" t="s">
+        <v>246</v>
+      </c>
+      <c r="R2" t="s">
         <v>247</v>
-      </c>
-      <c r="R2" t="s">
-        <v>248</v>
       </c>
       <c r="S2" t="s">
         <v>32</v>
@@ -49117,21 +49105,21 @@
         <v>85</v>
       </c>
       <c r="W3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Y3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Z3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B4" s="12">
         <v>4</v>
@@ -49205,18 +49193,18 @@
         <v>755</v>
       </c>
       <c r="X4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y4" s="57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Z4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" s="12">
         <v>4</v>
@@ -49290,15 +49278,15 @@
         <v>965</v>
       </c>
       <c r="Y5" s="57" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Z5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B6" s="4">
         <v>4</v>
@@ -49372,15 +49360,15 @@
         <v>1050</v>
       </c>
       <c r="Y6" s="57" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B7" s="4">
         <v>4</v>
@@ -49415,15 +49403,15 @@
       <c r="X7" s="54"/>
       <c r="Y7" s="54"/>
       <c r="Z7" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C8" s="2" t="e">
         <f>SUM(((Table1681011124[[#This Row],[Avg DPS]]*(Table1681011124[[#This Row],[Range]]))+(Table1681011124[[#This Row],[Avg DPS]]*Table1681011124[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -49452,15 +49440,15 @@
         <v>86</v>
       </c>
       <c r="Z8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C9" s="2" t="e">
         <f>SUM(((Table1681011124[[#This Row],[Avg DPS]]*(Table1681011124[[#This Row],[Range]]))+(Table1681011124[[#This Row],[Avg DPS]]*Table1681011124[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -49489,7 +49477,7 @@
         <v>86</v>
       </c>
       <c r="Z9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -49680,7 +49668,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
       <formula>3.51</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49733,7 +49721,7 @@
         <v>68</v>
       </c>
       <c r="V1" s="41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W1">
         <v>132.124</v>
@@ -49759,7 +49747,7 @@
         <v>32</v>
       </c>
       <c r="V2" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W2">
         <v>145.68299999999999</v>
@@ -49833,7 +49821,7 @@
         <v>85</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickTop="1">
@@ -50390,7 +50378,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
       <formula>2.789</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Handgun" sheetId="8" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="289">
   <si>
     <t>Weapon Stats - Sleepy's Weapons</t>
   </si>
@@ -875,10 +875,25 @@
     <t>Machine Pistol are Green</t>
   </si>
   <si>
-    <t>Bolt Action are Purple</t>
+    <t>LEAVE DAMAGE 2, 3 AND 4, BLANK IF NOT USED (E.G. HANDLE, STAB, CUT)</t>
   </si>
   <si>
-    <t>LEAVE DAMAGE 2, 3 AND 4, BLANK IF NOT USED (E.G. HANDLE, STAB, CUT)</t>
+    <t>Bolt Action Comparsion are Purple</t>
+  </si>
+  <si>
+    <t>ACAR 556</t>
+  </si>
+  <si>
+    <t>ACAR 762</t>
+  </si>
+  <si>
+    <t>ACAR 762 LRS</t>
+  </si>
+  <si>
+    <t>MIROKU MK38 TRAP</t>
+  </si>
+  <si>
+    <t>MIROKU MK70</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1099,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1164,7 +1179,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1174,7 +1188,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="95">
+  <dxfs count="98">
     <dxf>
       <font>
         <b val="0"/>
@@ -1778,6 +1792,15 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
       </font>
@@ -2051,17 +2074,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="92">
+    <tableColumn id="22" name="Balance" dataDxfId="95">
       <calculatedColumnFormula>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="91">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="94">
       <calculatedColumnFormula>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="90">
+    <tableColumn id="15" name="DPS" dataDxfId="93">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="89">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="92">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2071,7 +2094,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="88">
+    <tableColumn id="7" name="Burst Time" dataDxfId="91">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2207,18 +2230,18 @@
   </autoFilter>
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="86"/>
-    <tableColumn id="22" name="Balance" dataDxfId="85">
+    <tableColumn id="12" name="Vol." dataDxfId="89"/>
+    <tableColumn id="22" name="Balance" dataDxfId="88">
       <calculatedColumnFormula>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="84">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="87">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="83">
+    <tableColumn id="15" name="DPS" dataDxfId="86">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="82">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="85">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2228,7 +2251,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="81">
+    <tableColumn id="7" name="Burst Time" dataDxfId="84">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2262,18 +2285,18 @@
   </autoFilter>
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="78"/>
-    <tableColumn id="22" name="Balance" dataDxfId="77">
+    <tableColumn id="12" name="Vol." dataDxfId="81"/>
+    <tableColumn id="22" name="Balance" dataDxfId="80">
       <calculatedColumnFormula>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="76">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="79">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="75">
+    <tableColumn id="15" name="DPS" dataDxfId="78">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Damage]]*Table16[[#This Row],[Burst]])/(Table16[[#This Row],[Ranged Cooldown]]+Table16[[#This Row],[Warm-up]]+(Table16[[#This Row],[Burst Time]]*(Table16[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="74">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="77">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2283,17 +2306,17 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="73">
+    <tableColumn id="7" name="Burst Time" dataDxfId="76">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="72"/>
-    <tableColumn id="14" name="Weight" dataDxfId="71"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="70"/>
-    <tableColumn id="23" name="Value" dataDxfId="69"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="75"/>
+    <tableColumn id="14" name="Weight" dataDxfId="74"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="73"/>
+    <tableColumn id="23" name="Value" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2315,30 +2338,33 @@
     <filterColumn colId="21"/>
     <filterColumn colId="22"/>
   </autoFilter>
+  <sortState ref="A4:W123">
+    <sortCondition ref="B3:B123"/>
+  </sortState>
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="66">
+    <tableColumn id="22" name="Balance" dataDxfId="69">
       <calculatedColumnFormula>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="65">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="68">
       <calculatedColumnFormula>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="64">
+    <tableColumn id="15" name="DPS" dataDxfId="67">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="63">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="66">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
     <tableColumn id="18" name="Stopping Pwr"/>
     <tableColumn id="19" name="Arm Pen (%)"/>
     <tableColumn id="3" name="Burst"/>
-    <tableColumn id="4" name="Ranged Cooldown"/>
-    <tableColumn id="5" name="Warm-up"/>
+    <tableColumn id="4" name="Ranged Cooldown" dataDxfId="65"/>
+    <tableColumn id="5" name="Warm-up" dataDxfId="64"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="62">
+    <tableColumn id="7" name="Burst Time" dataDxfId="63">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2346,7 +2372,7 @@
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
     <tableColumn id="13" name="Bullet Speed"/>
-    <tableColumn id="14" name="Weight"/>
+    <tableColumn id="14" name="Weight" dataDxfId="62"/>
     <tableColumn id="21" name="Craftable" dataDxfId="61"/>
     <tableColumn id="23" name="Value"/>
   </tableColumns>
@@ -2911,7 +2937,7 @@
   <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4586,12 +4612,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C26">
-    <cfRule type="cellIs" dxfId="94" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="2" operator="greaterThan">
       <formula>1.731</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="93" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4607,8 +4633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4642,7 +4668,7 @@
         <v>166</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q1" t="s">
         <v>174</v>
@@ -4782,7 +4808,7 @@
         <f>IF(Table168101112133[[#This Row],[Extra Dam C%]]="N/A",0,SUM((Table168101112133[[#This Row],[Extra Dam C%]]*Table168101112133[[#This Row],[Extra Dam]])))</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="63">
+      <c r="Q4" s="62">
         <v>0</v>
       </c>
       <c r="R4" s="2">
@@ -4843,7 +4869,7 @@
         <f>IF(Table168101112133[[#This Row],[Extra Dam C%]]="N/A",0,SUM((Table168101112133[[#This Row],[Extra Dam C%]]*Table168101112133[[#This Row],[Extra Dam]])))</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="63">
+      <c r="Q5" s="62">
         <v>0</v>
       </c>
       <c r="R5" s="2">
@@ -4910,7 +4936,7 @@
         <f>IF(Table168101112133[[#This Row],[Extra Dam C%]]="N/A",0,SUM((Table168101112133[[#This Row],[Extra Dam C%]]*Table168101112133[[#This Row],[Extra Dam]])))</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="63">
+      <c r="Q6" s="62">
         <v>0</v>
       </c>
       <c r="R6" s="2">
@@ -4977,7 +5003,7 @@
         <f>IF(Table168101112133[[#This Row],[Extra Dam C%]]="N/A",0,SUM((Table168101112133[[#This Row],[Extra Dam C%]]*Table168101112133[[#This Row],[Extra Dam]])))</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="63">
+      <c r="Q7" s="62">
         <v>0.9</v>
       </c>
       <c r="R7" s="2">
@@ -5039,7 +5065,7 @@
         <f>IF(Table168101112133[[#This Row],[Extra Dam C%]]="N/A",0,SUM((Table168101112133[[#This Row],[Extra Dam C%]]*Table168101112133[[#This Row],[Extra Dam]])))</f>
         <v>9</v>
       </c>
-      <c r="Q8" s="63">
+      <c r="Q8" s="62">
         <v>0</v>
       </c>
       <c r="R8" s="2">
@@ -5107,7 +5133,7 @@
         <f>IF(Table168101112133[[#This Row],[Extra Dam C%]]="N/A",0,SUM((Table168101112133[[#This Row],[Extra Dam C%]]*Table168101112133[[#This Row],[Extra Dam]])))</f>
         <v>10</v>
       </c>
-      <c r="Q9" s="63">
+      <c r="Q9" s="62">
         <v>0</v>
       </c>
       <c r="R9" s="2">
@@ -5501,8 +5527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:Q13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6176,7 +6202,7 @@
         <v>20.9</v>
       </c>
       <c r="D15" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E15" s="27">
         <v>0.05</v>
@@ -6935,7 +6961,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7132,7 +7158,7 @@
       </c>
       <c r="D6">
         <f>COUNTIF(Rifle!B:B, 2)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <f>COUNTIF(Rifle!B:B, 3)</f>
@@ -7296,7 +7322,7 @@
       </c>
       <c r="D10">
         <f>COUNTIF(Shotgun!B:B, 2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <f>COUNTIF(Shotgun!B:B, 3)</f>
@@ -7487,7 +7513,7 @@
       </c>
       <c r="D17">
         <f t="shared" ref="D17:J17" si="0">SUM(D3:D13)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
@@ -7518,7 +7544,7 @@
       </c>
       <c r="R17">
         <f>SUM(B17:P17)</f>
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -38674,7 +38700,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39336,7 +39362,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="87" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="1" operator="greaterThan">
       <formula>1.63</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39353,7 +39379,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39405,7 +39431,7 @@
       <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="60" t="s">
         <v>281</v>
       </c>
       <c r="P2" t="s">
@@ -39790,7 +39816,7 @@
       <c r="T7" s="19">
         <v>45</v>
       </c>
-      <c r="U7" s="60">
+      <c r="U7" s="59">
         <v>3.4</v>
       </c>
       <c r="V7" s="25" t="s">
@@ -39802,7 +39828,7 @@
       </c>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="60" t="s">
         <v>105</v>
       </c>
       <c r="B8" s="12">
@@ -39879,7 +39905,7 @@
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="60" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="12">
@@ -39956,7 +39982,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" s="4" customFormat="1">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="61" t="s">
         <v>60</v>
       </c>
       <c r="B10" s="12">
@@ -40340,7 +40366,7 @@
       </c>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="60" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="12">
@@ -40977,12 +41003,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C32">
-    <cfRule type="cellIs" dxfId="80" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="2" operator="greaterThan">
       <formula>2.599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40999,7 +41025,7 @@
   <dimension ref="A1:W123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41025,7 +41051,7 @@
     <col min="19" max="19" width="16.28515625" customWidth="1"/>
     <col min="21" max="21" width="7.5703125" customWidth="1"/>
     <col min="22" max="22" width="8.140625" style="41" customWidth="1"/>
-    <col min="23" max="23" width="6.85546875" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -41059,7 +41085,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P2" t="s">
         <v>33</v>
@@ -41149,30 +41175,30 @@
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>35</v>
+      <c r="A4" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
       </c>
       <c r="C4" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.1889423076923071</v>
+        <v>3.0607688571428571</v>
       </c>
       <c r="D4" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.7994505494505484</v>
+        <v>6.8168571428571427</v>
       </c>
       <c r="E4" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>10.879120879120878</v>
+        <v>11.314285714285715</v>
       </c>
       <c r="F4">
         <v>30.9</v>
       </c>
       <c r="G4" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.625</v>
+        <v>0.60249999999999992</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -41181,23 +41207,23 @@
         <v>0.5</v>
       </c>
       <c r="J4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
-      <c r="L4">
-        <v>1.7</v>
-      </c>
-      <c r="M4">
+      <c r="L4" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="M4" s="2">
         <v>1</v>
       </c>
       <c r="N4">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" ref="O4:O20" si="0">60/N4</f>
-        <v>0.16666666666666666</v>
+        <f t="shared" ref="O4:O15" si="0">60/N4</f>
+        <v>0.13333333333333333</v>
       </c>
       <c r="P4">
         <v>0.6</v>
@@ -41206,118 +41232,127 @@
         <v>0.7</v>
       </c>
       <c r="R4">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="S4">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="T4">
         <v>70</v>
       </c>
       <c r="U4" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="W4">
-        <v>480</v>
+        <v>3.49</v>
+      </c>
+      <c r="V4" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="W4" s="54">
+        <f t="shared" ref="W4:W12" si="1">C4*$W$1</f>
+        <v>460.55388993428568</v>
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>35</v>
+      <c r="A5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
       </c>
       <c r="C5" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.8305703125000004</v>
+        <v>2.9270985714285711</v>
       </c>
       <c r="D5" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>4.4296875000000009</v>
+        <v>5.1442857142857141</v>
       </c>
       <c r="E5" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>5.625</v>
+        <v>7.4285714285714288</v>
       </c>
       <c r="F5">
-        <v>36.9</v>
+        <v>37.9</v>
       </c>
       <c r="G5" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.78750000000000009</v>
+        <v>0.6925</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1.5</v>
-      </c>
-      <c r="M5">
-        <v>1.7</v>
+        <v>2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1.4</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O5" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
       <c r="P5">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
       <c r="Q5">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="R5">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="S5">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="T5">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="U5" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="W5">
-        <v>255</v>
+        <v>5.21</v>
+      </c>
+      <c r="V5" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="W5" s="54">
+        <f t="shared" si="1"/>
+        <v>440.44052204285708</v>
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="14" t="s">
-        <v>194</v>
+      <c r="A6" t="s">
+        <v>275</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.0607688571428571</v>
+        <v>3.1897030237580988</v>
       </c>
       <c r="D6" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.8168571428571427</v>
+        <v>6.9492440604751602</v>
       </c>
       <c r="E6" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>11.314285714285715</v>
+        <v>10.691144708423325</v>
       </c>
       <c r="F6">
-        <v>30.9</v>
+        <v>31.9</v>
       </c>
       <c r="G6" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.60249999999999992</v>
+        <v>0.64999999999999991</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -41331,11 +41366,11 @@
       <c r="K6">
         <v>3</v>
       </c>
-      <c r="L6">
-        <v>1.65</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
+      <c r="L6" s="2">
+        <v>1.72</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.1000000000000001</v>
       </c>
       <c r="N6">
         <v>450</v>
@@ -41348,130 +41383,130 @@
         <v>0.6</v>
       </c>
       <c r="Q6">
+        <v>0.75</v>
+      </c>
+      <c r="R6">
         <v>0.7</v>
       </c>
-      <c r="R6">
-        <v>0.61</v>
-      </c>
       <c r="S6">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="T6">
         <v>70</v>
       </c>
       <c r="U6" s="2">
-        <v>3.49</v>
+        <v>3.62</v>
       </c>
       <c r="V6" s="41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W6" s="54">
-        <f>C6*$W$1</f>
-        <v>460.55388993428568</v>
+        <f t="shared" si="1"/>
+        <v>479.95461398488112</v>
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="14" t="s">
-        <v>30</v>
+      <c r="A7" t="s">
+        <v>276</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.9270985714285711</v>
+        <v>2.937166103518777</v>
       </c>
       <c r="D7" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>5.1442857142857141</v>
+        <v>7.0099429678252436</v>
       </c>
       <c r="E7" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>7.4285714285714288</v>
+        <v>12.298145557588148</v>
       </c>
       <c r="F7">
-        <v>37.9</v>
+        <v>27.9</v>
       </c>
       <c r="G7" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.6925</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1.9</v>
-      </c>
-      <c r="M7">
-        <v>1.4</v>
+        <v>3</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.9</v>
       </c>
       <c r="N7">
-        <v>300</v>
+        <v>514.29</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.11666569445254624</v>
       </c>
       <c r="P7">
+        <v>0.8</v>
+      </c>
+      <c r="Q7">
+        <v>0.78</v>
+      </c>
+      <c r="R7">
         <v>0.4</v>
       </c>
-      <c r="Q7">
-        <v>0.7</v>
-      </c>
-      <c r="R7">
-        <v>0.92</v>
-      </c>
       <c r="S7">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="T7">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="U7" s="2">
-        <v>5.21</v>
+        <v>3.01</v>
       </c>
       <c r="V7" s="41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W7" s="54">
-        <f t="shared" ref="W7:W14" si="1">C7*$W$1</f>
-        <v>440.44052204285708</v>
+        <f t="shared" si="1"/>
+        <v>441.95538359647037</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>29</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
       <c r="C8" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.1897030237580988</v>
+        <v>3.0167445812807876</v>
       </c>
       <c r="D8" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.9492440604751602</v>
+        <v>6.169211822660098</v>
       </c>
       <c r="E8" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>10.691144708423325</v>
+        <v>9.7536945812807883</v>
       </c>
       <c r="F8">
-        <v>31.9</v>
+        <v>34.9</v>
       </c>
       <c r="G8" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.64999999999999991</v>
+        <v>0.63249999999999995</v>
       </c>
       <c r="H8">
         <v>11</v>
@@ -41485,70 +41520,70 @@
       <c r="K8">
         <v>3</v>
       </c>
-      <c r="L8">
-        <v>1.72</v>
-      </c>
-      <c r="M8">
-        <v>1.1000000000000001</v>
+      <c r="L8" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1.2</v>
       </c>
       <c r="N8">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P8">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="Q8">
         <v>0.75</v>
       </c>
       <c r="R8">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="S8">
-        <v>0.55000000000000004</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T8">
         <v>70</v>
       </c>
       <c r="U8" s="2">
-        <v>3.62</v>
+        <v>4.01</v>
       </c>
       <c r="V8" s="41" t="s">
         <v>87</v>
       </c>
       <c r="W8" s="54">
         <f t="shared" si="1"/>
-        <v>479.95461398488112</v>
+        <v>453.92955714532013</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.937166103518777</v>
+        <v>3.174454502814259</v>
       </c>
       <c r="D9" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>7.0099429678252436</v>
+        <v>6.3616322701688564</v>
       </c>
       <c r="E9" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>12.298145557588148</v>
+        <v>9.2870544090056288</v>
       </c>
       <c r="F9">
-        <v>27.9</v>
+        <v>35.9</v>
       </c>
       <c r="G9" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.56999999999999995</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="H9">
         <v>11</v>
@@ -41562,224 +41597,224 @@
       <c r="K9">
         <v>3</v>
       </c>
-      <c r="L9">
-        <v>1.55</v>
-      </c>
-      <c r="M9">
-        <v>0.9</v>
+      <c r="L9" s="2">
+        <v>1.92</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1.3</v>
       </c>
       <c r="N9">
-        <v>514.29</v>
+        <v>360</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="0"/>
-        <v>0.11666569445254624</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P9">
+        <v>0.4</v>
+      </c>
+      <c r="Q9">
         <v>0.8</v>
       </c>
-      <c r="Q9">
-        <v>0.78</v>
-      </c>
       <c r="R9">
-        <v>0.4</v>
+        <v>0.89</v>
       </c>
       <c r="S9">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="T9">
         <v>70</v>
       </c>
       <c r="U9" s="2">
-        <v>3.01</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="V9" s="41" t="s">
         <v>87</v>
       </c>
       <c r="W9" s="54">
         <f t="shared" si="1"/>
-        <v>441.95538359647037</v>
+        <v>477.66016903846156</v>
       </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" t="s">
-        <v>29</v>
+      <c r="A10" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
       </c>
       <c r="C10" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.0167445812807876</v>
+        <v>2.9283123287671229</v>
       </c>
       <c r="D10" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.169211822660098</v>
+        <v>5.0575342465753419</v>
       </c>
       <c r="E10" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>9.7536945812807883</v>
+        <v>7.1232876712328759</v>
       </c>
       <c r="F10">
-        <v>34.9</v>
+        <v>38.9</v>
       </c>
       <c r="G10" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.63249999999999995</v>
+        <v>0.71</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1.85</v>
-      </c>
-      <c r="M10">
-        <v>1.2</v>
+        <v>2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1.5</v>
       </c>
       <c r="N10">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="P10">
         <v>0.4</v>
       </c>
       <c r="Q10">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="R10">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="S10">
-        <v>0.57999999999999996</v>
+        <v>0.78</v>
       </c>
       <c r="T10">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="U10" s="2">
-        <v>4.01</v>
+        <v>5.4</v>
       </c>
       <c r="V10" s="41" t="s">
         <v>87</v>
       </c>
       <c r="W10" s="54">
         <f t="shared" si="1"/>
-        <v>453.92955714532013</v>
+        <v>440.62315610958899</v>
       </c>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" t="s">
-        <v>277</v>
+      <c r="A11" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
       </c>
       <c r="C11" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.174454502814259</v>
+        <v>3.0179775132275131</v>
       </c>
       <c r="D11" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.3616322701688564</v>
+        <v>5.0383597883597879</v>
       </c>
       <c r="E11" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>9.2870544090056288</v>
+        <v>6.8783068783068781</v>
       </c>
       <c r="F11">
-        <v>35.9</v>
+        <v>40.9</v>
       </c>
       <c r="G11" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.68500000000000005</v>
+        <v>0.73249999999999993</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1.92</v>
-      </c>
-      <c r="M11">
-        <v>1.3</v>
+        <v>2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1.6</v>
       </c>
       <c r="N11">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="P11">
         <v>0.4</v>
       </c>
       <c r="Q11">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="R11">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="S11">
-        <v>0.65</v>
+        <v>0.88</v>
       </c>
       <c r="T11">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="U11" s="2">
-        <v>4.1399999999999997</v>
+        <v>5.62</v>
       </c>
       <c r="V11" s="41" t="s">
         <v>87</v>
       </c>
       <c r="W11" s="54">
         <f t="shared" si="1"/>
-        <v>477.66016903846156</v>
+        <v>454.11507641534388</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="4" t="s">
-        <v>278</v>
+        <v>65</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.9283123287671229</v>
+        <v>3.039353012048192</v>
       </c>
       <c r="D12" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>5.0575342465753419</v>
+        <v>4.6831325301204814</v>
       </c>
       <c r="E12" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>7.1232876712328759</v>
+        <v>6.2650602409638552</v>
       </c>
       <c r="F12">
-        <v>38.9</v>
+        <v>41.9</v>
       </c>
       <c r="G12" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.71</v>
+        <v>0.74749999999999994</v>
       </c>
       <c r="H12">
         <v>13</v>
@@ -41788,38 +41823,38 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
-      <c r="L12">
-        <v>1.95</v>
-      </c>
-      <c r="M12">
-        <v>1.5</v>
+      <c r="L12" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1.8</v>
       </c>
       <c r="N12">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="P12">
         <v>0.4</v>
       </c>
       <c r="Q12">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="R12">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="S12">
-        <v>0.78</v>
+        <v>0.9</v>
       </c>
       <c r="T12">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U12" s="2">
         <v>5.4</v>
@@ -41829,267 +41864,265 @@
       </c>
       <c r="W12" s="54">
         <f t="shared" si="1"/>
-        <v>440.62315610958899</v>
+        <v>457.33144772289143</v>
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.0179775132275131</v>
+        <v>3.0081290322580645</v>
       </c>
       <c r="D13" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>5.0383597883597879</v>
+        <v>7.3548387096774199</v>
       </c>
       <c r="E13" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>6.8783068783068781</v>
+        <v>12.903225806451612</v>
       </c>
       <c r="F13">
-        <v>40.9</v>
+        <v>29.9</v>
       </c>
       <c r="G13" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.73249999999999993</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J13">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1.98</v>
-      </c>
-      <c r="M13">
-        <v>1.6</v>
+        <v>4</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="P13">
-        <v>0.4</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q13">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="R13">
-        <v>0.98</v>
+        <v>0.6</v>
       </c>
       <c r="S13">
-        <v>0.88</v>
+        <v>0.48</v>
       </c>
       <c r="T13">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="U13" s="2">
-        <v>5.62</v>
+        <v>3.4</v>
       </c>
       <c r="V13" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="W13" s="54">
-        <f t="shared" si="1"/>
-        <v>454.11507641534388</v>
+      <c r="W13">
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.039353012048192</v>
+        <v>2.9985267857142857</v>
       </c>
       <c r="D14" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>4.6831325301204814</v>
+        <v>6.8303571428571432</v>
       </c>
       <c r="E14" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>6.2650602409638552</v>
+        <v>10.714285714285715</v>
       </c>
       <c r="F14">
-        <v>41.9</v>
+        <v>26.9</v>
       </c>
       <c r="G14" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.74749999999999994</v>
+        <v>0.63749999999999996</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J14">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>2.1</v>
-      </c>
-      <c r="M14">
-        <v>1.8</v>
+        <v>3</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1.81</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1.1499999999999999</v>
       </c>
       <c r="N14">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="P14">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="Q14">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="R14">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="S14">
-        <v>0.9</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="T14">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="U14" s="2">
-        <v>5.4</v>
+        <v>3.63</v>
       </c>
       <c r="V14" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="W14" s="54">
-        <f t="shared" si="1"/>
-        <v>457.33144772289143</v>
+      <c r="W14">
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.0081290322580645</v>
+        <v>3.2797636363636364</v>
       </c>
       <c r="D15" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>7.3548387096774199</v>
+        <v>7.1454545454545455</v>
       </c>
       <c r="E15" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>12.903225806451612</v>
+        <v>10.90909090909091</v>
       </c>
       <c r="F15">
-        <v>29.9</v>
+        <v>28.9</v>
       </c>
       <c r="G15" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.57000000000000006</v>
+        <v>0.65499999999999992</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I15">
         <v>0.5</v>
       </c>
       <c r="J15">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K15">
-        <v>4</v>
-      </c>
-      <c r="L15">
-        <v>1.7</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1.1499999999999999</v>
       </c>
       <c r="N15">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="P15">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="Q15">
-        <v>0.65</v>
+        <v>0.76</v>
       </c>
       <c r="R15">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="S15">
-        <v>0.48</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="T15">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="U15" s="2">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="V15" s="41" t="s">
         <v>87</v>
       </c>
       <c r="W15">
-        <v>480</v>
+        <v>530</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.9985267857142857</v>
+        <v>2.4320833333333334</v>
       </c>
       <c r="D16" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.8303571428571432</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="E16" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>10.714285714285715</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="F16">
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="G16" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.63749999999999996</v>
+        <v>0.65</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I16">
         <v>0.5</v>
@@ -42098,395 +42131,395 @@
         <v>17</v>
       </c>
       <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1.81</v>
-      </c>
-      <c r="M16">
-        <v>1.1499999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.9</v>
       </c>
       <c r="N16">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Q16">
+        <v>0.79</v>
+      </c>
+      <c r="R16">
         <v>0.73</v>
       </c>
-      <c r="R16">
-        <v>0.67</v>
-      </c>
       <c r="S16">
-        <v>0.55000000000000004</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T16">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U16" s="2">
-        <v>3.63</v>
+        <v>3.21</v>
       </c>
       <c r="V16" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="W16">
-        <v>480</v>
+      <c r="W16" s="54">
+        <f>C16*$W$1</f>
+        <v>365.95557916666667</v>
       </c>
     </row>
     <row r="17" spans="1:23" s="4" customFormat="1">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.2797636363636364</v>
+        <v>2.3732000000000002</v>
       </c>
       <c r="D17" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>7.1454545454545455</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="E17" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>10.90909090909091</v>
+        <v>16</v>
       </c>
       <c r="F17">
-        <v>28.9</v>
+        <v>23.9</v>
       </c>
       <c r="G17" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.65499999999999992</v>
+        <v>0.42500000000000004</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I17">
         <v>0.5</v>
       </c>
       <c r="J17">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1.75</v>
-      </c>
-      <c r="M17">
-        <v>1.1499999999999999</v>
+        <v>10</v>
+      </c>
+      <c r="L17" s="2">
+        <v>2</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>300</v>
+        <v>720</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f>60/N17</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="P17">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="Q17">
-        <v>0.76</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R17">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="S17">
-        <v>0.56000000000000005</v>
+        <v>0.35</v>
       </c>
       <c r="T17">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="U17" s="2">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="V17" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="W17">
-        <v>530</v>
+      <c r="W17" s="54">
+        <f>C17*$W$1</f>
+        <v>357.09540400000003</v>
       </c>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18">
+      <c r="A18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="7">
         <v>1</v>
       </c>
       <c r="C18" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.4320833333333334</v>
+        <v>3.0152780898876399</v>
       </c>
       <c r="D18" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>5.416666666666667</v>
+        <v>6.2949438202247174</v>
       </c>
       <c r="E18" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="F18">
-        <v>27.9</v>
+        <v>10.112359550561797</v>
+      </c>
+      <c r="F18" s="7">
+        <v>33.9</v>
       </c>
       <c r="G18" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.65</v>
+        <v>0.62249999999999994</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I18">
         <v>0.5</v>
       </c>
       <c r="J18">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.9</v>
-      </c>
-      <c r="M18">
-        <v>0.9</v>
+        <v>3</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1.05</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="O18" s="2">
-        <v>0</v>
+        <f>60/N18</f>
+        <v>0.13333333333333333</v>
       </c>
       <c r="P18">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="Q18">
-        <v>0.79</v>
+        <v>0.74</v>
       </c>
       <c r="R18">
-        <v>0.73</v>
+        <v>0.63</v>
       </c>
       <c r="S18">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="T18">
-        <v>72</v>
-      </c>
-      <c r="U18" s="2">
-        <v>3.21</v>
-      </c>
-      <c r="V18" s="41" t="s">
+        <v>0.52</v>
+      </c>
+      <c r="T18" s="7">
+        <v>74</v>
+      </c>
+      <c r="U18" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="V18" s="48" t="s">
         <v>87</v>
       </c>
       <c r="W18" s="54">
         <f>C18*$W$1</f>
-        <v>365.95557916666667</v>
+        <v>453.70889418539315</v>
       </c>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" t="s">
-        <v>84</v>
+      <c r="A19" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.3732000000000002</v>
+        <v>2.891893333333333</v>
       </c>
       <c r="D19" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.8000000000000007</v>
+        <v>5.1733333333333329</v>
       </c>
       <c r="E19" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>16</v>
+        <v>7.1111111111111107</v>
       </c>
       <c r="F19">
-        <v>23.9</v>
+        <v>35.9</v>
       </c>
       <c r="G19" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.42500000000000004</v>
+        <v>0.72750000000000004</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K19">
-        <v>10</v>
-      </c>
-      <c r="L19">
-        <v>2</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1.25</v>
       </c>
       <c r="N19">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="Q19">
-        <v>0.55000000000000004</v>
+        <v>0.75</v>
       </c>
       <c r="R19">
-        <v>0.5</v>
+        <v>0.84</v>
       </c>
       <c r="S19">
-        <v>0.35</v>
+        <v>0.72</v>
       </c>
       <c r="T19">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="U19" s="2">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="V19" s="41" t="s">
         <v>87</v>
       </c>
       <c r="W19" s="54">
-        <f>C19*$W$1</f>
-        <v>357.09540400000003</v>
+        <f>C19*$W$2</f>
+        <v>260.57694069333331</v>
       </c>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="7">
+      <c r="A20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.0152780898876399</v>
+        <v>2.8341360497237571</v>
       </c>
       <c r="D20" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.2949438202247174</v>
+        <v>4.0545580110497239</v>
       </c>
       <c r="E20" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>10.112359550561797</v>
-      </c>
-      <c r="F20" s="7">
-        <v>33.9</v>
+        <v>5.2486187845303869</v>
+      </c>
+      <c r="F20">
+        <v>40.9</v>
       </c>
       <c r="G20" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.62249999999999994</v>
+        <v>0.77249999999999996</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I20">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="J20">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1.65</v>
-      </c>
-      <c r="M20">
-        <v>1.05</v>
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1.72</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1.9</v>
       </c>
       <c r="N20">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="Q20">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="R20">
-        <v>0.63</v>
+        <v>0.94</v>
       </c>
       <c r="S20">
-        <v>0.52</v>
-      </c>
-      <c r="T20" s="7">
-        <v>74</v>
-      </c>
-      <c r="U20" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="V20" s="48" t="s">
+        <v>0.86</v>
+      </c>
+      <c r="T20">
+        <v>88</v>
+      </c>
+      <c r="U20" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V20" s="41" t="s">
         <v>87</v>
       </c>
       <c r="W20" s="54">
-        <f>C20*$W$1</f>
-        <v>453.70889418539315</v>
+        <f>C20*$W$2</f>
+        <v>255.37266289640885</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="5" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.891893333333333</v>
+        <v>2.6971339950372211</v>
       </c>
       <c r="D21" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>5.1733333333333329</v>
+        <v>3.8585607940446653</v>
       </c>
       <c r="E21" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>7.1111111111111107</v>
+        <v>4.9627791563275441</v>
       </c>
       <c r="F21">
-        <v>35.9</v>
+        <v>36.9</v>
       </c>
       <c r="G21" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.72750000000000004</v>
+        <v>0.77749999999999997</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J21">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.25</v>
+      <c r="L21" s="2">
+        <v>1.88</v>
+      </c>
+      <c r="M21" s="2">
+        <v>2.15</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -42498,71 +42531,70 @@
         <v>0.6</v>
       </c>
       <c r="Q21">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="R21">
+        <v>0.91</v>
+      </c>
+      <c r="S21">
         <v>0.84</v>
       </c>
-      <c r="S21">
-        <v>0.72</v>
-      </c>
       <c r="T21">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="U21" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="V21" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="W21" s="54">
-        <f>C21*$W$2</f>
-        <v>260.57694069333331</v>
+      <c r="W21">
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="5" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.8341360497237571</v>
+        <v>2.7458080000000002</v>
       </c>
       <c r="D22" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>4.0545580110497239</v>
+        <v>4.9119999999999999</v>
       </c>
       <c r="E22" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>5.2486187845303869</v>
+        <v>6.4</v>
       </c>
       <c r="F22">
-        <v>40.9</v>
+        <v>34.9</v>
       </c>
       <c r="G22" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.77249999999999996</v>
+        <v>0.76749999999999996</v>
       </c>
       <c r="H22">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
-      <c r="L22">
-        <v>1.72</v>
-      </c>
-      <c r="M22">
-        <v>1.9</v>
+      <c r="L22" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1.1000000000000001</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -42571,661 +42603,664 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
       <c r="Q22">
-        <v>0.7</v>
+        <v>0.82</v>
       </c>
       <c r="R22">
-        <v>0.94</v>
+        <v>0.85</v>
       </c>
       <c r="S22">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="T22">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="U22" s="2">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="V22" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="W22" s="54">
-        <f>C22*$W$2</f>
-        <v>255.37266289640885</v>
+      <c r="W22">
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" t="s">
-        <v>195</v>
+      <c r="A23" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.6971339950372211</v>
+        <v>3.0423136910732183</v>
       </c>
       <c r="D23" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>3.8585607940446653</v>
+        <v>6.6281344032096259</v>
       </c>
       <c r="E23" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>4.9627791563275441</v>
+        <v>9.929789368104311</v>
       </c>
       <c r="F23">
-        <v>36.9</v>
+        <v>32.9</v>
       </c>
       <c r="G23" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.77749999999999997</v>
+        <v>0.66749999999999987</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I23">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="J23">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>1.88</v>
-      </c>
-      <c r="M23">
-        <v>2.15</v>
+        <v>3</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1.79</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1.2</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="O23" s="2">
-        <v>0</v>
+        <f>60/N23</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P23">
         <v>0.6</v>
       </c>
       <c r="Q23">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="R23">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="S23">
-        <v>0.84</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="T23">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="U23" s="2">
-        <v>4.0999999999999996</v>
+        <v>3.6</v>
       </c>
       <c r="V23" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W23">
-        <v>245</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.7458080000000002</v>
+        <v>3.068893203883496</v>
       </c>
       <c r="D24" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>4.9119999999999999</v>
+        <v>6.834951456310681</v>
       </c>
       <c r="E24" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>6.4</v>
+        <v>10.679611650485437</v>
       </c>
       <c r="F24">
-        <v>34.9</v>
+        <v>31.9</v>
       </c>
       <c r="G24" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.76749999999999996</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J24">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>1.4</v>
-      </c>
-      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="M24" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O24" s="2">
-        <v>0</v>
+        <f>60/N24</f>
+        <v>0.15</v>
       </c>
       <c r="P24">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="Q24">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
       <c r="R24">
-        <v>0.85</v>
+        <v>0.68</v>
       </c>
       <c r="S24">
-        <v>0.75</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="T24">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="U24" s="2">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="V24" s="41" t="s">
         <v>87</v>
       </c>
       <c r="W24">
-        <v>410</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.0423136910732183</v>
+        <v>2.751282352941177</v>
       </c>
       <c r="D25" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.6281344032096259</v>
+        <v>4.8352941176470594</v>
       </c>
       <c r="E25" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>9.929789368104311</v>
+        <v>7.0588235294117654</v>
       </c>
       <c r="F25">
-        <v>32.9</v>
+        <v>30.9</v>
       </c>
       <c r="G25" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.66749999999999987</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="H25">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I25">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="J25">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1.79</v>
-      </c>
-      <c r="M25">
-        <v>1.2</v>
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1.25</v>
       </c>
       <c r="N25">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" ref="O25:O26" si="2">60/N25</f>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="Q25">
+        <v>0.67</v>
+      </c>
+      <c r="R25">
+        <v>0.89</v>
+      </c>
+      <c r="S25">
         <v>0.78</v>
       </c>
-      <c r="R25">
-        <v>0.72</v>
-      </c>
-      <c r="S25">
-        <v>0.56999999999999995</v>
-      </c>
       <c r="T25">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="U25" s="2">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="V25" s="41" t="s">
         <v>86</v>
       </c>
       <c r="W25">
-        <v>455</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" t="s">
-        <v>188</v>
+      <c r="A26" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.068893203883496</v>
+        <v>2.0770714285714282</v>
       </c>
       <c r="D26" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.834951456310681</v>
+        <v>5.7857142857142856</v>
       </c>
       <c r="E26" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>10.679611650485437</v>
+        <v>7.1428571428571432</v>
       </c>
       <c r="F26">
-        <v>31.9</v>
+        <v>27.9</v>
       </c>
       <c r="G26" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.64000000000000012</v>
+        <v>0.80999999999999994</v>
       </c>
       <c r="H26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I26">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="J26">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1.69</v>
-      </c>
-      <c r="M26">
-        <v>1.1000000000000001</v>
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.7</v>
       </c>
       <c r="N26">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="Q26">
-        <v>0.73</v>
+        <v>0.87</v>
       </c>
       <c r="R26">
-        <v>0.68</v>
+        <v>0.9</v>
       </c>
       <c r="S26">
-        <v>0.55000000000000004</v>
+        <v>0.75</v>
       </c>
       <c r="T26">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="U26" s="2">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="V26" s="41" t="s">
         <v>87</v>
       </c>
       <c r="W26">
-        <v>460</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="1" t="s">
-        <v>190</v>
+      <c r="A27" t="s">
+        <v>193</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.751282352941177</v>
+        <v>2.8901650485436892</v>
       </c>
       <c r="D27" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>4.8352941176470594</v>
+        <v>6.4368932038834954</v>
       </c>
       <c r="E27" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>7.0588235294117654</v>
+        <v>11.650485436893204</v>
       </c>
       <c r="F27">
         <v>30.9</v>
       </c>
       <c r="G27" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.68500000000000005</v>
+        <v>0.55249999999999999</v>
       </c>
       <c r="H27">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I27">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="J27">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>1.3</v>
-      </c>
-      <c r="M27">
-        <v>1.25</v>
+        <v>3</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1.1000000000000001</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O27" s="2">
-        <v>0</v>
+        <f t="shared" ref="O27:O38" si="2">60/N27</f>
+        <v>0.15</v>
       </c>
       <c r="P27">
-        <v>0.4</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q27">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="R27">
-        <v>0.89</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="S27">
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
       <c r="T27">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="U27" s="2">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="V27" s="41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W27">
-        <v>410</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" t="s">
-        <v>191</v>
+      <c r="A28" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.0770714285714282</v>
+        <v>2.7113279329608941</v>
       </c>
       <c r="D28" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>5.7857142857142856</v>
+        <v>6.470949720670391</v>
       </c>
       <c r="E28" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>7.1428571428571432</v>
+        <v>11.061452513966481</v>
       </c>
       <c r="F28">
-        <v>27.9</v>
+        <v>29.9</v>
       </c>
       <c r="G28" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.80999999999999994</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="H28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I28">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J28">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0.7</v>
-      </c>
-      <c r="M28">
-        <v>0.7</v>
+        <v>3</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="O28" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P28">
-        <v>0.72</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Q28">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="R28">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="S28">
-        <v>0.75</v>
+        <v>0.49</v>
       </c>
       <c r="T28">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="U28" s="2">
-        <v>3.1</v>
+        <v>3.29</v>
       </c>
       <c r="V28" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="W28">
-        <v>185</v>
+        <v>86</v>
+      </c>
+      <c r="W28" s="54">
+        <f t="shared" ref="W28:W37" si="3">C28*$W$1</f>
+        <v>407.97351407262573</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>193</v>
+        <v>285</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.8901650485436892</v>
+        <v>3.0063312500000006</v>
       </c>
       <c r="D29" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.4368932038834954</v>
+        <v>6.1479166666666671</v>
       </c>
       <c r="E29" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>11.650485436893204</v>
+        <v>10.833333333333334</v>
       </c>
       <c r="F29">
-        <v>30.9</v>
+        <v>31.9</v>
       </c>
       <c r="G29" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.55249999999999999</v>
+        <v>0.5675</v>
       </c>
       <c r="H29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K29">
         <v>3</v>
       </c>
-      <c r="L29">
-        <v>1.69</v>
-      </c>
-      <c r="M29">
-        <v>1.1000000000000001</v>
+      <c r="L29" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1.35</v>
       </c>
       <c r="N29">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O29" s="2">
-        <f t="shared" ref="O29:O60" si="3">60/N29</f>
-        <v>0.15</v>
+        <f t="shared" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="P29">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Q29">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="R29">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S29">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="T29">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="U29" s="2">
-        <v>3.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="V29" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="W29">
-        <v>435</v>
+      <c r="W29" s="54">
+        <f t="shared" si="3"/>
+        <v>452.36266318750006</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>211</v>
-      </c>
-      <c r="B30" s="12">
-        <v>3</v>
+        <v>286</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
       </c>
       <c r="C30" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.4114572480181193</v>
+        <v>3.1005775862068958</v>
       </c>
       <c r="D30" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.3626840317100779</v>
+        <v>5.9741379310344822</v>
       </c>
       <c r="E30" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>11.211778029445071</v>
+        <v>10.344827586206897</v>
       </c>
       <c r="F30">
-        <v>24.9</v>
+        <v>34.9</v>
       </c>
       <c r="G30" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.5675</v>
+        <v>0.5774999999999999</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K30">
         <v>3</v>
       </c>
-      <c r="L30">
-        <v>1.51</v>
-      </c>
-      <c r="M30">
-        <v>1.1000000000000001</v>
+      <c r="L30" s="2">
+        <v>1.92</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1.45</v>
       </c>
       <c r="N30">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" si="3"/>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="P30">
-        <v>0.77</v>
+        <v>0.54</v>
       </c>
       <c r="Q30">
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
       <c r="R30">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="S30">
-        <v>0.3</v>
+        <v>0.51</v>
       </c>
       <c r="T30">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="U30" s="2">
-        <v>3.3</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="V30" s="41" t="s">
         <v>87</v>
       </c>
       <c r="W30" s="54">
-        <f>Table16810[[#This Row],[Balance]]*W1</f>
-        <v>362.85197210928641</v>
+        <f t="shared" si="3"/>
+        <v>466.54390939655161</v>
       </c>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B31" s="41">
+      <c r="A31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" s="12">
         <v>3</v>
       </c>
       <c r="C31" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.0127881355932202</v>
+        <v>2.4114572480181193</v>
       </c>
       <c r="D31" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.5638085742771688</v>
+        <v>6.3626840317100779</v>
       </c>
       <c r="E31" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>9.8703888334995025</v>
+        <v>11.211778029445071</v>
       </c>
       <c r="F31">
-        <v>32.9</v>
+        <v>24.9</v>
       </c>
       <c r="G31" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.66499999999999992</v>
+        <v>0.5675</v>
       </c>
       <c r="H31">
         <v>11</v>
@@ -43239,70 +43274,70 @@
       <c r="K31">
         <v>3</v>
       </c>
-      <c r="L31">
-        <v>1.79</v>
-      </c>
-      <c r="M31">
-        <v>1.22</v>
+      <c r="L31" s="2">
+        <v>1.51</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1.1000000000000001</v>
       </c>
       <c r="N31">
         <v>360</v>
       </c>
       <c r="O31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="P31">
-        <v>0.63</v>
+        <v>0.77</v>
       </c>
       <c r="Q31">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="R31">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="S31">
-        <v>0.56999999999999995</v>
+        <v>0.3</v>
       </c>
       <c r="T31">
         <v>70</v>
       </c>
       <c r="U31" s="2">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="V31" s="41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W31" s="54">
-        <f>Table16810[[#This Row],[Balance]]*W1</f>
-        <v>453.33423076271185</v>
+        <f t="shared" si="3"/>
+        <v>362.85197210928641</v>
       </c>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" t="s">
-        <v>212</v>
+      <c r="A32" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="B32" s="41">
         <v>3</v>
       </c>
       <c r="C32" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.1961697316103379</v>
+        <v>3.0127881355932202</v>
       </c>
       <c r="D32" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.8148608349900597</v>
+        <v>6.5638085742771688</v>
       </c>
       <c r="E32" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>9.8409542743538765</v>
+        <v>9.8703888334995025</v>
       </c>
       <c r="F32">
-        <v>33.9</v>
+        <v>32.9</v>
       </c>
       <c r="G32" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.6925</v>
+        <v>0.66499999999999992</v>
       </c>
       <c r="H32">
         <v>11</v>
@@ -43316,70 +43351,70 @@
       <c r="K32">
         <v>3</v>
       </c>
-      <c r="L32">
-        <v>1.8</v>
-      </c>
-      <c r="M32">
+      <c r="L32" s="2">
+        <v>1.79</v>
+      </c>
+      <c r="M32" s="2">
         <v>1.22</v>
       </c>
       <c r="N32">
         <v>360</v>
       </c>
       <c r="O32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="P32">
-        <v>0.72</v>
+        <v>0.63</v>
       </c>
       <c r="Q32">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="R32">
         <v>0.71</v>
       </c>
       <c r="S32">
-        <v>0.57999999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="T32">
         <v>70</v>
       </c>
       <c r="U32" s="2">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="V32" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W32" s="54">
-        <f>Table16810[[#This Row],[Balance]]*W1</f>
-        <v>480.92765951540753</v>
+        <f t="shared" si="3"/>
+        <v>453.33423076271185</v>
       </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B33" s="41">
         <v>3</v>
       </c>
       <c r="C33" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.6787115384615383</v>
+        <v>3.1961697316103379</v>
       </c>
       <c r="D33" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>5.7115384615384617</v>
+        <v>6.8148608349900597</v>
       </c>
       <c r="E33" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>8.4615384615384617</v>
+        <v>9.8409542743538765</v>
       </c>
       <c r="F33">
-        <v>30.9</v>
+        <v>33.9</v>
       </c>
       <c r="G33" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.67500000000000004</v>
+        <v>0.6925</v>
       </c>
       <c r="H33">
         <v>11</v>
@@ -43388,368 +43423,513 @@
         <v>0.5</v>
       </c>
       <c r="J33">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33">
-        <v>1.4</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1.22</v>
       </c>
       <c r="N33">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="O33" s="2">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P33">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="Q33">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="R33">
-        <v>0.85</v>
+        <v>0.71</v>
       </c>
       <c r="S33">
-        <v>0.5</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T33">
         <v>70</v>
       </c>
       <c r="U33" s="2">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="V33" s="41" t="s">
         <v>87</v>
       </c>
       <c r="W33" s="54">
-        <f>Table16810[[#This Row],[Balance]]*W1</f>
-        <v>403.06572519230764</v>
+        <f t="shared" si="3"/>
+        <v>480.92765951540753</v>
       </c>
     </row>
     <row r="34" spans="1:23">
-      <c r="A34" s="1" t="s">
-        <v>214</v>
+      <c r="A34" t="s">
+        <v>213</v>
       </c>
       <c r="B34" s="41">
         <v>3</v>
       </c>
       <c r="C34" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.3062499999999999</v>
+        <v>2.6787115384615383</v>
       </c>
       <c r="D34" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.2499999999999991</v>
+        <v>5.7115384615384617</v>
       </c>
       <c r="E34" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>9.9999999999999982</v>
+        <v>8.4615384615384617</v>
       </c>
       <c r="F34">
-        <v>26.9</v>
+        <v>30.9</v>
       </c>
       <c r="G34" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.625</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="H34">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I34">
         <v>0.5</v>
       </c>
       <c r="J34">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1.2</v>
+        <v>2</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="P34">
         <v>0.6</v>
       </c>
       <c r="Q34">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="R34">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="S34">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="T34">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="U34" s="2">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="V34" s="41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W34" s="54">
-        <f>Table16810[[#This Row],[Balance]]*W1</f>
-        <v>347.02143749999999</v>
+        <f t="shared" si="3"/>
+        <v>403.06572519230764</v>
       </c>
     </row>
     <row r="35" spans="1:23">
-      <c r="A35" t="s">
-        <v>215</v>
+      <c r="A35" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="B35" s="41">
         <v>3</v>
       </c>
       <c r="C35" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.1143688524590165</v>
+        <v>2.3062499999999999</v>
       </c>
       <c r="D35" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.3688524590163933</v>
+        <v>6.2499999999999991</v>
       </c>
       <c r="E35" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>9.8360655737704921</v>
+        <v>9.9999999999999982</v>
       </c>
       <c r="F35">
-        <v>32.9</v>
+        <v>26.9</v>
       </c>
       <c r="G35" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.64749999999999996</v>
+        <v>0.625</v>
       </c>
       <c r="H35">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I35">
         <v>0.5</v>
       </c>
       <c r="J35">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K35">
         <v>3</v>
       </c>
-      <c r="L35">
-        <v>1.7</v>
-      </c>
-      <c r="M35">
-        <v>1.1499999999999999</v>
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1.2</v>
       </c>
       <c r="N35">
         <v>600</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="P35">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="Q35">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="R35">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="S35">
         <v>0.55000000000000004</v>
       </c>
       <c r="T35">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="U35" s="2">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="V35" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W35" s="54">
-        <f>Table16810[[#This Row],[Balance]]*W1</f>
-        <v>468.6190812295082</v>
+        <f t="shared" si="3"/>
+        <v>347.02143749999999</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B36" s="41">
         <v>3</v>
       </c>
       <c r="C36" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.2709189189189187</v>
+        <v>3.1143688524590165</v>
       </c>
       <c r="D36" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>5.8378378378378377</v>
+        <v>6.3688524590163933</v>
       </c>
       <c r="E36" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>9.7297297297297298</v>
+        <v>9.8360655737704921</v>
       </c>
       <c r="F36">
-        <v>28.9</v>
+        <v>32.9</v>
       </c>
       <c r="G36" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.6</v>
+        <v>0.64749999999999996</v>
       </c>
       <c r="H36">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I36">
         <v>0.5</v>
       </c>
       <c r="J36">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K36">
         <v>3</v>
       </c>
-      <c r="L36">
-        <v>1.2</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
+      <c r="L36" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1.1499999999999999</v>
       </c>
       <c r="N36">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="O36" s="2">
-        <f t="shared" si="3"/>
-        <v>0.13333333333333333</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="P36">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="Q36">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="R36">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="S36">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="T36">
         <v>70</v>
       </c>
       <c r="U36" s="2">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="V36" s="41" t="s">
         <v>87</v>
       </c>
       <c r="W36" s="54">
-        <f>Table16810[[#This Row],[Balance]]*W1</f>
-        <v>341.70516972972968</v>
+        <f t="shared" si="3"/>
+        <v>468.6190812295082</v>
       </c>
     </row>
     <row r="37" spans="1:23">
-      <c r="C37" s="2" t="e">
+      <c r="A37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37" s="41">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D37" s="3" t="e">
+        <v>2.2709189189189187</v>
+      </c>
+      <c r="D37" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E37" s="2" t="e">
+        <v>5.8378378378378377</v>
+      </c>
+      <c r="E37" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>9.7297297297297298</v>
+      </c>
+      <c r="F37">
+        <v>28.9</v>
       </c>
       <c r="G37" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O37" s="2" t="e">
+        <v>0.6</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>0.5</v>
+      </c>
+      <c r="J37">
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="M37" s="2">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>450</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" si="2"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P37">
+        <v>0.6</v>
+      </c>
+      <c r="Q37">
+        <v>0.7</v>
+      </c>
+      <c r="R37">
+        <v>0.6</v>
+      </c>
+      <c r="S37">
+        <v>0.5</v>
+      </c>
+      <c r="T37">
+        <v>70</v>
+      </c>
+      <c r="U37" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="V37" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="W37" s="54">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>341.70516972972968</v>
       </c>
     </row>
     <row r="38" spans="1:23">
-      <c r="C38" s="2" t="e">
+      <c r="A38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D38" s="3" t="e">
+        <v>3.1889423076923071</v>
+      </c>
+      <c r="D38" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E38" s="2" t="e">
+        <v>6.7994505494505484</v>
+      </c>
+      <c r="E38" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>10.879120879120878</v>
+      </c>
+      <c r="F38">
+        <v>30.9</v>
       </c>
       <c r="G38" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O38" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.625</v>
+      </c>
+      <c r="H38">
+        <v>11</v>
+      </c>
+      <c r="I38">
+        <v>0.5</v>
+      </c>
+      <c r="J38">
+        <v>16</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>360</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P38">
+        <v>0.6</v>
+      </c>
+      <c r="Q38">
+        <v>0.7</v>
+      </c>
+      <c r="R38">
+        <v>0.65</v>
+      </c>
+      <c r="S38">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T38">
+        <v>70</v>
+      </c>
+      <c r="U38" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="W38">
+        <v>480</v>
       </c>
     </row>
     <row r="39" spans="1:23">
-      <c r="C39" s="2" t="e">
+      <c r="A39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D39" s="3" t="e">
+        <v>2.8305703125000004</v>
+      </c>
+      <c r="D39" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E39" s="2" t="e">
+        <v>4.4296875000000009</v>
+      </c>
+      <c r="E39" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>5.625</v>
+      </c>
+      <c r="F39">
+        <v>36.9</v>
       </c>
       <c r="G39" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.78750000000000009</v>
+      </c>
+      <c r="H39">
+        <v>18</v>
+      </c>
+      <c r="I39">
+        <v>1.5</v>
+      </c>
+      <c r="J39">
+        <v>27</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0.65</v>
+      </c>
+      <c r="Q39">
+        <v>0.8</v>
+      </c>
+      <c r="R39">
+        <v>0.9</v>
+      </c>
+      <c r="S39">
+        <v>0.8</v>
+      </c>
+      <c r="T39">
+        <v>70</v>
+      </c>
+      <c r="U39" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="W39">
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:23">
-      <c r="C40" s="2" t="e">
-        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="3" t="e">
-        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="2" t="e">
-        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G40" s="2">
-        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="W40" s="54"/>
     </row>
     <row r="41" spans="1:23">
       <c r="C41" s="2" t="e">
@@ -43768,10 +43948,13 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
       <c r="O41" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" ref="O41:O72" si="4">60/N41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U41" s="2"/>
     </row>
     <row r="42" spans="1:23">
       <c r="C42" s="2" t="e">
@@ -43790,10 +43973,13 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
       <c r="O42" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U42" s="2"/>
     </row>
     <row r="43" spans="1:23">
       <c r="C43" s="2" t="e">
@@ -43812,10 +43998,13 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
       <c r="O43" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U43" s="2"/>
     </row>
     <row r="44" spans="1:23">
       <c r="C44" s="2" t="e">
@@ -43834,10 +44023,13 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
       <c r="O44" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U44" s="2"/>
     </row>
     <row r="45" spans="1:23">
       <c r="C45" s="2" t="e">
@@ -43856,10 +44048,13 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
       <c r="O45" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U45" s="2"/>
     </row>
     <row r="46" spans="1:23">
       <c r="C46" s="2" t="e">
@@ -43878,10 +44073,13 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
       <c r="O46" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U46" s="2"/>
     </row>
     <row r="47" spans="1:23">
       <c r="C47" s="2" t="e">
@@ -43900,10 +44098,13 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
       <c r="O47" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U47" s="2"/>
     </row>
     <row r="48" spans="1:23">
       <c r="C48" s="2" t="e">
@@ -43922,12 +44123,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
       <c r="O48" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U48" s="2"/>
+    </row>
+    <row r="49" spans="3:21">
       <c r="C49" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -43944,12 +44148,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
       <c r="O49" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="3:15">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U49" s="2"/>
+    </row>
+    <row r="50" spans="3:21">
       <c r="C50" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -43966,12 +44173,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
       <c r="O50" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="3:15">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U50" s="2"/>
+    </row>
+    <row r="51" spans="3:21">
       <c r="C51" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -43988,12 +44198,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
       <c r="O51" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="52" spans="3:15">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U51" s="2"/>
+    </row>
+    <row r="52" spans="3:21">
       <c r="C52" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44010,12 +44223,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
       <c r="O52" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U52" s="2"/>
+    </row>
+    <row r="53" spans="3:21">
       <c r="C53" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44032,12 +44248,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
       <c r="O53" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="54" spans="3:15">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U53" s="2"/>
+    </row>
+    <row r="54" spans="3:21">
       <c r="C54" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44054,12 +44273,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
       <c r="O54" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U54" s="2"/>
+    </row>
+    <row r="55" spans="3:21">
       <c r="C55" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44076,12 +44298,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
       <c r="O55" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="56" spans="3:15">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U55" s="2"/>
+    </row>
+    <row r="56" spans="3:21">
       <c r="C56" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44098,12 +44323,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
       <c r="O56" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="57" spans="3:15">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U56" s="2"/>
+    </row>
+    <row r="57" spans="3:21">
       <c r="C57" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44120,12 +44348,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
       <c r="O57" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U57" s="2"/>
+    </row>
+    <row r="58" spans="3:21">
       <c r="C58" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44142,12 +44373,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
       <c r="O58" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U58" s="2"/>
+    </row>
+    <row r="59" spans="3:21">
       <c r="C59" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44164,12 +44398,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
       <c r="O59" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U59" s="2"/>
+    </row>
+    <row r="60" spans="3:21">
       <c r="C60" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44186,12 +44423,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
       <c r="O60" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U60" s="2"/>
+    </row>
+    <row r="61" spans="3:21">
       <c r="C61" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44208,12 +44448,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
       <c r="O61" s="2" t="e">
-        <f t="shared" ref="O61:O92" si="4">60/N61</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="62" spans="3:15">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U61" s="2"/>
+    </row>
+    <row r="62" spans="3:21">
       <c r="C62" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44230,12 +44473,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
       <c r="O62" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="63" spans="3:15">
+      <c r="U62" s="2"/>
+    </row>
+    <row r="63" spans="3:21">
       <c r="C63" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44252,12 +44498,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
       <c r="O63" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="64" spans="3:15">
+      <c r="U63" s="2"/>
+    </row>
+    <row r="64" spans="3:21">
       <c r="C64" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44274,12 +44523,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
       <c r="O64" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="65" spans="3:15">
+      <c r="U64" s="2"/>
+    </row>
+    <row r="65" spans="3:21">
       <c r="C65" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44296,12 +44548,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
       <c r="O65" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="66" spans="3:15">
+      <c r="U65" s="2"/>
+    </row>
+    <row r="66" spans="3:21">
       <c r="C66" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44318,12 +44573,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
       <c r="O66" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="67" spans="3:15">
+      <c r="U66" s="2"/>
+    </row>
+    <row r="67" spans="3:21">
       <c r="C67" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44340,12 +44598,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
       <c r="O67" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="68" spans="3:15">
+      <c r="U67" s="2"/>
+    </row>
+    <row r="68" spans="3:21">
       <c r="C68" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44362,12 +44623,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
       <c r="O68" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="69" spans="3:15">
+      <c r="U68" s="2"/>
+    </row>
+    <row r="69" spans="3:21">
       <c r="C69" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44384,12 +44648,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
       <c r="O69" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="70" spans="3:15">
+      <c r="U69" s="2"/>
+    </row>
+    <row r="70" spans="3:21">
       <c r="C70" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44406,12 +44673,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
       <c r="O70" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="71" spans="3:15">
+      <c r="U70" s="2"/>
+    </row>
+    <row r="71" spans="3:21">
       <c r="C71" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44428,12 +44698,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
       <c r="O71" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="72" spans="3:15">
+      <c r="U71" s="2"/>
+    </row>
+    <row r="72" spans="3:21">
       <c r="C72" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44450,12 +44723,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
       <c r="O72" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="73" spans="3:15">
+      <c r="U72" s="2"/>
+    </row>
+    <row r="73" spans="3:21">
       <c r="C73" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44472,12 +44748,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
       <c r="O73" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="74" spans="3:15">
+        <f t="shared" ref="O73:O104" si="5">60/N73</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U73" s="2"/>
+    </row>
+    <row r="74" spans="3:21">
       <c r="C74" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44494,12 +44773,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
       <c r="O74" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="75" spans="3:15">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U74" s="2"/>
+    </row>
+    <row r="75" spans="3:21">
       <c r="C75" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44516,12 +44798,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
       <c r="O75" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="76" spans="3:15">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U75" s="2"/>
+    </row>
+    <row r="76" spans="3:21">
       <c r="C76" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44538,12 +44823,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
       <c r="O76" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="77" spans="3:15">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U76" s="2"/>
+    </row>
+    <row r="77" spans="3:21">
       <c r="C77" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44560,12 +44848,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
       <c r="O77" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="78" spans="3:15">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U77" s="2"/>
+    </row>
+    <row r="78" spans="3:21">
       <c r="C78" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44582,12 +44873,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
       <c r="O78" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="79" spans="3:15">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U78" s="2"/>
+    </row>
+    <row r="79" spans="3:21">
       <c r="C79" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44604,12 +44898,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
       <c r="O79" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="80" spans="3:15">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U79" s="2"/>
+    </row>
+    <row r="80" spans="3:21">
       <c r="C80" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44626,12 +44923,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
       <c r="O80" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U80" s="2"/>
+    </row>
+    <row r="81" spans="3:21">
       <c r="C81" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44648,12 +44948,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
       <c r="O81" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U81" s="2"/>
+    </row>
+    <row r="82" spans="3:21">
       <c r="C82" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44670,12 +44973,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
       <c r="O82" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="83" spans="3:15">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U82" s="2"/>
+    </row>
+    <row r="83" spans="3:21">
       <c r="C83" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44692,12 +44998,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
       <c r="O83" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U83" s="2"/>
+    </row>
+    <row r="84" spans="3:21">
       <c r="C84" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44714,12 +45023,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
       <c r="O84" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="85" spans="3:15">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U84" s="2"/>
+    </row>
+    <row r="85" spans="3:21">
       <c r="C85" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44736,12 +45048,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
       <c r="O85" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="86" spans="3:15">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U85" s="2"/>
+    </row>
+    <row r="86" spans="3:21">
       <c r="C86" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44758,12 +45073,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
       <c r="O86" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="87" spans="3:15">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U86" s="2"/>
+    </row>
+    <row r="87" spans="3:21">
       <c r="C87" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44780,12 +45098,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
       <c r="O87" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="88" spans="3:15">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U87" s="2"/>
+    </row>
+    <row r="88" spans="3:21">
       <c r="C88" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44802,12 +45123,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
       <c r="O88" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="89" spans="3:15">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U88" s="2"/>
+    </row>
+    <row r="89" spans="3:21">
       <c r="C89" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44824,12 +45148,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
       <c r="O89" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U89" s="2"/>
+    </row>
+    <row r="90" spans="3:21">
       <c r="C90" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44846,12 +45173,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
       <c r="O90" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="91" spans="3:15">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U90" s="2"/>
+    </row>
+    <row r="91" spans="3:21">
       <c r="C91" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44868,12 +45198,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
       <c r="O91" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U91" s="2"/>
+    </row>
+    <row r="92" spans="3:21">
       <c r="C92" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44890,12 +45223,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
       <c r="O92" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="93" spans="3:15">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U92" s="2"/>
+    </row>
+    <row r="93" spans="3:21">
       <c r="C93" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44912,12 +45248,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
       <c r="O93" s="2" t="e">
-        <f t="shared" ref="O93:O123" si="5">60/N93</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="94" spans="3:15">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U93" s="2"/>
+    </row>
+    <row r="94" spans="3:21">
       <c r="C94" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44934,12 +45273,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
       <c r="O94" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="95" spans="3:15">
+      <c r="U94" s="2"/>
+    </row>
+    <row r="95" spans="3:21">
       <c r="C95" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44956,12 +45298,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
       <c r="O95" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="96" spans="3:15">
+      <c r="U95" s="2"/>
+    </row>
+    <row r="96" spans="3:21">
       <c r="C96" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -44978,12 +45323,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
       <c r="O96" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="97" spans="3:15">
+      <c r="U96" s="2"/>
+    </row>
+    <row r="97" spans="3:21">
       <c r="C97" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45000,12 +45348,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
       <c r="O97" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="98" spans="3:15">
+      <c r="U97" s="2"/>
+    </row>
+    <row r="98" spans="3:21">
       <c r="C98" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45022,12 +45373,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
       <c r="O98" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="99" spans="3:15">
+      <c r="U98" s="2"/>
+    </row>
+    <row r="99" spans="3:21">
       <c r="C99" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45044,12 +45398,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
       <c r="O99" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="100" spans="3:15">
+      <c r="U99" s="2"/>
+    </row>
+    <row r="100" spans="3:21">
       <c r="C100" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45066,12 +45423,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
       <c r="O100" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="101" spans="3:15">
+      <c r="U100" s="2"/>
+    </row>
+    <row r="101" spans="3:21">
       <c r="C101" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45088,12 +45448,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
       <c r="O101" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="102" spans="3:15">
+      <c r="U101" s="2"/>
+    </row>
+    <row r="102" spans="3:21">
       <c r="C102" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45110,12 +45473,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
       <c r="O102" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="103" spans="3:15">
+      <c r="U102" s="2"/>
+    </row>
+    <row r="103" spans="3:21">
       <c r="C103" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45132,12 +45498,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
       <c r="O103" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="104" spans="3:15">
+      <c r="U103" s="2"/>
+    </row>
+    <row r="104" spans="3:21">
       <c r="C104" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45154,12 +45523,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
       <c r="O104" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="105" spans="3:15">
+      <c r="U104" s="2"/>
+    </row>
+    <row r="105" spans="3:21">
       <c r="C105" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45176,12 +45548,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
       <c r="O105" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="106" spans="3:15">
+        <f t="shared" ref="O105:O123" si="6">60/N105</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U105" s="2"/>
+    </row>
+    <row r="106" spans="3:21">
       <c r="C106" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45198,12 +45573,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
       <c r="O106" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="107" spans="3:15">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U106" s="2"/>
+    </row>
+    <row r="107" spans="3:21">
       <c r="C107" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45220,12 +45598,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
       <c r="O107" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="108" spans="3:15">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U107" s="2"/>
+    </row>
+    <row r="108" spans="3:21">
       <c r="C108" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45242,12 +45623,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
       <c r="O108" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="109" spans="3:15">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U108" s="2"/>
+    </row>
+    <row r="109" spans="3:21">
       <c r="C109" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45264,12 +45648,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
       <c r="O109" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="110" spans="3:15">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U109" s="2"/>
+    </row>
+    <row r="110" spans="3:21">
       <c r="C110" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45286,12 +45673,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
       <c r="O110" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="111" spans="3:15">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U110" s="2"/>
+    </row>
+    <row r="111" spans="3:21">
       <c r="C111" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45308,12 +45698,15 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
       <c r="O111" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="112" spans="3:15">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U111" s="2"/>
+    </row>
+    <row r="112" spans="3:21">
       <c r="C112" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45330,10 +45723,13 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
       <c r="O112" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U112" s="2"/>
     </row>
     <row r="113" spans="1:23">
       <c r="C113" s="2" t="e">
@@ -45352,10 +45748,13 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
       <c r="O113" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U113" s="2"/>
     </row>
     <row r="114" spans="1:23">
       <c r="C114" s="2" t="e">
@@ -45374,10 +45773,13 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
       <c r="O114" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U114" s="2"/>
     </row>
     <row r="115" spans="1:23">
       <c r="C115" s="2" t="e">
@@ -45396,10 +45798,13 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
       <c r="O115" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U115" s="2"/>
     </row>
     <row r="116" spans="1:23">
       <c r="C116" s="2" t="e">
@@ -45418,10 +45823,13 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
       <c r="O116" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U116" s="2"/>
     </row>
     <row r="117" spans="1:23">
       <c r="C117" s="2" t="e">
@@ -45440,10 +45848,13 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
       <c r="O117" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U117" s="2"/>
     </row>
     <row r="118" spans="1:23">
       <c r="C118" s="2" t="e">
@@ -45462,10 +45873,13 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
       <c r="O118" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U118" s="2"/>
     </row>
     <row r="119" spans="1:23">
       <c r="C119" s="2" t="e">
@@ -45484,10 +45898,13 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
       <c r="O119" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U119" s="2"/>
     </row>
     <row r="120" spans="1:23">
       <c r="C120" s="2" t="e">
@@ -45506,10 +45923,13 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
       <c r="O120" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U120" s="2"/>
     </row>
     <row r="121" spans="1:23">
       <c r="C121" s="2" t="e">
@@ -45528,10 +45948,13 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
       <c r="O121" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U121" s="2"/>
     </row>
     <row r="122" spans="1:23">
       <c r="C122" s="2" t="e">
@@ -45550,10 +45973,13 @@
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
       <c r="O122" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U122" s="2"/>
     </row>
     <row r="123" spans="1:23">
       <c r="A123" s="7"/>
@@ -45579,11 +46005,11 @@
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
-      <c r="L123" s="7"/>
-      <c r="M123" s="7"/>
+      <c r="L123" s="8"/>
+      <c r="M123" s="8"/>
       <c r="N123" s="7"/>
       <c r="O123" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P123" s="7"/>
@@ -45591,18 +46017,18 @@
       <c r="R123" s="7"/>
       <c r="S123" s="7"/>
       <c r="T123" s="7"/>
-      <c r="U123" s="7"/>
+      <c r="U123" s="8"/>
       <c r="V123" s="48"/>
       <c r="W123" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C997">
-    <cfRule type="cellIs" dxfId="68" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="greaterThan">
       <formula>3.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O123">
-    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45619,7 +46045,7 @@
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -46944,7 +47370,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -47883,7 +48309,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -48951,7 +49377,7 @@
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F20:F21"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49685,7 +50111,7 @@
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -50035,70 +50461,168 @@
       <c r="T6" s="17">
         <v>55</v>
       </c>
-      <c r="U6" s="18">
+      <c r="U6" s="35">
         <v>3.4</v>
       </c>
-      <c r="V6" s="24" t="s">
+      <c r="V6" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="W6" s="59">
+      <c r="W6" s="58">
         <f>Table16810111213[[#This Row],[Balance]]*W1</f>
         <v>241.25181780000003</v>
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="B7" s="4"/>
-      <c r="C7" s="2" t="e">
+      <c r="A7" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="3" t="e">
+        <v>1.4337599999999997</v>
+      </c>
+      <c r="D7" s="3">
         <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="2" t="e">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="E7" s="2">
         <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>6.4</v>
+      </c>
+      <c r="F7">
+        <v>18.899999999999999</v>
       </c>
       <c r="G7" s="2">
         <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="2" t="e">
-        <f t="shared" ref="O7:O19" si="0">60/N7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T7" s="19"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1.5</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="P7">
+        <v>0.8</v>
+      </c>
+      <c r="Q7">
+        <v>0.9</v>
+      </c>
+      <c r="R7">
+        <v>0.8</v>
+      </c>
+      <c r="S7">
+        <v>0.4</v>
+      </c>
+      <c r="T7" s="19">
+        <v>55</v>
+      </c>
+      <c r="U7" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="V7" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="W7" s="58">
+        <f>Table16810111213[[#This Row],[Balance]]*W1</f>
+        <v>189.43410623999995</v>
+      </c>
     </row>
     <row r="8" spans="1:23">
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="e">
+      <c r="A8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D8" s="3" t="e">
+        <v>1.9347900000000002</v>
+      </c>
+      <c r="D8" s="3">
         <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="2" t="e">
+        <v>5.2433333333333341</v>
+      </c>
+      <c r="E8" s="2">
         <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="F8">
+        <v>18.899999999999999</v>
       </c>
       <c r="G8" s="2">
         <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T8" s="17"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
+        <v>0.71500000000000008</v>
+      </c>
+      <c r="H8">
+        <v>22</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1.8</v>
+      </c>
+      <c r="M8">
+        <v>1.2</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="P8">
+        <v>0.8</v>
+      </c>
+      <c r="Q8">
+        <v>0.88</v>
+      </c>
+      <c r="R8">
+        <v>0.79</v>
+      </c>
+      <c r="S8">
+        <v>0.39</v>
+      </c>
+      <c r="T8" s="17">
+        <v>55</v>
+      </c>
+      <c r="U8" s="35">
+        <v>3.6</v>
+      </c>
+      <c r="V8" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="W8" s="58">
+        <f>Table16810111213[[#This Row],[Balance]]*W1</f>
+        <v>255.63219396000002</v>
+      </c>
     </row>
     <row r="9" spans="1:23">
       <c r="B9" s="4"/>
@@ -50119,7 +50643,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O9:O19" si="0">60/N9</f>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Handgun" sheetId="8" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="303">
   <si>
     <t>Weapon Stats - Sleepy's Weapons</t>
   </si>
@@ -895,12 +895,54 @@
   <si>
     <t>MIROKU MK70</t>
   </si>
+  <si>
+    <t>Maxim 9*</t>
+  </si>
+  <si>
+    <t>Colt Python</t>
+  </si>
+  <si>
+    <t>S&amp;W 460*</t>
+  </si>
+  <si>
+    <t>S&amp;W 500*</t>
+  </si>
+  <si>
+    <t>Keltec CP33*</t>
+  </si>
+  <si>
+    <t>Keltec P50*</t>
+  </si>
+  <si>
+    <t>STR9S</t>
+  </si>
+  <si>
+    <t>Thompson M1</t>
+  </si>
+  <si>
+    <t>DPMS GII 308AR*</t>
+  </si>
+  <si>
+    <t>M200 Intervention</t>
+  </si>
+  <si>
+    <t>M870</t>
+  </si>
+  <si>
+    <t>M870 Breacher</t>
+  </si>
+  <si>
+    <t>M1919*</t>
+  </si>
+  <si>
+    <t>MG42*</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -980,6 +1022,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00823B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1099,7 +1148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1183,12 +1232,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="98">
+  <dxfs count="100">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2056,8 +2123,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1689" displayName="Table1689" ref="A3:W26" totalsRowShown="0">
-  <autoFilter ref="A3:W26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1689" displayName="Table1689" ref="A3:W51" totalsRowShown="0">
+  <autoFilter ref="A3:W51">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -2074,17 +2141,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="95">
+    <tableColumn id="22" name="Balance" dataDxfId="97">
       <calculatedColumnFormula>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="94">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="96">
       <calculatedColumnFormula>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="93">
+    <tableColumn id="15" name="DPS" dataDxfId="95">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="92">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="94">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2094,7 +2161,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="91">
+    <tableColumn id="7" name="Burst Time" dataDxfId="93">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2130,13 +2197,13 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="24">
+    <tableColumn id="22" name="Balance" dataDxfId="26">
       <calculatedColumnFormula>SUM(((Table168101112133[[#This Row],[DPS]]*Table168101112133[[#This Row],[Avg Cooldown]])+((Table168101112133[[#This Row],[DPS]]*(Table168101112133[[#This Row],[HPM]])))+P4)/100)+(Table168101112133[[#This Row],[ArmPen+]]/5)+(Table168101112133[[#This Row],[ExtraDamFactor]]/20)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="23">
+    <tableColumn id="15" name="DPS" dataDxfId="25">
       <calculatedColumnFormula>SUM(Table168101112133[[#This Row],[Avg DAM]]*Table168101112133[[#This Row],[HPS]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Avg DAM" dataDxfId="22">
+    <tableColumn id="3" name="Avg DAM" dataDxfId="24">
       <calculatedColumnFormula>Formulas!U5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage 1"/>
@@ -2148,23 +2215,23 @@
     <tableColumn id="25" name="Damage 4"/>
     <tableColumn id="30" name="Cooldown 4"/>
     <tableColumn id="34" name="Extra Dam"/>
-    <tableColumn id="32" name="Extra Dam C%" dataDxfId="21"/>
-    <tableColumn id="33" name="ExtraDamFactor" dataDxfId="20">
+    <tableColumn id="32" name="Extra Dam C%" dataDxfId="23"/>
+    <tableColumn id="33" name="ExtraDamFactor" dataDxfId="22">
       <calculatedColumnFormula>IF(Table168101112133[[#This Row],[Extra Dam C%]]="N/A",0,SUM((Table168101112133[[#This Row],[Extra Dam C%]]*Table168101112133[[#This Row],[Extra Dam]])))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="31" name="ArmPen+"/>
-    <tableColumn id="4" name="Avg Cooldown" dataDxfId="19">
+    <tableColumn id="4" name="Avg Cooldown" dataDxfId="21">
       <calculatedColumnFormula>Formulas!AP5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="HPM" dataDxfId="18">
+    <tableColumn id="6" name="HPM" dataDxfId="20">
       <calculatedColumnFormula>SUM(60/Table168101112133[[#This Row],[Avg Cooldown]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="HPS" dataDxfId="17">
+    <tableColumn id="7" name="HPS" dataDxfId="19">
       <calculatedColumnFormula>SUM(Table168101112133[[#This Row],[HPM]]/60)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Weight" dataDxfId="16"/>
+    <tableColumn id="14" name="Weight" dataDxfId="18"/>
     <tableColumn id="21" name="Craftable"/>
-    <tableColumn id="5" name="Value" dataDxfId="15"/>
+    <tableColumn id="5" name="Value" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2192,21 +2259,21 @@
   <tableColumns count="17">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="3" name="Range" dataDxfId="14"/>
-    <tableColumn id="4" name="Damage" dataDxfId="13"/>
-    <tableColumn id="5" name="AP" dataDxfId="12"/>
-    <tableColumn id="6" name="Stopping Power" dataDxfId="11"/>
-    <tableColumn id="15" name="ForcedMiss" dataDxfId="10"/>
-    <tableColumn id="11" name="DetDelay" dataDxfId="9"/>
-    <tableColumn id="10" name="Blast Range" dataDxfId="8"/>
-    <tableColumn id="8" name="Warm-Up" dataDxfId="7"/>
-    <tableColumn id="9" name="Cooldown" dataDxfId="6"/>
-    <tableColumn id="20" name="Burst" dataDxfId="5"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="4"/>
-    <tableColumn id="14" name="Weight" dataDxfId="3"/>
-    <tableColumn id="7" name="Single Use" dataDxfId="2"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="1"/>
-    <tableColumn id="2" name="Accuracy" dataDxfId="0"/>
+    <tableColumn id="3" name="Range" dataDxfId="16"/>
+    <tableColumn id="4" name="Damage" dataDxfId="15"/>
+    <tableColumn id="5" name="AP" dataDxfId="14"/>
+    <tableColumn id="6" name="Stopping Power" dataDxfId="13"/>
+    <tableColumn id="15" name="ForcedMiss" dataDxfId="12"/>
+    <tableColumn id="11" name="DetDelay" dataDxfId="11"/>
+    <tableColumn id="10" name="Blast Range" dataDxfId="10"/>
+    <tableColumn id="8" name="Warm-Up" dataDxfId="9"/>
+    <tableColumn id="9" name="Cooldown" dataDxfId="8"/>
+    <tableColumn id="20" name="Burst" dataDxfId="7"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="6"/>
+    <tableColumn id="14" name="Weight" dataDxfId="5"/>
+    <tableColumn id="7" name="Single Use" dataDxfId="4"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="3"/>
+    <tableColumn id="2" name="Accuracy" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2230,18 +2297,18 @@
   </autoFilter>
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="89"/>
-    <tableColumn id="22" name="Balance" dataDxfId="88">
+    <tableColumn id="12" name="Vol." dataDxfId="91"/>
+    <tableColumn id="22" name="Balance" dataDxfId="90">
       <calculatedColumnFormula>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="87">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="89">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="86">
+    <tableColumn id="15" name="DPS" dataDxfId="88">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="85">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="87">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2251,7 +2318,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="84">
+    <tableColumn id="7" name="Burst Time" dataDxfId="86">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2285,18 +2352,18 @@
   </autoFilter>
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="81"/>
-    <tableColumn id="22" name="Balance" dataDxfId="80">
+    <tableColumn id="12" name="Vol." dataDxfId="83"/>
+    <tableColumn id="22" name="Balance" dataDxfId="82">
       <calculatedColumnFormula>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="79">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="81">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="78">
+    <tableColumn id="15" name="DPS" dataDxfId="80">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Damage]]*Table16[[#This Row],[Burst]])/(Table16[[#This Row],[Ranged Cooldown]]+Table16[[#This Row],[Warm-up]]+(Table16[[#This Row],[Burst Time]]*(Table16[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="77">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="79">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2306,17 +2373,17 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="76">
+    <tableColumn id="7" name="Burst Time" dataDxfId="78">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="75"/>
-    <tableColumn id="14" name="Weight" dataDxfId="74"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="73"/>
-    <tableColumn id="23" name="Value" dataDxfId="72"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="77"/>
+    <tableColumn id="14" name="Weight" dataDxfId="76"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="75"/>
+    <tableColumn id="23" name="Value" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2344,27 +2411,27 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="69">
+    <tableColumn id="22" name="Balance" dataDxfId="71">
       <calculatedColumnFormula>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="68">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="70">
       <calculatedColumnFormula>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="67">
+    <tableColumn id="15" name="DPS" dataDxfId="69">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="66">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="68">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
     <tableColumn id="18" name="Stopping Pwr"/>
     <tableColumn id="19" name="Arm Pen (%)"/>
     <tableColumn id="3" name="Burst"/>
-    <tableColumn id="4" name="Ranged Cooldown" dataDxfId="65"/>
-    <tableColumn id="5" name="Warm-up" dataDxfId="64"/>
+    <tableColumn id="4" name="Ranged Cooldown" dataDxfId="67"/>
+    <tableColumn id="5" name="Warm-up" dataDxfId="66"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="63">
+    <tableColumn id="7" name="Burst Time" dataDxfId="65">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2372,8 +2439,8 @@
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
     <tableColumn id="13" name="Bullet Speed"/>
-    <tableColumn id="14" name="Weight" dataDxfId="62"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="61"/>
+    <tableColumn id="14" name="Weight" dataDxfId="64"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="63"/>
     <tableColumn id="23" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2381,8 +2448,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table1681011" displayName="Table1681011" ref="A3:W19" totalsRowShown="0">
-  <autoFilter ref="A3:W19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table1681011" displayName="Table1681011" ref="A3:W37" totalsRowShown="0">
+  <autoFilter ref="A3:W37">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -2399,17 +2466,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="58">
+    <tableColumn id="22" name="Balance" dataDxfId="60">
       <calculatedColumnFormula>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="57">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="59">
       <calculatedColumnFormula>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="56">
+    <tableColumn id="15" name="DPS" dataDxfId="58">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="55">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="57">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2419,17 +2486,17 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="54">
+    <tableColumn id="7" name="Burst Time" dataDxfId="56">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="53"/>
-    <tableColumn id="14" name="Weight" dataDxfId="52"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="51"/>
-    <tableColumn id="23" name="Value" dataDxfId="50"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="55"/>
+    <tableColumn id="14" name="Weight" dataDxfId="54"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="53"/>
+    <tableColumn id="23" name="Value" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2454,17 +2521,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="48">
+    <tableColumn id="22" name="Balance" dataDxfId="50">
       <calculatedColumnFormula>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="47">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="49">
       <calculatedColumnFormula>SUM(Table1681015[[#This Row],[DPS]]*Table1681015[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="46">
+    <tableColumn id="15" name="DPS" dataDxfId="48">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Damage]]*Table1681015[[#This Row],[Burst]])/(Table1681015[[#This Row],[Ranged Cooldown]]+Table1681015[[#This Row],[Warm-up]]+(Table1681015[[#This Row],[Burst Time]]*(Table1681015[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="45">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="47">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Accuracy (Close)]]+Table1681015[[#This Row],[Accuracy (Short)]]+Table1681015[[#This Row],[Accuracy (Medium)]]+Table1681015[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2474,7 +2541,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="44">
+    <tableColumn id="7" name="Burst Time" dataDxfId="46">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2506,20 +2573,23 @@
     <filterColumn colId="21"/>
     <filterColumn colId="22"/>
   </autoFilter>
+  <sortState ref="A4:W20">
+    <sortCondition ref="B3:B20"/>
+  </sortState>
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="42">
+    <tableColumn id="22" name="Balance" dataDxfId="44">
       <calculatedColumnFormula>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="41">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="43">
       <calculatedColumnFormula>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="40">
+    <tableColumn id="15" name="DPS" dataDxfId="42">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="39">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="41">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2529,7 +2599,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="38">
+    <tableColumn id="7" name="Burst Time" dataDxfId="40">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2555,17 +2625,17 @@
   <tableColumns count="26">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="36">
+    <tableColumn id="22" name="Balance" dataDxfId="38">
       <calculatedColumnFormula>SUM(((Table1681011124[[#This Row],[Avg DPS]]*(Table1681011124[[#This Row],[Range]]))+(Table1681011124[[#This Row],[Avg DPS]]*Table1681011124[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="35">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="37">
       <calculatedColumnFormula>SUM(Table1681011124[[#This Row],[DPS]]*Table1681011124[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="34">
+    <tableColumn id="15" name="DPS" dataDxfId="36">
       <calculatedColumnFormula>SUM((Table1681011124[[#This Row],[Damage]]*Table1681011124[[#This Row],[Burst]])/(Table1681011124[[#This Row],[Ranged Cooldown]]+Table1681011124[[#This Row],[Warm-up]]+(Table1681011124[[#This Row],[Burst Time]]*(Table1681011124[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="33">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="35">
       <calculatedColumnFormula>SUM((Table1681011124[[#This Row],[Accuracy (Close)]]+Table1681011124[[#This Row],[Accuracy (Short)]]+Table1681011124[[#This Row],[Accuracy (Medium)]]+Table1681011124[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2575,7 +2645,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="32">
+    <tableColumn id="7" name="Burst Time" dataDxfId="34">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2613,17 +2683,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="30">
+    <tableColumn id="22" name="Balance" dataDxfId="32">
       <calculatedColumnFormula>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="29">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="28">
+    <tableColumn id="15" name="DPS" dataDxfId="30">
       <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="27">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="29">
       <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2633,7 +2703,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="26">
+    <tableColumn id="7" name="Burst Time" dataDxfId="28">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2934,10 +3004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4513,6 +4583,12 @@
       </c>
     </row>
     <row r="23" spans="1:23">
+      <c r="A23" t="s">
+        <v>293</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
       <c r="C23" s="2" t="e">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -4533,8 +4609,17 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V23" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="24" spans="1:23">
+      <c r="A24" t="s">
+        <v>289</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
       <c r="C24" s="2" t="e">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -4555,8 +4640,17 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V24" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="25" spans="1:23">
+      <c r="A25" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
       <c r="C25" s="2" t="e">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -4577,10 +4671,17 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V25" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B26" s="7">
+        <v>4</v>
+      </c>
       <c r="C26" s="8" t="e">
         <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -4609,15 +4710,586 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="C27" s="2" t="e">
+        <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="3" t="e">
+        <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="2" t="e">
+        <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="2">
+        <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="2" t="e">
+        <f>60/N27</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="C28" s="2" t="e">
+        <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="3" t="e">
+        <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="2" t="e">
+        <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="2">
+        <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="2" t="e">
+        <f>60/N28</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="C29" s="2" t="e">
+        <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="3" t="e">
+        <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="2" t="e">
+        <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="2">
+        <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="2" t="e">
+        <f>60/N29</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="C30" s="2" t="e">
+        <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D30" s="3" t="e">
+        <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" s="2" t="e">
+        <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="2">
+        <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="2" t="e">
+        <f>60/N30</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="C31" s="2" t="e">
+        <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="3" t="e">
+        <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="2" t="e">
+        <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="2">
+        <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="2" t="e">
+        <f>60/N31</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="C32" s="2" t="e">
+        <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D32" s="3" t="e">
+        <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" s="2" t="e">
+        <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="2">
+        <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="2" t="e">
+        <f>60/N32</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15">
+      <c r="C33" s="2" t="e">
+        <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" s="3" t="e">
+        <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" s="2" t="e">
+        <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="2">
+        <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="2" t="e">
+        <f>60/N33</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15">
+      <c r="C34" s="2" t="e">
+        <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D34" s="3" t="e">
+        <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E34" s="2" t="e">
+        <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="2">
+        <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="2" t="e">
+        <f>60/N34</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15">
+      <c r="C35" s="2" t="e">
+        <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D35" s="3" t="e">
+        <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E35" s="2" t="e">
+        <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="2">
+        <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="2" t="e">
+        <f>60/N35</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15">
+      <c r="C36" s="2" t="e">
+        <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D36" s="3" t="e">
+        <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" s="2" t="e">
+        <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="2">
+        <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="2" t="e">
+        <f>60/N36</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15">
+      <c r="C37" s="2" t="e">
+        <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D37" s="3" t="e">
+        <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" s="2" t="e">
+        <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="2">
+        <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="2" t="e">
+        <f>60/N37</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15">
+      <c r="C38" s="2" t="e">
+        <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="3" t="e">
+        <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="2" t="e">
+        <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="2">
+        <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="2" t="e">
+        <f>60/N38</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15">
+      <c r="C39" s="2" t="e">
+        <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D39" s="3" t="e">
+        <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E39" s="2" t="e">
+        <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="2">
+        <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="2" t="e">
+        <f>60/N39</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15">
+      <c r="C40" s="2" t="e">
+        <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D40" s="3" t="e">
+        <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E40" s="2" t="e">
+        <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" s="2">
+        <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="2" t="e">
+        <f>60/N40</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15">
+      <c r="C41" s="2" t="e">
+        <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D41" s="3" t="e">
+        <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E41" s="2" t="e">
+        <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G41" s="2">
+        <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="2" t="e">
+        <f>60/N41</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15">
+      <c r="C42" s="2" t="e">
+        <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D42" s="3" t="e">
+        <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E42" s="2" t="e">
+        <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G42" s="2">
+        <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="2" t="e">
+        <f>60/N42</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15">
+      <c r="C43" s="2" t="e">
+        <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D43" s="3" t="e">
+        <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E43" s="2" t="e">
+        <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G43" s="2">
+        <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="2" t="e">
+        <f>60/N43</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15">
+      <c r="C44" s="2" t="e">
+        <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D44" s="3" t="e">
+        <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E44" s="2" t="e">
+        <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G44" s="2">
+        <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="2" t="e">
+        <f>60/N44</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15">
+      <c r="C45" s="2" t="e">
+        <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D45" s="3" t="e">
+        <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E45" s="2" t="e">
+        <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G45" s="2">
+        <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="2" t="e">
+        <f>60/N45</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15">
+      <c r="C46" s="2" t="e">
+        <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D46" s="3" t="e">
+        <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E46" s="2" t="e">
+        <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G46" s="2">
+        <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="2" t="e">
+        <f>60/N46</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15">
+      <c r="C47" s="2" t="e">
+        <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D47" s="3" t="e">
+        <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E47" s="2" t="e">
+        <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G47" s="2">
+        <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="2" t="e">
+        <f>60/N47</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15">
+      <c r="C48" s="2" t="e">
+        <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="3" t="e">
+        <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E48" s="2" t="e">
+        <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G48" s="2">
+        <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="2" t="e">
+        <f>60/N48</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="C49" s="2" t="e">
+        <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D49" s="3" t="e">
+        <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E49" s="2" t="e">
+        <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G49" s="2">
+        <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="2" t="e">
+        <f>60/N49</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="C50" s="2" t="e">
+        <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="3" t="e">
+        <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E50" s="2" t="e">
+        <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G50" s="2">
+        <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O50" s="2" t="e">
+        <f>60/N50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="8" t="e">
+        <f>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D51" s="9" t="e">
+        <f>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E51" s="8" t="e">
+        <f>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="8">
+        <f>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="8" t="e">
+        <f>60/N51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:C26">
-    <cfRule type="cellIs" dxfId="97" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="C4:C51">
+    <cfRule type="cellIs" dxfId="99" priority="2" operator="greaterThan">
       <formula>1.731</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="96" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5512,7 +6184,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5527,8 +6199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6960,8 +7632,8 @@
   </sheetPr>
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7043,7 +7715,7 @@
       </c>
       <c r="F3">
         <f>COUNTIF(Handgun!B:B, 4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <f>COUNTIF(Handgun!B:B, 5)</f>
@@ -7084,7 +7756,7 @@
       </c>
       <c r="F4">
         <f>COUNTIF(Revolver!B:B, 4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <f>COUNTIF(Revolver!B:B, 5)</f>
@@ -7125,7 +7797,7 @@
       </c>
       <c r="F5">
         <f>COUNTIF(SMG!B:B, 4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f>COUNTIF(SMG!B:B, 5)</f>
@@ -7166,7 +7838,7 @@
       </c>
       <c r="F6">
         <f>COUNTIF(Rifle!B:B, 4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f>COUNTIF(Rifle!B:B, 5)</f>
@@ -7207,7 +7879,7 @@
       </c>
       <c r="F7">
         <f>COUNTIF('Sniper Rifle'!B:B, 4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <f>COUNTIF('Sniper Rifle'!B:B, 5)</f>
@@ -7330,7 +8002,7 @@
       </c>
       <c r="F10">
         <f>COUNTIF(Shotgun!B:B, 4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <f>COUNTIF(Shotgun!B:B, 5)</f>
@@ -7479,17 +8151,17 @@
       <c r="A15" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="64" t="s">
         <v>86</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="64" t="s">
         <v>86</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F15" s="41" t="s">
         <v>87</v>
@@ -7521,7 +8193,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
@@ -7544,7 +8216,7 @@
       </c>
       <c r="R17">
         <f>SUM(B17:P17)</f>
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -7564,7 +8236,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="56">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G18" s="56"/>
       <c r="H18" s="56"/>
@@ -38700,29 +39372,28 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="8.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="19" width="15.140625" customWidth="1"/>
+    <col min="20" max="20" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -38898,15 +39569,21 @@
       <c r="T4" s="17">
         <v>55</v>
       </c>
-      <c r="U4" s="18"/>
+      <c r="U4" s="18">
+        <v>1.4</v>
+      </c>
       <c r="V4" s="22"/>
       <c r="W4" s="22">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="5"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4</v>
+      </c>
       <c r="C5" s="2" t="e">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -38929,12 +39606,18 @@
       </c>
       <c r="T5" s="19"/>
       <c r="U5" s="20"/>
-      <c r="V5" s="23"/>
+      <c r="V5" s="25" t="s">
+        <v>86</v>
+      </c>
       <c r="W5" s="23"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="5"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="12">
+        <v>4</v>
+      </c>
       <c r="C6" s="2" t="e">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -38957,12 +39640,18 @@
       </c>
       <c r="T6" s="17"/>
       <c r="U6" s="18"/>
-      <c r="V6" s="22"/>
+      <c r="V6" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="W6" s="22"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="5"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" s="12">
+        <v>4</v>
+      </c>
       <c r="C7" s="2" t="e">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -38985,11 +39674,13 @@
       </c>
       <c r="T7" s="19"/>
       <c r="U7" s="20"/>
-      <c r="V7" s="23"/>
+      <c r="V7" s="25" t="s">
+        <v>87</v>
+      </c>
       <c r="W7" s="23"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="12"/>
       <c r="C8" s="2" t="e">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -39017,7 +39708,7 @@
       <c r="W8" s="22"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="5"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="12"/>
       <c r="C9" s="2" t="e">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -39045,7 +39736,7 @@
       <c r="W9" s="23"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="12"/>
       <c r="C10" s="2" t="e">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -39073,6 +39764,7 @@
       <c r="W10" s="22"/>
     </row>
     <row r="11" spans="1:23">
+      <c r="A11" s="4"/>
       <c r="B11" s="12"/>
       <c r="C11" s="2" t="e">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -39100,6 +39792,7 @@
       <c r="W11" s="23"/>
     </row>
     <row r="12" spans="1:23">
+      <c r="A12" s="4"/>
       <c r="B12" s="12"/>
       <c r="C12" s="2" t="e">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -39127,6 +39820,7 @@
       <c r="W12" s="22"/>
     </row>
     <row r="13" spans="1:23">
+      <c r="A13" s="4"/>
       <c r="B13" s="12"/>
       <c r="C13" s="2" t="e">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -39154,6 +39848,7 @@
       <c r="W13" s="23"/>
     </row>
     <row r="14" spans="1:23">
+      <c r="A14" s="4"/>
       <c r="B14" s="12"/>
       <c r="C14" s="2" t="e">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -39181,6 +39876,7 @@
       <c r="W14" s="22"/>
     </row>
     <row r="15" spans="1:23">
+      <c r="A15" s="4"/>
       <c r="B15" s="12"/>
       <c r="C15" s="2" t="e">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -39208,6 +39904,7 @@
       <c r="W15" s="23"/>
     </row>
     <row r="16" spans="1:23">
+      <c r="A16" s="4"/>
       <c r="B16" s="12"/>
       <c r="C16" s="2" t="e">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -39235,6 +39932,7 @@
       <c r="W16" s="22"/>
     </row>
     <row r="17" spans="1:23">
+      <c r="A17" s="4"/>
       <c r="B17" s="12"/>
       <c r="C17" s="2" t="e">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -39262,7 +39960,6 @@
       <c r="W17" s="23"/>
     </row>
     <row r="18" spans="1:23" s="4" customFormat="1">
-      <c r="A18"/>
       <c r="B18" s="12"/>
       <c r="C18" s="2" t="e">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -39302,6 +39999,7 @@
       <c r="W18" s="22"/>
     </row>
     <row r="19" spans="1:23">
+      <c r="A19" s="4"/>
       <c r="B19" s="12"/>
       <c r="C19" s="2" t="e">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -39325,7 +40023,7 @@
       </c>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="7"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="13"/>
       <c r="C20" s="2" t="e">
         <f>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -39362,7 +40060,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="90" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="1" operator="greaterThan">
       <formula>1.63</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39379,7 +40077,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A18" sqref="A16:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40674,6 +41372,12 @@
       </c>
     </row>
     <row r="19" spans="1:23">
+      <c r="A19" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
       <c r="C19" s="2" t="e">
         <f>SUM(((Table16[[#This Row],[Avg DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[Avg DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -40693,6 +41397,9 @@
       <c r="O19" s="2" t="e">
         <f t="shared" ref="O19:O32" si="2">60/N19</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="V19" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -41003,12 +41710,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C32">
-    <cfRule type="cellIs" dxfId="83" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="2" operator="greaterThan">
       <formula>2.599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="82" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41024,8 +41731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B30" sqref="A21:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43921,6 +44628,12 @@
       </c>
     </row>
     <row r="40" spans="1:23">
+      <c r="A40" t="s">
+        <v>297</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="2"/>
@@ -43929,6 +44642,9 @@
       <c r="M40" s="2"/>
       <c r="O40" s="2"/>
       <c r="U40" s="2"/>
+      <c r="V40" s="41" t="s">
+        <v>87</v>
+      </c>
       <c r="W40" s="54"/>
     </row>
     <row r="41" spans="1:23">
@@ -46023,12 +46739,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C997">
-    <cfRule type="cellIs" dxfId="71" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="2" operator="greaterThan">
       <formula>3.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O123">
-    <cfRule type="cellIs" dxfId="70" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46042,10 +46758,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -47295,22 +48011,26 @@
       <c r="S18">
         <v>0.78</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="63">
         <v>150</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="63">
         <v>27</v>
       </c>
-      <c r="V18" t="s">
+      <c r="V18" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="W18" s="22">
+      <c r="W18" s="39">
         <v>1500</v>
       </c>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="B19" s="7">
+        <v>4</v>
+      </c>
       <c r="C19" s="2" t="e">
         <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -47343,17 +48063,503 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
-      <c r="T19" s="19"/>
-      <c r="W19" s="23"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="W19" s="39"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="C20" s="2" t="e">
+        <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" s="3" t="e">
+        <f>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="2" t="e">
+        <f>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" s="2">
+        <f>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="2" t="e">
+        <f>60/N20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T20" s="51"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="C21" s="2" t="e">
+        <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D21" s="3" t="e">
+        <f>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" s="2" t="e">
+        <f>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" s="2">
+        <f>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="2" t="e">
+        <f>60/N21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T21" s="51"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="C22" s="2" t="e">
+        <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D22" s="3" t="e">
+        <f>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="2" t="e">
+        <f>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" s="2">
+        <f>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="2" t="e">
+        <f>60/N22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T22" s="51"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="C23" s="2" t="e">
+        <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D23" s="3" t="e">
+        <f>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" s="2" t="e">
+        <f>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" s="2">
+        <f>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="2" t="e">
+        <f>60/N23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T23" s="51"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="C24" s="2" t="e">
+        <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="3" t="e">
+        <f>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="2" t="e">
+        <f>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="2">
+        <f>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="2" t="e">
+        <f>60/N24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" s="51"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="C25" s="2" t="e">
+        <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="3" t="e">
+        <f>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="2" t="e">
+        <f>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="2">
+        <f>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="2" t="e">
+        <f>60/N25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" s="51"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="C26" s="2" t="e">
+        <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="3" t="e">
+        <f>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="2" t="e">
+        <f>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="2">
+        <f>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="2" t="e">
+        <f>60/N26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T26" s="51"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="C27" s="2" t="e">
+        <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="3" t="e">
+        <f>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="2" t="e">
+        <f>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="2">
+        <f>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="2" t="e">
+        <f>60/N27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27" s="51"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="C28" s="2" t="e">
+        <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="3" t="e">
+        <f>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="2" t="e">
+        <f>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="2">
+        <f>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="2" t="e">
+        <f>60/N28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" s="51"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="C29" s="2" t="e">
+        <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="3" t="e">
+        <f>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="2" t="e">
+        <f>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="2">
+        <f>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="2" t="e">
+        <f>60/N29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29" s="51"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="C30" s="2" t="e">
+        <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D30" s="3" t="e">
+        <f>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" s="2" t="e">
+        <f>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="2">
+        <f>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="2" t="e">
+        <f>60/N30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" s="51"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="C31" s="2" t="e">
+        <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="3" t="e">
+        <f>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="2" t="e">
+        <f>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="2">
+        <f>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="2" t="e">
+        <f>60/N31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" s="51"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="C32" s="2" t="e">
+        <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D32" s="3" t="e">
+        <f>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" s="2" t="e">
+        <f>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="2">
+        <f>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="2" t="e">
+        <f>60/N32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T32" s="51"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="C33" s="2" t="e">
+        <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" s="3" t="e">
+        <f>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" s="2" t="e">
+        <f>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="2">
+        <f>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="2" t="e">
+        <f>60/N33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T33" s="51"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="C34" s="2" t="e">
+        <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D34" s="3" t="e">
+        <f>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E34" s="2" t="e">
+        <f>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="2">
+        <f>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="2" t="e">
+        <f>60/N34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T34" s="51"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="C35" s="2" t="e">
+        <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D35" s="3" t="e">
+        <f>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E35" s="2" t="e">
+        <f>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="2">
+        <f>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="2" t="e">
+        <f>60/N35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T35" s="51"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="C36" s="2" t="e">
+        <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D36" s="3" t="e">
+        <f>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" s="2" t="e">
+        <f>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="2">
+        <f>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="2" t="e">
+        <f>60/N36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T36" s="51"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="50"/>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8" t="e">
+        <f>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D37" s="9" t="e">
+        <f>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" s="8" t="e">
+        <f>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="8">
+        <f>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="8" t="e">
+        <f>60/N37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="60" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="C4:C37">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="greaterThan">
       <formula>2.639</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48292,7 +49498,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C32">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="greaterThan">
       <formula>4.429</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48454,30 +49660,30 @@
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>35</v>
+      <c r="A4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
       </c>
       <c r="C4" s="2">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.4624207896417474</v>
+        <v>3.4632984374999989</v>
       </c>
       <c r="D4" s="3">
         <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>5.8768992592881801</v>
+        <v>7.8890624999999988</v>
       </c>
       <c r="E4" s="2">
         <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>15.776910763189745</v>
+        <v>20.624999999999996</v>
       </c>
       <c r="F4">
-        <v>25.9</v>
+        <v>30.9</v>
       </c>
       <c r="G4" s="2">
         <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.3725</v>
+        <v>0.38250000000000001</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -48486,23 +49692,23 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="N4">
-        <v>514.29</v>
+        <v>1200</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" ref="O4:O20" si="0">60/N4</f>
-        <v>0.11666569445254624</v>
+        <f>60/N4</f>
+        <v>0.05</v>
       </c>
       <c r="P4">
         <v>0.4</v>
@@ -48511,67 +49717,68 @@
         <v>0.48</v>
       </c>
       <c r="R4">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="S4">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="T4">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="U4">
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="V4" t="s">
         <v>86</v>
       </c>
-      <c r="W4">
-        <v>425</v>
+      <c r="W4" s="54">
+        <f>Table168101112[[#This Row],[Balance]]*$W$1</f>
+        <v>595.90898234999975</v>
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>35</v>
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
       </c>
       <c r="C5" s="2">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.5015625000000004</v>
+        <v>2.6009812499999998</v>
       </c>
       <c r="D5" s="3">
         <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>7.6286764705882364</v>
+        <v>6.5187499999999998</v>
       </c>
       <c r="E5" s="2">
         <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>36.764705882352942</v>
+        <v>17.5</v>
       </c>
       <c r="F5">
-        <v>30.9</v>
+        <v>25.9</v>
       </c>
       <c r="G5" s="2">
         <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.20750000000000002</v>
+        <v>0.3725</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
       <c r="I5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="L5">
-        <v>2.2999999999999998</v>
+        <v>1.6</v>
       </c>
       <c r="M5">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="N5">
         <v>720</v>
@@ -48581,567 +49788,566 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="P5">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="Q5">
-        <v>0.25</v>
+        <v>0.48</v>
       </c>
       <c r="R5">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="S5">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="T5">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="U5">
-        <v>10</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="V5" t="s">
-        <v>86</v>
-      </c>
-      <c r="W5">
-        <v>1160</v>
+        <v>87</v>
+      </c>
+      <c r="W5" s="54">
+        <f>Table168101112[[#This Row],[Balance]]*$W$1</f>
+        <v>447.53523779999995</v>
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="14" t="s">
-        <v>27</v>
+      <c r="A6" t="s">
+        <v>280</v>
       </c>
       <c r="B6" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.411733390410959</v>
+        <v>2.7735312499999996</v>
       </c>
       <c r="D6" s="3">
         <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>6.1998287671232877</v>
+        <v>6.78125</v>
       </c>
       <c r="E6" s="2">
         <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>16.643835616438356</v>
+        <v>17.5</v>
       </c>
       <c r="F6">
-        <v>25.9</v>
+        <v>26.9</v>
       </c>
       <c r="G6" s="2">
         <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.3725</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="M6">
-        <v>2.2000000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="N6">
         <v>720</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="0"/>
+        <f>60/N6</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="P6">
         <v>0.4</v>
       </c>
       <c r="Q6">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="R6">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="S6">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="T6">
         <v>50</v>
       </c>
       <c r="U6">
-        <v>10.199999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="V6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W6" s="54">
-        <f>Table168101112[[#This Row],[Balance]]*W1</f>
-        <v>414.97249408767124</v>
+        <f>Table168101112[[#This Row],[Balance]]*$W$1</f>
+        <v>477.22488099999993</v>
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="14" t="s">
-        <v>63</v>
+      <c r="A7" t="s">
+        <v>71</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.4632984374999989</v>
+        <v>2.8811144404332127</v>
       </c>
       <c r="D7" s="3">
         <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>7.8890624999999988</v>
+        <v>6.7158844765342955</v>
       </c>
       <c r="E7" s="2">
         <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>20.624999999999996</v>
+        <v>16.895306859205775</v>
       </c>
       <c r="F7">
-        <v>30.9</v>
+        <v>25.9</v>
       </c>
       <c r="G7" s="2">
         <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.38250000000000001</v>
+        <v>0.39750000000000002</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M7">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="N7">
-        <v>1200</v>
+        <v>720</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <f>60/N7</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="P7">
+        <v>0.41</v>
+      </c>
+      <c r="Q7">
+        <v>0.5</v>
+      </c>
+      <c r="R7">
         <v>0.4</v>
       </c>
-      <c r="Q7">
-        <v>0.48</v>
-      </c>
-      <c r="R7">
-        <v>0.38</v>
-      </c>
       <c r="S7">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="T7">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="U7">
-        <v>11.5</v>
+        <v>14.4</v>
       </c>
       <c r="V7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W7" s="54">
         <f>Table168101112[[#This Row],[Balance]]*$W$1</f>
-        <v>595.90898234999975</v>
+        <v>495.73607507870031</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
       <c r="C8" s="2">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.6009812499999998</v>
+        <v>2.0225093691118703</v>
       </c>
       <c r="D8" s="3">
         <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>6.5187499999999998</v>
+        <v>5.9661043336633348</v>
       </c>
       <c r="E8" s="2">
         <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>17.5</v>
+        <v>17.419282726024335</v>
       </c>
       <c r="F8">
-        <v>25.9</v>
+        <v>23.9</v>
       </c>
       <c r="G8" s="2">
         <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.3725</v>
+        <v>0.34250000000000003</v>
       </c>
       <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+      <c r="J8">
         <v>10</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>14</v>
-      </c>
       <c r="K8">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="L8">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="M8">
-        <v>1.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N8">
-        <v>720</v>
+        <v>327.27</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <f>60/N8</f>
+        <v>0.1833348611238427</v>
       </c>
       <c r="P8">
         <v>0.4</v>
       </c>
       <c r="Q8">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="R8">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="S8">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="T8">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="U8">
-        <v>9.6999999999999993</v>
+        <v>8.9</v>
       </c>
       <c r="V8" t="s">
         <v>87</v>
       </c>
       <c r="W8" s="54">
         <f>Table168101112[[#This Row],[Balance]]*$W$1</f>
-        <v>447.53523779999995</v>
+        <v>348.00105208686483</v>
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" t="s">
-        <v>280</v>
+      <c r="A9" s="14" t="s">
+        <v>236</v>
       </c>
       <c r="B9" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.7735312499999996</v>
+        <v>3.4096870065789471</v>
       </c>
       <c r="D9" s="3">
         <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>6.78125</v>
+        <v>7.7669407894736837</v>
       </c>
       <c r="E9" s="2">
         <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>17.5</v>
+        <v>19.539473684210524</v>
       </c>
       <c r="F9">
-        <v>26.9</v>
+        <v>30.9</v>
       </c>
       <c r="G9" s="2">
         <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.38750000000000001</v>
+        <v>0.39750000000000002</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L9">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="N9">
         <v>720</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="0"/>
+        <f>60/N9</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="P9">
+        <v>0.41</v>
+      </c>
+      <c r="Q9">
+        <v>0.5</v>
+      </c>
+      <c r="R9">
         <v>0.4</v>
       </c>
-      <c r="Q9">
-        <v>0.49</v>
-      </c>
-      <c r="R9">
-        <v>0.39</v>
-      </c>
       <c r="S9">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="T9">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="U9">
-        <v>10.1</v>
+        <v>11.5</v>
       </c>
       <c r="V9" t="s">
-        <v>87</v>
-      </c>
-      <c r="W9" s="54">
-        <f>Table168101112[[#This Row],[Balance]]*$W$1</f>
-        <v>477.22488099999993</v>
+        <v>86</v>
+      </c>
+      <c r="W9" s="54" t="e">
+        <f>Table168101112[[#This Row],[Balance]]*#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" t="s">
-        <v>71</v>
+      <c r="A10" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="B10" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.8811144404332127</v>
+        <v>2.411733390410959</v>
       </c>
       <c r="D10" s="3">
         <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>6.7158844765342955</v>
+        <v>6.1998287671232877</v>
       </c>
       <c r="E10" s="2">
         <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>16.895306859205775</v>
+        <v>16.643835616438356</v>
       </c>
       <c r="F10">
         <v>25.9</v>
       </c>
       <c r="G10" s="2">
         <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.39750000000000002</v>
+        <v>0.3725</v>
       </c>
       <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>13</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>17</v>
-      </c>
       <c r="K10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L10">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N10">
         <v>720</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="0"/>
+        <f>60/N10</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="P10">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="Q10">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="R10">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="S10">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="T10">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U10">
-        <v>14.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="V10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W10" s="54">
-        <f>Table168101112[[#This Row],[Balance]]*$W$1</f>
-        <v>495.73607507870031</v>
+        <f>Table168101112[[#This Row],[Balance]]*W5</f>
+        <v>1079.3356763877687</v>
       </c>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
+      <c r="A11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C11" s="2">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.0225093691118703</v>
+        <v>2.4624207896417474</v>
       </c>
       <c r="D11" s="3">
         <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>5.9661043336633348</v>
+        <v>5.8768992592881801</v>
       </c>
       <c r="E11" s="2">
         <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>17.419282726024335</v>
+        <v>15.776910763189745</v>
       </c>
       <c r="F11">
-        <v>23.9</v>
+        <v>25.9</v>
       </c>
       <c r="G11" s="2">
         <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.34250000000000003</v>
+        <v>0.3725</v>
       </c>
       <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>16</v>
+      </c>
+      <c r="K11">
         <v>6</v>
       </c>
-      <c r="I11">
-        <v>0.5</v>
-      </c>
-      <c r="J11">
-        <v>10</v>
-      </c>
-      <c r="K11">
-        <v>15</v>
-      </c>
       <c r="L11">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="M11">
-        <v>1.1000000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="N11">
-        <v>327.27</v>
+        <v>514.29</v>
       </c>
       <c r="O11" s="2">
         <f>60/N11</f>
-        <v>0.1833348611238427</v>
+        <v>0.11666569445254624</v>
       </c>
       <c r="P11">
         <v>0.4</v>
       </c>
       <c r="Q11">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="R11">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="S11">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="T11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U11">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="V11" t="s">
-        <v>87</v>
-      </c>
-      <c r="W11" s="54">
-        <f>Table168101112[[#This Row],[Balance]]*$W$1</f>
-        <v>348.00105208686483</v>
+        <v>86</v>
+      </c>
+      <c r="W11">
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="B12" s="4">
-        <v>3</v>
+      <c r="A12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.4096870065789471</v>
+        <v>3.5015625000000004</v>
       </c>
       <c r="D12" s="3">
         <f>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</f>
-        <v>7.7669407894736837</v>
+        <v>7.6286764705882364</v>
       </c>
       <c r="E12" s="2">
         <f>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</f>
-        <v>19.539473684210524</v>
+        <v>36.764705882352942</v>
       </c>
       <c r="F12">
         <v>30.9</v>
       </c>
       <c r="G12" s="2">
         <f>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.39750000000000002</v>
+        <v>0.20750000000000002</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M12">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N12">
         <v>720</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="0"/>
+        <f>60/N12</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="P12">
-        <v>0.41</v>
+        <v>0.15</v>
       </c>
       <c r="Q12">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="S12">
-        <v>0.28000000000000003</v>
+        <v>0.18</v>
       </c>
       <c r="T12">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="U12">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="V12" t="s">
         <v>86</v>
       </c>
-      <c r="W12" s="54">
-        <f>Table168101112[[#This Row],[Balance]]*W1</f>
-        <v>586.68438509999987</v>
+      <c r="W12">
+        <v>1160</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -49164,7 +50370,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f>60/N13</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -49186,7 +50392,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f>60/N14</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -49208,7 +50414,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f>60/N15</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -49230,7 +50436,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f>60/N16</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -49252,7 +50458,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f>60/N17</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -49284,7 +50490,7 @@
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f>60/N18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P18"/>
@@ -49314,7 +50520,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f>60/N19</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -49346,7 +50552,7 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="2" t="e">
-        <f t="shared" si="0"/>
+        <f>60/N20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P20" s="7"/>
@@ -49360,7 +50566,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C20">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="greaterThan">
       <formula>3.51</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49377,7 +50583,7 @@
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49545,25 +50751,25 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="B4" s="12">
         <v>4</v>
       </c>
       <c r="C4" s="2">
         <f>SUM(((Table1681011124[[#This Row],[Avg DPS]]*(Table1681011124[[#This Row],[Range]]))+(Table1681011124[[#This Row],[Avg DPS]]*Table1681011124[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.0224443329925701</v>
+        <v>2.5551308975839322</v>
       </c>
       <c r="D4" s="3">
         <f>SUM(Table1681011124[[#This Row],[DPS]]*Table1681011124[[#This Row],[Avg Accuracy]])</f>
-        <v>6.5848460413781496</v>
+        <v>5.8203437302595269</v>
       </c>
       <c r="E4" s="2">
         <f>SUM((Table1681011124[[#This Row],[Damage]]*Table1681011124[[#This Row],[Burst]])/(Table1681011124[[#This Row],[Ranged Cooldown]]+Table1681011124[[#This Row],[Warm-up]]+(Table1681011124[[#This Row],[Burst Time]]*(Table1681011124[[#This Row],[Burst]]-1))))</f>
-        <v>40.522129485403994</v>
+        <v>35.817499878520167</v>
       </c>
       <c r="F4">
-        <v>32.9</v>
+        <v>30.9</v>
       </c>
       <c r="G4" s="2">
         <f>SUM((Table1681011124[[#This Row],[Accuracy (Close)]]+Table1681011124[[#This Row],[Accuracy (Short)]]+Table1681011124[[#This Row],[Accuracy (Medium)]]+Table1681011124[[#This Row],[Accuracy (Long)]])/4)</f>
@@ -49579,7 +50785,7 @@
         <v>13</v>
       </c>
       <c r="K4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -49613,7 +50819,7 @@
         <v>19</v>
       </c>
       <c r="V4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W4">
         <v>755</v>
@@ -49629,7 +50835,7 @@
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="14" t="s">
         <v>252</v>
       </c>
       <c r="B5" s="12">
@@ -49711,7 +50917,7 @@
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="14" t="s">
         <v>255</v>
       </c>
       <c r="B6" s="4">
@@ -49780,7 +50986,7 @@
         <v>58</v>
       </c>
       <c r="V6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W6">
         <v>1050</v>
@@ -49793,7 +50999,7 @@
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="14" t="s">
         <v>257</v>
       </c>
       <c r="B7" s="4">
@@ -49823,7 +51029,7 @@
         <v>39</v>
       </c>
       <c r="V7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W7" s="54"/>
       <c r="X7" s="54"/>
@@ -49834,7 +51040,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="4" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>258</v>
@@ -49870,7 +51076,7 @@
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="14" t="s">
         <v>259</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -50094,7 +51300,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
       <formula>3.51</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50111,7 +51317,7 @@
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -50625,7 +51831,12 @@
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="B9" s="4"/>
+      <c r="A9" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
       <c r="C9" s="2" t="e">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -50646,9 +51857,17 @@
         <f t="shared" ref="O9:O19" si="0">60/N9</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="V9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="B10" s="4"/>
+      <c r="A10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
       <c r="C10" s="2" t="e">
         <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -50668,6 +51887,9 @@
       <c r="O10" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
+      </c>
+      <c r="V10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -50902,7 +52124,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="greaterThan">
       <formula>2.789</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Handgun" sheetId="8" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="306">
   <si>
     <t>Weapon Stats - Sleepy's Weapons</t>
   </si>
@@ -942,6 +942,9 @@
   </si>
   <si>
     <t>SSSTX357</t>
+  </si>
+  <si>
+    <t>F90 GL*</t>
   </si>
 </sst>
 </file>
@@ -6381,8 +6384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8012,7 +8015,7 @@
       </c>
       <c r="D6">
         <f>COUNTIF(Rifle!B:B, 2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <f>COUNTIF(Rifle!B:B, 3)</f>
@@ -8367,7 +8370,7 @@
       </c>
       <c r="D17">
         <f t="shared" ref="D17:J17" si="0">SUM(D3:D13)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
@@ -8398,7 +8401,7 @@
       </c>
       <c r="R17">
         <f>SUM(B17:P17)</f>
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -42099,8 +42102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W123"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42297,7 +42300,7 @@
         <v>450</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" ref="O4:O15" si="0">60/N4</f>
+        <f>60/N4</f>
         <v>0.13333333333333333</v>
       </c>
       <c r="P4">
@@ -42322,7 +42325,7 @@
         <v>86</v>
       </c>
       <c r="W4" s="53">
-        <f t="shared" ref="W4:W12" si="1">C4*$W$1</f>
+        <f>C4*$W$1</f>
         <v>460.55388993428568</v>
       </c>
     </row>
@@ -42374,7 +42377,7 @@
         <v>300</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="0"/>
+        <f>60/N5</f>
         <v>0.2</v>
       </c>
       <c r="P5">
@@ -42399,7 +42402,7 @@
         <v>86</v>
       </c>
       <c r="W5" s="53">
-        <f t="shared" si="1"/>
+        <f>C5*$W$1</f>
         <v>440.44052204285708</v>
       </c>
     </row>
@@ -42451,7 +42454,7 @@
         <v>450</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="0"/>
+        <f>60/N6</f>
         <v>0.13333333333333333</v>
       </c>
       <c r="P6">
@@ -42476,7 +42479,7 @@
         <v>87</v>
       </c>
       <c r="W6" s="53">
-        <f t="shared" si="1"/>
+        <f>C6*$W$1</f>
         <v>479.95461398488112</v>
       </c>
     </row>
@@ -42528,7 +42531,7 @@
         <v>514.29</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" si="0"/>
+        <f>60/N7</f>
         <v>0.11666569445254624</v>
       </c>
       <c r="P7">
@@ -42553,7 +42556,7 @@
         <v>87</v>
       </c>
       <c r="W7" s="53">
-        <f t="shared" si="1"/>
+        <f>C7*$W$1</f>
         <v>441.95538359647037</v>
       </c>
     </row>
@@ -42605,7 +42608,7 @@
         <v>360</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="0"/>
+        <f>60/N8</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="P8">
@@ -42630,7 +42633,7 @@
         <v>87</v>
       </c>
       <c r="W8" s="53">
-        <f t="shared" si="1"/>
+        <f>C8*$W$1</f>
         <v>453.92955714532013</v>
       </c>
     </row>
@@ -42682,7 +42685,7 @@
         <v>360</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="0"/>
+        <f>60/N9</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="P9">
@@ -42707,7 +42710,7 @@
         <v>87</v>
       </c>
       <c r="W9" s="53">
-        <f t="shared" si="1"/>
+        <f>C9*$W$1</f>
         <v>477.66016903846156</v>
       </c>
     </row>
@@ -42759,7 +42762,7 @@
         <v>300</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="0"/>
+        <f>60/N10</f>
         <v>0.2</v>
       </c>
       <c r="P10">
@@ -42784,7 +42787,7 @@
         <v>87</v>
       </c>
       <c r="W10" s="53">
-        <f t="shared" si="1"/>
+        <f>C10*$W$1</f>
         <v>440.62315610958899</v>
       </c>
     </row>
@@ -42836,7 +42839,7 @@
         <v>300</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="0"/>
+        <f>60/N11</f>
         <v>0.2</v>
       </c>
       <c r="P11">
@@ -42861,7 +42864,7 @@
         <v>87</v>
       </c>
       <c r="W11" s="53">
-        <f t="shared" si="1"/>
+        <f>C11*$W$1</f>
         <v>454.11507641534388</v>
       </c>
     </row>
@@ -42913,7 +42916,7 @@
         <v>240</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="0"/>
+        <f>60/N12</f>
         <v>0.25</v>
       </c>
       <c r="P12">
@@ -42938,7 +42941,7 @@
         <v>87</v>
       </c>
       <c r="W12" s="53">
-        <f t="shared" si="1"/>
+        <f>C12*$W$1</f>
         <v>457.33144772289143</v>
       </c>
     </row>
@@ -42990,7 +42993,7 @@
         <v>450</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="0"/>
+        <f>60/N13</f>
         <v>0.13333333333333333</v>
       </c>
       <c r="P13">
@@ -43066,7 +43069,7 @@
         <v>300</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="0"/>
+        <f>60/N14</f>
         <v>0.2</v>
       </c>
       <c r="P14">
@@ -43142,7 +43145,7 @@
         <v>300</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="0"/>
+        <f>60/N15</f>
         <v>0.2</v>
       </c>
       <c r="P15">
@@ -44052,7 +44055,7 @@
         <v>400</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" ref="O27:O38" si="2">60/N27</f>
+        <f>60/N27</f>
         <v>0.15</v>
       </c>
       <c r="P27">
@@ -44128,7 +44131,7 @@
         <v>360</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="2"/>
+        <f>60/N28</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="P28">
@@ -44153,7 +44156,7 @@
         <v>86</v>
       </c>
       <c r="W28" s="53">
-        <f t="shared" ref="W28:W37" si="3">C28*$W$1</f>
+        <f>C28*$W$1</f>
         <v>407.97351407262573</v>
       </c>
     </row>
@@ -44205,7 +44208,7 @@
         <v>300</v>
       </c>
       <c r="O29" s="2">
-        <f t="shared" si="2"/>
+        <f>60/N29</f>
         <v>0.2</v>
       </c>
       <c r="P29">
@@ -44230,7 +44233,7 @@
         <v>87</v>
       </c>
       <c r="W29" s="53">
-        <f t="shared" si="3"/>
+        <f>C29*$W$1</f>
         <v>452.36266318750006</v>
       </c>
     </row>
@@ -44282,7 +44285,7 @@
         <v>300</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" si="2"/>
+        <f>60/N30</f>
         <v>0.2</v>
       </c>
       <c r="P30">
@@ -44307,35 +44310,35 @@
         <v>87</v>
       </c>
       <c r="W30" s="53">
-        <f t="shared" si="3"/>
+        <f>C30*$W$1</f>
         <v>466.54390939655161</v>
       </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>211</v>
-      </c>
-      <c r="B31" s="12">
-        <v>3</v>
+        <v>305</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
       </c>
       <c r="C31" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.4114572480181193</v>
+        <v>2.8939453125000001</v>
       </c>
       <c r="D31" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.3626840317100779</v>
+        <v>6.4453125</v>
       </c>
       <c r="E31" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>11.211778029445071</v>
+        <v>10.3125</v>
       </c>
       <c r="F31">
-        <v>24.9</v>
+        <v>31.9</v>
       </c>
       <c r="G31" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.5675</v>
+        <v>0.625</v>
       </c>
       <c r="H31">
         <v>11</v>
@@ -44350,69 +44353,68 @@
         <v>3</v>
       </c>
       <c r="L31" s="2">
-        <v>1.51</v>
+        <v>1.75</v>
       </c>
       <c r="M31" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="N31">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="O31" s="2">
-        <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <f>60/N31</f>
+        <v>0.15</v>
       </c>
       <c r="P31">
-        <v>0.77</v>
+        <v>0.59</v>
       </c>
       <c r="Q31">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="R31">
-        <v>0.5</v>
+        <v>0.66</v>
       </c>
       <c r="S31">
-        <v>0.3</v>
+        <v>0.54</v>
       </c>
       <c r="T31">
         <v>70</v>
       </c>
       <c r="U31" s="2">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="V31" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="W31" s="53">
-        <f t="shared" si="3"/>
-        <v>362.85197210928641</v>
+      <c r="W31">
+        <v>650</v>
       </c>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B32" s="40">
+      <c r="A32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B32" s="12">
         <v>3</v>
       </c>
       <c r="C32" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.0127881355932202</v>
+        <v>2.4114572480181193</v>
       </c>
       <c r="D32" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.5638085742771688</v>
+        <v>6.3626840317100779</v>
       </c>
       <c r="E32" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>9.8703888334995025</v>
+        <v>11.211778029445071</v>
       </c>
       <c r="F32">
-        <v>32.9</v>
+        <v>24.9</v>
       </c>
       <c r="G32" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.66499999999999992</v>
+        <v>0.5675</v>
       </c>
       <c r="H32">
         <v>11</v>
@@ -44427,69 +44429,69 @@
         <v>3</v>
       </c>
       <c r="L32" s="2">
-        <v>1.79</v>
+        <v>1.51</v>
       </c>
       <c r="M32" s="2">
-        <v>1.22</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N32">
         <v>360</v>
       </c>
       <c r="O32" s="2">
-        <f t="shared" si="2"/>
+        <f>60/N32</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="P32">
-        <v>0.63</v>
+        <v>0.77</v>
       </c>
       <c r="Q32">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="R32">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="S32">
-        <v>0.56999999999999995</v>
+        <v>0.3</v>
       </c>
       <c r="T32">
         <v>70</v>
       </c>
       <c r="U32" s="2">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="V32" s="40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W32" s="53">
-        <f t="shared" si="3"/>
-        <v>453.33423076271185</v>
+        <f>C32*$W$1</f>
+        <v>362.85197210928641</v>
       </c>
     </row>
     <row r="33" spans="1:23">
-      <c r="A33" t="s">
-        <v>212</v>
+      <c r="A33" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="B33" s="40">
         <v>3</v>
       </c>
       <c r="C33" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.1961697316103379</v>
+        <v>3.0127881355932202</v>
       </c>
       <c r="D33" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.8148608349900597</v>
+        <v>6.5638085742771688</v>
       </c>
       <c r="E33" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>9.8409542743538765</v>
+        <v>9.8703888334995025</v>
       </c>
       <c r="F33">
-        <v>33.9</v>
+        <v>32.9</v>
       </c>
       <c r="G33" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.6925</v>
+        <v>0.66499999999999992</v>
       </c>
       <c r="H33">
         <v>11</v>
@@ -44504,7 +44506,7 @@
         <v>3</v>
       </c>
       <c r="L33" s="2">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="M33" s="2">
         <v>1.22</v>
@@ -44513,60 +44515,60 @@
         <v>360</v>
       </c>
       <c r="O33" s="2">
-        <f t="shared" si="2"/>
+        <f>60/N33</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="P33">
-        <v>0.72</v>
+        <v>0.63</v>
       </c>
       <c r="Q33">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="R33">
         <v>0.71</v>
       </c>
       <c r="S33">
-        <v>0.57999999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="T33">
         <v>70</v>
       </c>
       <c r="U33" s="2">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="V33" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W33" s="53">
-        <f t="shared" si="3"/>
-        <v>480.92765951540753</v>
+        <f>C33*$W$1</f>
+        <v>453.33423076271185</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B34" s="40">
         <v>3</v>
       </c>
       <c r="C34" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.6787115384615383</v>
+        <v>3.1961697316103379</v>
       </c>
       <c r="D34" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>5.7115384615384617</v>
+        <v>6.8148608349900597</v>
       </c>
       <c r="E34" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>8.4615384615384617</v>
+        <v>9.8409542743538765</v>
       </c>
       <c r="F34">
-        <v>30.9</v>
+        <v>33.9</v>
       </c>
       <c r="G34" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.67500000000000004</v>
+        <v>0.6925</v>
       </c>
       <c r="H34">
         <v>11</v>
@@ -44575,331 +44577,331 @@
         <v>0.5</v>
       </c>
       <c r="J34">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34" s="2">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="M34" s="2">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="N34">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
+        <f>60/N34</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P34">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="Q34">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="R34">
-        <v>0.85</v>
+        <v>0.71</v>
       </c>
       <c r="S34">
-        <v>0.5</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T34">
         <v>70</v>
       </c>
       <c r="U34" s="2">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="V34" s="40" t="s">
         <v>87</v>
       </c>
       <c r="W34" s="53">
-        <f t="shared" si="3"/>
-        <v>403.06572519230764</v>
+        <f>C34*$W$1</f>
+        <v>480.92765951540753</v>
       </c>
     </row>
     <row r="35" spans="1:23">
-      <c r="A35" s="1" t="s">
-        <v>214</v>
+      <c r="A35" t="s">
+        <v>213</v>
       </c>
       <c r="B35" s="40">
         <v>3</v>
       </c>
       <c r="C35" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.3062499999999999</v>
+        <v>2.6787115384615383</v>
       </c>
       <c r="D35" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.2499999999999991</v>
+        <v>5.7115384615384617</v>
       </c>
       <c r="E35" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>9.9999999999999982</v>
+        <v>8.4615384615384617</v>
       </c>
       <c r="F35">
-        <v>26.9</v>
+        <v>30.9</v>
       </c>
       <c r="G35" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.625</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="H35">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I35">
         <v>0.5</v>
       </c>
       <c r="J35">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L35" s="2">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="M35" s="2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
+        <f>60/N35</f>
+        <v>0.2</v>
       </c>
       <c r="P35">
         <v>0.6</v>
       </c>
       <c r="Q35">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="R35">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="S35">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="T35">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="U35" s="2">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="V35" s="40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W35" s="53">
-        <f t="shared" si="3"/>
-        <v>347.02143749999999</v>
+        <f>C35*$W$1</f>
+        <v>403.06572519230764</v>
       </c>
     </row>
     <row r="36" spans="1:23">
-      <c r="A36" t="s">
-        <v>215</v>
+      <c r="A36" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="B36" s="40">
         <v>3</v>
       </c>
       <c r="C36" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.1143688524590165</v>
+        <v>2.3062499999999999</v>
       </c>
       <c r="D36" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.3688524590163933</v>
+        <v>6.2499999999999991</v>
       </c>
       <c r="E36" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>9.8360655737704921</v>
+        <v>9.9999999999999982</v>
       </c>
       <c r="F36">
-        <v>32.9</v>
+        <v>26.9</v>
       </c>
       <c r="G36" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.64749999999999996</v>
+        <v>0.625</v>
       </c>
       <c r="H36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I36">
         <v>0.5</v>
       </c>
       <c r="J36">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K36">
         <v>3</v>
       </c>
       <c r="L36" s="2">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="M36" s="2">
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="N36">
         <v>600</v>
       </c>
       <c r="O36" s="2">
-        <f t="shared" si="2"/>
+        <f>60/N36</f>
         <v>0.1</v>
       </c>
       <c r="P36">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="Q36">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="R36">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="S36">
         <v>0.55000000000000004</v>
       </c>
       <c r="T36">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="U36" s="2">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="V36" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W36" s="53">
-        <f t="shared" si="3"/>
-        <v>468.6190812295082</v>
+        <f>C36*$W$1</f>
+        <v>347.02143749999999</v>
       </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B37" s="40">
         <v>3</v>
       </c>
       <c r="C37" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.2709189189189187</v>
+        <v>3.1143688524590165</v>
       </c>
       <c r="D37" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>5.8378378378378377</v>
+        <v>6.3688524590163933</v>
       </c>
       <c r="E37" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>9.7297297297297298</v>
+        <v>9.8360655737704921</v>
       </c>
       <c r="F37">
-        <v>28.9</v>
+        <v>32.9</v>
       </c>
       <c r="G37" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.6</v>
+        <v>0.64749999999999996</v>
       </c>
       <c r="H37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I37">
         <v>0.5</v>
       </c>
       <c r="J37">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K37">
         <v>3</v>
       </c>
       <c r="L37" s="2">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="M37" s="2">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="N37">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="O37" s="2">
-        <f t="shared" si="2"/>
-        <v>0.13333333333333333</v>
+        <f>60/N37</f>
+        <v>0.1</v>
       </c>
       <c r="P37">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="Q37">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="R37">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="S37">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="T37">
         <v>70</v>
       </c>
       <c r="U37" s="2">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="V37" s="40" t="s">
         <v>87</v>
       </c>
       <c r="W37" s="53">
-        <f t="shared" si="3"/>
-        <v>341.70516972972968</v>
+        <f>C37*$W$1</f>
+        <v>468.6190812295082</v>
       </c>
     </row>
     <row r="38" spans="1:23">
-      <c r="A38" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>35</v>
+      <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" s="40">
+        <v>3</v>
       </c>
       <c r="C38" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.1889423076923071</v>
+        <v>2.2709189189189187</v>
       </c>
       <c r="D38" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>6.7994505494505484</v>
+        <v>5.8378378378378377</v>
       </c>
       <c r="E38" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>10.879120879120878</v>
+        <v>9.7297297297297298</v>
       </c>
       <c r="F38">
-        <v>30.9</v>
+        <v>28.9</v>
       </c>
       <c r="G38" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="H38">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I38">
         <v>0.5</v>
       </c>
       <c r="J38">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K38">
         <v>3</v>
       </c>
       <c r="L38" s="2">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="M38" s="2">
         <v>1</v>
       </c>
       <c r="N38">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="O38" s="2">
-        <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <f>60/N38</f>
+        <v>0.13333333333333333</v>
       </c>
       <c r="P38">
         <v>0.6</v>
@@ -44908,137 +44910,189 @@
         <v>0.7</v>
       </c>
       <c r="R38">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="S38">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="T38">
         <v>70</v>
       </c>
       <c r="U38" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="V38" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="W38" s="53">
+        <f>C38*$W$1</f>
+        <v>341.70516972972968</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" t="s">
+        <v>297</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="W39" s="53"/>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="2">
+        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>3.1889423076923071</v>
+      </c>
+      <c r="D40" s="3">
+        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
+        <v>6.7994505494505484</v>
+      </c>
+      <c r="E40" s="2">
+        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
+        <v>10.879120879120878</v>
+      </c>
+      <c r="F40">
+        <v>30.9</v>
+      </c>
+      <c r="G40" s="2">
+        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.625</v>
+      </c>
+      <c r="H40">
+        <v>11</v>
+      </c>
+      <c r="I40">
+        <v>0.5</v>
+      </c>
+      <c r="J40">
+        <v>16</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>360</v>
+      </c>
+      <c r="O40" s="2">
+        <f>60/N40</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P40">
+        <v>0.6</v>
+      </c>
+      <c r="Q40">
+        <v>0.7</v>
+      </c>
+      <c r="R40">
+        <v>0.65</v>
+      </c>
+      <c r="S40">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T40">
+        <v>70</v>
+      </c>
+      <c r="U40" s="2">
         <v>3.5</v>
       </c>
-      <c r="W38">
+      <c r="W40">
         <v>480</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
-      <c r="A39" s="6" t="s">
+    <row r="41" spans="1:23">
+      <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B41" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C41" s="2">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>2.8305703125000004</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D41" s="3">
         <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
         <v>4.4296875000000009</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E41" s="2">
         <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
         <v>5.625</v>
       </c>
-      <c r="F39">
+      <c r="F41">
         <v>36.9</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G41" s="2">
         <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0.78750000000000009</v>
       </c>
-      <c r="H39">
+      <c r="H41">
         <v>18</v>
       </c>
-      <c r="I39">
+      <c r="I41">
         <v>1.5</v>
       </c>
-      <c r="J39">
+      <c r="J41">
         <v>27</v>
       </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39" s="2">
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2">
         <v>1.5</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M41" s="2">
         <v>1.7</v>
       </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39" s="2">
-        <v>0</v>
-      </c>
-      <c r="P39">
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41">
         <v>0.65</v>
       </c>
-      <c r="Q39">
+      <c r="Q41">
         <v>0.8</v>
       </c>
-      <c r="R39">
+      <c r="R41">
         <v>0.9</v>
       </c>
-      <c r="S39">
+      <c r="S41">
         <v>0.8</v>
       </c>
-      <c r="T39">
+      <c r="T41">
         <v>70</v>
       </c>
-      <c r="U39" s="2">
+      <c r="U41" s="2">
         <v>3.5</v>
       </c>
-      <c r="W39">
+      <c r="W41">
         <v>255</v>
       </c>
-    </row>
-    <row r="40" spans="1:23">
-      <c r="A40" t="s">
-        <v>297</v>
-      </c>
-      <c r="B40">
-        <v>4</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="W40" s="53"/>
-    </row>
-    <row r="41" spans="1:23">
-      <c r="C41" s="2" t="e">
-        <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D41" s="3" t="e">
-        <f>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E41" s="2" t="e">
-        <f>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G41" s="2">
-        <f>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="O41" s="2" t="e">
-        <f t="shared" ref="O41:O72" si="4">60/N41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U41" s="2"/>
     </row>
     <row r="42" spans="1:23">
       <c r="C42" s="2" t="e">
@@ -45060,7 +45114,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="O42" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N42</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U42" s="2"/>
@@ -45085,7 +45139,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="O43" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N43</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U43" s="2"/>
@@ -45110,7 +45164,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="O44" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N44</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U44" s="2"/>
@@ -45135,7 +45189,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="O45" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N45</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U45" s="2"/>
@@ -45160,7 +45214,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="O46" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N46</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U46" s="2"/>
@@ -45185,7 +45239,7 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="O47" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N47</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U47" s="2"/>
@@ -45210,7 +45264,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="O48" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U48" s="2"/>
@@ -45235,7 +45289,7 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="O49" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N49</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U49" s="2"/>
@@ -45260,7 +45314,7 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="O50" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N50</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U50" s="2"/>
@@ -45285,7 +45339,7 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="O51" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U51" s="2"/>
@@ -45310,7 +45364,7 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="O52" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N52</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U52" s="2"/>
@@ -45335,7 +45389,7 @@
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="O53" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U53" s="2"/>
@@ -45360,7 +45414,7 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="O54" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N54</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U54" s="2"/>
@@ -45385,7 +45439,7 @@
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="O55" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N55</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U55" s="2"/>
@@ -45410,7 +45464,7 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="O56" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N56</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U56" s="2"/>
@@ -45435,7 +45489,7 @@
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="O57" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N57</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U57" s="2"/>
@@ -45460,7 +45514,7 @@
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
       <c r="O58" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N58</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U58" s="2"/>
@@ -45485,7 +45539,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="O59" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N59</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U59" s="2"/>
@@ -45510,7 +45564,7 @@
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
       <c r="O60" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N60</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U60" s="2"/>
@@ -45535,7 +45589,7 @@
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
       <c r="O61" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N61</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U61" s="2"/>
@@ -45560,7 +45614,7 @@
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
       <c r="O62" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N62</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U62" s="2"/>
@@ -45585,7 +45639,7 @@
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="O63" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N63</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U63" s="2"/>
@@ -45610,7 +45664,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="O64" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N64</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U64" s="2"/>
@@ -45635,7 +45689,7 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="O65" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N65</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U65" s="2"/>
@@ -45660,7 +45714,7 @@
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="O66" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N66</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U66" s="2"/>
@@ -45685,7 +45739,7 @@
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="O67" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N67</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U67" s="2"/>
@@ -45710,7 +45764,7 @@
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="O68" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N68</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U68" s="2"/>
@@ -45735,7 +45789,7 @@
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="O69" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N69</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U69" s="2"/>
@@ -45760,7 +45814,7 @@
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="O70" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N70</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U70" s="2"/>
@@ -45785,7 +45839,7 @@
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="O71" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N71</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U71" s="2"/>
@@ -45810,7 +45864,7 @@
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="O72" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>60/N72</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U72" s="2"/>
@@ -45835,7 +45889,7 @@
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="O73" s="2" t="e">
-        <f t="shared" ref="O73:O104" si="5">60/N73</f>
+        <f>60/N73</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U73" s="2"/>
@@ -45860,7 +45914,7 @@
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="O74" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N74</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U74" s="2"/>
@@ -45885,7 +45939,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="O75" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N75</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U75" s="2"/>
@@ -45910,7 +45964,7 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="O76" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N76</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U76" s="2"/>
@@ -45935,7 +45989,7 @@
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="O77" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N77</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U77" s="2"/>
@@ -45960,7 +46014,7 @@
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="O78" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N78</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U78" s="2"/>
@@ -45985,7 +46039,7 @@
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
       <c r="O79" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N79</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U79" s="2"/>
@@ -46010,7 +46064,7 @@
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="O80" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N80</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U80" s="2"/>
@@ -46035,7 +46089,7 @@
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="O81" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N81</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U81" s="2"/>
@@ -46060,7 +46114,7 @@
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
       <c r="O82" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N82</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U82" s="2"/>
@@ -46085,7 +46139,7 @@
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="O83" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N83</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U83" s="2"/>
@@ -46110,7 +46164,7 @@
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="O84" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N84</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U84" s="2"/>
@@ -46135,7 +46189,7 @@
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="O85" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N85</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U85" s="2"/>
@@ -46160,7 +46214,7 @@
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
       <c r="O86" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U86" s="2"/>
@@ -46185,7 +46239,7 @@
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="O87" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N87</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U87" s="2"/>
@@ -46210,7 +46264,7 @@
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
       <c r="O88" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N88</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U88" s="2"/>
@@ -46235,7 +46289,7 @@
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="O89" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N89</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U89" s="2"/>
@@ -46260,7 +46314,7 @@
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="O90" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N90</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U90" s="2"/>
@@ -46285,7 +46339,7 @@
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="O91" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N91</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U91" s="2"/>
@@ -46310,7 +46364,7 @@
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="O92" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N92</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U92" s="2"/>
@@ -46335,7 +46389,7 @@
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
       <c r="O93" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N93</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U93" s="2"/>
@@ -46360,7 +46414,7 @@
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
       <c r="O94" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N94</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U94" s="2"/>
@@ -46385,7 +46439,7 @@
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="O95" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N95</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U95" s="2"/>
@@ -46410,7 +46464,7 @@
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="O96" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N96</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U96" s="2"/>
@@ -46435,7 +46489,7 @@
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
       <c r="O97" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N97</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U97" s="2"/>
@@ -46460,7 +46514,7 @@
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
       <c r="O98" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N98</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U98" s="2"/>
@@ -46485,7 +46539,7 @@
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
       <c r="O99" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N99</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U99" s="2"/>
@@ -46510,7 +46564,7 @@
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
       <c r="O100" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U100" s="2"/>
@@ -46535,7 +46589,7 @@
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
       <c r="O101" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N101</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U101" s="2"/>
@@ -46560,7 +46614,7 @@
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
       <c r="O102" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N102</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U102" s="2"/>
@@ -46585,7 +46639,7 @@
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
       <c r="O103" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N103</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U103" s="2"/>
@@ -46610,7 +46664,7 @@
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
       <c r="O104" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>60/N104</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U104" s="2"/>
@@ -46635,7 +46689,7 @@
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
       <c r="O105" s="2" t="e">
-        <f t="shared" ref="O105:O123" si="6">60/N105</f>
+        <f>60/N105</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U105" s="2"/>
@@ -46660,7 +46714,7 @@
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
       <c r="O106" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f>60/N106</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U106" s="2"/>
@@ -46685,7 +46739,7 @@
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
       <c r="O107" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f>60/N107</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U107" s="2"/>
@@ -46710,7 +46764,7 @@
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
       <c r="O108" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f>60/N108</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U108" s="2"/>
@@ -46735,7 +46789,7 @@
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="O109" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f>60/N109</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U109" s="2"/>
@@ -46760,7 +46814,7 @@
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
       <c r="O110" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f>60/N110</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U110" s="2"/>
@@ -46785,7 +46839,7 @@
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
       <c r="O111" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f>60/N111</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U111" s="2"/>
@@ -46810,7 +46864,7 @@
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
       <c r="O112" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f>60/N112</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U112" s="2"/>
@@ -46835,7 +46889,7 @@
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
       <c r="O113" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f>60/N113</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U113" s="2"/>
@@ -46860,7 +46914,7 @@
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
       <c r="O114" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f>60/N114</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U114" s="2"/>
@@ -46885,7 +46939,7 @@
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
       <c r="O115" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f>60/N115</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U115" s="2"/>
@@ -46910,7 +46964,7 @@
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
       <c r="O116" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f>60/N116</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U116" s="2"/>
@@ -46935,7 +46989,7 @@
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
       <c r="O117" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f>60/N117</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U117" s="2"/>
@@ -46960,7 +47014,7 @@
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="O118" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f>60/N118</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U118" s="2"/>
@@ -46985,7 +47039,7 @@
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="O119" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f>60/N119</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U119" s="2"/>
@@ -47010,7 +47064,7 @@
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
       <c r="O120" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f>60/N120</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U120" s="2"/>
@@ -47035,7 +47089,7 @@
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
       <c r="O121" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f>60/N121</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U121" s="2"/>
@@ -47060,7 +47114,7 @@
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="O122" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f>60/N122</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U122" s="2"/>
@@ -47093,7 +47147,7 @@
       <c r="M123" s="8"/>
       <c r="N123" s="7"/>
       <c r="O123" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f>60/N123</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P123" s="7"/>
@@ -50951,7 +51005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Handgun" sheetId="8" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="313">
   <si>
     <t>Weapon Stats - Sleepy's Weapons</t>
   </si>
@@ -946,6 +946,27 @@
   <si>
     <t>F90 GL*</t>
   </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>GL Attachment</t>
+  </si>
+  <si>
+    <t>S. Ammo</t>
+  </si>
+  <si>
+    <t>S. Range</t>
+  </si>
+  <si>
+    <t>S. Damage</t>
+  </si>
+  <si>
+    <t>S. Cost</t>
+  </si>
+  <si>
+    <t>15 Steel</t>
+  </si>
 </sst>
 </file>
 
@@ -1157,7 +1178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1251,12 +1272,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="100">
+  <dxfs count="105">
     <dxf>
       <font>
         <b val="0"/>
@@ -1848,6 +1872,21 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2151,17 +2190,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="97">
+    <tableColumn id="22" name="Balance" dataDxfId="102">
       <calculatedColumnFormula>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="96">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="101">
       <calculatedColumnFormula>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="95">
+    <tableColumn id="15" name="DPS" dataDxfId="100">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="94">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="99">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2171,7 +2210,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="93">
+    <tableColumn id="7" name="Burst Time" dataDxfId="98">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2307,18 +2346,18 @@
   </autoFilter>
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="90"/>
-    <tableColumn id="22" name="Balance" dataDxfId="89">
+    <tableColumn id="12" name="Vol." dataDxfId="95"/>
+    <tableColumn id="22" name="Balance" dataDxfId="94">
       <calculatedColumnFormula>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="88">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="93">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="87">
+    <tableColumn id="15" name="DPS" dataDxfId="92">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="86">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="91">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2328,7 +2367,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="85">
+    <tableColumn id="7" name="Burst Time" dataDxfId="90">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2338,7 +2377,7 @@
     <tableColumn id="13" name="Bullet Speed"/>
     <tableColumn id="14" name="Weight"/>
     <tableColumn id="21" name="Craftable"/>
-    <tableColumn id="23" name="Value" dataDxfId="84"/>
+    <tableColumn id="23" name="Value" dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2362,18 +2401,18 @@
   </autoFilter>
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="81"/>
-    <tableColumn id="22" name="Balance" dataDxfId="80">
+    <tableColumn id="12" name="Vol." dataDxfId="86"/>
+    <tableColumn id="22" name="Balance" dataDxfId="85">
       <calculatedColumnFormula>SUM(((Table16[[#This Row],[AC/DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[AC/DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="AC/DPS" dataDxfId="79">
+    <tableColumn id="20" name="AC/DPS" dataDxfId="84">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="78">
+    <tableColumn id="15" name="DPS" dataDxfId="83">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Damage]]*Table16[[#This Row],[Burst]])/(Table16[[#This Row],[Ranged Cooldown]]+Table16[[#This Row],[Warm-up]]+(Table16[[#This Row],[Burst Time]]*(Table16[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="77">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="82">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2383,25 +2422,25 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="76">
+    <tableColumn id="7" name="Burst Time" dataDxfId="81">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="75"/>
-    <tableColumn id="14" name="Weight" dataDxfId="74"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="73"/>
-    <tableColumn id="23" name="Value" dataDxfId="72"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="80"/>
+    <tableColumn id="14" name="Weight" dataDxfId="79"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="78"/>
+    <tableColumn id="23" name="Value" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table16810" displayName="Table16810" ref="A3:W123" totalsRowShown="0">
-  <autoFilter ref="A3:W123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table16810" displayName="Table16810" ref="A3:AB123" totalsRowShown="0">
+  <autoFilter ref="A3:AB123">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -2414,34 +2453,39 @@
     <filterColumn colId="20"/>
     <filterColumn colId="21"/>
     <filterColumn colId="22"/>
+    <filterColumn colId="23"/>
+    <filterColumn colId="24"/>
+    <filterColumn colId="25"/>
+    <filterColumn colId="26"/>
+    <filterColumn colId="27"/>
   </autoFilter>
   <sortState ref="A4:W123">
     <sortCondition ref="B3:B123"/>
   </sortState>
-  <tableColumns count="23">
+  <tableColumns count="28">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="69">
+    <tableColumn id="22" name="Balance" dataDxfId="74">
       <calculatedColumnFormula>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="68">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="73">
       <calculatedColumnFormula>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="67">
+    <tableColumn id="15" name="DPS" dataDxfId="72">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="66">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="71">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
     <tableColumn id="18" name="Stopping Pwr"/>
     <tableColumn id="19" name="Arm Pen (%)"/>
     <tableColumn id="3" name="Burst"/>
-    <tableColumn id="4" name="Ranged Cooldown" dataDxfId="65"/>
-    <tableColumn id="5" name="Warm-up" dataDxfId="64"/>
+    <tableColumn id="4" name="Ranged Cooldown" dataDxfId="70"/>
+    <tableColumn id="5" name="Warm-up" dataDxfId="69"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="63">
+    <tableColumn id="7" name="Burst Time" dataDxfId="68">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2449,9 +2493,14 @@
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
     <tableColumn id="13" name="Bullet Speed"/>
-    <tableColumn id="14" name="Weight" dataDxfId="62"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="61"/>
+    <tableColumn id="14" name="Weight" dataDxfId="67"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="66"/>
     <tableColumn id="23" name="Value"/>
+    <tableColumn id="24" name="Special" dataDxfId="65"/>
+    <tableColumn id="28" name="S. Damage" dataDxfId="64"/>
+    <tableColumn id="25" name="S. Ammo" dataDxfId="63"/>
+    <tableColumn id="26" name="S. Range" dataDxfId="62"/>
+    <tableColumn id="29" name="S. Cost" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3019,8 +3068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5469,12 +5518,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C51">
-    <cfRule type="cellIs" dxfId="99" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="2" operator="greaterThan">
       <formula>1.731</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="98" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6384,7 +6433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11:C13"/>
     </sheetView>
   </sheetViews>
@@ -40423,12 +40472,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C20">
-    <cfRule type="cellIs" dxfId="92" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="2" operator="greaterThan">
       <formula>1.63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="91" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42081,12 +42130,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C32">
-    <cfRule type="cellIs" dxfId="83" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="2" operator="greaterThan">
       <formula>2.599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="82" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42100,10 +42149,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W123"/>
+  <dimension ref="A1:AB123"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42130,9 +42179,10 @@
     <col min="21" max="21" width="7.5703125" customWidth="1"/>
     <col min="22" max="22" width="8.140625" style="40" customWidth="1"/>
     <col min="23" max="23" width="7.42578125" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -42152,7 +42202,7 @@
         <v>150.47</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -42181,7 +42231,7 @@
         <v>90.105999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -42251,8 +42301,23 @@
       <c r="W3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="14" t="s">
         <v>194</v>
       </c>
@@ -42300,7 +42365,7 @@
         <v>450</v>
       </c>
       <c r="O4" s="2">
-        <f>60/N4</f>
+        <f t="shared" ref="O4:O15" si="0">60/N4</f>
         <v>0.13333333333333333</v>
       </c>
       <c r="P4">
@@ -42325,11 +42390,16 @@
         <v>86</v>
       </c>
       <c r="W4" s="53">
-        <f>C4*$W$1</f>
+        <f t="shared" ref="W4:W12" si="1">C4*$W$1</f>
         <v>460.55388993428568</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
@@ -42377,7 +42447,7 @@
         <v>300</v>
       </c>
       <c r="O5" s="2">
-        <f>60/N5</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="P5">
@@ -42402,11 +42472,16 @@
         <v>86</v>
       </c>
       <c r="W5" s="53">
-        <f>C5*$W$1</f>
+        <f t="shared" si="1"/>
         <v>440.44052204285708</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" s="71"/>
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="71"/>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="71"/>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>275</v>
       </c>
@@ -42454,7 +42529,7 @@
         <v>450</v>
       </c>
       <c r="O6" s="2">
-        <f>60/N6</f>
+        <f t="shared" si="0"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="P6">
@@ -42479,11 +42554,16 @@
         <v>87</v>
       </c>
       <c r="W6" s="53">
-        <f>C6*$W$1</f>
+        <f t="shared" si="1"/>
         <v>479.95461398488112</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>276</v>
       </c>
@@ -42531,7 +42611,7 @@
         <v>514.29</v>
       </c>
       <c r="O7" s="2">
-        <f>60/N7</f>
+        <f t="shared" si="0"/>
         <v>0.11666569445254624</v>
       </c>
       <c r="P7">
@@ -42556,11 +42636,16 @@
         <v>87</v>
       </c>
       <c r="W7" s="53">
-        <f>C7*$W$1</f>
+        <f t="shared" si="1"/>
         <v>441.95538359647037</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -42608,7 +42693,7 @@
         <v>360</v>
       </c>
       <c r="O8" s="2">
-        <f>60/N8</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="P8">
@@ -42633,11 +42718,16 @@
         <v>87</v>
       </c>
       <c r="W8" s="53">
-        <f>C8*$W$1</f>
+        <f t="shared" si="1"/>
         <v>453.92955714532013</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
         <v>277</v>
       </c>
@@ -42685,7 +42775,7 @@
         <v>360</v>
       </c>
       <c r="O9" s="2">
-        <f>60/N9</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="P9">
@@ -42710,11 +42800,16 @@
         <v>87</v>
       </c>
       <c r="W9" s="53">
-        <f>C9*$W$1</f>
+        <f t="shared" si="1"/>
         <v>477.66016903846156</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="4" t="s">
         <v>278</v>
       </c>
@@ -42762,7 +42857,7 @@
         <v>300</v>
       </c>
       <c r="O10" s="2">
-        <f>60/N10</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="P10">
@@ -42787,11 +42882,16 @@
         <v>87</v>
       </c>
       <c r="W10" s="53">
-        <f>C10*$W$1</f>
+        <f t="shared" si="1"/>
         <v>440.62315610958899</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="4" t="s">
         <v>279</v>
       </c>
@@ -42839,7 +42939,7 @@
         <v>300</v>
       </c>
       <c r="O11" s="2">
-        <f>60/N11</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="P11">
@@ -42864,11 +42964,16 @@
         <v>87</v>
       </c>
       <c r="W11" s="53">
-        <f>C11*$W$1</f>
+        <f t="shared" si="1"/>
         <v>454.11507641534388</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" s="71"/>
+      <c r="Y11" s="71"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="4" t="s">
         <v>65</v>
       </c>
@@ -42916,7 +43021,7 @@
         <v>240</v>
       </c>
       <c r="O12" s="2">
-        <f>60/N12</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="P12">
@@ -42941,11 +43046,16 @@
         <v>87</v>
       </c>
       <c r="W12" s="53">
-        <f>C12*$W$1</f>
+        <f t="shared" si="1"/>
         <v>457.33144772289143</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" s="71"/>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -42993,7 +43103,7 @@
         <v>450</v>
       </c>
       <c r="O13" s="2">
-        <f>60/N13</f>
+        <f t="shared" si="0"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="P13">
@@ -43020,8 +43130,13 @@
       <c r="W13">
         <v>480</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -43069,7 +43184,7 @@
         <v>300</v>
       </c>
       <c r="O14" s="2">
-        <f>60/N14</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="P14">
@@ -43096,8 +43211,13 @@
       <c r="W14">
         <v>480</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -43145,7 +43265,7 @@
         <v>300</v>
       </c>
       <c r="O15" s="2">
-        <f>60/N15</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="P15">
@@ -43172,8 +43292,13 @@
       <c r="W15">
         <v>530</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
         <v>107</v>
       </c>
@@ -43248,8 +43373,13 @@
         <f>C16*$W$1</f>
         <v>365.95557916666667</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" s="4" customFormat="1">
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+    </row>
+    <row r="17" spans="1:28" s="4" customFormat="1">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -43325,8 +43455,13 @@
         <f>C17*$W$1</f>
         <v>357.09540400000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" s="71"/>
+      <c r="Y17" s="71"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="71"/>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="7" t="s">
         <v>83</v>
       </c>
@@ -43402,8 +43537,13 @@
         <f>C18*$W$1</f>
         <v>453.70889418539315</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" s="71"/>
+      <c r="Y18" s="71"/>
+      <c r="Z18" s="71"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="71"/>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="5" t="s">
         <v>95</v>
       </c>
@@ -43478,8 +43618,13 @@
         <f>C19*$W$2</f>
         <v>260.57694069333331</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" s="71"/>
+      <c r="Y19" s="71"/>
+      <c r="Z19" s="71"/>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="71"/>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="5" t="s">
         <v>96</v>
       </c>
@@ -43554,8 +43699,13 @@
         <f>C20*$W$2</f>
         <v>255.37266289640885</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="5" t="s">
         <v>195</v>
       </c>
@@ -43629,8 +43779,13 @@
       <c r="W21">
         <v>245</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="5" t="s">
         <v>196</v>
       </c>
@@ -43704,8 +43859,13 @@
       <c r="W22">
         <v>410</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="1" t="s">
         <v>187</v>
       </c>
@@ -43780,8 +43940,13 @@
       <c r="W23">
         <v>455</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
         <v>188</v>
       </c>
@@ -43856,8 +44021,13 @@
       <c r="W24">
         <v>460</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="1" t="s">
         <v>190</v>
       </c>
@@ -43931,8 +44101,13 @@
       <c r="W25">
         <v>410</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="5" t="s">
         <v>191</v>
       </c>
@@ -44006,8 +44181,13 @@
       <c r="W26">
         <v>185</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
         <v>193</v>
       </c>
@@ -44055,7 +44235,7 @@
         <v>400</v>
       </c>
       <c r="O27" s="2">
-        <f>60/N27</f>
+        <f t="shared" ref="O27:O38" si="2">60/N27</f>
         <v>0.15</v>
       </c>
       <c r="P27">
@@ -44082,8 +44262,13 @@
       <c r="W27">
         <v>435</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="1" t="s">
         <v>284</v>
       </c>
@@ -44131,7 +44316,7 @@
         <v>360</v>
       </c>
       <c r="O28" s="2">
-        <f>60/N28</f>
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="P28">
@@ -44159,8 +44344,13 @@
         <f>C28*$W$1</f>
         <v>407.97351407262573</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28" s="71"/>
+      <c r="Y28" s="71"/>
+      <c r="Z28" s="71"/>
+      <c r="AA28" s="71"/>
+      <c r="AB28" s="71"/>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" t="s">
         <v>285</v>
       </c>
@@ -44208,7 +44398,7 @@
         <v>300</v>
       </c>
       <c r="O29" s="2">
-        <f>60/N29</f>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="P29">
@@ -44236,8 +44426,13 @@
         <f>C29*$W$1</f>
         <v>452.36266318750006</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29" s="71"/>
+      <c r="Y29" s="71"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="71"/>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" t="s">
         <v>286</v>
       </c>
@@ -44285,7 +44480,7 @@
         <v>300</v>
       </c>
       <c r="O30" s="2">
-        <f>60/N30</f>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="P30">
@@ -44313,8 +44508,13 @@
         <f>C30*$W$1</f>
         <v>466.54390939655161</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30" s="71"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="71"/>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" t="s">
         <v>305</v>
       </c>
@@ -44362,7 +44562,7 @@
         <v>400</v>
       </c>
       <c r="O31" s="2">
-        <f>60/N31</f>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="P31">
@@ -44389,8 +44589,23 @@
       <c r="W31">
         <v>650</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y31" s="40">
+        <v>30</v>
+      </c>
+      <c r="Z31" s="40">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="40">
+        <v>12.9</v>
+      </c>
+      <c r="AB31" s="40" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" t="s">
         <v>211</v>
       </c>
@@ -44438,7 +44653,7 @@
         <v>360</v>
       </c>
       <c r="O32" s="2">
-        <f>60/N32</f>
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="P32">
@@ -44463,11 +44678,16 @@
         <v>87</v>
       </c>
       <c r="W32" s="53">
-        <f>C32*$W$1</f>
+        <f t="shared" ref="W32:W38" si="3">C32*$W$1</f>
         <v>362.85197210928641</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32" s="71"/>
+      <c r="Y32" s="71"/>
+      <c r="Z32" s="71"/>
+      <c r="AA32" s="71"/>
+      <c r="AB32" s="71"/>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" s="1" t="s">
         <v>210</v>
       </c>
@@ -44515,7 +44735,7 @@
         <v>360</v>
       </c>
       <c r="O33" s="2">
-        <f>60/N33</f>
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="P33">
@@ -44540,11 +44760,16 @@
         <v>86</v>
       </c>
       <c r="W33" s="53">
-        <f>C33*$W$1</f>
+        <f t="shared" si="3"/>
         <v>453.33423076271185</v>
       </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33" s="71"/>
+      <c r="Y33" s="71"/>
+      <c r="Z33" s="71"/>
+      <c r="AA33" s="71"/>
+      <c r="AB33" s="71"/>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
         <v>212</v>
       </c>
@@ -44592,7 +44817,7 @@
         <v>360</v>
       </c>
       <c r="O34" s="2">
-        <f>60/N34</f>
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="P34">
@@ -44617,11 +44842,16 @@
         <v>87</v>
       </c>
       <c r="W34" s="53">
-        <f>C34*$W$1</f>
+        <f t="shared" si="3"/>
         <v>480.92765951540753</v>
       </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34" s="71"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="71"/>
+      <c r="AA34" s="71"/>
+      <c r="AB34" s="71"/>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" t="s">
         <v>213</v>
       </c>
@@ -44669,7 +44899,7 @@
         <v>300</v>
       </c>
       <c r="O35" s="2">
-        <f>60/N35</f>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="P35">
@@ -44694,11 +44924,16 @@
         <v>87</v>
       </c>
       <c r="W35" s="53">
-        <f>C35*$W$1</f>
+        <f t="shared" si="3"/>
         <v>403.06572519230764</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35" s="71"/>
+      <c r="Y35" s="71"/>
+      <c r="Z35" s="71"/>
+      <c r="AA35" s="71"/>
+      <c r="AB35" s="71"/>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" s="1" t="s">
         <v>214</v>
       </c>
@@ -44746,7 +44981,7 @@
         <v>600</v>
       </c>
       <c r="O36" s="2">
-        <f>60/N36</f>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="P36">
@@ -44771,11 +45006,16 @@
         <v>86</v>
       </c>
       <c r="W36" s="53">
-        <f>C36*$W$1</f>
+        <f t="shared" si="3"/>
         <v>347.02143749999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36" s="71"/>
+      <c r="Y36" s="71"/>
+      <c r="Z36" s="71"/>
+      <c r="AA36" s="71"/>
+      <c r="AB36" s="71"/>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" t="s">
         <v>215</v>
       </c>
@@ -44823,7 +45063,7 @@
         <v>600</v>
       </c>
       <c r="O37" s="2">
-        <f>60/N37</f>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="P37">
@@ -44848,11 +45088,16 @@
         <v>87</v>
       </c>
       <c r="W37" s="53">
-        <f>C37*$W$1</f>
+        <f t="shared" si="3"/>
         <v>468.6190812295082</v>
       </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37" s="71"/>
+      <c r="Y37" s="71"/>
+      <c r="Z37" s="71"/>
+      <c r="AA37" s="71"/>
+      <c r="AB37" s="71"/>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" t="s">
         <v>216</v>
       </c>
@@ -44900,7 +45145,7 @@
         <v>450</v>
       </c>
       <c r="O38" s="2">
-        <f>60/N38</f>
+        <f t="shared" si="2"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="P38">
@@ -44925,11 +45170,16 @@
         <v>87</v>
       </c>
       <c r="W38" s="53">
-        <f>C38*$W$1</f>
+        <f t="shared" si="3"/>
         <v>341.70516972972968</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38" s="71"/>
+      <c r="Y38" s="71"/>
+      <c r="Z38" s="71"/>
+      <c r="AA38" s="71"/>
+      <c r="AB38" s="71"/>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" t="s">
         <v>297</v>
       </c>
@@ -44948,8 +45198,13 @@
         <v>87</v>
       </c>
       <c r="W39" s="53"/>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39" s="71"/>
+      <c r="Y39" s="71"/>
+      <c r="Z39" s="71"/>
+      <c r="AA39" s="71"/>
+      <c r="AB39" s="71"/>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" s="6" t="s">
         <v>38</v>
       </c>
@@ -45021,8 +45276,13 @@
       <c r="W40">
         <v>480</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40" s="40"/>
+      <c r="Y40" s="40"/>
+      <c r="Z40" s="40"/>
+      <c r="AA40" s="40"/>
+      <c r="AB40" s="40"/>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
@@ -45093,8 +45353,13 @@
       <c r="W41">
         <v>255</v>
       </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41" s="40"/>
+      <c r="Y41" s="40"/>
+      <c r="Z41" s="40"/>
+      <c r="AA41" s="40"/>
+      <c r="AB41" s="40"/>
+    </row>
+    <row r="42" spans="1:28">
       <c r="C42" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45114,12 +45379,17 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="O42" s="2" t="e">
-        <f>60/N42</f>
+        <f t="shared" ref="O42:O73" si="4">60/N42</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U42" s="2"/>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42" s="40"/>
+      <c r="Y42" s="40"/>
+      <c r="Z42" s="40"/>
+      <c r="AA42" s="40"/>
+      <c r="AB42" s="40"/>
+    </row>
+    <row r="43" spans="1:28">
       <c r="C43" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45139,12 +45409,17 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="O43" s="2" t="e">
-        <f>60/N43</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U43" s="2"/>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43" s="40"/>
+      <c r="Y43" s="40"/>
+      <c r="Z43" s="40"/>
+      <c r="AA43" s="40"/>
+      <c r="AB43" s="40"/>
+    </row>
+    <row r="44" spans="1:28">
       <c r="C44" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45164,12 +45439,17 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="O44" s="2" t="e">
-        <f>60/N44</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U44" s="2"/>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44" s="40"/>
+      <c r="Y44" s="40"/>
+      <c r="Z44" s="40"/>
+      <c r="AA44" s="40"/>
+      <c r="AB44" s="40"/>
+    </row>
+    <row r="45" spans="1:28">
       <c r="C45" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45189,12 +45469,17 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="O45" s="2" t="e">
-        <f>60/N45</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U45" s="2"/>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="40"/>
+      <c r="AA45" s="40"/>
+      <c r="AB45" s="40"/>
+    </row>
+    <row r="46" spans="1:28">
       <c r="C46" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45214,12 +45499,17 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="O46" s="2" t="e">
-        <f>60/N46</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U46" s="2"/>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="X46" s="40"/>
+      <c r="Y46" s="40"/>
+      <c r="Z46" s="40"/>
+      <c r="AA46" s="40"/>
+      <c r="AB46" s="40"/>
+    </row>
+    <row r="47" spans="1:28">
       <c r="C47" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45239,12 +45529,17 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="O47" s="2" t="e">
-        <f>60/N47</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U47" s="2"/>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40"/>
+      <c r="Z47" s="40"/>
+      <c r="AA47" s="40"/>
+      <c r="AB47" s="40"/>
+    </row>
+    <row r="48" spans="1:28">
       <c r="C48" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45264,12 +45559,17 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="O48" s="2" t="e">
-        <f>60/N48</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U48" s="2"/>
-    </row>
-    <row r="49" spans="3:21">
+      <c r="X48" s="40"/>
+      <c r="Y48" s="40"/>
+      <c r="Z48" s="40"/>
+      <c r="AA48" s="40"/>
+      <c r="AB48" s="40"/>
+    </row>
+    <row r="49" spans="3:28">
       <c r="C49" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45289,12 +45589,17 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="O49" s="2" t="e">
-        <f>60/N49</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U49" s="2"/>
-    </row>
-    <row r="50" spans="3:21">
+      <c r="X49" s="40"/>
+      <c r="Y49" s="40"/>
+      <c r="Z49" s="40"/>
+      <c r="AA49" s="40"/>
+      <c r="AB49" s="40"/>
+    </row>
+    <row r="50" spans="3:28">
       <c r="C50" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45314,12 +45619,17 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="O50" s="2" t="e">
-        <f>60/N50</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U50" s="2"/>
-    </row>
-    <row r="51" spans="3:21">
+      <c r="X50" s="40"/>
+      <c r="Y50" s="40"/>
+      <c r="Z50" s="40"/>
+      <c r="AA50" s="40"/>
+      <c r="AB50" s="40"/>
+    </row>
+    <row r="51" spans="3:28">
       <c r="C51" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45339,12 +45649,17 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="O51" s="2" t="e">
-        <f>60/N51</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U51" s="2"/>
-    </row>
-    <row r="52" spans="3:21">
+      <c r="X51" s="40"/>
+      <c r="Y51" s="40"/>
+      <c r="Z51" s="40"/>
+      <c r="AA51" s="40"/>
+      <c r="AB51" s="40"/>
+    </row>
+    <row r="52" spans="3:28">
       <c r="C52" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45364,12 +45679,17 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="O52" s="2" t="e">
-        <f>60/N52</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U52" s="2"/>
-    </row>
-    <row r="53" spans="3:21">
+      <c r="X52" s="40"/>
+      <c r="Y52" s="40"/>
+      <c r="Z52" s="40"/>
+      <c r="AA52" s="40"/>
+      <c r="AB52" s="40"/>
+    </row>
+    <row r="53" spans="3:28">
       <c r="C53" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45389,12 +45709,17 @@
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="O53" s="2" t="e">
-        <f>60/N53</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U53" s="2"/>
-    </row>
-    <row r="54" spans="3:21">
+      <c r="X53" s="40"/>
+      <c r="Y53" s="40"/>
+      <c r="Z53" s="40"/>
+      <c r="AA53" s="40"/>
+      <c r="AB53" s="40"/>
+    </row>
+    <row r="54" spans="3:28">
       <c r="C54" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45414,12 +45739,17 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="O54" s="2" t="e">
-        <f>60/N54</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U54" s="2"/>
-    </row>
-    <row r="55" spans="3:21">
+      <c r="X54" s="40"/>
+      <c r="Y54" s="40"/>
+      <c r="Z54" s="40"/>
+      <c r="AA54" s="40"/>
+      <c r="AB54" s="40"/>
+    </row>
+    <row r="55" spans="3:28">
       <c r="C55" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45439,12 +45769,17 @@
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="O55" s="2" t="e">
-        <f>60/N55</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U55" s="2"/>
-    </row>
-    <row r="56" spans="3:21">
+      <c r="X55" s="40"/>
+      <c r="Y55" s="40"/>
+      <c r="Z55" s="40"/>
+      <c r="AA55" s="40"/>
+      <c r="AB55" s="40"/>
+    </row>
+    <row r="56" spans="3:28">
       <c r="C56" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45464,12 +45799,17 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="O56" s="2" t="e">
-        <f>60/N56</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U56" s="2"/>
-    </row>
-    <row r="57" spans="3:21">
+      <c r="X56" s="40"/>
+      <c r="Y56" s="40"/>
+      <c r="Z56" s="40"/>
+      <c r="AA56" s="40"/>
+      <c r="AB56" s="40"/>
+    </row>
+    <row r="57" spans="3:28">
       <c r="C57" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45489,12 +45829,17 @@
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="O57" s="2" t="e">
-        <f>60/N57</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U57" s="2"/>
-    </row>
-    <row r="58" spans="3:21">
+      <c r="X57" s="40"/>
+      <c r="Y57" s="40"/>
+      <c r="Z57" s="40"/>
+      <c r="AA57" s="40"/>
+      <c r="AB57" s="40"/>
+    </row>
+    <row r="58" spans="3:28">
       <c r="C58" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45514,12 +45859,17 @@
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
       <c r="O58" s="2" t="e">
-        <f>60/N58</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U58" s="2"/>
-    </row>
-    <row r="59" spans="3:21">
+      <c r="X58" s="40"/>
+      <c r="Y58" s="40"/>
+      <c r="Z58" s="40"/>
+      <c r="AA58" s="40"/>
+      <c r="AB58" s="40"/>
+    </row>
+    <row r="59" spans="3:28">
       <c r="C59" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45539,12 +45889,17 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="O59" s="2" t="e">
-        <f>60/N59</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U59" s="2"/>
-    </row>
-    <row r="60" spans="3:21">
+      <c r="X59" s="40"/>
+      <c r="Y59" s="40"/>
+      <c r="Z59" s="40"/>
+      <c r="AA59" s="40"/>
+      <c r="AB59" s="40"/>
+    </row>
+    <row r="60" spans="3:28">
       <c r="C60" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45564,12 +45919,17 @@
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
       <c r="O60" s="2" t="e">
-        <f>60/N60</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U60" s="2"/>
-    </row>
-    <row r="61" spans="3:21">
+      <c r="X60" s="40"/>
+      <c r="Y60" s="40"/>
+      <c r="Z60" s="40"/>
+      <c r="AA60" s="40"/>
+      <c r="AB60" s="40"/>
+    </row>
+    <row r="61" spans="3:28">
       <c r="C61" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45589,12 +45949,17 @@
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
       <c r="O61" s="2" t="e">
-        <f>60/N61</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U61" s="2"/>
-    </row>
-    <row r="62" spans="3:21">
+      <c r="X61" s="40"/>
+      <c r="Y61" s="40"/>
+      <c r="Z61" s="40"/>
+      <c r="AA61" s="40"/>
+      <c r="AB61" s="40"/>
+    </row>
+    <row r="62" spans="3:28">
       <c r="C62" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45614,12 +45979,17 @@
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
       <c r="O62" s="2" t="e">
-        <f>60/N62</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U62" s="2"/>
-    </row>
-    <row r="63" spans="3:21">
+      <c r="X62" s="40"/>
+      <c r="Y62" s="40"/>
+      <c r="Z62" s="40"/>
+      <c r="AA62" s="40"/>
+      <c r="AB62" s="40"/>
+    </row>
+    <row r="63" spans="3:28">
       <c r="C63" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45639,12 +46009,17 @@
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="O63" s="2" t="e">
-        <f>60/N63</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U63" s="2"/>
-    </row>
-    <row r="64" spans="3:21">
+      <c r="X63" s="40"/>
+      <c r="Y63" s="40"/>
+      <c r="Z63" s="40"/>
+      <c r="AA63" s="40"/>
+      <c r="AB63" s="40"/>
+    </row>
+    <row r="64" spans="3:28">
       <c r="C64" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45664,12 +46039,17 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="O64" s="2" t="e">
-        <f>60/N64</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U64" s="2"/>
-    </row>
-    <row r="65" spans="3:21">
+      <c r="X64" s="40"/>
+      <c r="Y64" s="40"/>
+      <c r="Z64" s="40"/>
+      <c r="AA64" s="40"/>
+      <c r="AB64" s="40"/>
+    </row>
+    <row r="65" spans="3:28">
       <c r="C65" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45689,12 +46069,17 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="O65" s="2" t="e">
-        <f>60/N65</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U65" s="2"/>
-    </row>
-    <row r="66" spans="3:21">
+      <c r="X65" s="40"/>
+      <c r="Y65" s="40"/>
+      <c r="Z65" s="40"/>
+      <c r="AA65" s="40"/>
+      <c r="AB65" s="40"/>
+    </row>
+    <row r="66" spans="3:28">
       <c r="C66" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45714,12 +46099,17 @@
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="O66" s="2" t="e">
-        <f>60/N66</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U66" s="2"/>
-    </row>
-    <row r="67" spans="3:21">
+      <c r="X66" s="40"/>
+      <c r="Y66" s="40"/>
+      <c r="Z66" s="40"/>
+      <c r="AA66" s="40"/>
+      <c r="AB66" s="40"/>
+    </row>
+    <row r="67" spans="3:28">
       <c r="C67" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45739,12 +46129,17 @@
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="O67" s="2" t="e">
-        <f>60/N67</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U67" s="2"/>
-    </row>
-    <row r="68" spans="3:21">
+      <c r="X67" s="40"/>
+      <c r="Y67" s="40"/>
+      <c r="Z67" s="40"/>
+      <c r="AA67" s="40"/>
+      <c r="AB67" s="40"/>
+    </row>
+    <row r="68" spans="3:28">
       <c r="C68" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45764,12 +46159,17 @@
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="O68" s="2" t="e">
-        <f>60/N68</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U68" s="2"/>
-    </row>
-    <row r="69" spans="3:21">
+      <c r="X68" s="40"/>
+      <c r="Y68" s="40"/>
+      <c r="Z68" s="40"/>
+      <c r="AA68" s="40"/>
+      <c r="AB68" s="40"/>
+    </row>
+    <row r="69" spans="3:28">
       <c r="C69" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45789,12 +46189,17 @@
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="O69" s="2" t="e">
-        <f>60/N69</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U69" s="2"/>
-    </row>
-    <row r="70" spans="3:21">
+      <c r="X69" s="40"/>
+      <c r="Y69" s="40"/>
+      <c r="Z69" s="40"/>
+      <c r="AA69" s="40"/>
+      <c r="AB69" s="40"/>
+    </row>
+    <row r="70" spans="3:28">
       <c r="C70" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45814,12 +46219,17 @@
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="O70" s="2" t="e">
-        <f>60/N70</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U70" s="2"/>
-    </row>
-    <row r="71" spans="3:21">
+      <c r="X70" s="40"/>
+      <c r="Y70" s="40"/>
+      <c r="Z70" s="40"/>
+      <c r="AA70" s="40"/>
+      <c r="AB70" s="40"/>
+    </row>
+    <row r="71" spans="3:28">
       <c r="C71" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45839,12 +46249,17 @@
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="O71" s="2" t="e">
-        <f>60/N71</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U71" s="2"/>
-    </row>
-    <row r="72" spans="3:21">
+      <c r="X71" s="40"/>
+      <c r="Y71" s="40"/>
+      <c r="Z71" s="40"/>
+      <c r="AA71" s="40"/>
+      <c r="AB71" s="40"/>
+    </row>
+    <row r="72" spans="3:28">
       <c r="C72" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45864,12 +46279,17 @@
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="O72" s="2" t="e">
-        <f>60/N72</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U72" s="2"/>
-    </row>
-    <row r="73" spans="3:21">
+      <c r="X72" s="40"/>
+      <c r="Y72" s="40"/>
+      <c r="Z72" s="40"/>
+      <c r="AA72" s="40"/>
+      <c r="AB72" s="40"/>
+    </row>
+    <row r="73" spans="3:28">
       <c r="C73" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45889,12 +46309,17 @@
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="O73" s="2" t="e">
-        <f>60/N73</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U73" s="2"/>
-    </row>
-    <row r="74" spans="3:21">
+      <c r="X73" s="40"/>
+      <c r="Y73" s="40"/>
+      <c r="Z73" s="40"/>
+      <c r="AA73" s="40"/>
+      <c r="AB73" s="40"/>
+    </row>
+    <row r="74" spans="3:28">
       <c r="C74" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45914,12 +46339,17 @@
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="O74" s="2" t="e">
-        <f>60/N74</f>
+        <f t="shared" ref="O74:O105" si="5">60/N74</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U74" s="2"/>
-    </row>
-    <row r="75" spans="3:21">
+      <c r="X74" s="40"/>
+      <c r="Y74" s="40"/>
+      <c r="Z74" s="40"/>
+      <c r="AA74" s="40"/>
+      <c r="AB74" s="40"/>
+    </row>
+    <row r="75" spans="3:28">
       <c r="C75" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45939,12 +46369,17 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="O75" s="2" t="e">
-        <f>60/N75</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U75" s="2"/>
-    </row>
-    <row r="76" spans="3:21">
+      <c r="X75" s="40"/>
+      <c r="Y75" s="40"/>
+      <c r="Z75" s="40"/>
+      <c r="AA75" s="40"/>
+      <c r="AB75" s="40"/>
+    </row>
+    <row r="76" spans="3:28">
       <c r="C76" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45964,12 +46399,17 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="O76" s="2" t="e">
-        <f>60/N76</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U76" s="2"/>
-    </row>
-    <row r="77" spans="3:21">
+      <c r="X76" s="40"/>
+      <c r="Y76" s="40"/>
+      <c r="Z76" s="40"/>
+      <c r="AA76" s="40"/>
+      <c r="AB76" s="40"/>
+    </row>
+    <row r="77" spans="3:28">
       <c r="C77" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -45989,12 +46429,17 @@
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="O77" s="2" t="e">
-        <f>60/N77</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U77" s="2"/>
-    </row>
-    <row r="78" spans="3:21">
+      <c r="X77" s="40"/>
+      <c r="Y77" s="40"/>
+      <c r="Z77" s="40"/>
+      <c r="AA77" s="40"/>
+      <c r="AB77" s="40"/>
+    </row>
+    <row r="78" spans="3:28">
       <c r="C78" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46014,12 +46459,17 @@
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="O78" s="2" t="e">
-        <f>60/N78</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U78" s="2"/>
-    </row>
-    <row r="79" spans="3:21">
+      <c r="X78" s="40"/>
+      <c r="Y78" s="40"/>
+      <c r="Z78" s="40"/>
+      <c r="AA78" s="40"/>
+      <c r="AB78" s="40"/>
+    </row>
+    <row r="79" spans="3:28">
       <c r="C79" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46039,12 +46489,17 @@
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
       <c r="O79" s="2" t="e">
-        <f>60/N79</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U79" s="2"/>
-    </row>
-    <row r="80" spans="3:21">
+      <c r="X79" s="40"/>
+      <c r="Y79" s="40"/>
+      <c r="Z79" s="40"/>
+      <c r="AA79" s="40"/>
+      <c r="AB79" s="40"/>
+    </row>
+    <row r="80" spans="3:28">
       <c r="C80" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46064,12 +46519,17 @@
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="O80" s="2" t="e">
-        <f>60/N80</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U80" s="2"/>
-    </row>
-    <row r="81" spans="3:21">
+      <c r="X80" s="40"/>
+      <c r="Y80" s="40"/>
+      <c r="Z80" s="40"/>
+      <c r="AA80" s="40"/>
+      <c r="AB80" s="40"/>
+    </row>
+    <row r="81" spans="3:28">
       <c r="C81" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46089,12 +46549,17 @@
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="O81" s="2" t="e">
-        <f>60/N81</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U81" s="2"/>
-    </row>
-    <row r="82" spans="3:21">
+      <c r="X81" s="40"/>
+      <c r="Y81" s="40"/>
+      <c r="Z81" s="40"/>
+      <c r="AA81" s="40"/>
+      <c r="AB81" s="40"/>
+    </row>
+    <row r="82" spans="3:28">
       <c r="C82" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46114,12 +46579,17 @@
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
       <c r="O82" s="2" t="e">
-        <f>60/N82</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U82" s="2"/>
-    </row>
-    <row r="83" spans="3:21">
+      <c r="X82" s="40"/>
+      <c r="Y82" s="40"/>
+      <c r="Z82" s="40"/>
+      <c r="AA82" s="40"/>
+      <c r="AB82" s="40"/>
+    </row>
+    <row r="83" spans="3:28">
       <c r="C83" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46139,12 +46609,17 @@
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="O83" s="2" t="e">
-        <f>60/N83</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U83" s="2"/>
-    </row>
-    <row r="84" spans="3:21">
+      <c r="X83" s="40"/>
+      <c r="Y83" s="40"/>
+      <c r="Z83" s="40"/>
+      <c r="AA83" s="40"/>
+      <c r="AB83" s="40"/>
+    </row>
+    <row r="84" spans="3:28">
       <c r="C84" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46164,12 +46639,17 @@
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="O84" s="2" t="e">
-        <f>60/N84</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U84" s="2"/>
-    </row>
-    <row r="85" spans="3:21">
+      <c r="X84" s="40"/>
+      <c r="Y84" s="40"/>
+      <c r="Z84" s="40"/>
+      <c r="AA84" s="40"/>
+      <c r="AB84" s="40"/>
+    </row>
+    <row r="85" spans="3:28">
       <c r="C85" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46189,12 +46669,17 @@
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="O85" s="2" t="e">
-        <f>60/N85</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U85" s="2"/>
-    </row>
-    <row r="86" spans="3:21">
+      <c r="X85" s="40"/>
+      <c r="Y85" s="40"/>
+      <c r="Z85" s="40"/>
+      <c r="AA85" s="40"/>
+      <c r="AB85" s="40"/>
+    </row>
+    <row r="86" spans="3:28">
       <c r="C86" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46214,12 +46699,17 @@
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
       <c r="O86" s="2" t="e">
-        <f>60/N86</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U86" s="2"/>
-    </row>
-    <row r="87" spans="3:21">
+      <c r="X86" s="40"/>
+      <c r="Y86" s="40"/>
+      <c r="Z86" s="40"/>
+      <c r="AA86" s="40"/>
+      <c r="AB86" s="40"/>
+    </row>
+    <row r="87" spans="3:28">
       <c r="C87" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46239,12 +46729,17 @@
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="O87" s="2" t="e">
-        <f>60/N87</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U87" s="2"/>
-    </row>
-    <row r="88" spans="3:21">
+      <c r="X87" s="40"/>
+      <c r="Y87" s="40"/>
+      <c r="Z87" s="40"/>
+      <c r="AA87" s="40"/>
+      <c r="AB87" s="40"/>
+    </row>
+    <row r="88" spans="3:28">
       <c r="C88" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46264,12 +46759,17 @@
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
       <c r="O88" s="2" t="e">
-        <f>60/N88</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U88" s="2"/>
-    </row>
-    <row r="89" spans="3:21">
+      <c r="X88" s="40"/>
+      <c r="Y88" s="40"/>
+      <c r="Z88" s="40"/>
+      <c r="AA88" s="40"/>
+      <c r="AB88" s="40"/>
+    </row>
+    <row r="89" spans="3:28">
       <c r="C89" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46289,12 +46789,17 @@
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="O89" s="2" t="e">
-        <f>60/N89</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U89" s="2"/>
-    </row>
-    <row r="90" spans="3:21">
+      <c r="X89" s="40"/>
+      <c r="Y89" s="40"/>
+      <c r="Z89" s="40"/>
+      <c r="AA89" s="40"/>
+      <c r="AB89" s="40"/>
+    </row>
+    <row r="90" spans="3:28">
       <c r="C90" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46314,12 +46819,17 @@
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="O90" s="2" t="e">
-        <f>60/N90</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U90" s="2"/>
-    </row>
-    <row r="91" spans="3:21">
+      <c r="X90" s="40"/>
+      <c r="Y90" s="40"/>
+      <c r="Z90" s="40"/>
+      <c r="AA90" s="40"/>
+      <c r="AB90" s="40"/>
+    </row>
+    <row r="91" spans="3:28">
       <c r="C91" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46339,12 +46849,17 @@
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="O91" s="2" t="e">
-        <f>60/N91</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U91" s="2"/>
-    </row>
-    <row r="92" spans="3:21">
+      <c r="X91" s="40"/>
+      <c r="Y91" s="40"/>
+      <c r="Z91" s="40"/>
+      <c r="AA91" s="40"/>
+      <c r="AB91" s="40"/>
+    </row>
+    <row r="92" spans="3:28">
       <c r="C92" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46364,12 +46879,17 @@
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="O92" s="2" t="e">
-        <f>60/N92</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U92" s="2"/>
-    </row>
-    <row r="93" spans="3:21">
+      <c r="X92" s="40"/>
+      <c r="Y92" s="40"/>
+      <c r="Z92" s="40"/>
+      <c r="AA92" s="40"/>
+      <c r="AB92" s="40"/>
+    </row>
+    <row r="93" spans="3:28">
       <c r="C93" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46389,12 +46909,17 @@
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
       <c r="O93" s="2" t="e">
-        <f>60/N93</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U93" s="2"/>
-    </row>
-    <row r="94" spans="3:21">
+      <c r="X93" s="40"/>
+      <c r="Y93" s="40"/>
+      <c r="Z93" s="40"/>
+      <c r="AA93" s="40"/>
+      <c r="AB93" s="40"/>
+    </row>
+    <row r="94" spans="3:28">
       <c r="C94" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46414,12 +46939,17 @@
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
       <c r="O94" s="2" t="e">
-        <f>60/N94</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U94" s="2"/>
-    </row>
-    <row r="95" spans="3:21">
+      <c r="X94" s="40"/>
+      <c r="Y94" s="40"/>
+      <c r="Z94" s="40"/>
+      <c r="AA94" s="40"/>
+      <c r="AB94" s="40"/>
+    </row>
+    <row r="95" spans="3:28">
       <c r="C95" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46439,12 +46969,17 @@
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="O95" s="2" t="e">
-        <f>60/N95</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U95" s="2"/>
-    </row>
-    <row r="96" spans="3:21">
+      <c r="X95" s="40"/>
+      <c r="Y95" s="40"/>
+      <c r="Z95" s="40"/>
+      <c r="AA95" s="40"/>
+      <c r="AB95" s="40"/>
+    </row>
+    <row r="96" spans="3:28">
       <c r="C96" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46464,12 +46999,17 @@
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="O96" s="2" t="e">
-        <f>60/N96</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U96" s="2"/>
-    </row>
-    <row r="97" spans="3:21">
+      <c r="X96" s="40"/>
+      <c r="Y96" s="40"/>
+      <c r="Z96" s="40"/>
+      <c r="AA96" s="40"/>
+      <c r="AB96" s="40"/>
+    </row>
+    <row r="97" spans="3:28">
       <c r="C97" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46489,12 +47029,17 @@
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
       <c r="O97" s="2" t="e">
-        <f>60/N97</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U97" s="2"/>
-    </row>
-    <row r="98" spans="3:21">
+      <c r="X97" s="40"/>
+      <c r="Y97" s="40"/>
+      <c r="Z97" s="40"/>
+      <c r="AA97" s="40"/>
+      <c r="AB97" s="40"/>
+    </row>
+    <row r="98" spans="3:28">
       <c r="C98" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46514,12 +47059,17 @@
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
       <c r="O98" s="2" t="e">
-        <f>60/N98</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U98" s="2"/>
-    </row>
-    <row r="99" spans="3:21">
+      <c r="X98" s="40"/>
+      <c r="Y98" s="40"/>
+      <c r="Z98" s="40"/>
+      <c r="AA98" s="40"/>
+      <c r="AB98" s="40"/>
+    </row>
+    <row r="99" spans="3:28">
       <c r="C99" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46539,12 +47089,17 @@
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
       <c r="O99" s="2" t="e">
-        <f>60/N99</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U99" s="2"/>
-    </row>
-    <row r="100" spans="3:21">
+      <c r="X99" s="40"/>
+      <c r="Y99" s="40"/>
+      <c r="Z99" s="40"/>
+      <c r="AA99" s="40"/>
+      <c r="AB99" s="40"/>
+    </row>
+    <row r="100" spans="3:28">
       <c r="C100" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46564,12 +47119,17 @@
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
       <c r="O100" s="2" t="e">
-        <f>60/N100</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U100" s="2"/>
-    </row>
-    <row r="101" spans="3:21">
+      <c r="X100" s="40"/>
+      <c r="Y100" s="40"/>
+      <c r="Z100" s="40"/>
+      <c r="AA100" s="40"/>
+      <c r="AB100" s="40"/>
+    </row>
+    <row r="101" spans="3:28">
       <c r="C101" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46589,12 +47149,17 @@
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
       <c r="O101" s="2" t="e">
-        <f>60/N101</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U101" s="2"/>
-    </row>
-    <row r="102" spans="3:21">
+      <c r="X101" s="40"/>
+      <c r="Y101" s="40"/>
+      <c r="Z101" s="40"/>
+      <c r="AA101" s="40"/>
+      <c r="AB101" s="40"/>
+    </row>
+    <row r="102" spans="3:28">
       <c r="C102" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46614,12 +47179,17 @@
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
       <c r="O102" s="2" t="e">
-        <f>60/N102</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U102" s="2"/>
-    </row>
-    <row r="103" spans="3:21">
+      <c r="X102" s="40"/>
+      <c r="Y102" s="40"/>
+      <c r="Z102" s="40"/>
+      <c r="AA102" s="40"/>
+      <c r="AB102" s="40"/>
+    </row>
+    <row r="103" spans="3:28">
       <c r="C103" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46639,12 +47209,17 @@
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
       <c r="O103" s="2" t="e">
-        <f>60/N103</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U103" s="2"/>
-    </row>
-    <row r="104" spans="3:21">
+      <c r="X103" s="40"/>
+      <c r="Y103" s="40"/>
+      <c r="Z103" s="40"/>
+      <c r="AA103" s="40"/>
+      <c r="AB103" s="40"/>
+    </row>
+    <row r="104" spans="3:28">
       <c r="C104" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46664,12 +47239,17 @@
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
       <c r="O104" s="2" t="e">
-        <f>60/N104</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U104" s="2"/>
-    </row>
-    <row r="105" spans="3:21">
+      <c r="X104" s="40"/>
+      <c r="Y104" s="40"/>
+      <c r="Z104" s="40"/>
+      <c r="AA104" s="40"/>
+      <c r="AB104" s="40"/>
+    </row>
+    <row r="105" spans="3:28">
       <c r="C105" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46689,12 +47269,17 @@
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
       <c r="O105" s="2" t="e">
-        <f>60/N105</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U105" s="2"/>
-    </row>
-    <row r="106" spans="3:21">
+      <c r="X105" s="40"/>
+      <c r="Y105" s="40"/>
+      <c r="Z105" s="40"/>
+      <c r="AA105" s="40"/>
+      <c r="AB105" s="40"/>
+    </row>
+    <row r="106" spans="3:28">
       <c r="C106" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46714,12 +47299,17 @@
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
       <c r="O106" s="2" t="e">
-        <f>60/N106</f>
+        <f t="shared" ref="O106:O123" si="6">60/N106</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U106" s="2"/>
-    </row>
-    <row r="107" spans="3:21">
+      <c r="X106" s="40"/>
+      <c r="Y106" s="40"/>
+      <c r="Z106" s="40"/>
+      <c r="AA106" s="40"/>
+      <c r="AB106" s="40"/>
+    </row>
+    <row r="107" spans="3:28">
       <c r="C107" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46739,12 +47329,17 @@
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
       <c r="O107" s="2" t="e">
-        <f>60/N107</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U107" s="2"/>
-    </row>
-    <row r="108" spans="3:21">
+      <c r="X107" s="40"/>
+      <c r="Y107" s="40"/>
+      <c r="Z107" s="40"/>
+      <c r="AA107" s="40"/>
+      <c r="AB107" s="40"/>
+    </row>
+    <row r="108" spans="3:28">
       <c r="C108" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46764,12 +47359,17 @@
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
       <c r="O108" s="2" t="e">
-        <f>60/N108</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U108" s="2"/>
-    </row>
-    <row r="109" spans="3:21">
+      <c r="X108" s="40"/>
+      <c r="Y108" s="40"/>
+      <c r="Z108" s="40"/>
+      <c r="AA108" s="40"/>
+      <c r="AB108" s="40"/>
+    </row>
+    <row r="109" spans="3:28">
       <c r="C109" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46789,12 +47389,17 @@
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="O109" s="2" t="e">
-        <f>60/N109</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U109" s="2"/>
-    </row>
-    <row r="110" spans="3:21">
+      <c r="X109" s="40"/>
+      <c r="Y109" s="40"/>
+      <c r="Z109" s="40"/>
+      <c r="AA109" s="40"/>
+      <c r="AB109" s="40"/>
+    </row>
+    <row r="110" spans="3:28">
       <c r="C110" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46814,12 +47419,17 @@
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
       <c r="O110" s="2" t="e">
-        <f>60/N110</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U110" s="2"/>
-    </row>
-    <row r="111" spans="3:21">
+      <c r="X110" s="40"/>
+      <c r="Y110" s="40"/>
+      <c r="Z110" s="40"/>
+      <c r="AA110" s="40"/>
+      <c r="AB110" s="40"/>
+    </row>
+    <row r="111" spans="3:28">
       <c r="C111" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46839,12 +47449,17 @@
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
       <c r="O111" s="2" t="e">
-        <f>60/N111</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U111" s="2"/>
-    </row>
-    <row r="112" spans="3:21">
+      <c r="X111" s="40"/>
+      <c r="Y111" s="40"/>
+      <c r="Z111" s="40"/>
+      <c r="AA111" s="40"/>
+      <c r="AB111" s="40"/>
+    </row>
+    <row r="112" spans="3:28">
       <c r="C112" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46864,12 +47479,17 @@
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
       <c r="O112" s="2" t="e">
-        <f>60/N112</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U112" s="2"/>
-    </row>
-    <row r="113" spans="1:23">
+      <c r="X112" s="40"/>
+      <c r="Y112" s="40"/>
+      <c r="Z112" s="40"/>
+      <c r="AA112" s="40"/>
+      <c r="AB112" s="40"/>
+    </row>
+    <row r="113" spans="1:28">
       <c r="C113" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46889,12 +47509,17 @@
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
       <c r="O113" s="2" t="e">
-        <f>60/N113</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U113" s="2"/>
-    </row>
-    <row r="114" spans="1:23">
+      <c r="X113" s="40"/>
+      <c r="Y113" s="40"/>
+      <c r="Z113" s="40"/>
+      <c r="AA113" s="40"/>
+      <c r="AB113" s="40"/>
+    </row>
+    <row r="114" spans="1:28">
       <c r="C114" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46914,12 +47539,17 @@
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
       <c r="O114" s="2" t="e">
-        <f>60/N114</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U114" s="2"/>
-    </row>
-    <row r="115" spans="1:23">
+      <c r="X114" s="40"/>
+      <c r="Y114" s="40"/>
+      <c r="Z114" s="40"/>
+      <c r="AA114" s="40"/>
+      <c r="AB114" s="40"/>
+    </row>
+    <row r="115" spans="1:28">
       <c r="C115" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46939,12 +47569,17 @@
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
       <c r="O115" s="2" t="e">
-        <f>60/N115</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U115" s="2"/>
-    </row>
-    <row r="116" spans="1:23">
+      <c r="X115" s="40"/>
+      <c r="Y115" s="40"/>
+      <c r="Z115" s="40"/>
+      <c r="AA115" s="40"/>
+      <c r="AB115" s="40"/>
+    </row>
+    <row r="116" spans="1:28">
       <c r="C116" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46964,12 +47599,17 @@
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
       <c r="O116" s="2" t="e">
-        <f>60/N116</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U116" s="2"/>
-    </row>
-    <row r="117" spans="1:23">
+      <c r="X116" s="40"/>
+      <c r="Y116" s="40"/>
+      <c r="Z116" s="40"/>
+      <c r="AA116" s="40"/>
+      <c r="AB116" s="40"/>
+    </row>
+    <row r="117" spans="1:28">
       <c r="C117" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -46989,12 +47629,17 @@
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
       <c r="O117" s="2" t="e">
-        <f>60/N117</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U117" s="2"/>
-    </row>
-    <row r="118" spans="1:23">
+      <c r="X117" s="40"/>
+      <c r="Y117" s="40"/>
+      <c r="Z117" s="40"/>
+      <c r="AA117" s="40"/>
+      <c r="AB117" s="40"/>
+    </row>
+    <row r="118" spans="1:28">
       <c r="C118" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -47014,12 +47659,17 @@
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="O118" s="2" t="e">
-        <f>60/N118</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U118" s="2"/>
-    </row>
-    <row r="119" spans="1:23">
+      <c r="X118" s="40"/>
+      <c r="Y118" s="40"/>
+      <c r="Z118" s="40"/>
+      <c r="AA118" s="40"/>
+      <c r="AB118" s="40"/>
+    </row>
+    <row r="119" spans="1:28">
       <c r="C119" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -47039,12 +47689,17 @@
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="O119" s="2" t="e">
-        <f>60/N119</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U119" s="2"/>
-    </row>
-    <row r="120" spans="1:23">
+      <c r="X119" s="40"/>
+      <c r="Y119" s="40"/>
+      <c r="Z119" s="40"/>
+      <c r="AA119" s="40"/>
+      <c r="AB119" s="40"/>
+    </row>
+    <row r="120" spans="1:28">
       <c r="C120" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -47064,12 +47719,17 @@
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
       <c r="O120" s="2" t="e">
-        <f>60/N120</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U120" s="2"/>
-    </row>
-    <row r="121" spans="1:23">
+      <c r="X120" s="40"/>
+      <c r="Y120" s="40"/>
+      <c r="Z120" s="40"/>
+      <c r="AA120" s="40"/>
+      <c r="AB120" s="40"/>
+    </row>
+    <row r="121" spans="1:28">
       <c r="C121" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -47089,12 +47749,17 @@
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
       <c r="O121" s="2" t="e">
-        <f>60/N121</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U121" s="2"/>
-    </row>
-    <row r="122" spans="1:23">
+      <c r="X121" s="40"/>
+      <c r="Y121" s="40"/>
+      <c r="Z121" s="40"/>
+      <c r="AA121" s="40"/>
+      <c r="AB121" s="40"/>
+    </row>
+    <row r="122" spans="1:28">
       <c r="C122" s="2" t="e">
         <f>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -47114,12 +47779,17 @@
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="O122" s="2" t="e">
-        <f>60/N122</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U122" s="2"/>
-    </row>
-    <row r="123" spans="1:23">
+      <c r="X122" s="40"/>
+      <c r="Y122" s="40"/>
+      <c r="Z122" s="40"/>
+      <c r="AA122" s="40"/>
+      <c r="AB122" s="40"/>
+    </row>
+    <row r="123" spans="1:28">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="8" t="e">
@@ -47147,7 +47817,7 @@
       <c r="M123" s="8"/>
       <c r="N123" s="7"/>
       <c r="O123" s="8" t="e">
-        <f>60/N123</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P123" s="7"/>
@@ -47158,15 +47828,20 @@
       <c r="U123" s="8"/>
       <c r="V123" s="47"/>
       <c r="W123" s="7"/>
+      <c r="X123" s="47"/>
+      <c r="Y123" s="47"/>
+      <c r="Z123" s="47"/>
+      <c r="AA123" s="47"/>
+      <c r="AB123" s="47"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C997">
-    <cfRule type="cellIs" dxfId="71" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="2" operator="greaterThan">
       <formula>3.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O123">
-    <cfRule type="cellIs" dxfId="70" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Handgun" sheetId="8" r:id="rId1"/>
@@ -15,19 +15,20 @@
     <sheet name="Spacer Rifle" sheetId="14" r:id="rId6"/>
     <sheet name="LMG" sheetId="11" r:id="rId7"/>
     <sheet name="HMG" sheetId="22" r:id="rId8"/>
-    <sheet name="Shotgun" sheetId="12" r:id="rId9"/>
-    <sheet name="Melee" sheetId="17" r:id="rId10"/>
-    <sheet name="Misc" sheetId="19" r:id="rId11"/>
-    <sheet name="Volumes" sheetId="15" r:id="rId12"/>
-    <sheet name="Formulas" sheetId="20" r:id="rId13"/>
-    <sheet name="Comments" sheetId="21" r:id="rId14"/>
+    <sheet name="Turrets" sheetId="24" r:id="rId9"/>
+    <sheet name="Shotgun" sheetId="12" r:id="rId10"/>
+    <sheet name="Melee" sheetId="17" r:id="rId11"/>
+    <sheet name="Misc" sheetId="19" r:id="rId12"/>
+    <sheet name="Volumes" sheetId="15" r:id="rId13"/>
+    <sheet name="Formulas" sheetId="20" r:id="rId14"/>
+    <sheet name="Comments" sheetId="21" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="330">
   <si>
     <t>Weapon Stats - Sleepy's Weapons</t>
   </si>
@@ -791,9 +792,6 @@
     <t>Tactical</t>
   </si>
   <si>
-    <t>Mounted</t>
-  </si>
-  <si>
     <t>M2HB</t>
   </si>
   <si>
@@ -843,9 +841,6 @@
   </si>
   <si>
     <t>180 S, 4 C</t>
-  </si>
-  <si>
-    <t>210 S, 6 C</t>
   </si>
   <si>
     <t>Movespeed -0.75</t>
@@ -967,12 +962,69 @@
   <si>
     <t>15 Steel</t>
   </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Mini-turret</t>
+  </si>
+  <si>
+    <t>Buildable</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>Manned</t>
+  </si>
+  <si>
+    <t>Unmanned</t>
+  </si>
+  <si>
+    <t>Autocannon Turret</t>
+  </si>
+  <si>
+    <t>Minify?</t>
+  </si>
+  <si>
+    <t>70 S, 2 C</t>
+  </si>
+  <si>
+    <t>350 S, 6 C, 40 P</t>
+  </si>
+  <si>
+    <t>Min Range</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Uranium Slug Turret</t>
+  </si>
+  <si>
+    <t>300 S, 6 C, 40 P, 60 U</t>
+  </si>
+  <si>
+    <t>50 S</t>
+  </si>
+  <si>
+    <t>Rearm Cost</t>
+  </si>
+  <si>
+    <t>Ammo Count</t>
+  </si>
+  <si>
+    <t>Bursts</t>
+  </si>
+  <si>
+    <t>210 S, 4 C</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1059,6 +1111,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1178,7 +1237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1275,12 +1334,23 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="105">
+  <dxfs count="110">
     <dxf>
       <font>
         <b val="0"/>
@@ -1648,6 +1718,24 @@
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -2190,17 +2278,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="102">
+    <tableColumn id="22" name="Balance" dataDxfId="107">
       <calculatedColumnFormula>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="101">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="106">
       <calculatedColumnFormula>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="100">
+    <tableColumn id="15" name="DPS" dataDxfId="105">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="99">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="104">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2210,7 +2298,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="98">
+    <tableColumn id="7" name="Burst Time" dataDxfId="103">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2227,6 +2315,61 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table16810111213" displayName="Table16810111213" ref="A3:W19" totalsRowShown="0">
+  <autoFilter ref="A3:W19">
+    <filterColumn colId="1"/>
+    <filterColumn colId="2"/>
+    <filterColumn colId="3"/>
+    <filterColumn colId="4"/>
+    <filterColumn colId="5"/>
+    <filterColumn colId="6"/>
+    <filterColumn colId="8"/>
+    <filterColumn colId="9"/>
+    <filterColumn colId="19"/>
+    <filterColumn colId="20"/>
+    <filterColumn colId="21"/>
+    <filterColumn colId="22"/>
+  </autoFilter>
+  <tableColumns count="23">
+    <tableColumn id="1" name="Weapon Name"/>
+    <tableColumn id="12" name="Vol."/>
+    <tableColumn id="22" name="Balance" dataDxfId="30">
+      <calculatedColumnFormula>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="Avg DPS" dataDxfId="29">
+      <calculatedColumnFormula>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="DPS" dataDxfId="28">
+      <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="Range"/>
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="27">
+      <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Damage"/>
+    <tableColumn id="18" name="Stopping Pwr"/>
+    <tableColumn id="19" name="Arm Pen (%)"/>
+    <tableColumn id="3" name="Burst"/>
+    <tableColumn id="4" name="Ranged Cooldown"/>
+    <tableColumn id="5" name="Warm-up"/>
+    <tableColumn id="6" name="RPM"/>
+    <tableColumn id="7" name="Burst Time" dataDxfId="26">
+      <calculatedColumnFormula>60/N4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Accuracy (Close)"/>
+    <tableColumn id="9" name="Accuracy (Short)"/>
+    <tableColumn id="10" name="Accuracy (Medium)"/>
+    <tableColumn id="11" name="Accuracy (Long)"/>
+    <tableColumn id="13" name="Bullet Speed"/>
+    <tableColumn id="14" name="Weight"/>
+    <tableColumn id="21" name="Craftable"/>
+    <tableColumn id="23" name="Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table168101112133" displayName="Table168101112133" ref="A3:W19" totalsRowShown="0">
   <autoFilter ref="A3:W19">
     <filterColumn colId="4"/>
@@ -2286,7 +2429,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table16892" displayName="Table16892" ref="A3:Q50" totalsRowShown="0">
   <autoFilter ref="A3:Q50">
     <filterColumn colId="2"/>
@@ -2346,18 +2489,18 @@
   </autoFilter>
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="95"/>
-    <tableColumn id="22" name="Balance" dataDxfId="94">
+    <tableColumn id="12" name="Vol." dataDxfId="100"/>
+    <tableColumn id="22" name="Balance" dataDxfId="99">
       <calculatedColumnFormula>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="93">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="98">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="92">
+    <tableColumn id="15" name="DPS" dataDxfId="97">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="91">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="96">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2367,7 +2510,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="90">
+    <tableColumn id="7" name="Burst Time" dataDxfId="95">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2377,7 +2520,7 @@
     <tableColumn id="13" name="Bullet Speed"/>
     <tableColumn id="14" name="Weight"/>
     <tableColumn id="21" name="Craftable"/>
-    <tableColumn id="23" name="Value" dataDxfId="89"/>
+    <tableColumn id="23" name="Value" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2401,18 +2544,18 @@
   </autoFilter>
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="86"/>
-    <tableColumn id="22" name="Balance" dataDxfId="85">
+    <tableColumn id="12" name="Vol." dataDxfId="91"/>
+    <tableColumn id="22" name="Balance" dataDxfId="90">
       <calculatedColumnFormula>SUM(((Table16[[#This Row],[AC/DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[AC/DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="AC/DPS" dataDxfId="84">
+    <tableColumn id="20" name="AC/DPS" dataDxfId="89">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="83">
+    <tableColumn id="15" name="DPS" dataDxfId="88">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Damage]]*Table16[[#This Row],[Burst]])/(Table16[[#This Row],[Ranged Cooldown]]+Table16[[#This Row],[Warm-up]]+(Table16[[#This Row],[Burst Time]]*(Table16[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="82">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="87">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2422,17 +2565,17 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="81">
+    <tableColumn id="7" name="Burst Time" dataDxfId="86">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="80"/>
-    <tableColumn id="14" name="Weight" dataDxfId="79"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="78"/>
-    <tableColumn id="23" name="Value" dataDxfId="77"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="85"/>
+    <tableColumn id="14" name="Weight" dataDxfId="84"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="83"/>
+    <tableColumn id="23" name="Value" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2465,27 +2608,27 @@
   <tableColumns count="28">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="74">
+    <tableColumn id="22" name="Balance" dataDxfId="79">
       <calculatedColumnFormula>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="73">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="78">
       <calculatedColumnFormula>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="72">
+    <tableColumn id="15" name="DPS" dataDxfId="77">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="71">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="76">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
     <tableColumn id="18" name="Stopping Pwr"/>
     <tableColumn id="19" name="Arm Pen (%)"/>
     <tableColumn id="3" name="Burst"/>
-    <tableColumn id="4" name="Ranged Cooldown" dataDxfId="70"/>
-    <tableColumn id="5" name="Warm-up" dataDxfId="69"/>
+    <tableColumn id="4" name="Ranged Cooldown" dataDxfId="75"/>
+    <tableColumn id="5" name="Warm-up" dataDxfId="74"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="68">
+    <tableColumn id="7" name="Burst Time" dataDxfId="73">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2493,14 +2636,14 @@
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
     <tableColumn id="13" name="Bullet Speed"/>
-    <tableColumn id="14" name="Weight" dataDxfId="67"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="66"/>
+    <tableColumn id="14" name="Weight" dataDxfId="72"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="71"/>
     <tableColumn id="23" name="Value"/>
-    <tableColumn id="24" name="Special" dataDxfId="65"/>
-    <tableColumn id="28" name="S. Damage" dataDxfId="64"/>
-    <tableColumn id="25" name="S. Ammo" dataDxfId="63"/>
-    <tableColumn id="26" name="S. Range" dataDxfId="62"/>
-    <tableColumn id="29" name="S. Cost" dataDxfId="61"/>
+    <tableColumn id="24" name="Special" dataDxfId="70"/>
+    <tableColumn id="28" name="S. Damage" dataDxfId="69"/>
+    <tableColumn id="25" name="S. Ammo" dataDxfId="68"/>
+    <tableColumn id="26" name="S. Range" dataDxfId="67"/>
+    <tableColumn id="29" name="S. Cost" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2528,17 +2671,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="58">
+    <tableColumn id="22" name="Balance" dataDxfId="63">
       <calculatedColumnFormula>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="57">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="62">
       <calculatedColumnFormula>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="56">
+    <tableColumn id="15" name="DPS" dataDxfId="61">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="55">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="60">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2548,17 +2691,17 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="54">
+    <tableColumn id="7" name="Burst Time" dataDxfId="59">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="53"/>
-    <tableColumn id="14" name="Weight" dataDxfId="52"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="51"/>
-    <tableColumn id="23" name="Value" dataDxfId="50"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="58"/>
+    <tableColumn id="14" name="Weight" dataDxfId="57"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="56"/>
+    <tableColumn id="23" name="Value" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2583,17 +2726,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="48">
+    <tableColumn id="22" name="Balance" dataDxfId="53">
       <calculatedColumnFormula>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="47">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="52">
       <calculatedColumnFormula>SUM(Table1681015[[#This Row],[DPS]]*Table1681015[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="46">
+    <tableColumn id="15" name="DPS" dataDxfId="51">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Damage]]*Table1681015[[#This Row],[Burst]])/(Table1681015[[#This Row],[Ranged Cooldown]]+Table1681015[[#This Row],[Warm-up]]+(Table1681015[[#This Row],[Burst Time]]*(Table1681015[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="45">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="50">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Accuracy (Close)]]+Table1681015[[#This Row],[Accuracy (Short)]]+Table1681015[[#This Row],[Accuracy (Medium)]]+Table1681015[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2603,7 +2746,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="44">
+    <tableColumn id="7" name="Burst Time" dataDxfId="49">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2641,17 +2784,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="42">
+    <tableColumn id="22" name="Balance" dataDxfId="47">
       <calculatedColumnFormula>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="41">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="46">
       <calculatedColumnFormula>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="40">
+    <tableColumn id="15" name="DPS" dataDxfId="45">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="39">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="44">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2661,7 +2804,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="38">
+    <tableColumn id="7" name="Burst Time" dataDxfId="43">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2678,8 +2821,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1681011124" displayName="Table1681011124" ref="A3:Z15" totalsRowShown="0">
-  <autoFilter ref="A3:Z15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1681011124" displayName="Table1681011124" ref="A3:Z11" totalsRowShown="0">
+  <autoFilter ref="A3:Z11">
     <filterColumn colId="23"/>
     <filterColumn colId="24"/>
     <filterColumn colId="25"/>
@@ -2687,17 +2830,17 @@
   <tableColumns count="26">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="36">
+    <tableColumn id="22" name="Balance" dataDxfId="41">
       <calculatedColumnFormula>SUM(((Table1681011124[[#This Row],[Avg DPS]]*(Table1681011124[[#This Row],[Range]]))+(Table1681011124[[#This Row],[Avg DPS]]*Table1681011124[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="35">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="40">
       <calculatedColumnFormula>SUM(Table1681011124[[#This Row],[DPS]]*Table1681011124[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="34">
+    <tableColumn id="15" name="DPS" dataDxfId="39">
       <calculatedColumnFormula>SUM((Table1681011124[[#This Row],[Damage]]*Table1681011124[[#This Row],[Burst]])/(Table1681011124[[#This Row],[Ranged Cooldown]]+Table1681011124[[#This Row],[Warm-up]]+(Table1681011124[[#This Row],[Burst Time]]*(Table1681011124[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="33">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="38">
       <calculatedColumnFormula>SUM((Table1681011124[[#This Row],[Accuracy (Close)]]+Table1681011124[[#This Row],[Accuracy (Short)]]+Table1681011124[[#This Row],[Accuracy (Medium)]]+Table1681011124[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2707,7 +2850,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="32">
+    <tableColumn id="7" name="Burst Time" dataDxfId="37">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2727,36 +2870,32 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table16810111213" displayName="Table16810111213" ref="A3:W19" totalsRowShown="0">
-  <autoFilter ref="A3:W19">
-    <filterColumn colId="1"/>
-    <filterColumn colId="2"/>
-    <filterColumn colId="3"/>
-    <filterColumn colId="4"/>
-    <filterColumn colId="5"/>
-    <filterColumn colId="6"/>
-    <filterColumn colId="8"/>
-    <filterColumn colId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table16810111245" displayName="Table16810111245" ref="A3:AE13" totalsRowShown="0">
+  <autoFilter ref="A3:AE13">
     <filterColumn colId="19"/>
-    <filterColumn colId="20"/>
-    <filterColumn colId="21"/>
-    <filterColumn colId="22"/>
+    <filterColumn colId="23"/>
+    <filterColumn colId="24"/>
+    <filterColumn colId="25"/>
+    <filterColumn colId="27"/>
+    <filterColumn colId="28"/>
+    <filterColumn colId="29"/>
+    <filterColumn colId="30"/>
   </autoFilter>
-  <tableColumns count="23">
+  <tableColumns count="31">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="30">
-      <calculatedColumnFormula>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
+    <tableColumn id="22" name="Balance" dataDxfId="36">
+      <calculatedColumnFormula>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="29">
-      <calculatedColumnFormula>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
+    <tableColumn id="20" name="Avg DPS" dataDxfId="35">
+      <calculatedColumnFormula>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="28">
-      <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
+    <tableColumn id="15" name="DPS" dataDxfId="34">
+      <calculatedColumnFormula>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="27">
-      <calculatedColumnFormula>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="33">
+      <calculatedColumnFormula>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
     <tableColumn id="18" name="Stopping Pwr"/>
@@ -2765,17 +2904,25 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="26">
+    <tableColumn id="7" name="Burst Time" dataDxfId="32">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
+    <tableColumn id="29" name="Min Range"/>
     <tableColumn id="13" name="Bullet Speed"/>
     <tableColumn id="14" name="Weight"/>
-    <tableColumn id="21" name="Craftable"/>
-    <tableColumn id="23" name="Value"/>
+    <tableColumn id="21" name="Buildable"/>
+    <tableColumn id="24" name="Rearm Cost"/>
+    <tableColumn id="28" name="Ammo Count"/>
+    <tableColumn id="31" name="Bursts"/>
+    <tableColumn id="23" name="COG"/>
+    <tableColumn id="25" name="Materials"/>
+    <tableColumn id="27" name="Minify?"/>
+    <tableColumn id="30" name="Power"/>
+    <tableColumn id="26" name="Class"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3068,7 +3215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -4646,7 +4793,7 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -4722,7 +4869,7 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -4798,7 +4945,7 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -4874,7 +5021,7 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B26" s="7">
         <v>4</v>
@@ -5518,12 +5665,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C51">
-    <cfRule type="cellIs" dxfId="104" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="2" operator="greaterThan">
       <formula>1.731</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5536,6 +5683,830 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="11" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="W1">
+        <v>132.124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="W2">
+        <v>145.68299999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="W3" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" thickTop="1">
+      <c r="A4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2">
+        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>1.9275069767441864</v>
+      </c>
+      <c r="D4" s="3">
+        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
+        <v>6.4465116279069772</v>
+      </c>
+      <c r="E4" s="2">
+        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
+        <v>8.3720930232558146</v>
+      </c>
+      <c r="F4">
+        <v>15.9</v>
+      </c>
+      <c r="G4" s="2">
+        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.77</v>
+      </c>
+      <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1.25</v>
+      </c>
+      <c r="M4">
+        <v>0.9</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="P4">
+        <v>0.8</v>
+      </c>
+      <c r="Q4">
+        <v>0.87</v>
+      </c>
+      <c r="R4">
+        <v>0.77</v>
+      </c>
+      <c r="S4">
+        <v>0.64</v>
+      </c>
+      <c r="T4" s="17">
+        <v>55</v>
+      </c>
+      <c r="U4" s="18"/>
+      <c r="V4" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W4" s="23">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2">
+        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>2.7770294117647065</v>
+      </c>
+      <c r="D5" s="3">
+        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
+        <v>10.323529411764708</v>
+      </c>
+      <c r="E5" s="2">
+        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
+        <v>18.68512110726644</v>
+      </c>
+      <c r="F5">
+        <v>12.9</v>
+      </c>
+      <c r="G5" s="2">
+        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.55249999999999999</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1.35</v>
+      </c>
+      <c r="M5">
+        <v>1.2</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="P5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q5">
+        <v>0.64</v>
+      </c>
+      <c r="R5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S5">
+        <v>0.45</v>
+      </c>
+      <c r="T5" s="19">
+        <v>55</v>
+      </c>
+      <c r="U5" s="20"/>
+      <c r="V5" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="W5" s="24">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>1.8259500000000002</v>
+      </c>
+      <c r="D6" s="3">
+        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
+        <v>5.5500000000000007</v>
+      </c>
+      <c r="E6" s="2">
+        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
+        <v>7.5000000000000009</v>
+      </c>
+      <c r="F6">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G6" s="2">
+        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.74</v>
+      </c>
+      <c r="H6">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>2.1</v>
+      </c>
+      <c r="M6">
+        <v>0.7</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="P6">
+        <v>0.85</v>
+      </c>
+      <c r="Q6">
+        <v>0.91</v>
+      </c>
+      <c r="R6">
+        <v>0.79</v>
+      </c>
+      <c r="S6">
+        <v>0.41</v>
+      </c>
+      <c r="T6" s="17">
+        <v>55</v>
+      </c>
+      <c r="U6" s="34">
+        <v>3.4</v>
+      </c>
+      <c r="V6" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="W6" s="57">
+        <f>Table16810111213[[#This Row],[Balance]]*W1</f>
+        <v>241.25181780000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>1.4337599999999997</v>
+      </c>
+      <c r="D7" s="3">
+        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="E7" s="2">
+        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
+        <v>6.4</v>
+      </c>
+      <c r="F7">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G7" s="2">
+        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1.5</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="P7">
+        <v>0.8</v>
+      </c>
+      <c r="Q7">
+        <v>0.9</v>
+      </c>
+      <c r="R7">
+        <v>0.8</v>
+      </c>
+      <c r="S7">
+        <v>0.4</v>
+      </c>
+      <c r="T7" s="19">
+        <v>55</v>
+      </c>
+      <c r="U7" s="34">
+        <v>3.5</v>
+      </c>
+      <c r="V7" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="W7" s="57">
+        <f>Table16810111213[[#This Row],[Balance]]*W1</f>
+        <v>189.43410623999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>1.9347900000000002</v>
+      </c>
+      <c r="D8" s="3">
+        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
+        <v>5.2433333333333341</v>
+      </c>
+      <c r="E8" s="2">
+        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="F8">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G8" s="2">
+        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.71500000000000008</v>
+      </c>
+      <c r="H8">
+        <v>22</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1.8</v>
+      </c>
+      <c r="M8">
+        <v>1.2</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="P8">
+        <v>0.8</v>
+      </c>
+      <c r="Q8">
+        <v>0.88</v>
+      </c>
+      <c r="R8">
+        <v>0.79</v>
+      </c>
+      <c r="S8">
+        <v>0.39</v>
+      </c>
+      <c r="T8" s="17">
+        <v>55</v>
+      </c>
+      <c r="U8" s="34">
+        <v>3.6</v>
+      </c>
+      <c r="V8" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="W8" s="57">
+        <f>Table16810111213[[#This Row],[Balance]]*W1</f>
+        <v>255.63219396000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="e">
+        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D9" s="3" t="e">
+        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E9" s="2" t="e">
+        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="2">
+        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="e">
+        <f t="shared" ref="O9:O19" si="0">60/N9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="e">
+        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="3" t="e">
+        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E10" s="2" t="e">
+        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="2">
+        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="2" t="e">
+        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11" s="3" t="e">
+        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E11" s="2" t="e">
+        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="2">
+        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="2" t="e">
+        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D12" s="3" t="e">
+        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12" s="2" t="e">
+        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" s="2">
+        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="C13" s="2" t="e">
+        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="3" t="e">
+        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="2" t="e">
+        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="2">
+        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="C14" s="2" t="e">
+        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D14" s="3" t="e">
+        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E14" s="2" t="e">
+        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" s="2">
+        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="C15" s="2" t="e">
+        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D15" s="3" t="e">
+        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" s="2" t="e">
+        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="2">
+        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="C16" s="2" t="e">
+        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D16" s="3" t="e">
+        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16" s="2" t="e">
+        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" s="2">
+        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="4" customFormat="1">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17" s="2" t="e">
+        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D17" s="3" t="e">
+        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E17" s="2" t="e">
+        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17" s="2">
+        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="C18" s="2" t="e">
+        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D18" s="3" t="e">
+        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="2" t="e">
+        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18" s="2">
+        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="2" t="e">
+        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="3" t="e">
+        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="2" t="e">
+        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="2">
+        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C4:C19">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
+      <formula>2.789</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X19"/>
   <sheetViews>
@@ -5574,7 +6545,7 @@
         <v>166</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q1" t="s">
         <v>174</v>
@@ -6429,7 +7400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q50"/>
   <sheetViews>
@@ -7859,7 +8830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="2"/>
@@ -7867,7 +8838,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7878,19 +8849,19 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" t="s">
         <v>263</v>
       </c>
-      <c r="C1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>264</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>265</v>
-      </c>
-      <c r="F1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -7901,7 +8872,7 @@
         <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>53</v>
@@ -8339,7 +9310,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B13">
         <f>COUNTIF(HMG!B:B, 1)</f>
@@ -8347,7 +9318,7 @@
       </c>
       <c r="C13">
         <f>COUNTIF(HMG!B:B, "1B")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <f>COUNTIF(HMG!B:B, 2)</f>
@@ -8359,7 +9330,7 @@
       </c>
       <c r="F13">
         <f>COUNTIF(HMG!B:B, 4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <f>COUNTIF(HMG!B:B, 5)</f>
@@ -8383,7 +9354,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B15" s="63" t="s">
         <v>86</v>
@@ -8415,7 +9386,7 @@
       </c>
       <c r="C17">
         <f>SUM(C3:C13)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:J17" si="0">SUM(D3:D13)</f>
@@ -8427,7 +9398,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
@@ -8450,7 +9421,7 @@
       </c>
       <c r="R17">
         <f>SUM(B17:P17)</f>
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -8479,7 +9450,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -8487,7 +9458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:AP242"/>
   <sheetViews>
@@ -39566,7 +40537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B5"/>
   <sheetViews>
@@ -39813,7 +40784,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B5" s="12">
         <v>4</v>
@@ -39889,7 +40860,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B6" s="12">
         <v>4</v>
@@ -39965,7 +40936,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B7" s="12">
         <v>4</v>
@@ -40041,7 +41012,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B8" s="12">
         <v>4</v>
@@ -40472,12 +41443,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C20">
-    <cfRule type="cellIs" dxfId="97" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="2" operator="greaterThan">
       <formula>1.63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="96" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40547,7 +41518,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P2" t="s">
         <v>33</v>
@@ -40576,7 +41547,7 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -41790,7 +42761,7 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -42130,12 +43101,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C32">
-    <cfRule type="cellIs" dxfId="88" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="2" operator="greaterThan">
       <formula>2.599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="87" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42213,7 +43184,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="P2" t="s">
         <v>33</v>
@@ -42302,19 +43273,19 @@
         <v>197</v>
       </c>
       <c r="X3" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z3" t="s">
         <v>306</v>
       </c>
-      <c r="Y3" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>308</v>
-      </c>
       <c r="AA3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB3" t="s">
         <v>309</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -42483,7 +43454,7 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -42565,7 +43536,7 @@
     </row>
     <row r="7" spans="1:28">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -42729,7 +43700,7 @@
     </row>
     <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -42811,7 +43782,7 @@
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -42893,7 +43864,7 @@
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -44270,7 +45241,7 @@
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -44352,7 +45323,7 @@
     </row>
     <row r="29" spans="1:28">
       <c r="A29" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -44434,7 +45405,7 @@
     </row>
     <row r="30" spans="1:28">
       <c r="A30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -44516,7 +45487,7 @@
     </row>
     <row r="31" spans="1:28">
       <c r="A31" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -44590,7 +45561,7 @@
         <v>650</v>
       </c>
       <c r="X31" s="40" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Y31" s="40">
         <v>30</v>
@@ -44602,7 +45573,7 @@
         <v>12.9</v>
       </c>
       <c r="AB31" s="40" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -45181,7 +46152,7 @@
     </row>
     <row r="39" spans="1:28">
       <c r="A39" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -47836,12 +48807,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C997">
-    <cfRule type="cellIs" dxfId="76" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="2" operator="greaterThan">
       <formula>3.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O123">
-    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49051,7 +50022,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="48" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B18" s="7">
         <v>4</v>
@@ -49652,12 +50623,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C37">
-    <cfRule type="cellIs" dxfId="60" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="2" operator="greaterThan">
       <formula>2.639</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50596,7 +51567,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C32">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="greaterThan">
       <formula>4.429</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50612,7 +51583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X8" sqref="X8:Y8"/>
     </sheetView>
   </sheetViews>
@@ -50913,7 +51884,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -51664,7 +52635,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C20">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="greaterThan">
       <formula>3.51</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51678,16 +52649,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
@@ -51719,7 +52690,7 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>248</v>
@@ -51731,10 +52702,10 @@
         <v>251</v>
       </c>
       <c r="O1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="V1" s="40" t="s">
         <v>203</v>
@@ -51849,7 +52820,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B4" s="12">
         <v>4</v>
@@ -51895,7 +52866,7 @@
         <v>512.29</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" ref="O4:O15" si="0">60/N4</f>
+        <f t="shared" ref="O4:O11" si="0">60/N4</f>
         <v>0.11712116184192548</v>
       </c>
       <c r="P4">
@@ -51923,186 +52894,77 @@
         <v>755</v>
       </c>
       <c r="X4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Y4" s="56" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Z4" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="B5" s="12">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="A5" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="2" t="e">
         <f>SUM(((Table1681011124[[#This Row],[Avg DPS]]*(Table1681011124[[#This Row],[Range]]))+(Table1681011124[[#This Row],[Avg DPS]]*Table1681011124[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>3.6768335904263738</v>
-      </c>
-      <c r="D5" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D5" s="3" t="e">
         <f>SUM(Table1681011124[[#This Row],[DPS]]*Table1681011124[[#This Row],[Avg Accuracy]])</f>
-        <v>8.0105306980966748</v>
-      </c>
-      <c r="E5" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E5" s="2" t="e">
         <f>SUM((Table1681011124[[#This Row],[Damage]]*Table1681011124[[#This Row],[Burst]])/(Table1681011124[[#This Row],[Ranged Cooldown]]+Table1681011124[[#This Row],[Warm-up]]+(Table1681011124[[#This Row],[Burst Time]]*(Table1681011124[[#This Row],[Burst]]-1))))</f>
-        <v>40.559649104286962</v>
-      </c>
-      <c r="F5">
-        <v>32.9</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G5" s="2">
         <f>SUM((Table1681011124[[#This Row],[Accuracy (Close)]]+Table1681011124[[#This Row],[Accuracy (Short)]]+Table1681011124[[#This Row],[Accuracy (Medium)]]+Table1681011124[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.19750000000000001</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>0.5</v>
-      </c>
-      <c r="J5">
-        <v>13</v>
-      </c>
-      <c r="K5">
-        <v>30</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>512.29</v>
-      </c>
-      <c r="O5" s="2">
-        <f>60/N5</f>
-        <v>0.11712116184192548</v>
-      </c>
-      <c r="P5">
-        <v>0.15</v>
-      </c>
-      <c r="Q5">
-        <v>0.25</v>
-      </c>
-      <c r="R5">
-        <v>0.21</v>
-      </c>
-      <c r="S5">
-        <v>0.18</v>
-      </c>
-      <c r="T5">
-        <v>70</v>
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="U5">
-        <v>29</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="V5" t="s">
         <v>86</v>
       </c>
-      <c r="W5">
-        <v>965</v>
-      </c>
-      <c r="Y5" s="56" t="s">
-        <v>272</v>
-      </c>
       <c r="Z5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="A6" s="39"/>
+      <c r="C6" s="2" t="e">
         <f>SUM(((Table1681011124[[#This Row],[Avg DPS]]*(Table1681011124[[#This Row],[Range]]))+(Table1681011124[[#This Row],[Avg DPS]]*Table1681011124[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>4.7751101694915246</v>
-      </c>
-      <c r="D6" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D6" s="3" t="e">
         <f>SUM(Table1681011124[[#This Row],[DPS]]*Table1681011124[[#This Row],[Avg Accuracy]])</f>
-        <v>9.3813559322033875</v>
-      </c>
-      <c r="E6" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="2" t="e">
         <f>SUM((Table1681011124[[#This Row],[Damage]]*Table1681011124[[#This Row],[Burst]])/(Table1681011124[[#This Row],[Ranged Cooldown]]+Table1681011124[[#This Row],[Warm-up]]+(Table1681011124[[#This Row],[Burst Time]]*(Table1681011124[[#This Row],[Burst]]-1))))</f>
-        <v>45.762711864406775</v>
-      </c>
-      <c r="F6">
-        <v>35.9</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G6" s="2">
         <f>SUM((Table1681011124[[#This Row],[Accuracy (Close)]]+Table1681011124[[#This Row],[Accuracy (Short)]]+Table1681011124[[#This Row],[Accuracy (Medium)]]+Table1681011124[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>15</v>
-      </c>
-      <c r="K6">
-        <v>30</v>
-      </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>450</v>
-      </c>
-      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="P6">
-        <v>0.15</v>
-      </c>
-      <c r="Q6">
-        <v>0.21</v>
-      </c>
-      <c r="R6">
-        <v>0.25</v>
-      </c>
-      <c r="S6">
-        <v>0.21</v>
-      </c>
-      <c r="T6">
-        <v>100</v>
-      </c>
-      <c r="U6">
-        <v>58</v>
-      </c>
-      <c r="V6" t="s">
-        <v>86</v>
-      </c>
-      <c r="W6">
-        <v>1050</v>
-      </c>
-      <c r="Y6" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>254</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
+      <c r="A7" s="39"/>
       <c r="C7" s="2" t="e">
         <f>SUM(((Table1681011124[[#This Row],[Avg DPS]]*(Table1681011124[[#This Row],[Range]]))+(Table1681011124[[#This Row],[Avg DPS]]*Table1681011124[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -52123,26 +52985,9 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U7">
-        <v>39</v>
-      </c>
-      <c r="V7" t="s">
-        <v>86</v>
-      </c>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53" t="s">
-        <v>254</v>
-      </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>258</v>
-      </c>
+      <c r="A8" s="39"/>
       <c r="C8" s="2" t="e">
         <f>SUM(((Table1681011124[[#This Row],[Avg DPS]]*(Table1681011124[[#This Row],[Range]]))+(Table1681011124[[#This Row],[Avg DPS]]*Table1681011124[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -52163,23 +53008,9 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U8">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="V8" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>258</v>
-      </c>
+      <c r="A9" s="39"/>
       <c r="C9" s="2" t="e">
         <f>SUM(((Table1681011124[[#This Row],[Avg DPS]]*(Table1681011124[[#This Row],[Range]]))+(Table1681011124[[#This Row],[Avg DPS]]*Table1681011124[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -52199,15 +53030,6 @@
       <c r="O9" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="U9">
-        <v>26.6</v>
-      </c>
-      <c r="V9" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -52234,7 +53056,8 @@
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="39"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="2" t="e">
         <f>SUM(((Table1681011124[[#This Row],[Avg DPS]]*(Table1681011124[[#This Row],[Range]]))+(Table1681011124[[#This Row],[Avg DPS]]*Table1681011124[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
@@ -52247,158 +53070,65 @@
         <f>SUM((Table1681011124[[#This Row],[Damage]]*Table1681011124[[#This Row],[Burst]])/(Table1681011124[[#This Row],[Ranged Cooldown]]+Table1681011124[[#This Row],[Warm-up]]+(Table1681011124[[#This Row],[Burst Time]]*(Table1681011124[[#This Row],[Burst]]-1))))</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="2">
         <f>SUM((Table1681011124[[#This Row],[Accuracy (Close)]]+Table1681011124[[#This Row],[Accuracy (Short)]]+Table1681011124[[#This Row],[Accuracy (Medium)]]+Table1681011124[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
       <c r="O11" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="39"/>
-      <c r="C12" s="2" t="e">
-        <f>SUM(((Table1681011124[[#This Row],[Avg DPS]]*(Table1681011124[[#This Row],[Range]]))+(Table1681011124[[#This Row],[Avg DPS]]*Table1681011124[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="3" t="e">
-        <f>SUM(Table1681011124[[#This Row],[DPS]]*Table1681011124[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="2" t="e">
-        <f>SUM((Table1681011124[[#This Row],[Damage]]*Table1681011124[[#This Row],[Burst]])/(Table1681011124[[#This Row],[Ranged Cooldown]]+Table1681011124[[#This Row],[Warm-up]]+(Table1681011124[[#This Row],[Burst Time]]*(Table1681011124[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="2">
-        <f>SUM((Table1681011124[[#This Row],[Accuracy (Close)]]+Table1681011124[[#This Row],[Accuracy (Short)]]+Table1681011124[[#This Row],[Accuracy (Medium)]]+Table1681011124[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="39"/>
-      <c r="C13" s="2" t="e">
-        <f>SUM(((Table1681011124[[#This Row],[Avg DPS]]*(Table1681011124[[#This Row],[Range]]))+(Table1681011124[[#This Row],[Avg DPS]]*Table1681011124[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="3" t="e">
-        <f>SUM(Table1681011124[[#This Row],[DPS]]*Table1681011124[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="2" t="e">
-        <f>SUM((Table1681011124[[#This Row],[Damage]]*Table1681011124[[#This Row],[Burst]])/(Table1681011124[[#This Row],[Ranged Cooldown]]+Table1681011124[[#This Row],[Warm-up]]+(Table1681011124[[#This Row],[Burst Time]]*(Table1681011124[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="2">
-        <f>SUM((Table1681011124[[#This Row],[Accuracy (Close)]]+Table1681011124[[#This Row],[Accuracy (Short)]]+Table1681011124[[#This Row],[Accuracy (Medium)]]+Table1681011124[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="39"/>
-      <c r="C14" s="2" t="e">
-        <f>SUM(((Table1681011124[[#This Row],[Avg DPS]]*(Table1681011124[[#This Row],[Range]]))+(Table1681011124[[#This Row],[Avg DPS]]*Table1681011124[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D14" s="3" t="e">
-        <f>SUM(Table1681011124[[#This Row],[DPS]]*Table1681011124[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E14" s="2" t="e">
-        <f>SUM((Table1681011124[[#This Row],[Damage]]*Table1681011124[[#This Row],[Burst]])/(Table1681011124[[#This Row],[Ranged Cooldown]]+Table1681011124[[#This Row],[Warm-up]]+(Table1681011124[[#This Row],[Burst Time]]*(Table1681011124[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="2">
-        <f>SUM((Table1681011124[[#This Row],[Accuracy (Close)]]+Table1681011124[[#This Row],[Accuracy (Short)]]+Table1681011124[[#This Row],[Accuracy (Medium)]]+Table1681011124[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="54"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="2" t="e">
-        <f>SUM(((Table1681011124[[#This Row],[Avg DPS]]*(Table1681011124[[#This Row],[Range]]))+(Table1681011124[[#This Row],[Avg DPS]]*Table1681011124[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="3" t="e">
-        <f>SUM(Table1681011124[[#This Row],[DPS]]*Table1681011124[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="2" t="e">
-        <f>SUM((Table1681011124[[#This Row],[Damage]]*Table1681011124[[#This Row],[Burst]])/(Table1681011124[[#This Row],[Ranged Cooldown]]+Table1681011124[[#This Row],[Warm-up]]+(Table1681011124[[#This Row],[Burst Time]]*(Table1681011124[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="2">
-        <f>SUM((Table1681011124[[#This Row],[Accuracy (Close)]]+Table1681011124[[#This Row],[Accuracy (Short)]]+Table1681011124[[#This Row],[Accuracy (Medium)]]+Table1681011124[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-    </row>
-    <row r="18" spans="1:26" s="4" customFormat="1">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+    </row>
+    <row r="14" spans="1:26" s="4" customFormat="1">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:C15">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="C4:C11">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
       <formula>3.51</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52412,35 +53142,43 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="11" width="8.5703125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="8.85546875" customWidth="1"/>
-    <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" customWidth="1"/>
+    <col min="24" max="26" width="13.28515625" customWidth="1"/>
+    <col min="27" max="27" width="9" customWidth="1"/>
+    <col min="28" max="28" width="28.85546875" customWidth="1"/>
+    <col min="29" max="30" width="11.5703125" customWidth="1"/>
+    <col min="31" max="31" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -52448,16 +53186,26 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="V1" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="W1">
-        <v>132.124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+        <v>255</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M1" t="s">
+        <v>251</v>
+      </c>
+      <c r="S1" t="s">
+        <v>259</v>
+      </c>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -52471,19 +53219,20 @@
         <v>33</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="R2" t="s">
+        <v>247</v>
+      </c>
+      <c r="S2" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="W2">
-        <v>145.68299999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1">
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -52541,472 +53290,624 @@
       <c r="S3" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" t="s">
+        <v>321</v>
+      </c>
+      <c r="U3" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="V3" t="s">
         <v>73</v>
       </c>
-      <c r="V3" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="W3" s="21" t="s">
+      <c r="W3" t="s">
+        <v>313</v>
+      </c>
+      <c r="X3" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>328</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>322</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="2">
+        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>5.3852663068100028</v>
+      </c>
+      <c r="D4" s="3">
+        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
+        <v>11.732606332919396</v>
+      </c>
+      <c r="E4" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
+        <v>32.818479252921385</v>
+      </c>
+      <c r="F4">
+        <v>30.9</v>
+      </c>
+      <c r="G4" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.35750000000000004</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>2.25</v>
+      </c>
+      <c r="M4">
+        <v>0.4</v>
+      </c>
+      <c r="N4">
+        <v>512.29</v>
+      </c>
+      <c r="O4" s="2">
+        <f>60/N4</f>
+        <v>0.11712116184192548</v>
+      </c>
+      <c r="P4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q4">
+        <v>0.4</v>
+      </c>
+      <c r="R4">
+        <v>0.5</v>
+      </c>
+      <c r="S4">
+        <v>0.25</v>
+      </c>
+      <c r="T4">
+        <v>2.9</v>
+      </c>
+      <c r="U4">
+        <v>70</v>
+      </c>
+      <c r="V4">
+        <v>29</v>
+      </c>
+      <c r="W4" t="s">
+        <v>86</v>
+      </c>
+      <c r="X4" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y4">
+        <v>200</v>
+      </c>
+      <c r="Z4">
+        <v>10</v>
+      </c>
+      <c r="AA4">
+        <v>535</v>
+      </c>
+      <c r="AB4" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC4" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD4" s="56">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="2">
+        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>7.8662499999999973</v>
+      </c>
+      <c r="D5" s="3">
+        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
+        <v>12.916666666666663</v>
+      </c>
+      <c r="E5" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="F5">
+        <v>35.9</v>
+      </c>
+      <c r="G5" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.38749999999999996</v>
+      </c>
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>2.5</v>
+      </c>
+      <c r="M5">
+        <v>0.5</v>
+      </c>
+      <c r="N5">
+        <v>450</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" ref="O5:O13" si="0">60/N5</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P5">
+        <v>0.24</v>
+      </c>
+      <c r="Q5">
+        <v>0.37</v>
+      </c>
+      <c r="R5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="S5">
+        <v>0.37</v>
+      </c>
+      <c r="T5">
+        <v>3.9</v>
+      </c>
+      <c r="U5">
+        <v>100</v>
+      </c>
+      <c r="V5">
+        <v>58</v>
+      </c>
+      <c r="W5" t="s">
+        <v>86</v>
+      </c>
+      <c r="X5" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y5">
+        <v>100</v>
+      </c>
+      <c r="Z5">
+        <v>10</v>
+      </c>
+      <c r="AA5">
+        <v>970</v>
+      </c>
+      <c r="AB5" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC5" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD5" s="56">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="2" t="e">
+        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D6" s="3" t="e">
+        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="2" t="e">
+        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V6">
+        <v>39</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD6" s="56">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="2" t="e">
+        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="3" t="e">
+        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="2" t="e">
+        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V7">
+        <v>26.6</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD7" s="56"/>
+      <c r="AE7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="72" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="74">
+        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>1.2320756756756757</v>
+      </c>
+      <c r="D8" s="74">
+        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
+        <v>2.6270270270270273</v>
+      </c>
+      <c r="E8" s="74">
+        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
+        <v>4.8648648648648649</v>
+      </c>
+      <c r="F8" s="72">
+        <v>28.9</v>
+      </c>
+      <c r="G8" s="74">
+        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.54</v>
+      </c>
+      <c r="H8" s="72">
+        <v>12</v>
+      </c>
+      <c r="I8" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="72">
+        <v>18</v>
+      </c>
+      <c r="K8" s="72">
+        <v>2</v>
+      </c>
+      <c r="L8" s="72">
+        <v>4.8</v>
+      </c>
+      <c r="M8" s="72">
+        <v>0</v>
+      </c>
+      <c r="N8" s="72">
+        <v>450</v>
+      </c>
+      <c r="O8" s="74">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P8" s="72">
+        <v>0.77</v>
+      </c>
+      <c r="Q8" s="72">
+        <v>0.7</v>
+      </c>
+      <c r="R8" s="72">
+        <v>0.45</v>
+      </c>
+      <c r="S8" s="72">
+        <v>0.24</v>
+      </c>
+      <c r="T8" s="72">
+        <v>0</v>
+      </c>
+      <c r="U8" s="72">
+        <v>70</v>
+      </c>
+      <c r="V8" s="72">
+        <v>13</v>
+      </c>
+      <c r="W8" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72">
         <v>197</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="15.75" thickTop="1">
-      <c r="A4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="AB8" s="75" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC8" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD8" s="75">
+        <v>-80</v>
+      </c>
+      <c r="AE8" s="72" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="72" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="2">
-        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>1.9275069767441864</v>
-      </c>
-      <c r="D4" s="3">
-        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
-        <v>6.4465116279069772</v>
-      </c>
-      <c r="E4" s="2">
-        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
-        <v>8.3720930232558146</v>
-      </c>
-      <c r="F4">
-        <v>15.9</v>
-      </c>
-      <c r="G4" s="2">
-        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.77</v>
-      </c>
-      <c r="H4">
-        <v>18</v>
-      </c>
-      <c r="I4">
+      <c r="C9" s="74">
+        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>7.8369750262085036</v>
+      </c>
+      <c r="D9" s="74">
+        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
+        <v>10.750308677926618</v>
+      </c>
+      <c r="E9" s="74">
+        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
+        <v>19.907979033197439</v>
+      </c>
+      <c r="F9" s="72">
+        <v>32.9</v>
+      </c>
+      <c r="G9" s="74">
+        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.54</v>
+      </c>
+      <c r="H9" s="72">
+        <v>27</v>
+      </c>
+      <c r="I9" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="72">
+        <v>40</v>
+      </c>
+      <c r="K9" s="72">
         <v>3</v>
       </c>
-      <c r="J4">
-        <v>14</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1.25</v>
-      </c>
-      <c r="M4">
-        <v>0.9</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="P4">
-        <v>0.8</v>
-      </c>
-      <c r="Q4">
-        <v>0.87</v>
-      </c>
-      <c r="R4">
-        <v>0.77</v>
-      </c>
-      <c r="S4">
-        <v>0.64</v>
-      </c>
-      <c r="T4" s="17">
+      <c r="L9" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="M9" s="72">
+        <v>0</v>
+      </c>
+      <c r="N9" s="72">
+        <v>211</v>
+      </c>
+      <c r="O9" s="74">
+        <f t="shared" si="0"/>
+        <v>0.28436018957345971</v>
+      </c>
+      <c r="P9" s="72">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q9" s="72">
+        <v>0.72</v>
+      </c>
+      <c r="R9" s="72">
+        <v>0.66</v>
+      </c>
+      <c r="S9" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="T9" s="72">
+        <v>8.9</v>
+      </c>
+      <c r="U9" s="72">
+        <v>88</v>
+      </c>
+      <c r="V9" s="72">
+        <v>100</v>
+      </c>
+      <c r="W9" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72">
+        <v>1217</v>
+      </c>
+      <c r="AB9" s="75" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC9" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD9" s="75">
+        <v>-150</v>
+      </c>
+      <c r="AE9" s="72" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="72" customFormat="1">
+      <c r="A10" s="72" t="s">
+        <v>323</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="74">
+        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>10.6616640625</v>
+      </c>
+      <c r="D10" s="74">
+        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
+        <v>8.3359375</v>
+      </c>
+      <c r="E10" s="74">
+        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
+        <v>17.1875</v>
+      </c>
+      <c r="F10" s="72">
+        <v>45.9</v>
+      </c>
+      <c r="G10" s="74">
+        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="H10" s="72">
         <v>55</v>
       </c>
-      <c r="U4" s="18"/>
-      <c r="V4" s="23" t="s">
+      <c r="I10" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="72">
+        <v>82</v>
+      </c>
+      <c r="K10" s="72">
+        <v>1</v>
+      </c>
+      <c r="L10" s="72">
+        <v>3.2</v>
+      </c>
+      <c r="M10" s="72">
+        <v>0</v>
+      </c>
+      <c r="N10" s="72">
+        <v>0</v>
+      </c>
+      <c r="O10" s="74">
+        <v>3.2</v>
+      </c>
+      <c r="P10" s="72">
+        <v>0.22</v>
+      </c>
+      <c r="Q10" s="72">
+        <v>0.33</v>
+      </c>
+      <c r="R10" s="72">
+        <v>0.44</v>
+      </c>
+      <c r="S10" s="72">
+        <v>0.95</v>
+      </c>
+      <c r="T10" s="72">
+        <v>11.9</v>
+      </c>
+      <c r="U10" s="72">
+        <v>120</v>
+      </c>
+      <c r="V10" s="72">
+        <v>40</v>
+      </c>
+      <c r="W10" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="W4" s="23">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="2">
-        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>2.7770294117647065</v>
-      </c>
-      <c r="D5" s="3">
-        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
-        <v>10.323529411764708</v>
-      </c>
-      <c r="E5" s="2">
-        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
-        <v>18.68512110726644</v>
-      </c>
-      <c r="F5">
-        <v>12.9</v>
-      </c>
-      <c r="G5" s="2">
-        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.55249999999999999</v>
-      </c>
-      <c r="H5">
-        <v>18</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>14</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1.35</v>
-      </c>
-      <c r="M5">
-        <v>1.2</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="P5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="Q5">
-        <v>0.64</v>
-      </c>
-      <c r="R5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="S5">
-        <v>0.45</v>
-      </c>
-      <c r="T5" s="19">
-        <v>55</v>
-      </c>
-      <c r="U5" s="20"/>
-      <c r="V5" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="W5" s="24">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>1.8259500000000002</v>
-      </c>
-      <c r="D6" s="3">
-        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
-        <v>5.5500000000000007</v>
-      </c>
-      <c r="E6" s="2">
-        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
-        <v>7.5000000000000009</v>
-      </c>
-      <c r="F6">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="G6" s="2">
-        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.74</v>
-      </c>
-      <c r="H6">
-        <v>21</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>15</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>2.1</v>
-      </c>
-      <c r="M6">
-        <v>0.7</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="P6">
-        <v>0.85</v>
-      </c>
-      <c r="Q6">
-        <v>0.91</v>
-      </c>
-      <c r="R6">
-        <v>0.79</v>
-      </c>
-      <c r="S6">
-        <v>0.41</v>
-      </c>
-      <c r="T6" s="17">
-        <v>55</v>
-      </c>
-      <c r="U6" s="34">
-        <v>3.4</v>
-      </c>
-      <c r="V6" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="W6" s="57">
-        <f>Table16810111213[[#This Row],[Balance]]*W1</f>
-        <v>241.25181780000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>1.4337599999999997</v>
-      </c>
-      <c r="D7" s="3">
-        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="E7" s="2">
-        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
-        <v>6.4</v>
-      </c>
-      <c r="F7">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="G7" s="2">
-        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="H7">
-        <v>16</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>12</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1.5</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="P7">
-        <v>0.8</v>
-      </c>
-      <c r="Q7">
-        <v>0.9</v>
-      </c>
-      <c r="R7">
-        <v>0.8</v>
-      </c>
-      <c r="S7">
-        <v>0.4</v>
-      </c>
-      <c r="T7" s="19">
-        <v>55</v>
-      </c>
-      <c r="U7" s="34">
-        <v>3.5</v>
-      </c>
-      <c r="V7" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="W7" s="57">
-        <f>Table16810111213[[#This Row],[Balance]]*W1</f>
-        <v>189.43410623999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2">
-        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>1.9347900000000002</v>
-      </c>
-      <c r="D8" s="3">
-        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
-        <v>5.2433333333333341</v>
-      </c>
-      <c r="E8" s="2">
-        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="F8">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="G8" s="2">
-        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.71500000000000008</v>
-      </c>
-      <c r="H8">
-        <v>22</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>18</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1.8</v>
-      </c>
-      <c r="M8">
-        <v>1.2</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="P8">
-        <v>0.8</v>
-      </c>
-      <c r="Q8">
-        <v>0.88</v>
-      </c>
-      <c r="R8">
-        <v>0.79</v>
-      </c>
-      <c r="S8">
-        <v>0.39</v>
-      </c>
-      <c r="T8" s="17">
-        <v>55</v>
-      </c>
-      <c r="U8" s="34">
-        <v>3.6</v>
-      </c>
-      <c r="V8" s="35" t="s">
+      <c r="AA10" s="72">
+        <v>1602</v>
+      </c>
+      <c r="AB10" s="75" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC10" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="W8" s="57">
-        <f>Table16810111213[[#This Row],[Balance]]*W1</f>
-        <v>255.63219396000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B9" s="4">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="e">
-        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="3" t="e">
-        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="2" t="e">
-        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="2">
-        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="2" t="e">
-        <f t="shared" ref="O9:O19" si="0">60/N9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" t="s">
-        <v>300</v>
-      </c>
-      <c r="B10" s="4">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="e">
-        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="3" t="e">
-        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="2" t="e">
-        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="2">
-        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="AD10" s="75">
+        <v>-150</v>
+      </c>
+      <c r="AE10" s="72" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="39"/>
       <c r="C11" s="2" t="e">
-        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D11" s="3" t="e">
-        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
+        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E11" s="2" t="e">
-        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
+        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G11" s="2">
-        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
+        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
       <c r="O11" s="2" t="e">
@@ -53014,23 +53915,22 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+    <row r="12" spans="1:31">
+      <c r="A12" s="39"/>
       <c r="C12" s="2" t="e">
-        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D12" s="3" t="e">
-        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
+        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E12" s="2" t="e">
-        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
+        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="2">
-        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
+        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
       <c r="O12" s="2" t="e">
@@ -53038,194 +53938,88 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:31">
+      <c r="A13" s="54"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="2" t="e">
-        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D13" s="3" t="e">
-        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
+        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E13" s="2" t="e">
-        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="7"/>
       <c r="G13" s="2">
-        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
+        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
       <c r="O13" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="C14" s="2" t="e">
-        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D14" s="3" t="e">
-        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E14" s="2" t="e">
-        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="2">
-        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="C15" s="2" t="e">
-        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="3" t="e">
-        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="2" t="e">
-        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="2">
-        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="C16" s="2" t="e">
-        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="3" t="e">
-        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="2" t="e">
-        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="2">
-        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" s="4" customFormat="1">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="2" t="e">
-        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="3" t="e">
-        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="2" t="e">
-        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17"/>
-      <c r="G17" s="2">
-        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="C18" s="2" t="e">
-        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" s="3" t="e">
-        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="2" t="e">
-        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="2">
-        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="2" t="e">
-        <f>SUM(((Table16810111213[[#This Row],[Avg DPS]]*(Table16810111213[[#This Row],[Range]]))+(Table16810111213[[#This Row],[Avg DPS]]*Table16810111213[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="3" t="e">
-        <f>SUM(Table16810111213[[#This Row],[DPS]]*Table16810111213[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="2" t="e">
-        <f>SUM((Table16810111213[[#This Row],[Damage]]*Table16810111213[[#This Row],[Burst]])/(Table16810111213[[#This Row],[Ranged Cooldown]]+Table16810111213[[#This Row],[Warm-up]]+(Table16810111213[[#This Row],[Burst Time]]*(Table16810111213[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="2">
-        <f>SUM((Table16810111213[[#This Row],[Accuracy (Close)]]+Table16810111213[[#This Row],[Accuracy (Short)]]+Table16810111213[[#This Row],[Accuracy (Medium)]]+Table16810111213[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+    </row>
+    <row r="16" spans="1:31" s="4" customFormat="1">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:C19">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
-      <formula>2.789</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="350">
   <si>
     <t>Weapon Stats - Sleepy's Weapons</t>
   </si>
@@ -786,25 +786,13 @@
     <t>Min Range: 4.9 to 8.9</t>
   </si>
   <si>
-    <t>M1919</t>
-  </si>
-  <si>
     <t>Tactical</t>
-  </si>
-  <si>
-    <t>M2HB</t>
   </si>
   <si>
     <t>HMG MAX RANGE: 35.9</t>
   </si>
   <si>
-    <t>M134 Minigun</t>
-  </si>
-  <si>
     <t>1B</t>
-  </si>
-  <si>
-    <t>MG42</t>
   </si>
   <si>
     <t>Min Weight 19KG (+10 for Mount)</t>
@@ -844,9 +832,6 @@
   </si>
   <si>
     <t>Movespeed -0.75</t>
-  </si>
-  <si>
-    <t>375 S, 8 C</t>
   </si>
   <si>
     <t>HK416 M SRS</t>
@@ -969,9 +954,6 @@
     <t>Mini-turret</t>
   </si>
   <si>
-    <t>Buildable</t>
-  </si>
-  <si>
     <t>COG</t>
   </si>
   <si>
@@ -985,9 +967,6 @@
   </si>
   <si>
     <t>Minify?</t>
-  </si>
-  <si>
-    <t>70 S, 2 C</t>
   </si>
   <si>
     <t>350 S, 6 C, 40 P</t>
@@ -1005,19 +984,100 @@
     <t>300 S, 6 C, 40 P, 60 U</t>
   </si>
   <si>
-    <t>50 S</t>
-  </si>
-  <si>
     <t>Rearm Cost</t>
-  </si>
-  <si>
-    <t>Ammo Count</t>
   </si>
   <si>
     <t>Bursts</t>
   </si>
   <si>
     <t>210 S, 4 C</t>
+  </si>
+  <si>
+    <t>Mounted Minigun</t>
+  </si>
+  <si>
+    <t>325 S, 8 C</t>
+  </si>
+  <si>
+    <t>30mm Sentry Turret</t>
+  </si>
+  <si>
+    <t>20mm Sentry Turret</t>
+  </si>
+  <si>
+    <t>350 S, 6 C, 30 P</t>
+  </si>
+  <si>
+    <t>350 S, 8 C, 30 P</t>
+  </si>
+  <si>
+    <t>300 S, 8 C, 40 P</t>
+  </si>
+  <si>
+    <t>300 S, 8 C, 80 P</t>
+  </si>
+  <si>
+    <t>325 S, 8 C, 20 P</t>
+  </si>
+  <si>
+    <t>Rearm Mat</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Plasteel</t>
+  </si>
+  <si>
+    <t>Ammo</t>
+  </si>
+  <si>
+    <t>A.P.C.</t>
+  </si>
+  <si>
+    <t>100 S, 2 C</t>
+  </si>
+  <si>
+    <t>275 S, 6 C, 15 P</t>
+  </si>
+  <si>
+    <t>310 S, 8 C</t>
+  </si>
+  <si>
+    <t>Tactical Mortar</t>
+  </si>
+  <si>
+    <t>Mounted Grenade Launcher</t>
+  </si>
+  <si>
+    <t>350 S, 8 C</t>
+  </si>
+  <si>
+    <t>300 S, 8 C</t>
+  </si>
+  <si>
+    <t>Mounted HMG</t>
+  </si>
+  <si>
+    <t>Mounted LMG</t>
+  </si>
+  <si>
+    <t>M. 20mm Turret</t>
+  </si>
+  <si>
+    <t>M. 75mm Cannon</t>
+  </si>
+  <si>
+    <t>Twin Sentry Turret</t>
+  </si>
+  <si>
+    <t>Sentry Turret</t>
+  </si>
+  <si>
+    <t>Hellfire Turret</t>
+  </si>
+  <si>
+    <t>350 S, 16 C, 60 P</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1402,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1350,7 +1410,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="110">
+  <dxfs count="114">
     <dxf>
       <font>
         <b val="0"/>
@@ -1720,6 +1780,15 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -1736,6 +1805,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -2278,17 +2350,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="107">
+    <tableColumn id="22" name="Balance" dataDxfId="111">
       <calculatedColumnFormula>SUM(((Table1689[[#This Row],[Avg DPS]]*(Table1689[[#This Row],[Range]]))+(Table1689[[#This Row],[Avg DPS]]*Table1689[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="106">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="110">
       <calculatedColumnFormula>SUM(Table1689[[#This Row],[DPS]]*Table1689[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="105">
+    <tableColumn id="15" name="DPS" dataDxfId="109">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Damage]]*Table1689[[#This Row],[Burst]])/(Table1689[[#This Row],[Ranged Cooldown]]+Table1689[[#This Row],[Warm-up]]+(Table1689[[#This Row],[Burst Time]]*(Table1689[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="104">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="108">
       <calculatedColumnFormula>SUM((Table1689[[#This Row],[Accuracy (Close)]]+Table1689[[#This Row],[Accuracy (Short)]]+Table1689[[#This Row],[Accuracy (Medium)]]+Table1689[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2298,7 +2370,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="103">
+    <tableColumn id="7" name="Burst Time" dataDxfId="107">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2489,18 +2561,18 @@
   </autoFilter>
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="100"/>
-    <tableColumn id="22" name="Balance" dataDxfId="99">
+    <tableColumn id="12" name="Vol." dataDxfId="104"/>
+    <tableColumn id="22" name="Balance" dataDxfId="103">
       <calculatedColumnFormula>SUM(((Table168[[#This Row],[Avg DPS]]*(Table168[[#This Row],[Range]]))+(Table168[[#This Row],[Avg DPS]]*Table168[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="98">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="102">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[DPS]]*Table168[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="97">
+    <tableColumn id="15" name="DPS" dataDxfId="101">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Damage]]*Table168[[#This Row],[Burst]])/(Table168[[#This Row],[Ranged Cooldown]]+Table168[[#This Row],[Warm-up]]+(Table168[[#This Row],[Burst Time]]*(Table168[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="96">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="100">
       <calculatedColumnFormula>SUM((Table168[[#This Row],[Accuracy (Close)]]+Table168[[#This Row],[Accuracy (Short)]]+Table168[[#This Row],[Accuracy (Medium)]]+Table168[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2510,7 +2582,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="95">
+    <tableColumn id="7" name="Burst Time" dataDxfId="99">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2520,7 +2592,7 @@
     <tableColumn id="13" name="Bullet Speed"/>
     <tableColumn id="14" name="Weight"/>
     <tableColumn id="21" name="Craftable"/>
-    <tableColumn id="23" name="Value" dataDxfId="94"/>
+    <tableColumn id="23" name="Value" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2544,18 +2616,18 @@
   </autoFilter>
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol." dataDxfId="91"/>
-    <tableColumn id="22" name="Balance" dataDxfId="90">
+    <tableColumn id="12" name="Vol." dataDxfId="95"/>
+    <tableColumn id="22" name="Balance" dataDxfId="94">
       <calculatedColumnFormula>SUM(((Table16[[#This Row],[AC/DPS]]*(Table16[[#This Row],[Range]]))+(Table16[[#This Row],[AC/DPS]]*Table16[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="AC/DPS" dataDxfId="89">
+    <tableColumn id="20" name="AC/DPS" dataDxfId="93">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[DPS]]*Table16[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="88">
+    <tableColumn id="15" name="DPS" dataDxfId="92">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Damage]]*Table16[[#This Row],[Burst]])/(Table16[[#This Row],[Ranged Cooldown]]+Table16[[#This Row],[Warm-up]]+(Table16[[#This Row],[Burst Time]]*(Table16[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="87">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="91">
       <calculatedColumnFormula>SUM((Table16[[#This Row],[Accuracy (Close)]]+Table16[[#This Row],[Accuracy (Short)]]+Table16[[#This Row],[Accuracy (Medium)]]+Table16[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2565,17 +2637,17 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="86">
+    <tableColumn id="7" name="Burst Time" dataDxfId="90">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="85"/>
-    <tableColumn id="14" name="Weight" dataDxfId="84"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="83"/>
-    <tableColumn id="23" name="Value" dataDxfId="82"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="89"/>
+    <tableColumn id="14" name="Weight" dataDxfId="88"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="87"/>
+    <tableColumn id="23" name="Value" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2608,27 +2680,27 @@
   <tableColumns count="28">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="79">
+    <tableColumn id="22" name="Balance" dataDxfId="83">
       <calculatedColumnFormula>SUM(((Table16810[[#This Row],[Avg DPS]]*(Table16810[[#This Row],[Range]]))+(Table16810[[#This Row],[Avg DPS]]*Table16810[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="78">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="82">
       <calculatedColumnFormula>SUM(Table16810[[#This Row],[DPS]]*Table16810[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="77">
+    <tableColumn id="15" name="DPS" dataDxfId="81">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Damage]]*Table16810[[#This Row],[Burst]])/(Table16810[[#This Row],[Ranged Cooldown]]+Table16810[[#This Row],[Warm-up]]+(Table16810[[#This Row],[Burst Time]]*(Table16810[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="76">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="80">
       <calculatedColumnFormula>SUM((Table16810[[#This Row],[Accuracy (Close)]]+Table16810[[#This Row],[Accuracy (Short)]]+Table16810[[#This Row],[Accuracy (Medium)]]+Table16810[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
     <tableColumn id="18" name="Stopping Pwr"/>
     <tableColumn id="19" name="Arm Pen (%)"/>
     <tableColumn id="3" name="Burst"/>
-    <tableColumn id="4" name="Ranged Cooldown" dataDxfId="75"/>
-    <tableColumn id="5" name="Warm-up" dataDxfId="74"/>
+    <tableColumn id="4" name="Ranged Cooldown" dataDxfId="79"/>
+    <tableColumn id="5" name="Warm-up" dataDxfId="78"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="73">
+    <tableColumn id="7" name="Burst Time" dataDxfId="77">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2636,14 +2708,14 @@
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
     <tableColumn id="13" name="Bullet Speed"/>
-    <tableColumn id="14" name="Weight" dataDxfId="72"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="71"/>
+    <tableColumn id="14" name="Weight" dataDxfId="76"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="75"/>
     <tableColumn id="23" name="Value"/>
-    <tableColumn id="24" name="Special" dataDxfId="70"/>
-    <tableColumn id="28" name="S. Damage" dataDxfId="69"/>
-    <tableColumn id="25" name="S. Ammo" dataDxfId="68"/>
-    <tableColumn id="26" name="S. Range" dataDxfId="67"/>
-    <tableColumn id="29" name="S. Cost" dataDxfId="66"/>
+    <tableColumn id="24" name="Special" dataDxfId="74"/>
+    <tableColumn id="28" name="S. Damage" dataDxfId="73"/>
+    <tableColumn id="25" name="S. Ammo" dataDxfId="72"/>
+    <tableColumn id="26" name="S. Range" dataDxfId="71"/>
+    <tableColumn id="29" name="S. Cost" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2671,17 +2743,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="63">
+    <tableColumn id="22" name="Balance" dataDxfId="67">
       <calculatedColumnFormula>SUM(((Table1681011[[#This Row],[Avg DPS]]*(Table1681011[[#This Row],[Range]]))+(Table1681011[[#This Row],[Avg DPS]]*Table1681011[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="62">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="66">
       <calculatedColumnFormula>SUM(Table1681011[[#This Row],[DPS]]*Table1681011[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="61">
+    <tableColumn id="15" name="DPS" dataDxfId="65">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Damage]]*Table1681011[[#This Row],[Burst]])/(Table1681011[[#This Row],[Ranged Cooldown]]+Table1681011[[#This Row],[Warm-up]]+(Table1681011[[#This Row],[Burst Time]]*(Table1681011[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="60">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="64">
       <calculatedColumnFormula>SUM((Table1681011[[#This Row],[Accuracy (Close)]]+Table1681011[[#This Row],[Accuracy (Short)]]+Table1681011[[#This Row],[Accuracy (Medium)]]+Table1681011[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2691,17 +2763,17 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="59">
+    <tableColumn id="7" name="Burst Time" dataDxfId="63">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
     <tableColumn id="9" name="Accuracy (Short)"/>
     <tableColumn id="10" name="Accuracy (Medium)"/>
     <tableColumn id="11" name="Accuracy (Long)"/>
-    <tableColumn id="13" name="Bullet Speed" dataDxfId="58"/>
-    <tableColumn id="14" name="Weight" dataDxfId="57"/>
-    <tableColumn id="21" name="Craftable" dataDxfId="56"/>
-    <tableColumn id="23" name="Value" dataDxfId="55"/>
+    <tableColumn id="13" name="Bullet Speed" dataDxfId="62"/>
+    <tableColumn id="14" name="Weight" dataDxfId="61"/>
+    <tableColumn id="21" name="Craftable" dataDxfId="60"/>
+    <tableColumn id="23" name="Value" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2726,17 +2798,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="53">
+    <tableColumn id="22" name="Balance" dataDxfId="57">
       <calculatedColumnFormula>SUM(((Table1681015[[#This Row],[Avg DPS]]*(Table1681015[[#This Row],[Range]]))+(Table1681015[[#This Row],[Avg DPS]]*Table1681015[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="52">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="56">
       <calculatedColumnFormula>SUM(Table1681015[[#This Row],[DPS]]*Table1681015[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="51">
+    <tableColumn id="15" name="DPS" dataDxfId="55">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Damage]]*Table1681015[[#This Row],[Burst]])/(Table1681015[[#This Row],[Ranged Cooldown]]+Table1681015[[#This Row],[Warm-up]]+(Table1681015[[#This Row],[Burst Time]]*(Table1681015[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="50">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="54">
       <calculatedColumnFormula>SUM((Table1681015[[#This Row],[Accuracy (Close)]]+Table1681015[[#This Row],[Accuracy (Short)]]+Table1681015[[#This Row],[Accuracy (Medium)]]+Table1681015[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2746,7 +2818,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="49">
+    <tableColumn id="7" name="Burst Time" dataDxfId="53">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2784,17 +2856,17 @@
   <tableColumns count="23">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="47">
+    <tableColumn id="22" name="Balance" dataDxfId="51">
       <calculatedColumnFormula>SUM(((Table168101112[[#This Row],[Avg DPS]]*(Table168101112[[#This Row],[Range]]))+(Table168101112[[#This Row],[Avg DPS]]*Table168101112[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="46">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="50">
       <calculatedColumnFormula>SUM(Table168101112[[#This Row],[DPS]]*Table168101112[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="45">
+    <tableColumn id="15" name="DPS" dataDxfId="49">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Damage]]*Table168101112[[#This Row],[Burst]])/(Table168101112[[#This Row],[Ranged Cooldown]]+Table168101112[[#This Row],[Warm-up]]+(Table168101112[[#This Row],[Burst Time]]*(Table168101112[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="44">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="48">
       <calculatedColumnFormula>SUM((Table168101112[[#This Row],[Accuracy (Close)]]+Table168101112[[#This Row],[Accuracy (Short)]]+Table168101112[[#This Row],[Accuracy (Medium)]]+Table168101112[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2804,7 +2876,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="43">
+    <tableColumn id="7" name="Burst Time" dataDxfId="47">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2830,17 +2902,17 @@
   <tableColumns count="26">
     <tableColumn id="1" name="Weapon Name"/>
     <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="41">
+    <tableColumn id="22" name="Balance" dataDxfId="45">
       <calculatedColumnFormula>SUM(((Table1681011124[[#This Row],[Avg DPS]]*(Table1681011124[[#This Row],[Range]]))+(Table1681011124[[#This Row],[Avg DPS]]*Table1681011124[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="40">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="44">
       <calculatedColumnFormula>SUM(Table1681011124[[#This Row],[DPS]]*Table1681011124[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="39">
+    <tableColumn id="15" name="DPS" dataDxfId="43">
       <calculatedColumnFormula>SUM((Table1681011124[[#This Row],[Damage]]*Table1681011124[[#This Row],[Burst]])/(Table1681011124[[#This Row],[Ranged Cooldown]]+Table1681011124[[#This Row],[Warm-up]]+(Table1681011124[[#This Row],[Burst Time]]*(Table1681011124[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="38">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="42">
       <calculatedColumnFormula>SUM((Table1681011124[[#This Row],[Accuracy (Close)]]+Table1681011124[[#This Row],[Accuracy (Short)]]+Table1681011124[[#This Row],[Accuracy (Medium)]]+Table1681011124[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2850,7 +2922,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="37">
+    <tableColumn id="7" name="Burst Time" dataDxfId="41">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2870,31 +2942,36 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table16810111245" displayName="Table16810111245" ref="A3:AE13" totalsRowShown="0">
-  <autoFilter ref="A3:AE13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table16810111245" displayName="Table16810111245" ref="A3:AF27" totalsRowShown="0">
+  <autoFilter ref="A3:AF27">
     <filterColumn colId="19"/>
+    <filterColumn colId="22"/>
     <filterColumn colId="23"/>
     <filterColumn colId="24"/>
     <filterColumn colId="25"/>
-    <filterColumn colId="27"/>
+    <filterColumn colId="26"/>
     <filterColumn colId="28"/>
     <filterColumn colId="29"/>
     <filterColumn colId="30"/>
+    <filterColumn colId="31"/>
   </autoFilter>
-  <tableColumns count="31">
+  <sortState ref="A4:AG27">
+    <sortCondition ref="B3:B27"/>
+  </sortState>
+  <tableColumns count="32">
     <tableColumn id="1" name="Weapon Name"/>
-    <tableColumn id="12" name="Vol."/>
-    <tableColumn id="22" name="Balance" dataDxfId="36">
+    <tableColumn id="12" name="Vol." dataDxfId="40"/>
+    <tableColumn id="22" name="Balance" dataDxfId="39">
       <calculatedColumnFormula>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Avg DPS" dataDxfId="35">
+    <tableColumn id="20" name="Avg DPS" dataDxfId="38">
       <calculatedColumnFormula>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DPS" dataDxfId="34">
+    <tableColumn id="15" name="DPS" dataDxfId="37">
       <calculatedColumnFormula>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="Range"/>
-    <tableColumn id="17" name="Avg Accuracy" dataDxfId="33">
+    <tableColumn id="17" name="Avg Accuracy" dataDxfId="36">
       <calculatedColumnFormula>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Damage"/>
@@ -2904,7 +2981,7 @@
     <tableColumn id="4" name="Ranged Cooldown"/>
     <tableColumn id="5" name="Warm-up"/>
     <tableColumn id="6" name="RPM"/>
-    <tableColumn id="7" name="Burst Time" dataDxfId="32">
+    <tableColumn id="7" name="Burst Time" dataDxfId="35">
       <calculatedColumnFormula>60/N4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Accuracy (Close)"/>
@@ -2914,14 +2991,15 @@
     <tableColumn id="29" name="Min Range"/>
     <tableColumn id="13" name="Bullet Speed"/>
     <tableColumn id="14" name="Weight"/>
-    <tableColumn id="21" name="Buildable"/>
     <tableColumn id="24" name="Rearm Cost"/>
-    <tableColumn id="28" name="Ammo Count"/>
+    <tableColumn id="33" name="Rearm Mat" dataDxfId="34"/>
+    <tableColumn id="28" name="Ammo"/>
     <tableColumn id="31" name="Bursts"/>
+    <tableColumn id="32" name="A.P.C."/>
     <tableColumn id="23" name="COG"/>
     <tableColumn id="25" name="Materials"/>
-    <tableColumn id="27" name="Minify?"/>
-    <tableColumn id="30" name="Power"/>
+    <tableColumn id="27" name="Minify?" dataDxfId="33"/>
+    <tableColumn id="30" name="Power" dataDxfId="32"/>
     <tableColumn id="26" name="Class"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4793,7 +4871,7 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -4869,7 +4947,7 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -4945,7 +5023,7 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -5021,7 +5099,7 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B26" s="7">
         <v>4</v>
@@ -5665,12 +5743,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C51">
-    <cfRule type="cellIs" dxfId="109" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="2" operator="greaterThan">
       <formula>1.731</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="108" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6050,7 +6128,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B7" s="4">
         <v>2</v>
@@ -6126,7 +6204,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
@@ -6202,7 +6280,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B9" s="4">
         <v>4</v>
@@ -6233,7 +6311,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B10" s="4">
         <v>4</v>
@@ -6545,7 +6623,7 @@
         <v>166</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q1" t="s">
         <v>174</v>
@@ -8849,19 +8927,19 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -8872,7 +8950,7 @@
         <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>53</v>
@@ -9310,7 +9388,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="39" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B13">
         <f>COUNTIF(HMG!B:B, 1)</f>
@@ -9354,7 +9432,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="38" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B15" s="63" t="s">
         <v>86</v>
@@ -9450,7 +9528,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -40784,7 +40862,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="14" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B5" s="12">
         <v>4</v>
@@ -40860,7 +40938,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B6" s="12">
         <v>4</v>
@@ -40936,7 +41014,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B7" s="12">
         <v>4</v>
@@ -41012,7 +41090,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B8" s="12">
         <v>4</v>
@@ -41443,12 +41521,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C20">
-    <cfRule type="cellIs" dxfId="102" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="2" operator="greaterThan">
       <formula>1.63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="101" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41518,7 +41596,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="P2" t="s">
         <v>33</v>
@@ -41547,7 +41625,7 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -42761,7 +42839,7 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -43101,12 +43179,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C32">
-    <cfRule type="cellIs" dxfId="93" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="2" operator="greaterThan">
       <formula>2.599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="92" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43184,7 +43262,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="P2" t="s">
         <v>33</v>
@@ -43273,19 +43351,19 @@
         <v>197</v>
       </c>
       <c r="X3" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB3" t="s">
         <v>304</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>307</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -43454,7 +43532,7 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -43536,7 +43614,7 @@
     </row>
     <row r="7" spans="1:28">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -43700,7 +43778,7 @@
     </row>
     <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -43782,7 +43860,7 @@
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -43864,7 +43942,7 @@
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -45241,7 +45319,7 @@
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -45323,7 +45401,7 @@
     </row>
     <row r="29" spans="1:28">
       <c r="A29" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -45405,7 +45483,7 @@
     </row>
     <row r="30" spans="1:28">
       <c r="A30" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -45487,7 +45565,7 @@
     </row>
     <row r="31" spans="1:28">
       <c r="A31" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -45561,7 +45639,7 @@
         <v>650</v>
       </c>
       <c r="X31" s="40" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="Y31" s="40">
         <v>30</v>
@@ -45573,7 +45651,7 @@
         <v>12.9</v>
       </c>
       <c r="AB31" s="40" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -46152,7 +46230,7 @@
     </row>
     <row r="39" spans="1:28">
       <c r="A39" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -48807,12 +48885,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C997">
-    <cfRule type="cellIs" dxfId="81" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="2" operator="greaterThan">
       <formula>3.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O123">
-    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50022,7 +50100,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="48" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B18" s="7">
         <v>4</v>
@@ -50623,12 +50701,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C37">
-    <cfRule type="cellIs" dxfId="65" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="2" operator="greaterThan">
       <formula>2.639</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51567,7 +51645,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C32">
-    <cfRule type="cellIs" dxfId="54" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="greaterThan">
       <formula>4.429</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51884,7 +51962,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -52635,7 +52713,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C20">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="greaterThan">
       <formula>3.51</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52690,7 +52768,7 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>248</v>
@@ -52702,10 +52780,10 @@
         <v>251</v>
       </c>
       <c r="O1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="S1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="V1" s="40" t="s">
         <v>203</v>
@@ -52820,7 +52898,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B4" s="12">
         <v>4</v>
@@ -52894,21 +52972,21 @@
         <v>755</v>
       </c>
       <c r="X4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Y4" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Z4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C5" s="2" t="e">
         <f>SUM(((Table1681011124[[#This Row],[Avg DPS]]*(Table1681011124[[#This Row],[Range]]))+(Table1681011124[[#This Row],[Avg DPS]]*Table1681011124[[#This Row],[Arm Pen (%)]]))/100)</f>
@@ -52937,7 +53015,7 @@
         <v>86</v>
       </c>
       <c r="Z5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -53128,7 +53206,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C11">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="greaterThan">
       <formula>3.51</formula>
     </cfRule>
   </conditionalFormatting>
@@ -53142,15 +53220,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE16"/>
+  <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="5" width="10.42578125" customWidth="1"/>
@@ -53170,15 +53248,18 @@
     <col min="20" max="20" width="14.42578125" customWidth="1"/>
     <col min="21" max="21" width="12.42578125" customWidth="1"/>
     <col min="22" max="22" width="8.85546875" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" customWidth="1"/>
-    <col min="24" max="26" width="13.28515625" customWidth="1"/>
-    <col min="27" max="27" width="9" customWidth="1"/>
-    <col min="28" max="28" width="28.85546875" customWidth="1"/>
-    <col min="29" max="30" width="11.5703125" customWidth="1"/>
-    <col min="31" max="31" width="11.28515625" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" style="40" customWidth="1"/>
+    <col min="25" max="25" width="9.28515625" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" customWidth="1"/>
+    <col min="27" max="27" width="8.28515625" customWidth="1"/>
+    <col min="28" max="28" width="9" customWidth="1"/>
+    <col min="29" max="29" width="28.85546875" customWidth="1"/>
+    <col min="30" max="31" width="11.5703125" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -53186,7 +53267,7 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>248</v>
@@ -53198,14 +53279,14 @@
         <v>251</v>
       </c>
       <c r="S1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
       <c r="Y1" s="40"/>
       <c r="Z1" s="40"/>
-    </row>
-    <row r="2" spans="1:31">
+      <c r="AA1" s="40"/>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -53228,11 +53309,11 @@
         <v>32</v>
       </c>
       <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
       <c r="Y2" s="40"/>
       <c r="Z2" s="40"/>
-    </row>
-    <row r="3" spans="1:31">
+      <c r="AA2" s="40"/>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -53291,7 +53372,7 @@
         <v>17</v>
       </c>
       <c r="T3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="U3" t="s">
         <v>72</v>
@@ -53300,724 +53381,1774 @@
         <v>73</v>
       </c>
       <c r="W3" t="s">
-        <v>313</v>
-      </c>
-      <c r="X3" t="s">
-        <v>326</v>
+        <v>318</v>
+      </c>
+      <c r="X3" s="40" t="s">
+        <v>330</v>
       </c>
       <c r="Y3" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Z3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="AA3" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="AB3" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC3" t="s">
         <v>243</v>
       </c>
-      <c r="AC3" t="s">
-        <v>318</v>
-      </c>
       <c r="AD3" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="AE3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
-      <c r="A4" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>311</v>
+    <row r="4" spans="1:32">
+      <c r="A4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>306</v>
       </c>
       <c r="C4" s="2">
         <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>5.3852663068100028</v>
+        <v>10.846179310344828</v>
       </c>
       <c r="D4" s="3">
         <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
-        <v>11.732606332919396</v>
+        <v>13.406896551724138</v>
       </c>
       <c r="E4" s="2">
         <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
-        <v>32.818479252921385</v>
+        <v>24.827586206896552</v>
       </c>
       <c r="F4">
-        <v>30.9</v>
+        <v>40.9</v>
       </c>
       <c r="G4" s="2">
         <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.35750000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
         <v>0.5</v>
       </c>
-      <c r="J4">
-        <v>15</v>
-      </c>
-      <c r="K4">
-        <v>20</v>
-      </c>
-      <c r="L4">
-        <v>2.25</v>
-      </c>
-      <c r="M4">
-        <v>0.4</v>
-      </c>
       <c r="N4">
-        <v>512.29</v>
+        <v>300</v>
       </c>
       <c r="O4" s="2">
         <f>60/N4</f>
-        <v>0.11712116184192548</v>
+        <v>0.2</v>
       </c>
       <c r="P4">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="Q4">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="R4">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.48</v>
       </c>
       <c r="T4">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="U4">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="V4">
-        <v>29</v>
-      </c>
-      <c r="W4" t="s">
-        <v>86</v>
-      </c>
-      <c r="X4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4">
+        <v>100</v>
+      </c>
+      <c r="X4" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y4">
+        <v>60</v>
+      </c>
+      <c r="Z4">
+        <v>20</v>
+      </c>
+      <c r="AA4" s="2">
+        <f>Table16810111245[[#This Row],[Ammo]]/Table16810111245[[#This Row],[Rearm Cost]]</f>
+        <v>0.6</v>
+      </c>
+      <c r="AC4" s="56" t="s">
         <v>325</v>
       </c>
-      <c r="Y4">
-        <v>200</v>
-      </c>
-      <c r="Z4">
-        <v>10</v>
-      </c>
-      <c r="AA4">
-        <v>535</v>
-      </c>
-      <c r="AB4" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC4" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD4" s="56">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>311</v>
+      <c r="AD4" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE4" s="56">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>306</v>
       </c>
       <c r="C5" s="2">
         <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>7.8662499999999973</v>
+        <v>10.347443181818182</v>
       </c>
       <c r="D5" s="3">
         <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
-        <v>12.916666666666663</v>
+        <v>7.6704545454545459</v>
       </c>
       <c r="E5" s="2">
         <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
-        <v>33.333333333333329</v>
+        <v>13.636363636363637</v>
       </c>
       <c r="F5">
-        <v>35.9</v>
+        <v>54.9</v>
       </c>
       <c r="G5" s="2">
         <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.38749999999999996</v>
+        <v>0.5625</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="J5">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="M5">
         <v>0.5</v>
       </c>
       <c r="N5">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" ref="O5:O13" si="0">60/N5</f>
-        <v>0.13333333333333333</v>
+        <v>5</v>
       </c>
       <c r="P5">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="Q5">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="R5">
-        <v>0.56999999999999995</v>
+        <v>0.7</v>
       </c>
       <c r="S5">
-        <v>0.37</v>
+        <v>0.95</v>
       </c>
       <c r="T5">
-        <v>3.9</v>
+        <v>11.9</v>
       </c>
       <c r="U5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V5">
-        <v>58</v>
-      </c>
-      <c r="W5" t="s">
-        <v>86</v>
-      </c>
-      <c r="X5" t="s">
-        <v>325</v>
+        <v>90</v>
+      </c>
+      <c r="W5">
+        <v>40</v>
+      </c>
+      <c r="X5" s="40" t="s">
+        <v>332</v>
       </c>
       <c r="Y5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Z5">
         <v>10</v>
       </c>
-      <c r="AA5">
-        <v>970</v>
-      </c>
-      <c r="AB5" s="56" t="s">
-        <v>272</v>
+      <c r="AA5" s="2">
+        <f>Table16810111245[[#This Row],[Ammo]]/Table16810111245[[#This Row],[Rearm Cost]]</f>
+        <v>0.25</v>
       </c>
       <c r="AC5" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD5" s="56">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
+        <v>328</v>
+      </c>
+      <c r="AD5" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE5" s="56">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" s="14" t="s">
-        <v>256</v>
+        <v>342</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="C6" s="2" t="e">
+        <v>306</v>
+      </c>
+      <c r="C6" s="2">
         <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D6" s="3" t="e">
+        <v>7.8662499999999973</v>
+      </c>
+      <c r="D6" s="3">
         <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="2" t="e">
+        <v>12.916666666666663</v>
+      </c>
+      <c r="E6" s="2">
         <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="F6">
+        <v>35.9</v>
       </c>
       <c r="G6" s="2">
         <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.38749999999999996</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>25</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>2.5</v>
+      </c>
+      <c r="M6">
+        <v>0.5</v>
+      </c>
+      <c r="N6">
+        <v>450</v>
+      </c>
+      <c r="O6" s="2">
+        <f>60/N6</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P6">
+        <v>0.24</v>
+      </c>
+      <c r="Q6">
+        <v>0.37</v>
+      </c>
+      <c r="R6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="S6">
+        <v>0.37</v>
+      </c>
+      <c r="T6">
+        <v>3.9</v>
+      </c>
+      <c r="U6">
+        <v>100</v>
       </c>
       <c r="V6">
-        <v>39</v>
-      </c>
-      <c r="W6" t="s">
+        <v>58</v>
+      </c>
+      <c r="W6">
+        <v>50</v>
+      </c>
+      <c r="X6" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y6">
+        <v>200</v>
+      </c>
+      <c r="Z6">
+        <v>20</v>
+      </c>
+      <c r="AA6" s="2">
+        <f>Table16810111245[[#This Row],[Ammo]]/Table16810111245[[#This Row],[Rearm Cost]]</f>
+        <v>4</v>
+      </c>
+      <c r="AC6" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="AD6" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD6" s="56">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
+      <c r="AE6" s="56">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" s="14" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="C7" s="2" t="e">
+        <v>306</v>
+      </c>
+      <c r="C7" s="2">
         <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="3" t="e">
+        <v>5.3852663068100028</v>
+      </c>
+      <c r="D7" s="3">
         <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="2" t="e">
+        <v>11.732606332919396</v>
+      </c>
+      <c r="E7" s="2">
         <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>32.818479252921385</v>
+      </c>
+      <c r="F7">
+        <v>30.9</v>
       </c>
       <c r="G7" s="2">
         <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.35750000000000004</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>0.5</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>2.25</v>
+      </c>
+      <c r="M7">
+        <v>0.4</v>
+      </c>
+      <c r="N7">
+        <v>512.29</v>
+      </c>
+      <c r="O7" s="2">
+        <f>60/N7</f>
+        <v>0.11712116184192548</v>
+      </c>
+      <c r="P7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q7">
+        <v>0.4</v>
+      </c>
+      <c r="R7">
+        <v>0.5</v>
+      </c>
+      <c r="S7">
+        <v>0.25</v>
+      </c>
+      <c r="T7">
+        <v>2.9</v>
+      </c>
+      <c r="U7">
+        <v>70</v>
       </c>
       <c r="V7">
-        <v>26.6</v>
-      </c>
-      <c r="W7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W7">
+        <v>50</v>
+      </c>
+      <c r="X7" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y7">
+        <v>400</v>
+      </c>
+      <c r="Z7">
+        <v>20</v>
+      </c>
+      <c r="AA7" s="2">
+        <f>Table16810111245[[#This Row],[Ammo]]/Table16810111245[[#This Row],[Rearm Cost]]</f>
+        <v>8</v>
+      </c>
+      <c r="AC7" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD7" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="AB7" s="56"/>
-      <c r="AC7" s="56" t="s">
+      <c r="AE7" s="56">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" s="2">
+        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>5.3785074626865663</v>
+      </c>
+      <c r="D8" s="3">
+        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
+        <v>12.53731343283582</v>
+      </c>
+      <c r="E8" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
+        <v>41.791044776119399</v>
+      </c>
+      <c r="F8">
+        <v>30.9</v>
+      </c>
+      <c r="G8" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.3</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+      <c r="J8">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <v>35</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1200</v>
+      </c>
+      <c r="O8" s="2">
+        <f>60/N8</f>
+        <v>0.05</v>
+      </c>
+      <c r="P8">
+        <v>0.2</v>
+      </c>
+      <c r="Q8">
+        <v>0.3</v>
+      </c>
+      <c r="R8">
+        <v>0.45</v>
+      </c>
+      <c r="S8">
+        <v>0.25</v>
+      </c>
+      <c r="T8">
+        <v>2.9</v>
+      </c>
+      <c r="U8">
+        <v>70</v>
+      </c>
+      <c r="V8">
+        <v>39</v>
+      </c>
+      <c r="W8">
+        <v>50</v>
+      </c>
+      <c r="X8" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y8">
+        <v>700</v>
+      </c>
+      <c r="Z8">
+        <v>20</v>
+      </c>
+      <c r="AA8" s="2">
+        <f>Table16810111245[[#This Row],[Ammo]]/Table16810111245[[#This Row],[Rearm Cost]]</f>
+        <v>14</v>
+      </c>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD8" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="AD7" s="56"/>
-      <c r="AE7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="72" t="s">
-        <v>312</v>
-      </c>
-      <c r="B8" s="73" t="s">
+      <c r="AE8" s="56">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" s="2">
+        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>7.3183384615384606</v>
+      </c>
+      <c r="D9" s="3">
+        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
+        <v>9.046153846153846</v>
+      </c>
+      <c r="E9" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
+        <v>18.461538461538463</v>
+      </c>
+      <c r="F9">
+        <v>40.9</v>
+      </c>
+      <c r="G9" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="H9">
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>40</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>3.5</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>300</v>
+      </c>
+      <c r="O9" s="2">
+        <f>60/N9</f>
+        <v>0.2</v>
+      </c>
+      <c r="P9">
+        <v>0.25</v>
+      </c>
+      <c r="Q9">
+        <v>0.7</v>
+      </c>
+      <c r="R9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="S9">
+        <v>0.43</v>
+      </c>
+      <c r="T9">
+        <v>5.5</v>
+      </c>
+      <c r="U9">
+        <v>120</v>
+      </c>
+      <c r="V9">
+        <v>55</v>
+      </c>
+      <c r="W9">
+        <v>100</v>
+      </c>
+      <c r="X9" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y9">
+        <v>60</v>
+      </c>
+      <c r="Z9">
+        <v>20</v>
+      </c>
+      <c r="AA9" s="2">
+        <f>Table16810111245[[#This Row],[Ammo]]/Table16810111245[[#This Row],[Rearm Cost]]</f>
+        <v>0.6</v>
+      </c>
+      <c r="AC9" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD9" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE9" s="56">
+        <v>-150</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="72" customFormat="1">
+      <c r="A10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="2">
+        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>8.0901619999999994</v>
+      </c>
+      <c r="D10" s="3">
+        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
+        <v>8.0180000000000007</v>
+      </c>
+      <c r="E10" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
+        <v>15.2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>45.9</v>
+      </c>
+      <c r="G10" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.52750000000000008</v>
+      </c>
+      <c r="H10" s="7">
+        <v>38</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="J10" s="7">
+        <v>55</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="S10" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T10" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="U10" s="7">
+        <v>150</v>
+      </c>
+      <c r="V10" s="7">
+        <v>65</v>
+      </c>
+      <c r="W10" s="7">
+        <v>100</v>
+      </c>
+      <c r="X10" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>40</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>40</v>
+      </c>
+      <c r="AA10" s="2">
+        <f>Table16810111245[[#This Row],[Ammo]]/Table16810111245[[#This Row],[Rearm Cost]]</f>
+        <v>0.4</v>
+      </c>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="AD10" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE10" s="76">
+        <v>-200</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11" s="2">
+        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>7.89947770700637</v>
+      </c>
+      <c r="D11" s="3">
+        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
+        <v>13.643312101910828</v>
+      </c>
+      <c r="E11" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
+        <v>32.101910828025474</v>
+      </c>
+      <c r="F11">
+        <v>32.9</v>
+      </c>
+      <c r="G11" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="H11">
+        <v>14</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>12</v>
+      </c>
+      <c r="L11">
+        <v>4.5</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>900</v>
+      </c>
+      <c r="O11" s="2">
+        <f>60/N11</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="P11">
+        <v>0.35</v>
+      </c>
+      <c r="Q11">
+        <v>0.45</v>
+      </c>
+      <c r="R11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S11">
+        <v>0.35</v>
+      </c>
+      <c r="T11">
+        <v>3.9</v>
+      </c>
+      <c r="U11">
+        <v>100</v>
+      </c>
+      <c r="V11">
+        <v>45</v>
+      </c>
+      <c r="W11">
+        <v>100</v>
+      </c>
+      <c r="X11" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y11">
+        <v>240</v>
+      </c>
+      <c r="Z11">
+        <v>20</v>
+      </c>
+      <c r="AA11" s="2">
+        <f>Table16810111245[[#This Row],[Ammo]]/Table16810111245[[#This Row],[Rearm Cost]]</f>
+        <v>2.4</v>
+      </c>
+      <c r="AC11" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="AD11" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE11" s="56">
+        <v>-100</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C12" s="2">
+        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>5.831783999999999</v>
+      </c>
+      <c r="D12" s="3">
+        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
+        <v>9.5759999999999987</v>
+      </c>
+      <c r="E12" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
+        <v>20.16</v>
+      </c>
+      <c r="F12">
+        <v>35.9</v>
+      </c>
+      <c r="G12" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="H12">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <v>3.5</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>450</v>
+      </c>
+      <c r="O12" s="2">
+        <f>60/N12</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P12">
+        <v>0.4</v>
+      </c>
+      <c r="Q12">
+        <v>0.5</v>
+      </c>
+      <c r="R12">
+        <v>0.6</v>
+      </c>
+      <c r="S12">
+        <v>0.4</v>
+      </c>
+      <c r="T12">
+        <v>2.9</v>
+      </c>
+      <c r="U12">
+        <v>100</v>
+      </c>
+      <c r="V12">
+        <v>25</v>
+      </c>
+      <c r="W12">
+        <v>100</v>
+      </c>
+      <c r="X12" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y12">
+        <v>240</v>
+      </c>
+      <c r="Z12">
+        <v>40</v>
+      </c>
+      <c r="AA12" s="2">
+        <f>Table16810111245[[#This Row],[Ammo]]/Table16810111245[[#This Row],[Rearm Cost]]</f>
+        <v>2.4</v>
+      </c>
+      <c r="AC12" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD12" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE12" s="56">
+        <v>-100</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="72" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C13" s="74">
+        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>7.8369750262085036</v>
+      </c>
+      <c r="D13" s="74">
+        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
+        <v>10.750308677926618</v>
+      </c>
+      <c r="E13" s="74">
+        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
+        <v>19.907979033197439</v>
+      </c>
+      <c r="F13" s="72">
+        <v>32.9</v>
+      </c>
+      <c r="G13" s="74">
+        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.54</v>
+      </c>
+      <c r="H13" s="72">
+        <v>27</v>
+      </c>
+      <c r="I13" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="72">
+        <v>40</v>
+      </c>
+      <c r="K13" s="72">
+        <v>3</v>
+      </c>
+      <c r="L13" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="M13" s="72">
+        <v>0</v>
+      </c>
+      <c r="N13" s="72">
+        <v>211</v>
+      </c>
+      <c r="O13" s="74">
+        <f>60/N13</f>
+        <v>0.28436018957345971</v>
+      </c>
+      <c r="P13" s="72">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q13" s="72">
+        <v>0.72</v>
+      </c>
+      <c r="R13" s="72">
+        <v>0.66</v>
+      </c>
+      <c r="S13" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="T13" s="72">
+        <v>8.9</v>
+      </c>
+      <c r="U13" s="72">
+        <v>88</v>
+      </c>
+      <c r="V13" s="72">
+        <v>100</v>
+      </c>
+      <c r="W13" s="72"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="72">
+        <v>1217</v>
+      </c>
+      <c r="AC13" s="75" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD13" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE13" s="75">
+        <v>-150</v>
+      </c>
+      <c r="AF13" s="72" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="74">
         <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>1.2320756756756757</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D14" s="74">
         <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
         <v>2.6270270270270273</v>
       </c>
-      <c r="E8" s="74">
+      <c r="E14" s="74">
         <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
         <v>4.8648648648648649</v>
       </c>
-      <c r="F8" s="72">
+      <c r="F14" s="72">
         <v>28.9</v>
       </c>
-      <c r="G8" s="74">
+      <c r="G14" s="74">
         <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0.54</v>
       </c>
-      <c r="H8" s="72">
+      <c r="H14" s="72">
         <v>12</v>
       </c>
-      <c r="I8" s="72">
+      <c r="I14" s="72">
         <v>0.5</v>
       </c>
-      <c r="J8" s="72">
+      <c r="J14" s="72">
         <v>18</v>
       </c>
-      <c r="K8" s="72">
+      <c r="K14" s="72">
         <v>2</v>
       </c>
-      <c r="L8" s="72">
+      <c r="L14" s="72">
         <v>4.8</v>
       </c>
-      <c r="M8" s="72">
-        <v>0</v>
-      </c>
-      <c r="N8" s="72">
+      <c r="M14" s="72">
+        <v>0</v>
+      </c>
+      <c r="N14" s="72">
         <v>450</v>
       </c>
-      <c r="O8" s="74">
-        <f t="shared" si="0"/>
+      <c r="O14" s="74">
+        <f>60/N14</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="P8" s="72">
+      <c r="P14" s="72">
         <v>0.77</v>
       </c>
-      <c r="Q8" s="72">
+      <c r="Q14" s="72">
         <v>0.7</v>
       </c>
-      <c r="R8" s="72">
+      <c r="R14" s="72">
         <v>0.45</v>
       </c>
-      <c r="S8" s="72">
+      <c r="S14" s="72">
         <v>0.24</v>
       </c>
-      <c r="T8" s="72">
-        <v>0</v>
-      </c>
-      <c r="U8" s="72">
+      <c r="T14" s="72">
+        <v>0</v>
+      </c>
+      <c r="U14" s="72">
         <v>70</v>
       </c>
-      <c r="V8" s="72">
+      <c r="V14" s="72">
         <v>13</v>
       </c>
-      <c r="W8" s="72" t="s">
+      <c r="W14" s="72"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="72">
+        <v>197</v>
+      </c>
+      <c r="AC14" s="75" t="s">
+        <v>335</v>
+      </c>
+      <c r="AD14" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72">
-        <v>197</v>
-      </c>
-      <c r="AB8" s="75" t="s">
-        <v>319</v>
-      </c>
-      <c r="AC8" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD8" s="75">
+      <c r="AE14" s="75">
         <v>-80</v>
       </c>
-      <c r="AE8" s="72" t="s">
+      <c r="AF14" s="72" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="72" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="72" t="s">
-        <v>317</v>
-      </c>
-      <c r="B9" s="73" t="s">
+      <c r="B15" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="74">
-        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>7.8369750262085036</v>
-      </c>
-      <c r="D9" s="74">
-        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
-        <v>10.750308677926618</v>
-      </c>
-      <c r="E9" s="74">
-        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
-        <v>19.907979033197439</v>
-      </c>
-      <c r="F9" s="72">
-        <v>32.9</v>
-      </c>
-      <c r="G9" s="74">
-        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0.54</v>
-      </c>
-      <c r="H9" s="72">
-        <v>27</v>
-      </c>
-      <c r="I9" s="72">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="72">
-        <v>40</v>
-      </c>
-      <c r="K9" s="72">
-        <v>3</v>
-      </c>
-      <c r="L9" s="72">
-        <v>3.5</v>
-      </c>
-      <c r="M9" s="72">
-        <v>0</v>
-      </c>
-      <c r="N9" s="72">
-        <v>211</v>
-      </c>
-      <c r="O9" s="74">
-        <f t="shared" si="0"/>
-        <v>0.28436018957345971</v>
-      </c>
-      <c r="P9" s="72">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="Q9" s="72">
-        <v>0.72</v>
-      </c>
-      <c r="R9" s="72">
-        <v>0.66</v>
-      </c>
-      <c r="S9" s="72">
-        <v>0.5</v>
-      </c>
-      <c r="T9" s="72">
-        <v>8.9</v>
-      </c>
-      <c r="U9" s="72">
-        <v>88</v>
-      </c>
-      <c r="V9" s="72">
-        <v>100</v>
-      </c>
-      <c r="W9" s="72" t="s">
-        <v>86</v>
-      </c>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="72"/>
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="72">
-        <v>1217</v>
-      </c>
-      <c r="AB9" s="75" t="s">
-        <v>320</v>
-      </c>
-      <c r="AC9" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD9" s="75">
-        <v>-150</v>
-      </c>
-      <c r="AE9" s="72" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" s="72" customFormat="1">
-      <c r="A10" s="72" t="s">
-        <v>323</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="74">
+      <c r="C15" s="74">
         <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>10.6616640625</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D15" s="74">
         <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
         <v>8.3359375</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E15" s="74">
         <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
         <v>17.1875</v>
       </c>
-      <c r="F10" s="72">
+      <c r="F15" s="72">
         <v>45.9</v>
       </c>
-      <c r="G10" s="74">
+      <c r="G15" s="74">
         <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0.48499999999999999</v>
       </c>
-      <c r="H10" s="72">
+      <c r="H15" s="72">
         <v>55</v>
       </c>
-      <c r="I10" s="72">
+      <c r="I15" s="72">
         <v>0.5</v>
       </c>
-      <c r="J10" s="72">
+      <c r="J15" s="72">
         <v>82</v>
       </c>
-      <c r="K10" s="72">
-        <v>1</v>
-      </c>
-      <c r="L10" s="72">
+      <c r="K15" s="72">
+        <v>1</v>
+      </c>
+      <c r="L15" s="72">
         <v>3.2</v>
       </c>
-      <c r="M10" s="72">
-        <v>0</v>
-      </c>
-      <c r="N10" s="72">
-        <v>0</v>
-      </c>
-      <c r="O10" s="74">
+      <c r="M15" s="72">
+        <v>0</v>
+      </c>
+      <c r="N15" s="72">
+        <v>0</v>
+      </c>
+      <c r="O15" s="74">
         <v>3.2</v>
       </c>
-      <c r="P10" s="72">
+      <c r="P15" s="72">
         <v>0.22</v>
       </c>
-      <c r="Q10" s="72">
+      <c r="Q15" s="72">
         <v>0.33</v>
       </c>
-      <c r="R10" s="72">
+      <c r="R15" s="72">
         <v>0.44</v>
       </c>
-      <c r="S10" s="72">
+      <c r="S15" s="72">
         <v>0.95</v>
       </c>
-      <c r="T10" s="72">
+      <c r="T15" s="72">
         <v>11.9</v>
       </c>
-      <c r="U10" s="72">
+      <c r="U15" s="72">
         <v>120</v>
       </c>
-      <c r="V10" s="72">
+      <c r="V15" s="72">
         <v>40</v>
       </c>
-      <c r="W10" s="72" t="s">
+      <c r="W15" s="72"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="72">
+        <v>1602</v>
+      </c>
+      <c r="AC15" s="75" t="s">
+        <v>317</v>
+      </c>
+      <c r="AD15" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE15" s="75">
+        <v>-150</v>
+      </c>
+      <c r="AF15" s="72" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="4" customFormat="1">
+      <c r="A16" t="s">
+        <v>338</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="C16" s="2">
+        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>1.4138888888888888</v>
+      </c>
+      <c r="D16" s="3">
+        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="E16" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="F16">
+        <v>35.9</v>
+      </c>
+      <c r="G16" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H16">
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>3.5</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="P16">
+        <v>0.4</v>
+      </c>
+      <c r="Q16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R16">
+        <v>0.65</v>
+      </c>
+      <c r="S16">
+        <v>0.4</v>
+      </c>
+      <c r="T16">
+        <v>8.9</v>
+      </c>
+      <c r="U16">
+        <v>60</v>
+      </c>
+      <c r="V16">
+        <v>20</v>
+      </c>
+      <c r="W16">
+        <v>60</v>
+      </c>
+      <c r="X16" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y16">
+        <v>5</v>
+      </c>
+      <c r="Z16">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="2">
+        <f>Table16810111245[[#This Row],[Ammo]]/Table16810111245[[#This Row],[Rearm Cost]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AB16"/>
+      <c r="AC16" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD16" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="AA10" s="72">
-        <v>1602</v>
-      </c>
-      <c r="AB10" s="75" t="s">
-        <v>324</v>
-      </c>
-      <c r="AC10" s="75" t="s">
+      <c r="AE16" s="56">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="2">
+        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>3.6183673469387747</v>
+      </c>
+      <c r="D17" s="3">
+        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
+        <v>9.1836734693877542</v>
+      </c>
+      <c r="E17" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
+        <v>18.367346938775508</v>
+      </c>
+      <c r="F17">
+        <v>30.9</v>
+      </c>
+      <c r="G17" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H17">
+        <v>30</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>8.5</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>0.5</v>
+      </c>
+      <c r="N17">
+        <v>300</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" ref="O17:O27" si="0">60/N17</f>
+        <v>0.2</v>
+      </c>
+      <c r="P17">
+        <v>0.4</v>
+      </c>
+      <c r="Q17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R17">
+        <v>0.65</v>
+      </c>
+      <c r="S17">
+        <v>0.4</v>
+      </c>
+      <c r="T17">
+        <v>5.9</v>
+      </c>
+      <c r="U17">
+        <v>40</v>
+      </c>
+      <c r="V17">
+        <v>40</v>
+      </c>
+      <c r="W17">
+        <v>100</v>
+      </c>
+      <c r="X17" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y17">
+        <v>33</v>
+      </c>
+      <c r="Z17">
+        <v>11</v>
+      </c>
+      <c r="AA17" s="2">
+        <f>Table16810111245[[#This Row],[Ammo]]/Table16810111245[[#This Row],[Rearm Cost]]</f>
+        <v>0.33</v>
+      </c>
+      <c r="AC17" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="AD17" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE17" s="56">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32">
+      <c r="A18" t="s">
+        <v>348</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" s="2">
+        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>7.9324528301886792</v>
+      </c>
+      <c r="D18" s="3">
+        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
+        <v>18.490566037735849</v>
+      </c>
+      <c r="E18" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
+        <v>61.635220125786162</v>
+      </c>
+      <c r="F18">
+        <v>30.9</v>
+      </c>
+      <c r="G18" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0.3</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>12</v>
+      </c>
+      <c r="K18">
+        <v>70</v>
+      </c>
+      <c r="L18">
+        <v>4.5</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1200</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="P18">
+        <v>0.2</v>
+      </c>
+      <c r="Q18">
+        <v>0.3</v>
+      </c>
+      <c r="R18">
+        <v>0.45</v>
+      </c>
+      <c r="S18">
+        <v>0.25</v>
+      </c>
+      <c r="T18">
+        <v>8.9</v>
+      </c>
+      <c r="U18">
+        <v>70</v>
+      </c>
+      <c r="V18">
+        <v>100</v>
+      </c>
+      <c r="W18">
+        <v>200</v>
+      </c>
+      <c r="X18" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y18">
+        <v>700</v>
+      </c>
+      <c r="Z18">
+        <v>10</v>
+      </c>
+      <c r="AA18" s="2">
+        <f>Table16810111245[[#This Row],[Ammo]]/Table16810111245[[#This Row],[Rearm Cost]]</f>
+        <v>3.5</v>
+      </c>
+      <c r="AC18" s="56" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD18" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="AD10" s="75">
-        <v>-150</v>
-      </c>
-      <c r="AE10" s="72" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="A11" s="39"/>
-      <c r="C11" s="2" t="e">
+      <c r="AE18" s="56">
+        <v>-200</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32">
+      <c r="B19" s="40"/>
+      <c r="C19" s="2" t="e">
         <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D11" s="3" t="e">
+      <c r="D19" s="3" t="e">
         <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E11" s="2" t="e">
+      <c r="E19" s="2" t="e">
         <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G19" s="2">
         <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="2" t="e">
+      <c r="O19" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="12" spans="1:31">
-      <c r="A12" s="39"/>
-      <c r="C12" s="2" t="e">
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="56"/>
+    </row>
+    <row r="20" spans="1:32">
+      <c r="B20" s="40"/>
+      <c r="C20" s="2" t="e">
         <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D12" s="3" t="e">
+      <c r="D20" s="3" t="e">
         <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E12" s="2" t="e">
+      <c r="E20" s="2" t="e">
         <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G20" s="2">
         <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
-      <c r="O12" s="2" t="e">
+      <c r="O20" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="13" spans="1:31">
-      <c r="A13" s="54"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="2" t="e">
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+    </row>
+    <row r="21" spans="1:32">
+      <c r="B21" s="40"/>
+      <c r="C21" s="2" t="e">
         <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D13" s="3" t="e">
+      <c r="D21" s="3" t="e">
         <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E13" s="2" t="e">
+      <c r="E21" s="2" t="e">
         <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="2">
+      <c r="G21" s="2">
         <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="2" t="e">
+      <c r="O21" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-    </row>
-    <row r="16" spans="1:31" s="4" customFormat="1">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
-      <c r="AE16"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="56"/>
+    </row>
+    <row r="22" spans="1:32">
+      <c r="B22" s="40"/>
+      <c r="C22" s="2" t="e">
+        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D22" s="3" t="e">
+        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="2" t="e">
+        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="56"/>
+    </row>
+    <row r="23" spans="1:32">
+      <c r="B23" s="40"/>
+      <c r="C23" s="2" t="e">
+        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D23" s="3" t="e">
+        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" s="2" t="e">
+        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="56"/>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="B24" s="40"/>
+      <c r="C24" s="2" t="e">
+        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="3" t="e">
+        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="2" t="e">
+        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD24" s="56"/>
+      <c r="AE24" s="56"/>
+    </row>
+    <row r="25" spans="1:32">
+      <c r="B25" s="40"/>
+      <c r="C25" s="2" t="e">
+        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="3" t="e">
+        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="2" t="e">
+        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="56"/>
+    </row>
+    <row r="26" spans="1:32">
+      <c r="B26" s="40"/>
+      <c r="C26" s="2" t="e">
+        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="3" t="e">
+        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="2" t="e">
+        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="2">
+        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD26" s="56"/>
+      <c r="AE26" s="56"/>
+    </row>
+    <row r="27" spans="1:32">
+      <c r="A27" s="7"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="8" t="e">
+        <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="9" t="e">
+        <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="8" t="e">
+        <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8">
+        <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="76"/>
+      <c r="AE27" s="76"/>
+      <c r="AF27" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="352">
   <si>
     <t>Weapon Stats - Sleepy's Weapons</t>
   </si>
@@ -1047,9 +1047,6 @@
     <t>Tactical Mortar</t>
   </si>
   <si>
-    <t>Mounted Grenade Launcher</t>
-  </si>
-  <si>
     <t>350 S, 8 C</t>
   </si>
   <si>
@@ -1078,6 +1075,15 @@
   </si>
   <si>
     <t>350 S, 16 C, 60 P</t>
+  </si>
+  <si>
+    <t>Vortex Ring Sentry</t>
+  </si>
+  <si>
+    <t>150 S, 6 C</t>
+  </si>
+  <si>
+    <t>Mounted GMG</t>
   </si>
 </sst>
 </file>
@@ -53222,8 +53228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53413,7 +53419,7 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>306</v>
@@ -53514,7 +53520,7 @@
     </row>
     <row r="5" spans="1:32">
       <c r="A5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>306</v>
@@ -53614,7 +53620,7 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>306</v>
@@ -53715,7 +53721,7 @@
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>306</v>
@@ -54120,7 +54126,7 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B11" s="40" t="s">
         <v>306</v>
@@ -54221,7 +54227,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>306</v>
@@ -54687,7 +54693,7 @@
       </c>
       <c r="AB16"/>
       <c r="AC16" s="56" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AD16" s="56" t="s">
         <v>86</v>
@@ -54701,7 +54707,7 @@
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B17" s="40" t="s">
         <v>306</v>
@@ -54763,7 +54769,7 @@
         <v>0.4</v>
       </c>
       <c r="T17">
-        <v>5.9</v>
+        <v>8.9</v>
       </c>
       <c r="U17">
         <v>40</v>
@@ -54788,7 +54794,7 @@
         <v>0.33</v>
       </c>
       <c r="AC17" s="56" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AD17" s="56" t="s">
         <v>86</v>
@@ -54802,7 +54808,7 @@
     </row>
     <row r="18" spans="1:32">
       <c r="A18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B18" s="40" t="s">
         <v>306</v>
@@ -54889,7 +54895,7 @@
         <v>3.5</v>
       </c>
       <c r="AC18" s="56" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AD18" s="56" t="s">
         <v>87</v>
@@ -54902,29 +54908,101 @@
       </c>
     </row>
     <row r="19" spans="1:32">
-      <c r="B19" s="40"/>
-      <c r="C19" s="2" t="e">
+      <c r="A19" t="s">
+        <v>349</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" s="2">
         <f>SUM(((Table16810111245[[#This Row],[Avg DPS]]*(Table16810111245[[#This Row],[Range]]))+(Table16810111245[[#This Row],[Avg DPS]]*Table16810111245[[#This Row],[Arm Pen (%)]]))/100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="3" t="e">
+        <v>1.7950000000000004</v>
+      </c>
+      <c r="D19" s="3">
         <f>SUM(Table16810111245[[#This Row],[DPS]]*Table16810111245[[#This Row],[Avg Accuracy]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="2" t="e">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="E19" s="2">
         <f>SUM((Table16810111245[[#This Row],[Damage]]*Table16810111245[[#This Row],[Burst]])/(Table16810111245[[#This Row],[Ranged Cooldown]]+Table16810111245[[#This Row],[Warm-up]]+(Table16810111245[[#This Row],[Burst Time]]*(Table16810111245[[#This Row],[Burst]]-1))))</f>
-        <v>#DIV/0!</v>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F19">
+        <v>35.9</v>
       </c>
       <c r="G19" s="2">
         <f>SUM((Table16810111245[[#This Row],[Accuracy (Close)]]+Table16810111245[[#This Row],[Accuracy (Short)]]+Table16810111245[[#This Row],[Accuracy (Medium)]]+Table16810111245[[#This Row],[Accuracy (Long)]])/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="H19">
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>2.4</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>0.9</v>
+      </c>
+      <c r="Q19">
+        <v>0.8</v>
+      </c>
+      <c r="R19">
+        <v>0.7</v>
+      </c>
+      <c r="S19">
+        <v>0.6</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>65</v>
+      </c>
+      <c r="V19">
+        <v>40</v>
+      </c>
+      <c r="W19" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="X19" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y19" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z19" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA19" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC19" s="56" t="s">
+        <v>350</v>
       </c>
       <c r="AD19" s="56"/>
-      <c r="AE19" s="56"/>
+      <c r="AE19" s="56">
+        <v>-200</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="20" spans="1:32">
       <c r="B20" s="40"/>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -53228,8 +53228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -54836,7 +54836,7 @@
         <v>7</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J18">
         <v>12</v>
@@ -54870,7 +54870,7 @@
         <v>0.25</v>
       </c>
       <c r="T18">
-        <v>8.9</v>
+        <v>5.9</v>
       </c>
       <c r="U18">
         <v>70</v>

--- a/Resources/WeaponsStats.xlsx
+++ b/Resources/WeaponsStats.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="352">
   <si>
     <t>Weapon Stats - Sleepy's Weapons</t>
   </si>
@@ -990,13 +990,7 @@
     <t>Bursts</t>
   </si>
   <si>
-    <t>210 S, 4 C</t>
-  </si>
-  <si>
     <t>Mounted Minigun</t>
-  </si>
-  <si>
-    <t>325 S, 8 C</t>
   </si>
   <si>
     <t>30mm Sentry Turret</t>
@@ -1005,19 +999,7 @@
     <t>20mm Sentry Turret</t>
   </si>
   <si>
-    <t>350 S, 6 C, 30 P</t>
-  </si>
-  <si>
-    <t>350 S, 8 C, 30 P</t>
-  </si>
-  <si>
     <t>300 S, 8 C, 40 P</t>
-  </si>
-  <si>
-   